--- a/database/industries/zeraat/simorgh/product/monthly.xlsx
+++ b/database/industries/zeraat/simorgh/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D5121-7050-4D15-A356-925659515E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 11 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -312,7 +313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,7 +506,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -517,7 +518,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -564,6 +565,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -599,6 +617,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,17 +785,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -815,7 +850,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +907,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -929,7 +964,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -984,7 +1019,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1076,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1133,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1153,7 +1188,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1365,7 +1400,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1457,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1538,8 +1573,8 @@
       <c r="AN11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>57</v>
+      <c r="AO11" s="11">
+        <v>0</v>
       </c>
       <c r="AP11" s="11">
         <v>0</v>
@@ -1554,34 +1589,34 @@
         <v>0</v>
       </c>
       <c r="AT11" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AU11" s="11">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>114</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AZ11" s="11">
         <v>10</v>
       </c>
-      <c r="AX11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>114</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>9</v>
-      </c>
       <c r="BA11" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB11" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1670,20 +1705,20 @@
       <c r="AE12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>57</v>
+      <c r="AF12" s="13">
+        <v>1625</v>
       </c>
       <c r="AG12" s="13">
-        <v>1625</v>
+        <v>109</v>
       </c>
       <c r="AH12" s="13">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="AI12" s="13">
-        <v>244</v>
+        <v>1163</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="13">
         <v>0</v>
@@ -1703,8 +1738,8 @@
       <c r="AP12" s="13">
         <v>0</v>
       </c>
-      <c r="AQ12" s="13">
-        <v>0</v>
+      <c r="AQ12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR12" s="13" t="s">
         <v>57</v>
@@ -1740,7 +1775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1749,157 +1784,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>12909</v>
+        <v>3</v>
       </c>
       <c r="F13" s="11">
-        <v>3</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>57</v>
+      <c r="I13" s="11">
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L13" s="11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>273</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>3366</v>
+      </c>
+      <c r="R13" s="11">
+        <v>24</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>1</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>61</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>284</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>1292</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>66</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>119</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>8</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>221</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>650</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>91</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>12</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>138</v>
+      </c>
+      <c r="AX13" s="11">
         <v>139</v>
       </c>
-      <c r="O13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>273</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>3366</v>
-      </c>
-      <c r="S13" s="11">
-        <v>24</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <v>1</v>
-      </c>
-      <c r="V13" s="11">
-        <v>0</v>
-      </c>
-      <c r="W13" s="11">
-        <v>0</v>
-      </c>
-      <c r="X13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>61</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>40</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>284</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>1292</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>66</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>5</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>4</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>5</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>119</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>221</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>650</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>91</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>12</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>138</v>
-      </c>
       <c r="AY13" s="11">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="AZ13" s="11">
-        <v>68</v>
+        <v>465</v>
       </c>
       <c r="BA13" s="11">
-        <v>465</v>
+        <v>35</v>
       </c>
       <c r="BB13" s="11">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1908,157 +1943,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>3222</v>
+        <v>3061</v>
       </c>
       <c r="F14" s="13">
-        <v>3061</v>
+        <v>3782</v>
       </c>
       <c r="G14" s="13">
-        <v>3782</v>
+        <v>3436</v>
       </c>
       <c r="H14" s="13">
-        <v>3436</v>
+        <v>2981</v>
       </c>
       <c r="I14" s="13">
-        <v>2981</v>
+        <v>3824</v>
       </c>
       <c r="J14" s="13">
-        <v>3824</v>
+        <v>3803</v>
       </c>
       <c r="K14" s="13">
-        <v>3803</v>
+        <v>3296</v>
       </c>
       <c r="L14" s="13">
-        <v>3296</v>
+        <v>3018</v>
       </c>
       <c r="M14" s="13">
-        <v>3018</v>
+        <v>3508</v>
       </c>
       <c r="N14" s="13">
-        <v>3508</v>
+        <v>3336</v>
       </c>
       <c r="O14" s="13">
-        <v>3336</v>
+        <v>2805</v>
       </c>
       <c r="P14" s="13">
-        <v>2805</v>
+        <v>2963</v>
       </c>
       <c r="Q14" s="13">
-        <v>2963</v>
+        <v>3059</v>
       </c>
       <c r="R14" s="13">
-        <v>3059</v>
+        <v>2921</v>
       </c>
       <c r="S14" s="13">
-        <v>2921</v>
+        <v>3445</v>
       </c>
       <c r="T14" s="13">
-        <v>3445</v>
+        <v>2930</v>
       </c>
       <c r="U14" s="13">
-        <v>2930</v>
+        <v>1496</v>
       </c>
       <c r="V14" s="13">
-        <v>1496</v>
+        <v>1645</v>
       </c>
       <c r="W14" s="13">
-        <v>1645</v>
+        <v>1349</v>
       </c>
       <c r="X14" s="13">
-        <v>1349</v>
+        <v>991</v>
       </c>
       <c r="Y14" s="13">
-        <v>991</v>
+        <v>1042</v>
       </c>
       <c r="Z14" s="13">
-        <v>1042</v>
+        <v>1227</v>
       </c>
       <c r="AA14" s="13">
-        <v>1227</v>
+        <v>1334</v>
       </c>
       <c r="AB14" s="13">
-        <v>1334</v>
+        <v>1904</v>
       </c>
       <c r="AC14" s="13">
-        <v>1904</v>
+        <v>1080</v>
       </c>
       <c r="AD14" s="13">
-        <v>1080</v>
+        <v>1283</v>
       </c>
       <c r="AE14" s="13">
-        <v>1283</v>
+        <v>1707</v>
       </c>
       <c r="AF14" s="13">
-        <v>1707</v>
+        <v>1923</v>
       </c>
       <c r="AG14" s="13">
-        <v>1923</v>
+        <v>2389</v>
       </c>
       <c r="AH14" s="13">
-        <v>2389</v>
+        <v>1998</v>
       </c>
       <c r="AI14" s="13">
-        <v>1998</v>
+        <v>1918</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1918</v>
+        <v>1644</v>
       </c>
       <c r="AK14" s="13">
-        <v>1644</v>
+        <v>1539</v>
       </c>
       <c r="AL14" s="13">
-        <v>1539</v>
+        <v>1747</v>
       </c>
       <c r="AM14" s="13">
-        <v>1747</v>
+        <v>1149</v>
       </c>
       <c r="AN14" s="13">
-        <v>1149</v>
+        <v>1315</v>
       </c>
       <c r="AO14" s="13">
-        <v>1315</v>
+        <v>1546</v>
       </c>
       <c r="AP14" s="13">
-        <v>1546</v>
+        <v>1638</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1638</v>
+        <v>1854</v>
       </c>
       <c r="AR14" s="13">
-        <v>1854</v>
+        <v>2336</v>
       </c>
       <c r="AS14" s="13">
-        <v>2336</v>
+        <v>2423</v>
       </c>
       <c r="AT14" s="13">
-        <v>2423</v>
+        <v>1462</v>
       </c>
       <c r="AU14" s="13">
-        <v>1462</v>
+        <v>1303</v>
       </c>
       <c r="AV14" s="13">
-        <v>1303</v>
+        <v>1380</v>
       </c>
       <c r="AW14" s="13">
-        <v>1380</v>
+        <v>1591</v>
       </c>
       <c r="AX14" s="13">
-        <v>1591</v>
+        <v>1466</v>
       </c>
       <c r="AY14" s="13">
-        <v>1466</v>
+        <v>879</v>
       </c>
       <c r="AZ14" s="13">
-        <v>879</v>
+        <v>754</v>
       </c>
       <c r="BA14" s="13">
-        <v>754</v>
+        <v>1772</v>
       </c>
       <c r="BB14" s="13">
-        <v>1772</v>
+        <v>1706</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2067,157 +2102,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>5774</v>
+        <v>730587</v>
       </c>
       <c r="F15" s="11">
-        <v>730587</v>
+        <v>18948</v>
       </c>
       <c r="G15" s="11">
-        <v>18948</v>
+        <v>9123</v>
       </c>
       <c r="H15" s="11">
-        <v>9123</v>
+        <v>8549</v>
       </c>
       <c r="I15" s="11">
-        <v>8549</v>
+        <v>9275</v>
       </c>
       <c r="J15" s="11">
-        <v>9275</v>
+        <v>5947</v>
       </c>
       <c r="K15" s="11">
-        <v>5947</v>
+        <v>8803</v>
       </c>
       <c r="L15" s="11">
-        <v>8803</v>
+        <v>8151</v>
       </c>
       <c r="M15" s="11">
-        <v>8151</v>
+        <v>10954</v>
       </c>
       <c r="N15" s="11">
-        <v>10954</v>
+        <v>7599</v>
       </c>
       <c r="O15" s="11">
-        <v>7599</v>
+        <v>6974</v>
       </c>
       <c r="P15" s="11">
-        <v>6974</v>
+        <v>8489</v>
       </c>
       <c r="Q15" s="11">
-        <v>8489</v>
+        <v>8861</v>
       </c>
       <c r="R15" s="11">
-        <v>8861</v>
+        <v>13966</v>
       </c>
       <c r="S15" s="11">
-        <v>13966</v>
+        <v>5096</v>
       </c>
       <c r="T15" s="11">
-        <v>5096</v>
+        <v>7227</v>
       </c>
       <c r="U15" s="11">
-        <v>7227</v>
+        <v>5320</v>
       </c>
       <c r="V15" s="11">
-        <v>5320</v>
+        <v>4324</v>
       </c>
       <c r="W15" s="11">
-        <v>4324</v>
+        <v>6293</v>
       </c>
       <c r="X15" s="11">
-        <v>6293</v>
+        <v>5982</v>
       </c>
       <c r="Y15" s="11">
-        <v>5982</v>
+        <v>4537</v>
       </c>
       <c r="Z15" s="11">
-        <v>4537</v>
+        <v>4534</v>
       </c>
       <c r="AA15" s="11">
-        <v>4534</v>
+        <v>7079</v>
       </c>
       <c r="AB15" s="11">
-        <v>7079</v>
+        <v>9033</v>
       </c>
       <c r="AC15" s="11">
-        <v>9033</v>
+        <v>8019</v>
       </c>
       <c r="AD15" s="11">
-        <v>8019</v>
+        <v>13400</v>
       </c>
       <c r="AE15" s="11">
-        <v>13400</v>
+        <v>4784</v>
       </c>
       <c r="AF15" s="11">
-        <v>4784</v>
+        <v>5825</v>
       </c>
       <c r="AG15" s="11">
-        <v>5825</v>
+        <v>4998</v>
       </c>
       <c r="AH15" s="11">
-        <v>4998</v>
+        <v>8309</v>
       </c>
       <c r="AI15" s="11">
-        <v>8309</v>
+        <v>4622</v>
       </c>
       <c r="AJ15" s="11">
-        <v>4622</v>
+        <v>5655</v>
       </c>
       <c r="AK15" s="11">
-        <v>5655</v>
+        <v>5902</v>
       </c>
       <c r="AL15" s="11">
-        <v>5902</v>
+        <v>5281</v>
       </c>
       <c r="AM15" s="11">
-        <v>5281</v>
+        <v>6437</v>
       </c>
       <c r="AN15" s="11">
-        <v>6437</v>
+        <v>5880</v>
       </c>
       <c r="AO15" s="11">
-        <v>5880</v>
+        <v>5620</v>
       </c>
       <c r="AP15" s="11">
-        <v>5620</v>
+        <v>8209</v>
       </c>
       <c r="AQ15" s="11">
-        <v>8209</v>
+        <v>4779</v>
       </c>
       <c r="AR15" s="11">
-        <v>4779</v>
+        <v>6636</v>
       </c>
       <c r="AS15" s="11">
-        <v>6636</v>
+        <v>5435</v>
       </c>
       <c r="AT15" s="11">
-        <v>5435</v>
+        <v>4809</v>
       </c>
       <c r="AU15" s="11">
-        <v>4809</v>
+        <v>6108</v>
       </c>
       <c r="AV15" s="11">
-        <v>6108</v>
+        <v>11809</v>
       </c>
       <c r="AW15" s="11">
-        <v>11809</v>
+        <v>3948</v>
       </c>
       <c r="AX15" s="11">
-        <v>3948</v>
+        <v>7747</v>
       </c>
       <c r="AY15" s="11">
-        <v>7747</v>
+        <v>5848</v>
       </c>
       <c r="AZ15" s="11">
-        <v>5848</v>
+        <v>5357</v>
       </c>
       <c r="BA15" s="11">
-        <v>5357</v>
+        <v>5789</v>
       </c>
       <c r="BB15" s="11">
-        <v>5789</v>
+        <v>12023</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2226,157 +2261,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>5042</v>
+        <v>4884</v>
       </c>
       <c r="F16" s="13">
-        <v>4884</v>
+        <v>5131</v>
       </c>
       <c r="G16" s="13">
-        <v>5131</v>
+        <v>5077</v>
       </c>
       <c r="H16" s="13">
-        <v>5077</v>
+        <v>4732</v>
       </c>
       <c r="I16" s="13">
-        <v>4732</v>
+        <v>4268</v>
       </c>
       <c r="J16" s="13">
-        <v>4268</v>
+        <v>4709</v>
       </c>
       <c r="K16" s="13">
-        <v>4709</v>
+        <v>5126</v>
       </c>
       <c r="L16" s="13">
-        <v>5126</v>
+        <v>5055</v>
       </c>
       <c r="M16" s="13">
-        <v>5055</v>
+        <v>6685</v>
       </c>
       <c r="N16" s="13">
-        <v>6685</v>
+        <v>5800</v>
       </c>
       <c r="O16" s="13">
-        <v>5800</v>
+        <v>6268</v>
       </c>
       <c r="P16" s="13">
-        <v>6268</v>
+        <v>6286</v>
       </c>
       <c r="Q16" s="13">
-        <v>6286</v>
+        <v>6162</v>
       </c>
       <c r="R16" s="13">
-        <v>6162</v>
+        <v>6107</v>
       </c>
       <c r="S16" s="13">
-        <v>6107</v>
+        <v>5831</v>
       </c>
       <c r="T16" s="13">
-        <v>5831</v>
+        <v>5752</v>
       </c>
       <c r="U16" s="13">
-        <v>5752</v>
+        <v>4986</v>
       </c>
       <c r="V16" s="13">
-        <v>4986</v>
+        <v>5463</v>
       </c>
       <c r="W16" s="13">
-        <v>5463</v>
+        <v>5326</v>
       </c>
       <c r="X16" s="13">
-        <v>5326</v>
+        <v>5064</v>
       </c>
       <c r="Y16" s="13">
-        <v>5064</v>
+        <v>4922</v>
       </c>
       <c r="Z16" s="13">
-        <v>4922</v>
+        <v>4580</v>
       </c>
       <c r="AA16" s="13">
-        <v>4580</v>
+        <v>4790</v>
       </c>
       <c r="AB16" s="13">
-        <v>4790</v>
+        <v>4801</v>
       </c>
       <c r="AC16" s="13">
-        <v>4801</v>
+        <v>4477</v>
       </c>
       <c r="AD16" s="13">
-        <v>4477</v>
+        <v>4951</v>
       </c>
       <c r="AE16" s="13">
-        <v>4951</v>
+        <v>4940</v>
       </c>
       <c r="AF16" s="13">
-        <v>4940</v>
+        <v>4975</v>
       </c>
       <c r="AG16" s="13">
-        <v>4975</v>
+        <v>4669</v>
       </c>
       <c r="AH16" s="13">
-        <v>4669</v>
+        <v>5074</v>
       </c>
       <c r="AI16" s="13">
-        <v>5074</v>
+        <v>5603</v>
       </c>
       <c r="AJ16" s="13">
-        <v>5603</v>
+        <v>5818</v>
       </c>
       <c r="AK16" s="13">
-        <v>5818</v>
+        <v>6082</v>
       </c>
       <c r="AL16" s="13">
-        <v>6082</v>
+        <v>6338</v>
       </c>
       <c r="AM16" s="13">
-        <v>6338</v>
+        <v>6747</v>
       </c>
       <c r="AN16" s="13">
-        <v>6747</v>
+        <v>6681</v>
       </c>
       <c r="AO16" s="13">
-        <v>6681</v>
+        <v>6701</v>
       </c>
       <c r="AP16" s="13">
-        <v>6701</v>
+        <v>6215</v>
       </c>
       <c r="AQ16" s="13">
-        <v>6215</v>
+        <v>6354</v>
       </c>
       <c r="AR16" s="13">
-        <v>6354</v>
+        <v>6138</v>
       </c>
       <c r="AS16" s="13">
-        <v>6138</v>
+        <v>5667</v>
       </c>
       <c r="AT16" s="13">
-        <v>5667</v>
+        <v>5212</v>
       </c>
       <c r="AU16" s="13">
-        <v>5212</v>
+        <v>4661</v>
       </c>
       <c r="AV16" s="13">
-        <v>4661</v>
+        <v>4315</v>
       </c>
       <c r="AW16" s="13">
-        <v>4315</v>
+        <v>4609</v>
       </c>
       <c r="AX16" s="13">
-        <v>4609</v>
+        <v>4828</v>
       </c>
       <c r="AY16" s="13">
-        <v>4828</v>
+        <v>5217</v>
       </c>
       <c r="AZ16" s="13">
-        <v>5217</v>
+        <v>5162</v>
       </c>
       <c r="BA16" s="13">
-        <v>5162</v>
+        <v>5039</v>
       </c>
       <c r="BB16" s="13">
-        <v>5039</v>
+        <v>4905</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2385,157 +2420,157 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>1878</v>
+        <v>1062</v>
       </c>
       <c r="F17" s="11">
-        <v>1062</v>
+        <v>1482</v>
       </c>
       <c r="G17" s="11">
-        <v>1482</v>
+        <v>1904</v>
       </c>
       <c r="H17" s="11">
-        <v>1904</v>
+        <v>2153</v>
       </c>
       <c r="I17" s="11">
-        <v>2153</v>
+        <v>2379</v>
       </c>
       <c r="J17" s="11">
-        <v>2379</v>
+        <v>2099</v>
       </c>
       <c r="K17" s="11">
-        <v>2099</v>
+        <v>2710</v>
       </c>
       <c r="L17" s="11">
-        <v>2710</v>
+        <v>2603</v>
       </c>
       <c r="M17" s="11">
-        <v>2603</v>
+        <v>1882</v>
       </c>
       <c r="N17" s="11">
-        <v>1882</v>
+        <v>1818</v>
       </c>
       <c r="O17" s="11">
-        <v>1818</v>
+        <v>1983</v>
       </c>
       <c r="P17" s="11">
-        <v>1983</v>
+        <v>1532</v>
       </c>
       <c r="Q17" s="11">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="R17" s="11">
-        <v>1525</v>
+        <v>1354</v>
       </c>
       <c r="S17" s="11">
-        <v>1354</v>
+        <v>1100</v>
       </c>
       <c r="T17" s="11">
+        <v>930</v>
+      </c>
+      <c r="U17" s="11">
         <v>1100</v>
       </c>
-      <c r="U17" s="11">
-        <v>930</v>
-      </c>
       <c r="V17" s="11">
-        <v>1100</v>
+        <v>1427</v>
       </c>
       <c r="W17" s="11">
-        <v>1427</v>
+        <v>1942</v>
       </c>
       <c r="X17" s="11">
-        <v>1942</v>
+        <v>1570</v>
       </c>
       <c r="Y17" s="11">
-        <v>1570</v>
+        <v>1845</v>
       </c>
       <c r="Z17" s="11">
-        <v>1845</v>
+        <v>1549</v>
       </c>
       <c r="AA17" s="11">
+        <v>795</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>208</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>251</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>946</v>
+      </c>
+      <c r="AF17" s="11">
         <v>1549</v>
       </c>
-      <c r="AB17" s="11">
-        <v>795</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>208</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>251</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>946</v>
-      </c>
       <c r="AG17" s="11">
-        <v>1549</v>
+        <v>1213</v>
       </c>
       <c r="AH17" s="11">
-        <v>1213</v>
+        <v>1325</v>
       </c>
       <c r="AI17" s="11">
-        <v>1325</v>
+        <v>1577</v>
       </c>
       <c r="AJ17" s="11">
-        <v>1577</v>
+        <v>1758</v>
       </c>
       <c r="AK17" s="11">
-        <v>1758</v>
+        <v>1683</v>
       </c>
       <c r="AL17" s="11">
-        <v>1683</v>
+        <v>1784</v>
       </c>
       <c r="AM17" s="11">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="AN17" s="11">
-        <v>1791</v>
+        <v>1511</v>
       </c>
       <c r="AO17" s="11">
-        <v>1511</v>
+        <v>1695</v>
       </c>
       <c r="AP17" s="11">
-        <v>1695</v>
+        <v>1406</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1406</v>
+        <v>1105</v>
       </c>
       <c r="AR17" s="11">
-        <v>1105</v>
+        <v>722</v>
       </c>
       <c r="AS17" s="11">
-        <v>722</v>
+        <v>1544</v>
       </c>
       <c r="AT17" s="11">
-        <v>1544</v>
+        <v>1567</v>
       </c>
       <c r="AU17" s="11">
-        <v>1567</v>
+        <v>2229</v>
       </c>
       <c r="AV17" s="11">
-        <v>2229</v>
+        <v>1333</v>
       </c>
       <c r="AW17" s="11">
-        <v>1333</v>
+        <v>241</v>
       </c>
       <c r="AX17" s="11">
-        <v>241</v>
+        <v>1207</v>
       </c>
       <c r="AY17" s="11">
-        <v>1207</v>
+        <v>750</v>
       </c>
       <c r="AZ17" s="11">
-        <v>750</v>
+        <v>943</v>
       </c>
       <c r="BA17" s="11">
-        <v>943</v>
+        <v>1227</v>
       </c>
       <c r="BB17" s="11">
-        <v>1227</v>
+        <v>1008</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -2544,85 +2579,85 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F18" s="13">
-        <v>11</v>
+        <v>1555</v>
       </c>
       <c r="G18" s="13">
-        <v>1555</v>
+        <v>70</v>
       </c>
       <c r="H18" s="13">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I18" s="13">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="J18" s="13">
+        <v>92</v>
+      </c>
+      <c r="K18" s="13">
+        <v>63</v>
+      </c>
+      <c r="L18" s="13">
+        <v>42</v>
+      </c>
+      <c r="M18" s="13">
         <v>163</v>
       </c>
-      <c r="K18" s="13">
-        <v>92</v>
-      </c>
-      <c r="L18" s="13">
-        <v>63</v>
-      </c>
-      <c r="M18" s="13">
+      <c r="N18" s="13">
+        <v>68</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>118</v>
+      </c>
+      <c r="R18" s="13">
+        <v>178</v>
+      </c>
+      <c r="S18" s="13">
+        <v>112</v>
+      </c>
+      <c r="T18" s="13">
+        <v>131</v>
+      </c>
+      <c r="U18" s="13">
+        <v>165</v>
+      </c>
+      <c r="V18" s="13">
+        <v>100</v>
+      </c>
+      <c r="W18" s="13">
+        <v>119</v>
+      </c>
+      <c r="X18" s="13">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>41</v>
+      </c>
+      <c r="AD18" s="13">
         <v>42</v>
       </c>
-      <c r="N18" s="13">
-        <v>163</v>
-      </c>
-      <c r="O18" s="13">
-        <v>68</v>
-      </c>
-      <c r="P18" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>150</v>
-      </c>
-      <c r="R18" s="13">
-        <v>118</v>
-      </c>
-      <c r="S18" s="13">
-        <v>178</v>
-      </c>
-      <c r="T18" s="13">
-        <v>112</v>
-      </c>
-      <c r="U18" s="13">
-        <v>131</v>
-      </c>
-      <c r="V18" s="13">
-        <v>165</v>
-      </c>
-      <c r="W18" s="13">
-        <v>100</v>
-      </c>
-      <c r="X18" s="13">
-        <v>119</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>22</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>41</v>
-      </c>
       <c r="AE18" s="13">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="13">
         <v>0</v>
@@ -2634,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="AI18" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ18" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="13">
         <v>0</v>
@@ -2646,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="AM18" s="13">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AN18" s="13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="13">
         <v>0</v>
@@ -2658,43 +2693,43 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AR18" s="13">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AS18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>258</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="13">
         <v>30</v>
       </c>
-      <c r="AT18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>258</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>0</v>
-      </c>
       <c r="AY18" s="13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AZ18" s="13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BA18" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>67</v>
       </c>
@@ -2816,8 +2851,8 @@
       <c r="AP19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>57</v>
+      <c r="AQ19" s="11">
+        <v>0</v>
       </c>
       <c r="AR19" s="11">
         <v>0</v>
@@ -2853,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>68</v>
       </c>
@@ -2975,8 +3010,8 @@
       <c r="AP20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ20" s="13" t="s">
-        <v>57</v>
+      <c r="AQ20" s="13">
+        <v>0</v>
       </c>
       <c r="AR20" s="13">
         <v>0</v>
@@ -3012,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>69</v>
       </c>
@@ -3021,157 +3056,157 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>469</v>
+        <v>244</v>
       </c>
       <c r="F21" s="11">
-        <v>244</v>
+        <v>5076</v>
       </c>
       <c r="G21" s="11">
-        <v>5076</v>
+        <v>1028</v>
       </c>
       <c r="H21" s="11">
-        <v>1028</v>
+        <v>905</v>
       </c>
       <c r="I21" s="11">
-        <v>905</v>
+        <v>929</v>
       </c>
       <c r="J21" s="11">
-        <v>929</v>
+        <v>680</v>
       </c>
       <c r="K21" s="11">
-        <v>680</v>
+        <v>361</v>
       </c>
       <c r="L21" s="11">
-        <v>361</v>
+        <v>647</v>
       </c>
       <c r="M21" s="11">
-        <v>647</v>
+        <v>291</v>
       </c>
       <c r="N21" s="11">
-        <v>291</v>
+        <v>698</v>
       </c>
       <c r="O21" s="11">
-        <v>698</v>
+        <v>604</v>
       </c>
       <c r="P21" s="11">
-        <v>604</v>
+        <v>488</v>
       </c>
       <c r="Q21" s="11">
+        <v>480</v>
+      </c>
+      <c r="R21" s="11">
+        <v>510</v>
+      </c>
+      <c r="S21" s="11">
+        <v>466</v>
+      </c>
+      <c r="T21" s="11">
+        <v>430</v>
+      </c>
+      <c r="U21" s="11">
+        <v>322</v>
+      </c>
+      <c r="V21" s="11">
+        <v>348</v>
+      </c>
+      <c r="W21" s="11">
+        <v>285</v>
+      </c>
+      <c r="X21" s="11">
+        <v>357</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>399</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>352</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>404</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>332</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>355</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>484</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>480</v>
+      </c>
+      <c r="AF21" s="11">
         <v>488</v>
       </c>
-      <c r="R21" s="11">
-        <v>480</v>
-      </c>
-      <c r="S21" s="11">
-        <v>510</v>
-      </c>
-      <c r="T21" s="11">
-        <v>466</v>
-      </c>
-      <c r="U21" s="11">
-        <v>430</v>
-      </c>
-      <c r="V21" s="11">
-        <v>322</v>
-      </c>
-      <c r="W21" s="11">
+      <c r="AG21" s="11">
+        <v>406</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>382</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>360</v>
+      </c>
+      <c r="AJ21" s="11">
         <v>348</v>
       </c>
-      <c r="X21" s="11">
-        <v>285</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>357</v>
-      </c>
-      <c r="Z21" s="11">
-        <v>399</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>352</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>404</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>332</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>355</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>484</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>480</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>488</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>406</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>382</v>
-      </c>
-      <c r="AJ21" s="11">
-        <v>360</v>
-      </c>
       <c r="AK21" s="11">
-        <v>348</v>
+        <v>468</v>
       </c>
       <c r="AL21" s="11">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="AM21" s="11">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="AN21" s="11">
-        <v>477</v>
+        <v>378</v>
       </c>
       <c r="AO21" s="11">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="AP21" s="11">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="AQ21" s="11">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="AR21" s="11">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="AS21" s="11">
-        <v>506</v>
+        <v>422</v>
       </c>
       <c r="AT21" s="11">
-        <v>422</v>
+        <v>1034</v>
       </c>
       <c r="AU21" s="11">
-        <v>1034</v>
+        <v>83</v>
       </c>
       <c r="AV21" s="11">
-        <v>83</v>
+        <v>559</v>
       </c>
       <c r="AW21" s="11">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="AX21" s="11">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AY21" s="11">
-        <v>524</v>
+        <v>414</v>
       </c>
       <c r="AZ21" s="11">
-        <v>414</v>
+        <v>312</v>
       </c>
       <c r="BA21" s="11">
-        <v>312</v>
+        <v>597</v>
       </c>
       <c r="BB21" s="11">
-        <v>599</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -3293,8 +3328,8 @@
       <c r="AP22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ22" s="13" t="s">
-        <v>57</v>
+      <c r="AQ22" s="13">
+        <v>0</v>
       </c>
       <c r="AR22" s="13">
         <v>0</v>
@@ -3330,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>71</v>
       </c>
@@ -3452,8 +3487,8 @@
       <c r="AP23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ23" s="11" t="s">
-        <v>57</v>
+      <c r="AQ23" s="11">
+        <v>0</v>
       </c>
       <c r="AR23" s="11">
         <v>0</v>
@@ -3489,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -3611,8 +3646,8 @@
       <c r="AP24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ24" s="13" t="s">
-        <v>57</v>
+      <c r="AQ24" s="13">
+        <v>0</v>
       </c>
       <c r="AR24" s="13">
         <v>0</v>
@@ -3648,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>74</v>
       </c>
@@ -3705,7 +3740,7 @@
       <c r="BA25" s="15"/>
       <c r="BB25" s="15"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>75</v>
       </c>
@@ -3789,8 +3824,8 @@
       <c r="AD26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AE26" s="17" t="s">
-        <v>57</v>
+      <c r="AE26" s="17">
+        <v>0</v>
       </c>
       <c r="AF26" s="17">
         <v>0</v>
@@ -3831,8 +3866,8 @@
       <c r="AR26" s="17">
         <v>0</v>
       </c>
-      <c r="AS26" s="17">
-        <v>0</v>
+      <c r="AS26" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AT26" s="17" t="s">
         <v>57</v>
@@ -3862,164 +3897,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19">
-        <v>29400</v>
+        <v>739852</v>
       </c>
       <c r="F27" s="19">
-        <v>739852</v>
+        <v>35974</v>
       </c>
       <c r="G27" s="19">
-        <v>35974</v>
+        <v>20638</v>
       </c>
       <c r="H27" s="19">
-        <v>20638</v>
+        <v>19400</v>
       </c>
       <c r="I27" s="19">
-        <v>19400</v>
+        <v>20838</v>
       </c>
       <c r="J27" s="19">
-        <v>20838</v>
+        <v>17330</v>
       </c>
       <c r="K27" s="19">
-        <v>17330</v>
+        <v>20375</v>
       </c>
       <c r="L27" s="19">
-        <v>20375</v>
+        <v>19516</v>
       </c>
       <c r="M27" s="19">
-        <v>19516</v>
+        <v>23622</v>
       </c>
       <c r="N27" s="19">
-        <v>23622</v>
+        <v>19319</v>
       </c>
       <c r="O27" s="19">
-        <v>19319</v>
+        <v>18907</v>
       </c>
       <c r="P27" s="19">
-        <v>18907</v>
+        <v>19908</v>
       </c>
       <c r="Q27" s="19">
-        <v>19908</v>
+        <v>23571</v>
       </c>
       <c r="R27" s="19">
-        <v>23571</v>
+        <v>25060</v>
       </c>
       <c r="S27" s="19">
-        <v>25060</v>
+        <v>16050</v>
       </c>
       <c r="T27" s="19">
-        <v>16050</v>
+        <v>17401</v>
       </c>
       <c r="U27" s="19">
-        <v>17401</v>
+        <v>13389</v>
       </c>
       <c r="V27" s="19">
-        <v>13389</v>
+        <v>13307</v>
       </c>
       <c r="W27" s="19">
-        <v>13307</v>
+        <v>15314</v>
       </c>
       <c r="X27" s="19">
-        <v>15314</v>
+        <v>13991</v>
       </c>
       <c r="Y27" s="19">
-        <v>13991</v>
+        <v>12806</v>
       </c>
       <c r="Z27" s="19">
-        <v>12806</v>
+        <v>12282</v>
       </c>
       <c r="AA27" s="19">
-        <v>12282</v>
+        <v>14686</v>
       </c>
       <c r="AB27" s="19">
-        <v>14686</v>
+        <v>17362</v>
       </c>
       <c r="AC27" s="19">
-        <v>17362</v>
+        <v>14246</v>
       </c>
       <c r="AD27" s="19">
-        <v>14246</v>
+        <v>20416</v>
       </c>
       <c r="AE27" s="19">
-        <v>20416</v>
+        <v>12857</v>
       </c>
       <c r="AF27" s="19">
-        <v>12857</v>
+        <v>16386</v>
       </c>
       <c r="AG27" s="19">
-        <v>16386</v>
+        <v>13784</v>
       </c>
       <c r="AH27" s="19">
-        <v>13784</v>
+        <v>17336</v>
       </c>
       <c r="AI27" s="19">
-        <v>17336</v>
+        <v>15273</v>
       </c>
       <c r="AJ27" s="19">
-        <v>15273</v>
+        <v>15223</v>
       </c>
       <c r="AK27" s="19">
-        <v>15223</v>
+        <v>15793</v>
       </c>
       <c r="AL27" s="19">
-        <v>15793</v>
+        <v>15669</v>
       </c>
       <c r="AM27" s="19">
-        <v>15669</v>
+        <v>17020</v>
       </c>
       <c r="AN27" s="19">
-        <v>17020</v>
+        <v>16415</v>
       </c>
       <c r="AO27" s="19">
-        <v>16415</v>
+        <v>16150</v>
       </c>
       <c r="AP27" s="19">
-        <v>16150</v>
+        <v>18014</v>
       </c>
       <c r="AQ27" s="19">
-        <v>18014</v>
+        <v>14732</v>
       </c>
       <c r="AR27" s="19">
-        <v>14732</v>
+        <v>16368</v>
       </c>
       <c r="AS27" s="19">
-        <v>16368</v>
+        <v>15491</v>
       </c>
       <c r="AT27" s="19">
-        <v>15491</v>
+        <v>14371</v>
       </c>
       <c r="AU27" s="19">
-        <v>14371</v>
+        <v>14388</v>
       </c>
       <c r="AV27" s="19">
-        <v>14388</v>
+        <v>19406</v>
       </c>
       <c r="AW27" s="19">
-        <v>19406</v>
+        <v>11053</v>
       </c>
       <c r="AX27" s="19">
-        <v>11053</v>
+        <v>16055</v>
       </c>
       <c r="AY27" s="19">
-        <v>16055</v>
+        <v>13200</v>
       </c>
       <c r="AZ27" s="19">
-        <v>13200</v>
+        <v>13008</v>
       </c>
       <c r="BA27" s="19">
-        <v>13008</v>
+        <v>14467</v>
       </c>
       <c r="BB27" s="19">
-        <v>14469</v>
+        <v>20138</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4074,7 +4109,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4129,7 +4164,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4184,7 +4219,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>77</v>
       </c>
@@ -4341,7 +4376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4396,7 +4431,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>77</v>
       </c>
@@ -4453,7 +4488,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>55</v>
       </c>
@@ -4569,8 +4604,8 @@
       <c r="AN34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO34" s="11" t="s">
-        <v>57</v>
+      <c r="AO34" s="11">
+        <v>0</v>
       </c>
       <c r="AP34" s="11">
         <v>0</v>
@@ -4585,34 +4620,34 @@
         <v>0</v>
       </c>
       <c r="AT34" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AU34" s="11">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AV34" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW34" s="11">
+        <v>6</v>
+      </c>
+      <c r="AX34" s="11">
+        <v>114</v>
+      </c>
+      <c r="AY34" s="11">
+        <v>9</v>
+      </c>
+      <c r="AZ34" s="11">
         <v>10</v>
       </c>
-      <c r="AX34" s="11">
-        <v>6</v>
-      </c>
-      <c r="AY34" s="11">
-        <v>114</v>
-      </c>
-      <c r="AZ34" s="11">
-        <v>9</v>
-      </c>
       <c r="BA34" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB34" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>58</v>
       </c>
@@ -4701,20 +4736,20 @@
       <c r="AE35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF35" s="13" t="s">
-        <v>57</v>
+      <c r="AF35" s="13">
+        <v>1625</v>
       </c>
       <c r="AG35" s="13">
-        <v>1625</v>
+        <v>109</v>
       </c>
       <c r="AH35" s="13">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="AI35" s="13">
-        <v>244</v>
+        <v>1163</v>
       </c>
       <c r="AJ35" s="13">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="13">
         <v>0</v>
@@ -4734,8 +4769,8 @@
       <c r="AP35" s="13">
         <v>0</v>
       </c>
-      <c r="AQ35" s="13">
-        <v>0</v>
+      <c r="AQ35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR35" s="13" t="s">
         <v>57</v>
@@ -4771,7 +4806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4780,157 +4815,157 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>12910</v>
+        <v>3</v>
       </c>
       <c r="F36" s="11">
+        <v>25</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="11">
+        <v>4</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>16</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>139</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>205</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>3256</v>
+      </c>
+      <c r="R36" s="11">
+        <v>60</v>
+      </c>
+      <c r="S36" s="11">
+        <v>45</v>
+      </c>
+      <c r="T36" s="11">
+        <v>59</v>
+      </c>
+      <c r="U36" s="11">
         <v>3</v>
       </c>
-      <c r="G36" s="11">
-        <v>25</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="11">
-        <v>4</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>16</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11">
-        <v>139</v>
-      </c>
-      <c r="O36" s="11">
-        <v>0</v>
-      </c>
-      <c r="P36" s="11">
-        <v>205</v>
-      </c>
-      <c r="Q36" s="11">
-        <v>0</v>
-      </c>
-      <c r="R36" s="11">
-        <v>3256</v>
-      </c>
-      <c r="S36" s="11">
-        <v>60</v>
-      </c>
-      <c r="T36" s="11">
-        <v>45</v>
-      </c>
-      <c r="U36" s="11">
-        <v>59</v>
-      </c>
       <c r="V36" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W36" s="11">
         <v>0</v>
       </c>
       <c r="X36" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y36" s="11">
+        <v>61</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>77</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>242</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>1258</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>39</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>48</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>15</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>29</v>
+      </c>
+      <c r="AI36" s="11">
         <v>5</v>
       </c>
-      <c r="Z36" s="11">
-        <v>61</v>
-      </c>
-      <c r="AA36" s="11">
-        <v>77</v>
-      </c>
-      <c r="AB36" s="11">
-        <v>242</v>
-      </c>
-      <c r="AC36" s="11">
-        <v>1258</v>
-      </c>
-      <c r="AD36" s="11">
+      <c r="AJ36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="11">
+        <v>119</v>
+      </c>
+      <c r="AL36" s="11">
+        <v>8</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>128</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>590</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>76</v>
+      </c>
+      <c r="AP36" s="11">
         <v>39</v>
       </c>
-      <c r="AE36" s="11">
-        <v>48</v>
-      </c>
-      <c r="AF36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="11">
-        <v>15</v>
-      </c>
-      <c r="AH36" s="11">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="11">
-        <v>29</v>
-      </c>
-      <c r="AJ36" s="11">
+      <c r="AQ36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="11">
+        <v>119</v>
+      </c>
+      <c r="AT36" s="11">
+        <v>7</v>
+      </c>
+      <c r="AU36" s="11">
+        <v>-18</v>
+      </c>
+      <c r="AV36" s="11">
         <v>5</v>
       </c>
-      <c r="AK36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="11">
-        <v>119</v>
-      </c>
-      <c r="AM36" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN36" s="11">
-        <v>128</v>
-      </c>
-      <c r="AO36" s="11">
-        <v>590</v>
-      </c>
-      <c r="AP36" s="11">
-        <v>76</v>
-      </c>
-      <c r="AQ36" s="11">
-        <v>39</v>
-      </c>
-      <c r="AR36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="11">
-        <v>119</v>
-      </c>
-      <c r="AU36" s="11">
-        <v>7</v>
-      </c>
-      <c r="AV36" s="11">
-        <v>-18</v>
-      </c>
       <c r="AW36" s="11">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="AX36" s="11">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AY36" s="11">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="AZ36" s="11">
-        <v>18</v>
+        <v>430</v>
       </c>
       <c r="BA36" s="11">
-        <v>430</v>
+        <v>37</v>
       </c>
       <c r="BB36" s="11">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>61</v>
       </c>
@@ -4939,157 +4974,157 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>971</v>
+        <v>581</v>
       </c>
       <c r="F37" s="13">
-        <v>581</v>
+        <v>1007</v>
       </c>
       <c r="G37" s="13">
-        <v>1007</v>
+        <v>605</v>
       </c>
       <c r="H37" s="13">
-        <v>605</v>
+        <v>382</v>
       </c>
       <c r="I37" s="13">
-        <v>382</v>
+        <v>701</v>
       </c>
       <c r="J37" s="13">
-        <v>701</v>
+        <v>284</v>
       </c>
       <c r="K37" s="13">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="L37" s="13">
-        <v>371</v>
+        <v>155</v>
       </c>
       <c r="M37" s="13">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N37" s="13">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="O37" s="13">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="P37" s="13">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q37" s="13">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="R37" s="13">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="S37" s="13">
-        <v>211</v>
+        <v>373</v>
       </c>
       <c r="T37" s="13">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="U37" s="13">
-        <v>313</v>
+        <v>619</v>
       </c>
       <c r="V37" s="13">
-        <v>619</v>
+        <v>820</v>
       </c>
       <c r="W37" s="13">
-        <v>820</v>
+        <v>416</v>
       </c>
       <c r="X37" s="13">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="Y37" s="13">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="Z37" s="13">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="AA37" s="13">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="AB37" s="13">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AC37" s="13">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="AD37" s="13">
+        <v>63</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>76</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>95</v>
+      </c>
+      <c r="AG37" s="13">
+        <v>110</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>34</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>94</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>59</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>104</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>53</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>34</v>
+      </c>
+      <c r="AN37" s="13">
+        <v>73</v>
+      </c>
+      <c r="AO37" s="13">
+        <v>157</v>
+      </c>
+      <c r="AP37" s="13">
+        <v>105</v>
+      </c>
+      <c r="AQ37" s="13">
+        <v>138</v>
+      </c>
+      <c r="AR37" s="13">
+        <v>110</v>
+      </c>
+      <c r="AS37" s="13">
+        <v>126</v>
+      </c>
+      <c r="AT37" s="13">
+        <v>25</v>
+      </c>
+      <c r="AU37" s="13">
+        <v>143</v>
+      </c>
+      <c r="AV37" s="13">
+        <v>72</v>
+      </c>
+      <c r="AW37" s="13">
         <v>67</v>
       </c>
-      <c r="AE37" s="13">
-        <v>63</v>
-      </c>
-      <c r="AF37" s="13">
-        <v>76</v>
-      </c>
-      <c r="AG37" s="13">
-        <v>95</v>
-      </c>
-      <c r="AH37" s="13">
-        <v>110</v>
-      </c>
-      <c r="AI37" s="13">
-        <v>34</v>
-      </c>
-      <c r="AJ37" s="13">
-        <v>94</v>
-      </c>
-      <c r="AK37" s="13">
-        <v>59</v>
-      </c>
-      <c r="AL37" s="13">
-        <v>104</v>
-      </c>
-      <c r="AM37" s="13">
-        <v>53</v>
-      </c>
-      <c r="AN37" s="13">
-        <v>34</v>
-      </c>
-      <c r="AO37" s="13">
-        <v>73</v>
-      </c>
-      <c r="AP37" s="13">
-        <v>157</v>
-      </c>
-      <c r="AQ37" s="13">
-        <v>105</v>
-      </c>
-      <c r="AR37" s="13">
-        <v>138</v>
-      </c>
-      <c r="AS37" s="13">
-        <v>110</v>
-      </c>
-      <c r="AT37" s="13">
-        <v>126</v>
-      </c>
-      <c r="AU37" s="13">
-        <v>25</v>
-      </c>
-      <c r="AV37" s="13">
-        <v>143</v>
-      </c>
-      <c r="AW37" s="13">
-        <v>72</v>
-      </c>
       <c r="AX37" s="13">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AY37" s="13">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AZ37" s="13">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="BA37" s="13">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="BB37" s="13">
-        <v>319</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>62</v>
       </c>
@@ -5098,157 +5133,157 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>5394</v>
+        <v>6122</v>
       </c>
       <c r="F38" s="11">
-        <v>6122</v>
+        <v>6759</v>
       </c>
       <c r="G38" s="11">
-        <v>6759</v>
+        <v>8094</v>
       </c>
       <c r="H38" s="11">
-        <v>8094</v>
+        <v>9001</v>
       </c>
       <c r="I38" s="11">
-        <v>9001</v>
+        <v>9330</v>
       </c>
       <c r="J38" s="11">
-        <v>9330</v>
+        <v>6501</v>
       </c>
       <c r="K38" s="11">
-        <v>6501</v>
+        <v>8997</v>
       </c>
       <c r="L38" s="11">
-        <v>8997</v>
+        <v>8128</v>
       </c>
       <c r="M38" s="11">
-        <v>8128</v>
+        <v>13469</v>
       </c>
       <c r="N38" s="11">
-        <v>13469</v>
+        <v>7909</v>
       </c>
       <c r="O38" s="11">
-        <v>7909</v>
+        <v>6974</v>
       </c>
       <c r="P38" s="11">
-        <v>6974</v>
+        <v>8319</v>
       </c>
       <c r="Q38" s="11">
-        <v>8319</v>
+        <v>8666</v>
       </c>
       <c r="R38" s="11">
-        <v>8666</v>
+        <v>9995</v>
       </c>
       <c r="S38" s="11">
-        <v>9995</v>
+        <v>5096</v>
       </c>
       <c r="T38" s="11">
-        <v>5096</v>
+        <v>6996</v>
       </c>
       <c r="U38" s="11">
-        <v>6996</v>
+        <v>5086</v>
       </c>
       <c r="V38" s="11">
-        <v>5086</v>
+        <v>4089</v>
       </c>
       <c r="W38" s="11">
-        <v>4089</v>
+        <v>6065</v>
       </c>
       <c r="X38" s="11">
-        <v>6065</v>
+        <v>5766</v>
       </c>
       <c r="Y38" s="11">
-        <v>5766</v>
+        <v>4277</v>
       </c>
       <c r="Z38" s="11">
-        <v>4277</v>
+        <v>4308</v>
       </c>
       <c r="AA38" s="11">
-        <v>4308</v>
+        <v>6858</v>
       </c>
       <c r="AB38" s="11">
-        <v>6858</v>
+        <v>8831</v>
       </c>
       <c r="AC38" s="11">
-        <v>8831</v>
+        <v>7789</v>
       </c>
       <c r="AD38" s="11">
-        <v>7789</v>
+        <v>9363</v>
       </c>
       <c r="AE38" s="11">
-        <v>9363</v>
+        <v>4583</v>
       </c>
       <c r="AF38" s="11">
-        <v>4583</v>
+        <v>6039</v>
       </c>
       <c r="AG38" s="11">
-        <v>6039</v>
+        <v>7333</v>
       </c>
       <c r="AH38" s="11">
-        <v>7333</v>
+        <v>9209</v>
       </c>
       <c r="AI38" s="11">
-        <v>9209</v>
+        <v>4504</v>
       </c>
       <c r="AJ38" s="11">
-        <v>4504</v>
+        <v>5452</v>
       </c>
       <c r="AK38" s="11">
-        <v>5452</v>
+        <v>5674</v>
       </c>
       <c r="AL38" s="11">
-        <v>5674</v>
+        <v>5052</v>
       </c>
       <c r="AM38" s="11">
-        <v>5052</v>
+        <v>6215</v>
       </c>
       <c r="AN38" s="11">
-        <v>6215</v>
+        <v>5661</v>
       </c>
       <c r="AO38" s="11">
-        <v>5661</v>
+        <v>5396</v>
       </c>
       <c r="AP38" s="11">
-        <v>5396</v>
+        <v>8097</v>
       </c>
       <c r="AQ38" s="11">
-        <v>8097</v>
+        <v>4636</v>
       </c>
       <c r="AR38" s="11">
-        <v>4636</v>
+        <v>6402</v>
       </c>
       <c r="AS38" s="11">
-        <v>6402</v>
+        <v>5678</v>
       </c>
       <c r="AT38" s="11">
-        <v>5678</v>
+        <v>4125</v>
       </c>
       <c r="AU38" s="11">
-        <v>4125</v>
+        <v>5874</v>
       </c>
       <c r="AV38" s="11">
-        <v>5874</v>
+        <v>11586</v>
       </c>
       <c r="AW38" s="11">
-        <v>11586</v>
+        <v>3695</v>
       </c>
       <c r="AX38" s="11">
-        <v>3695</v>
+        <v>7498</v>
       </c>
       <c r="AY38" s="11">
-        <v>7498</v>
+        <v>5631</v>
       </c>
       <c r="AZ38" s="11">
-        <v>5631</v>
+        <v>7783</v>
       </c>
       <c r="BA38" s="11">
-        <v>7783</v>
+        <v>7649</v>
       </c>
       <c r="BB38" s="11">
-        <v>7649</v>
+        <v>11812</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>63</v>
       </c>
@@ -5257,157 +5292,157 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>5170</v>
+        <v>4782</v>
       </c>
       <c r="F39" s="13">
-        <v>4782</v>
+        <v>4880</v>
       </c>
       <c r="G39" s="13">
-        <v>4880</v>
+        <v>4294</v>
       </c>
       <c r="H39" s="13">
-        <v>4294</v>
+        <v>5399</v>
       </c>
       <c r="I39" s="13">
-        <v>5399</v>
+        <v>4397</v>
       </c>
       <c r="J39" s="13">
-        <v>4397</v>
+        <v>4540</v>
       </c>
       <c r="K39" s="13">
-        <v>4540</v>
+        <v>5349</v>
       </c>
       <c r="L39" s="13">
-        <v>5349</v>
+        <v>5636</v>
       </c>
       <c r="M39" s="13">
-        <v>5636</v>
+        <v>5299</v>
       </c>
       <c r="N39" s="13">
-        <v>5299</v>
+        <v>5771</v>
       </c>
       <c r="O39" s="13">
-        <v>5771</v>
+        <v>5776</v>
       </c>
       <c r="P39" s="13">
-        <v>5776</v>
+        <v>6234</v>
       </c>
       <c r="Q39" s="13">
-        <v>6234</v>
+        <v>5939</v>
       </c>
       <c r="R39" s="13">
-        <v>5939</v>
+        <v>6544</v>
       </c>
       <c r="S39" s="13">
-        <v>6544</v>
+        <v>5066</v>
       </c>
       <c r="T39" s="13">
-        <v>5066</v>
+        <v>6325</v>
       </c>
       <c r="U39" s="13">
-        <v>6325</v>
+        <v>4903</v>
       </c>
       <c r="V39" s="13">
-        <v>4903</v>
+        <v>5108</v>
       </c>
       <c r="W39" s="13">
-        <v>5108</v>
+        <v>5312</v>
       </c>
       <c r="X39" s="13">
-        <v>5312</v>
+        <v>5156</v>
       </c>
       <c r="Y39" s="13">
-        <v>5156</v>
+        <v>4731</v>
       </c>
       <c r="Z39" s="13">
-        <v>4731</v>
+        <v>5608</v>
       </c>
       <c r="AA39" s="13">
-        <v>5608</v>
+        <v>4869</v>
       </c>
       <c r="AB39" s="13">
-        <v>4869</v>
+        <v>4815</v>
       </c>
       <c r="AC39" s="13">
-        <v>4815</v>
+        <v>4608</v>
       </c>
       <c r="AD39" s="13">
-        <v>4608</v>
+        <v>4947</v>
       </c>
       <c r="AE39" s="13">
-        <v>4947</v>
+        <v>5422</v>
       </c>
       <c r="AF39" s="13">
-        <v>5422</v>
+        <v>5089</v>
       </c>
       <c r="AG39" s="13">
-        <v>5089</v>
+        <v>4699</v>
       </c>
       <c r="AH39" s="13">
-        <v>4699</v>
+        <v>4734</v>
       </c>
       <c r="AI39" s="13">
-        <v>4734</v>
+        <v>5849</v>
       </c>
       <c r="AJ39" s="13">
-        <v>5849</v>
+        <v>6095</v>
       </c>
       <c r="AK39" s="13">
-        <v>6095</v>
+        <v>5933</v>
       </c>
       <c r="AL39" s="13">
-        <v>5933</v>
+        <v>6295</v>
       </c>
       <c r="AM39" s="13">
-        <v>6295</v>
+        <v>6928</v>
       </c>
       <c r="AN39" s="13">
-        <v>6928</v>
+        <v>6374</v>
       </c>
       <c r="AO39" s="13">
-        <v>6374</v>
+        <v>6697</v>
       </c>
       <c r="AP39" s="13">
-        <v>6697</v>
+        <v>6458</v>
       </c>
       <c r="AQ39" s="13">
-        <v>6458</v>
+        <v>6204</v>
       </c>
       <c r="AR39" s="13">
-        <v>6204</v>
+        <v>5943</v>
       </c>
       <c r="AS39" s="13">
-        <v>5943</v>
+        <v>5822</v>
       </c>
       <c r="AT39" s="13">
-        <v>5822</v>
+        <v>5109</v>
       </c>
       <c r="AU39" s="13">
-        <v>5109</v>
+        <v>4303</v>
       </c>
       <c r="AV39" s="13">
-        <v>4303</v>
+        <v>4737</v>
       </c>
       <c r="AW39" s="13">
-        <v>4737</v>
+        <v>4389</v>
       </c>
       <c r="AX39" s="13">
-        <v>4389</v>
+        <v>4768</v>
       </c>
       <c r="AY39" s="13">
-        <v>4768</v>
+        <v>5274</v>
       </c>
       <c r="AZ39" s="13">
-        <v>5274</v>
+        <v>4918</v>
       </c>
       <c r="BA39" s="13">
-        <v>4918</v>
+        <v>5123</v>
       </c>
       <c r="BB39" s="13">
-        <v>5125</v>
+        <v>4959</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
@@ -5416,157 +5451,157 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>2033</v>
+        <v>1062</v>
       </c>
       <c r="F40" s="11">
-        <v>1062</v>
+        <v>1482</v>
       </c>
       <c r="G40" s="11">
-        <v>1482</v>
+        <v>1270</v>
       </c>
       <c r="H40" s="11">
-        <v>1270</v>
+        <v>2721</v>
       </c>
       <c r="I40" s="11">
-        <v>2721</v>
+        <v>2446</v>
       </c>
       <c r="J40" s="11">
-        <v>2446</v>
+        <v>1542</v>
       </c>
       <c r="K40" s="11">
-        <v>1542</v>
+        <v>3144</v>
       </c>
       <c r="L40" s="11">
-        <v>3144</v>
+        <v>2866</v>
       </c>
       <c r="M40" s="11">
-        <v>2866</v>
+        <v>1629</v>
       </c>
       <c r="N40" s="11">
-        <v>1629</v>
+        <v>1870</v>
       </c>
       <c r="O40" s="11">
-        <v>1870</v>
+        <v>2243</v>
       </c>
       <c r="P40" s="11">
-        <v>2243</v>
+        <v>1227</v>
       </c>
       <c r="Q40" s="11">
+        <v>1670</v>
+      </c>
+      <c r="R40" s="11">
+        <v>1514</v>
+      </c>
+      <c r="S40" s="11">
+        <v>972</v>
+      </c>
+      <c r="T40" s="11">
+        <v>988</v>
+      </c>
+      <c r="U40" s="11">
+        <v>1148</v>
+      </c>
+      <c r="V40" s="11">
+        <v>1427</v>
+      </c>
+      <c r="W40" s="11">
+        <v>1860</v>
+      </c>
+      <c r="X40" s="11">
+        <v>1652</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>1845</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>1549</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>795</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="11">
+        <v>208</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>251</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>946</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>1549</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>1213</v>
+      </c>
+      <c r="AH40" s="11">
+        <v>1325</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>1577</v>
+      </c>
+      <c r="AJ40" s="11">
+        <v>1758</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>1087</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>2379</v>
+      </c>
+      <c r="AM40" s="11">
+        <v>1791</v>
+      </c>
+      <c r="AN40" s="11">
+        <v>1511</v>
+      </c>
+      <c r="AO40" s="11">
+        <v>1695</v>
+      </c>
+      <c r="AP40" s="11">
+        <v>1406</v>
+      </c>
+      <c r="AQ40" s="11">
+        <v>1105</v>
+      </c>
+      <c r="AR40" s="11">
+        <v>722</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>1544</v>
+      </c>
+      <c r="AT40" s="11">
+        <v>648</v>
+      </c>
+      <c r="AU40" s="11">
+        <v>3148</v>
+      </c>
+      <c r="AV40" s="11">
+        <v>1092</v>
+      </c>
+      <c r="AW40" s="11">
+        <v>241</v>
+      </c>
+      <c r="AX40" s="11">
+        <v>1156</v>
+      </c>
+      <c r="AY40" s="11">
+        <v>750</v>
+      </c>
+      <c r="AZ40" s="11">
+        <v>943</v>
+      </c>
+      <c r="BA40" s="11">
         <v>1227</v>
       </c>
-      <c r="R40" s="11">
-        <v>1670</v>
-      </c>
-      <c r="S40" s="11">
-        <v>1514</v>
-      </c>
-      <c r="T40" s="11">
-        <v>972</v>
-      </c>
-      <c r="U40" s="11">
-        <v>988</v>
-      </c>
-      <c r="V40" s="11">
-        <v>1148</v>
-      </c>
-      <c r="W40" s="11">
-        <v>1427</v>
-      </c>
-      <c r="X40" s="11">
-        <v>1860</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>1652</v>
-      </c>
-      <c r="Z40" s="11">
-        <v>1845</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>1549</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>795</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="11">
-        <v>208</v>
-      </c>
-      <c r="AE40" s="11">
-        <v>251</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>946</v>
-      </c>
-      <c r="AG40" s="11">
-        <v>1549</v>
-      </c>
-      <c r="AH40" s="11">
-        <v>1213</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>1325</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>1577</v>
-      </c>
-      <c r="AK40" s="11">
-        <v>1758</v>
-      </c>
-      <c r="AL40" s="11">
-        <v>1087</v>
-      </c>
-      <c r="AM40" s="11">
-        <v>2379</v>
-      </c>
-      <c r="AN40" s="11">
-        <v>1791</v>
-      </c>
-      <c r="AO40" s="11">
-        <v>1511</v>
-      </c>
-      <c r="AP40" s="11">
-        <v>1695</v>
-      </c>
-      <c r="AQ40" s="11">
-        <v>1406</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>1105</v>
-      </c>
-      <c r="AS40" s="11">
-        <v>722</v>
-      </c>
-      <c r="AT40" s="11">
-        <v>1544</v>
-      </c>
-      <c r="AU40" s="11">
-        <v>648</v>
-      </c>
-      <c r="AV40" s="11">
-        <v>3148</v>
-      </c>
-      <c r="AW40" s="11">
-        <v>1092</v>
-      </c>
-      <c r="AX40" s="11">
-        <v>241</v>
-      </c>
-      <c r="AY40" s="11">
-        <v>1156</v>
-      </c>
-      <c r="AZ40" s="11">
-        <v>750</v>
-      </c>
-      <c r="BA40" s="11">
-        <v>943</v>
-      </c>
       <c r="BB40" s="11">
-        <v>1227</v>
+        <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>66</v>
       </c>
@@ -5575,100 +5610,100 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F41" s="13">
-        <v>11</v>
+        <v>1555</v>
       </c>
       <c r="G41" s="13">
-        <v>1555</v>
+        <v>70</v>
       </c>
       <c r="H41" s="13">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I41" s="13">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="J41" s="13">
+        <v>92</v>
+      </c>
+      <c r="K41" s="13">
+        <v>63</v>
+      </c>
+      <c r="L41" s="13">
+        <v>42</v>
+      </c>
+      <c r="M41" s="13">
         <v>163</v>
       </c>
-      <c r="K41" s="13">
-        <v>92</v>
-      </c>
-      <c r="L41" s="13">
-        <v>63</v>
-      </c>
-      <c r="M41" s="13">
+      <c r="N41" s="13">
+        <v>68</v>
+      </c>
+      <c r="O41" s="13">
+        <v>16</v>
+      </c>
+      <c r="P41" s="13">
+        <v>170</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>118</v>
+      </c>
+      <c r="R41" s="13">
+        <v>178</v>
+      </c>
+      <c r="S41" s="13">
+        <v>112</v>
+      </c>
+      <c r="T41" s="13">
+        <v>131</v>
+      </c>
+      <c r="U41" s="13">
+        <v>165</v>
+      </c>
+      <c r="V41" s="13">
+        <v>100</v>
+      </c>
+      <c r="W41" s="13">
+        <v>119</v>
+      </c>
+      <c r="X41" s="13">
+        <v>22</v>
+      </c>
+      <c r="Y41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="13">
+        <v>41</v>
+      </c>
+      <c r="AD41" s="13">
         <v>42</v>
       </c>
-      <c r="N41" s="13">
-        <v>163</v>
-      </c>
-      <c r="O41" s="13">
-        <v>68</v>
-      </c>
-      <c r="P41" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="13">
-        <v>170</v>
-      </c>
-      <c r="R41" s="13">
-        <v>118</v>
-      </c>
-      <c r="S41" s="13">
-        <v>178</v>
-      </c>
-      <c r="T41" s="13">
-        <v>112</v>
-      </c>
-      <c r="U41" s="13">
-        <v>131</v>
-      </c>
-      <c r="V41" s="13">
-        <v>165</v>
-      </c>
-      <c r="W41" s="13">
-        <v>100</v>
-      </c>
-      <c r="X41" s="13">
-        <v>119</v>
-      </c>
-      <c r="Y41" s="13">
-        <v>22</v>
-      </c>
-      <c r="Z41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="13">
-        <v>41</v>
-      </c>
       <c r="AE41" s="13">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="13">
         <v>0</v>
       </c>
       <c r="AG41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ41" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="13">
         <v>0</v>
@@ -5677,55 +5712,55 @@
         <v>0</v>
       </c>
       <c r="AM41" s="13">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AN41" s="13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP41" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AR41" s="13">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AS41" s="13">
+        <v>230</v>
+      </c>
+      <c r="AT41" s="13">
+        <v>28</v>
+      </c>
+      <c r="AU41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="13">
         <v>30</v>
       </c>
-      <c r="AT41" s="13">
-        <v>230</v>
-      </c>
-      <c r="AU41" s="13">
-        <v>28</v>
-      </c>
-      <c r="AV41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="13">
-        <v>0</v>
-      </c>
       <c r="AY41" s="13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AZ41" s="13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BA41" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
@@ -5847,8 +5882,8 @@
       <c r="AP42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ42" s="11" t="s">
-        <v>57</v>
+      <c r="AQ42" s="11">
+        <v>0</v>
       </c>
       <c r="AR42" s="11">
         <v>0</v>
@@ -5884,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>68</v>
       </c>
@@ -6006,8 +6041,8 @@
       <c r="AP43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ43" s="13" t="s">
-        <v>57</v>
+      <c r="AQ43" s="13">
+        <v>0</v>
       </c>
       <c r="AR43" s="13">
         <v>0</v>
@@ -6043,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>69</v>
       </c>
@@ -6052,157 +6087,157 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>244</v>
+      </c>
+      <c r="F44" s="11">
+        <v>5076</v>
+      </c>
+      <c r="G44" s="11">
+        <v>659</v>
+      </c>
+      <c r="H44" s="11">
+        <v>974</v>
+      </c>
+      <c r="I44" s="11">
+        <v>783</v>
+      </c>
+      <c r="J44" s="11">
+        <v>163</v>
+      </c>
+      <c r="K44" s="11">
+        <v>264</v>
+      </c>
+      <c r="L44" s="11">
+        <v>204</v>
+      </c>
+      <c r="M44" s="11">
+        <v>197</v>
+      </c>
+      <c r="N44" s="11">
+        <v>554</v>
+      </c>
+      <c r="O44" s="11">
+        <v>181</v>
+      </c>
+      <c r="P44" s="11">
+        <v>163</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>44</v>
+      </c>
+      <c r="R44" s="11">
+        <v>384</v>
+      </c>
+      <c r="S44" s="11">
+        <v>338</v>
+      </c>
+      <c r="T44" s="11">
+        <v>311</v>
+      </c>
+      <c r="U44" s="11">
+        <v>161</v>
+      </c>
+      <c r="V44" s="11">
+        <v>42</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+      <c r="X44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>119</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>280</v>
+      </c>
+      <c r="AC44" s="11">
+        <v>156</v>
+      </c>
+      <c r="AD44" s="11">
+        <v>51</v>
+      </c>
+      <c r="AE44" s="11">
+        <v>292</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="11">
+        <v>155</v>
+      </c>
+      <c r="AH44" s="11">
+        <v>138</v>
+      </c>
+      <c r="AI44" s="11">
+        <v>239</v>
+      </c>
+      <c r="AJ44" s="11">
+        <v>240</v>
+      </c>
+      <c r="AK44" s="11">
+        <v>353</v>
+      </c>
+      <c r="AL44" s="11">
+        <v>627</v>
+      </c>
+      <c r="AM44" s="11">
         <v>469</v>
       </c>
-      <c r="F44" s="11">
-        <v>244</v>
-      </c>
-      <c r="G44" s="11">
-        <v>5076</v>
-      </c>
-      <c r="H44" s="11">
-        <v>659</v>
-      </c>
-      <c r="I44" s="11">
-        <v>974</v>
-      </c>
-      <c r="J44" s="11">
-        <v>783</v>
-      </c>
-      <c r="K44" s="11">
-        <v>163</v>
-      </c>
-      <c r="L44" s="11">
-        <v>264</v>
-      </c>
-      <c r="M44" s="11">
-        <v>204</v>
-      </c>
-      <c r="N44" s="11">
-        <v>197</v>
-      </c>
-      <c r="O44" s="11">
-        <v>554</v>
-      </c>
-      <c r="P44" s="11">
-        <v>181</v>
-      </c>
-      <c r="Q44" s="11">
-        <v>163</v>
-      </c>
-      <c r="R44" s="11">
-        <v>44</v>
-      </c>
-      <c r="S44" s="11">
-        <v>384</v>
-      </c>
-      <c r="T44" s="11">
-        <v>338</v>
-      </c>
-      <c r="U44" s="11">
-        <v>311</v>
-      </c>
-      <c r="V44" s="11">
-        <v>161</v>
-      </c>
-      <c r="W44" s="11">
-        <v>42</v>
-      </c>
-      <c r="X44" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="11">
-        <v>119</v>
-      </c>
-      <c r="AB44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="11">
-        <v>280</v>
-      </c>
-      <c r="AD44" s="11">
+      <c r="AN44" s="11">
+        <v>77</v>
+      </c>
+      <c r="AO44" s="11">
+        <v>249</v>
+      </c>
+      <c r="AP44" s="11">
+        <v>288</v>
+      </c>
+      <c r="AQ44" s="11">
+        <v>316</v>
+      </c>
+      <c r="AR44" s="11">
+        <v>51</v>
+      </c>
+      <c r="AS44" s="11">
+        <v>84</v>
+      </c>
+      <c r="AT44" s="11">
+        <v>1668</v>
+      </c>
+      <c r="AU44" s="11">
+        <v>-1166</v>
+      </c>
+      <c r="AV44" s="11">
         <v>156</v>
       </c>
-      <c r="AE44" s="11">
-        <v>51</v>
-      </c>
-      <c r="AF44" s="11">
-        <v>292</v>
-      </c>
-      <c r="AG44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="11">
-        <v>155</v>
-      </c>
-      <c r="AI44" s="11">
-        <v>138</v>
-      </c>
-      <c r="AJ44" s="11">
-        <v>239</v>
-      </c>
-      <c r="AK44" s="11">
-        <v>240</v>
-      </c>
-      <c r="AL44" s="11">
-        <v>353</v>
-      </c>
-      <c r="AM44" s="11">
-        <v>627</v>
-      </c>
-      <c r="AN44" s="11">
-        <v>469</v>
-      </c>
-      <c r="AO44" s="11">
-        <v>77</v>
-      </c>
-      <c r="AP44" s="11">
-        <v>249</v>
-      </c>
-      <c r="AQ44" s="11">
-        <v>288</v>
-      </c>
-      <c r="AR44" s="11">
-        <v>316</v>
-      </c>
-      <c r="AS44" s="11">
-        <v>51</v>
-      </c>
-      <c r="AT44" s="11">
-        <v>84</v>
-      </c>
-      <c r="AU44" s="11">
-        <v>1668</v>
-      </c>
-      <c r="AV44" s="11">
-        <v>-1166</v>
-      </c>
       <c r="AW44" s="11">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="AX44" s="11">
-        <v>520</v>
+        <v>157</v>
       </c>
       <c r="AY44" s="11">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="BA44" s="11">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="BB44" s="11">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>70</v>
       </c>
@@ -6324,8 +6359,8 @@
       <c r="AP45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ45" s="13" t="s">
-        <v>57</v>
+      <c r="AQ45" s="13">
+        <v>0</v>
       </c>
       <c r="AR45" s="13">
         <v>0</v>
@@ -6361,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>71</v>
       </c>
@@ -6483,8 +6518,8 @@
       <c r="AP46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ46" s="11" t="s">
-        <v>57</v>
+      <c r="AQ46" s="11">
+        <v>0</v>
       </c>
       <c r="AR46" s="11">
         <v>0</v>
@@ -6520,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>73</v>
       </c>
@@ -6642,8 +6677,8 @@
       <c r="AP47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ47" s="13" t="s">
-        <v>57</v>
+      <c r="AQ47" s="13">
+        <v>0</v>
       </c>
       <c r="AR47" s="13">
         <v>0</v>
@@ -6679,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>74</v>
       </c>
@@ -6736,7 +6771,7 @@
       <c r="BA48" s="15"/>
       <c r="BB48" s="15"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>75</v>
       </c>
@@ -6820,8 +6855,8 @@
       <c r="AD49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AE49" s="17" t="s">
-        <v>57</v>
+      <c r="AE49" s="17">
+        <v>0</v>
       </c>
       <c r="AF49" s="17">
         <v>0</v>
@@ -6862,8 +6897,8 @@
       <c r="AR49" s="17">
         <v>0</v>
       </c>
-      <c r="AS49" s="17">
-        <v>0</v>
+      <c r="AS49" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AT49" s="17" t="s">
         <v>57</v>
@@ -6893,7 +6928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
@@ -6950,7 +6985,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>55</v>
       </c>
@@ -7075,11 +7110,11 @@
       <c r="AQ51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS51" s="11">
-        <v>0</v>
+      <c r="AR51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT51" s="11" t="s">
         <v>57</v>
@@ -7109,7 +7144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>63</v>
       </c>
@@ -7198,47 +7233,47 @@
       <c r="AE52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF52" s="13" t="s">
-        <v>57</v>
+      <c r="AF52" s="13">
+        <v>-1</v>
       </c>
       <c r="AG52" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AH52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="13">
         <v>-1</v>
-      </c>
-      <c r="AH52" s="13">
-        <v>-2</v>
-      </c>
-      <c r="AI52" s="13">
-        <v>0</v>
       </c>
       <c r="AJ52" s="13">
         <v>-1</v>
       </c>
-      <c r="AK52" s="13">
+      <c r="AK52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL52" s="13">
+        <v>-41</v>
+      </c>
+      <c r="AM52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO52" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AP52" s="13">
         <v>-1</v>
       </c>
-      <c r="AL52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM52" s="13">
-        <v>-41</v>
-      </c>
-      <c r="AN52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP52" s="13">
-        <v>-4</v>
-      </c>
-      <c r="AQ52" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AR52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS52" s="13">
-        <v>0</v>
+      <c r="AQ52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT52" s="13" t="s">
         <v>57</v>
@@ -7268,7 +7303,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>79</v>
       </c>
@@ -7357,48 +7392,48 @@
       <c r="AE53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF53" s="11" t="s">
-        <v>57</v>
+      <c r="AF53" s="11">
+        <v>-16</v>
       </c>
       <c r="AG53" s="11">
-        <v>-16</v>
+        <v>-3370</v>
       </c>
       <c r="AH53" s="11">
-        <v>-3370</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ53" s="11">
         <v>-2</v>
       </c>
-      <c r="AK53" s="11">
+      <c r="AK53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>-80</v>
+      </c>
+      <c r="AM53" s="11">
+        <v>-100</v>
+      </c>
+      <c r="AN53" s="11">
+        <v>-10</v>
+      </c>
+      <c r="AO53" s="11">
+        <v>-175</v>
+      </c>
+      <c r="AP53" s="11">
+        <v>-28</v>
+      </c>
+      <c r="AQ53" s="11">
         <v>-2</v>
       </c>
-      <c r="AL53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM53" s="11">
-        <v>-80</v>
-      </c>
-      <c r="AN53" s="11">
-        <v>-100</v>
-      </c>
-      <c r="AO53" s="11">
-        <v>-10</v>
-      </c>
-      <c r="AP53" s="11">
-        <v>-175</v>
-      </c>
-      <c r="AQ53" s="11">
-        <v>-28</v>
-      </c>
       <c r="AR53" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AS53" s="11">
         <v>-1</v>
       </c>
+      <c r="AS53" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT53" s="11" t="s">
         <v>57</v>
       </c>
@@ -7427,7 +7462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
         <v>80</v>
       </c>
@@ -7511,51 +7546,51 @@
       <c r="AD54" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AE54" s="19" t="s">
-        <v>57</v>
+      <c r="AE54" s="19">
+        <v>0</v>
       </c>
       <c r="AF54" s="19">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AG54" s="19">
-        <v>-17</v>
+        <v>-3372</v>
       </c>
       <c r="AH54" s="19">
-        <v>-3372</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="19">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ54" s="19">
         <v>-3</v>
       </c>
       <c r="AK54" s="19">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="19">
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="AM54" s="19">
-        <v>-121</v>
+        <v>-100</v>
       </c>
       <c r="AN54" s="19">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="AO54" s="19">
-        <v>-10</v>
+        <v>-179</v>
       </c>
       <c r="AP54" s="19">
-        <v>-179</v>
+        <v>-29</v>
       </c>
       <c r="AQ54" s="19">
-        <v>-29</v>
+        <v>-2</v>
       </c>
       <c r="AR54" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AS54" s="19">
         <v>-1</v>
       </c>
+      <c r="AS54" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="AT54" s="19" t="s">
         <v>57</v>
       </c>
@@ -7584,164 +7619,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17">
-        <v>27054</v>
+        <v>12805</v>
       </c>
       <c r="F55" s="17">
-        <v>12805</v>
+        <v>20784</v>
       </c>
       <c r="G55" s="17">
-        <v>20784</v>
+        <v>14992</v>
       </c>
       <c r="H55" s="17">
-        <v>14992</v>
+        <v>18557</v>
       </c>
       <c r="I55" s="17">
-        <v>18557</v>
+        <v>17824</v>
       </c>
       <c r="J55" s="17">
-        <v>17824</v>
+        <v>13122</v>
       </c>
       <c r="K55" s="17">
-        <v>13122</v>
+        <v>18204</v>
       </c>
       <c r="L55" s="17">
-        <v>18204</v>
+        <v>17031</v>
       </c>
       <c r="M55" s="17">
-        <v>17031</v>
+        <v>21036</v>
       </c>
       <c r="N55" s="17">
-        <v>21036</v>
+        <v>16444</v>
       </c>
       <c r="O55" s="17">
-        <v>16444</v>
+        <v>15558</v>
       </c>
       <c r="P55" s="17">
-        <v>15558</v>
+        <v>16266</v>
       </c>
       <c r="Q55" s="17">
-        <v>16266</v>
+        <v>19816</v>
       </c>
       <c r="R55" s="17">
-        <v>19816</v>
+        <v>18886</v>
       </c>
       <c r="S55" s="17">
-        <v>18886</v>
+        <v>12002</v>
       </c>
       <c r="T55" s="17">
-        <v>12002</v>
+        <v>15123</v>
       </c>
       <c r="U55" s="17">
-        <v>15123</v>
+        <v>12085</v>
       </c>
       <c r="V55" s="17">
-        <v>12085</v>
+        <v>11586</v>
       </c>
       <c r="W55" s="17">
-        <v>11586</v>
+        <v>13772</v>
       </c>
       <c r="X55" s="17">
-        <v>13772</v>
+        <v>12837</v>
       </c>
       <c r="Y55" s="17">
-        <v>12837</v>
+        <v>11021</v>
       </c>
       <c r="Z55" s="17">
-        <v>11021</v>
+        <v>11684</v>
       </c>
       <c r="AA55" s="17">
-        <v>11684</v>
+        <v>12832</v>
       </c>
       <c r="AB55" s="17">
-        <v>12832</v>
+        <v>15263</v>
       </c>
       <c r="AC55" s="17">
-        <v>15263</v>
+        <v>12908</v>
       </c>
       <c r="AD55" s="17">
-        <v>12908</v>
+        <v>14765</v>
       </c>
       <c r="AE55" s="17">
-        <v>14765</v>
+        <v>11319</v>
       </c>
       <c r="AF55" s="17">
-        <v>11319</v>
+        <v>14395</v>
       </c>
       <c r="AG55" s="17">
-        <v>14395</v>
+        <v>10249</v>
       </c>
       <c r="AH55" s="17">
-        <v>10249</v>
+        <v>15713</v>
       </c>
       <c r="AI55" s="17">
-        <v>15713</v>
+        <v>13453</v>
       </c>
       <c r="AJ55" s="17">
-        <v>13453</v>
+        <v>13601</v>
       </c>
       <c r="AK55" s="17">
-        <v>13601</v>
+        <v>13270</v>
       </c>
       <c r="AL55" s="17">
-        <v>13270</v>
+        <v>14293</v>
       </c>
       <c r="AM55" s="17">
-        <v>14293</v>
+        <v>15663</v>
       </c>
       <c r="AN55" s="17">
-        <v>15663</v>
+        <v>14276</v>
       </c>
       <c r="AO55" s="17">
-        <v>14276</v>
+        <v>14090</v>
       </c>
       <c r="AP55" s="17">
-        <v>14090</v>
+        <v>16364</v>
       </c>
       <c r="AQ55" s="17">
-        <v>16364</v>
+        <v>12468</v>
       </c>
       <c r="AR55" s="17">
-        <v>12468</v>
+        <v>13257</v>
       </c>
       <c r="AS55" s="17">
-        <v>13257</v>
+        <v>13603</v>
       </c>
       <c r="AT55" s="17">
-        <v>13603</v>
+        <v>11639</v>
       </c>
       <c r="AU55" s="17">
-        <v>11639</v>
+        <v>12288</v>
       </c>
       <c r="AV55" s="17">
-        <v>12288</v>
+        <v>17658</v>
       </c>
       <c r="AW55" s="17">
-        <v>17658</v>
+        <v>9066</v>
       </c>
       <c r="AX55" s="17">
-        <v>9066</v>
+        <v>13921</v>
       </c>
       <c r="AY55" s="17">
-        <v>13921</v>
+        <v>11734</v>
       </c>
       <c r="AZ55" s="17">
-        <v>11734</v>
+        <v>14260</v>
       </c>
       <c r="BA55" s="17">
-        <v>14260</v>
+        <v>14489</v>
       </c>
       <c r="BB55" s="17">
-        <v>14492</v>
+        <v>18136</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7796,7 +7831,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7851,7 +7886,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -7906,7 +7941,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>81</v>
       </c>
@@ -8063,7 +8098,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8118,7 +8153,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>81</v>
       </c>
@@ -8175,7 +8210,7 @@
       <c r="BA61" s="9"/>
       <c r="BB61" s="9"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>55</v>
       </c>
@@ -8291,14 +8326,14 @@
       <c r="AN62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO62" s="11" t="s">
-        <v>57</v>
+      <c r="AO62" s="11">
+        <v>0</v>
       </c>
       <c r="AP62" s="11">
-        <v>0</v>
+        <v>202204</v>
       </c>
       <c r="AQ62" s="11">
-        <v>202204</v>
+        <v>0</v>
       </c>
       <c r="AR62" s="11">
         <v>0</v>
@@ -8307,34 +8342,34 @@
         <v>0</v>
       </c>
       <c r="AT62" s="11">
-        <v>0</v>
+        <v>2369</v>
       </c>
       <c r="AU62" s="11">
-        <v>2369</v>
+        <v>312</v>
       </c>
       <c r="AV62" s="11">
-        <v>312</v>
+        <v>765</v>
       </c>
       <c r="AW62" s="11">
+        <v>442</v>
+      </c>
+      <c r="AX62" s="11">
+        <v>24409</v>
+      </c>
+      <c r="AY62" s="11">
         <v>765</v>
       </c>
-      <c r="AX62" s="11">
-        <v>442</v>
-      </c>
-      <c r="AY62" s="11">
-        <v>24409</v>
-      </c>
       <c r="AZ62" s="11">
-        <v>765</v>
+        <v>693</v>
       </c>
       <c r="BA62" s="11">
-        <v>693</v>
+        <v>601</v>
       </c>
       <c r="BB62" s="11">
-        <v>601</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>58</v>
       </c>
@@ -8423,20 +8458,20 @@
       <c r="AE63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF63" s="13" t="s">
-        <v>57</v>
+      <c r="AF63" s="13">
+        <v>2623</v>
       </c>
       <c r="AG63" s="13">
-        <v>2623</v>
+        <v>413</v>
       </c>
       <c r="AH63" s="13">
-        <v>413</v>
+        <v>1305</v>
       </c>
       <c r="AI63" s="13">
-        <v>1305</v>
+        <v>6862</v>
       </c>
       <c r="AJ63" s="13">
-        <v>6862</v>
+        <v>0</v>
       </c>
       <c r="AK63" s="13">
         <v>0</v>
@@ -8456,8 +8491,8 @@
       <c r="AP63" s="13">
         <v>0</v>
       </c>
-      <c r="AQ63" s="13">
-        <v>0</v>
+      <c r="AQ63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR63" s="13" t="s">
         <v>57</v>
@@ -8493,7 +8528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>60</v>
       </c>
@@ -8502,157 +8537,157 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>12150</v>
+        <v>4510</v>
       </c>
       <c r="F64" s="11">
-        <v>4510</v>
-      </c>
-      <c r="G64" s="11">
         <v>9</v>
       </c>
+      <c r="G64" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="H64" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="11" t="s">
-        <v>57</v>
+      <c r="I64" s="11">
+        <v>567</v>
       </c>
       <c r="J64" s="11">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="K64" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L64" s="11">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M64" s="11">
-        <v>0</v>
+        <v>2424</v>
       </c>
       <c r="N64" s="11">
-        <v>2424</v>
+        <v>0</v>
       </c>
       <c r="O64" s="11">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="P64" s="11">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="11">
-        <v>0</v>
+        <v>23529</v>
       </c>
       <c r="R64" s="11">
-        <v>23529</v>
+        <v>34258</v>
       </c>
       <c r="S64" s="11">
-        <v>34258</v>
+        <v>33001</v>
       </c>
       <c r="T64" s="11">
-        <v>33001</v>
+        <v>41416</v>
       </c>
       <c r="U64" s="11">
-        <v>41416</v>
+        <v>232</v>
       </c>
       <c r="V64" s="11">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="W64" s="11">
         <v>0</v>
       </c>
       <c r="X64" s="11">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="Y64" s="11">
-        <v>517</v>
+        <v>1531</v>
       </c>
       <c r="Z64" s="11">
-        <v>1531</v>
+        <v>17464</v>
       </c>
       <c r="AA64" s="11">
-        <v>17464</v>
+        <v>1359</v>
       </c>
       <c r="AB64" s="11">
-        <v>1359</v>
+        <v>36077</v>
       </c>
       <c r="AC64" s="11">
-        <v>36077</v>
+        <v>30222</v>
       </c>
       <c r="AD64" s="11">
-        <v>30222</v>
+        <v>51901</v>
       </c>
       <c r="AE64" s="11">
-        <v>51901</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="11">
-        <v>0</v>
+        <v>15289</v>
       </c>
       <c r="AG64" s="11">
-        <v>15289</v>
+        <v>526</v>
       </c>
       <c r="AH64" s="11">
-        <v>526</v>
+        <v>23786</v>
       </c>
       <c r="AI64" s="11">
-        <v>23786</v>
+        <v>17</v>
       </c>
       <c r="AJ64" s="11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK64" s="11">
-        <v>0</v>
+        <v>5518</v>
       </c>
       <c r="AL64" s="11">
-        <v>5518</v>
+        <v>390</v>
       </c>
       <c r="AM64" s="11">
-        <v>390</v>
+        <v>33338</v>
       </c>
       <c r="AN64" s="11">
-        <v>33338</v>
+        <v>40127</v>
       </c>
       <c r="AO64" s="11">
-        <v>40127</v>
+        <v>68589</v>
       </c>
       <c r="AP64" s="11">
-        <v>68589</v>
+        <v>52971</v>
       </c>
       <c r="AQ64" s="11">
-        <v>52971</v>
+        <v>0</v>
       </c>
       <c r="AR64" s="11">
         <v>0</v>
       </c>
       <c r="AS64" s="11">
-        <v>0</v>
+        <v>70141</v>
       </c>
       <c r="AT64" s="11">
-        <v>70141</v>
+        <v>61403</v>
       </c>
       <c r="AU64" s="11">
-        <v>61403</v>
+        <v>36027</v>
       </c>
       <c r="AV64" s="11">
-        <v>36027</v>
+        <v>12665</v>
       </c>
       <c r="AW64" s="11">
-        <v>12665</v>
+        <v>41713</v>
       </c>
       <c r="AX64" s="11">
-        <v>41713</v>
+        <v>11465</v>
       </c>
       <c r="AY64" s="11">
-        <v>11465</v>
+        <v>27928</v>
       </c>
       <c r="AZ64" s="11">
-        <v>27928</v>
+        <v>35739</v>
       </c>
       <c r="BA64" s="11">
-        <v>35739</v>
+        <v>40808</v>
       </c>
       <c r="BB64" s="11">
-        <v>40929</v>
+        <v>23516</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>61</v>
       </c>
@@ -8661,157 +8696,157 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>20233</v>
+        <v>12529</v>
       </c>
       <c r="F65" s="13">
-        <v>12529</v>
+        <v>22875</v>
       </c>
       <c r="G65" s="13">
-        <v>22875</v>
+        <v>13479</v>
       </c>
       <c r="H65" s="13">
-        <v>13479</v>
+        <v>8692</v>
       </c>
       <c r="I65" s="13">
-        <v>8692</v>
+        <v>16313</v>
       </c>
       <c r="J65" s="13">
-        <v>16313</v>
+        <v>6590</v>
       </c>
       <c r="K65" s="13">
-        <v>6590</v>
+        <v>7435</v>
       </c>
       <c r="L65" s="13">
-        <v>7435</v>
+        <v>3174</v>
       </c>
       <c r="M65" s="13">
-        <v>3174</v>
+        <v>3695</v>
       </c>
       <c r="N65" s="13">
-        <v>3695</v>
+        <v>6995</v>
       </c>
       <c r="O65" s="13">
-        <v>6995</v>
+        <v>4187</v>
       </c>
       <c r="P65" s="13">
-        <v>4187</v>
+        <v>3877</v>
       </c>
       <c r="Q65" s="13">
-        <v>3877</v>
+        <v>2893</v>
       </c>
       <c r="R65" s="13">
-        <v>2893</v>
+        <v>5239</v>
       </c>
       <c r="S65" s="13">
-        <v>5239</v>
+        <v>8220</v>
       </c>
       <c r="T65" s="13">
-        <v>8220</v>
+        <v>7045</v>
       </c>
       <c r="U65" s="13">
-        <v>7045</v>
+        <v>14667</v>
       </c>
       <c r="V65" s="13">
-        <v>14667</v>
+        <v>20499</v>
       </c>
       <c r="W65" s="13">
-        <v>20499</v>
+        <v>9396</v>
       </c>
       <c r="X65" s="13">
-        <v>9396</v>
+        <v>6727</v>
       </c>
       <c r="Y65" s="13">
-        <v>6727</v>
+        <v>3239</v>
       </c>
       <c r="Z65" s="13">
-        <v>3239</v>
+        <v>883</v>
       </c>
       <c r="AA65" s="13">
-        <v>883</v>
+        <v>3023</v>
       </c>
       <c r="AB65" s="13">
-        <v>3023</v>
+        <v>4055</v>
       </c>
       <c r="AC65" s="13">
-        <v>4055</v>
+        <v>3831</v>
       </c>
       <c r="AD65" s="13">
-        <v>3831</v>
+        <v>3749</v>
       </c>
       <c r="AE65" s="13">
-        <v>3749</v>
+        <v>4641</v>
       </c>
       <c r="AF65" s="13">
-        <v>4641</v>
+        <v>5695</v>
       </c>
       <c r="AG65" s="13">
-        <v>5695</v>
+        <v>6436</v>
       </c>
       <c r="AH65" s="13">
-        <v>6436</v>
+        <v>2033</v>
       </c>
       <c r="AI65" s="13">
-        <v>2033</v>
+        <v>5828</v>
       </c>
       <c r="AJ65" s="13">
-        <v>5828</v>
+        <v>3588</v>
       </c>
       <c r="AK65" s="13">
-        <v>3588</v>
+        <v>6161</v>
       </c>
       <c r="AL65" s="13">
-        <v>6161</v>
+        <v>3187</v>
       </c>
       <c r="AM65" s="13">
-        <v>3187</v>
+        <v>2148</v>
       </c>
       <c r="AN65" s="13">
-        <v>2148</v>
+        <v>4480</v>
       </c>
       <c r="AO65" s="13">
-        <v>4480</v>
+        <v>9474</v>
       </c>
       <c r="AP65" s="13">
-        <v>9474</v>
+        <v>6352</v>
       </c>
       <c r="AQ65" s="13">
-        <v>6352</v>
+        <v>9214</v>
       </c>
       <c r="AR65" s="13">
-        <v>9214</v>
+        <v>7808</v>
       </c>
       <c r="AS65" s="13">
-        <v>7808</v>
+        <v>10939</v>
       </c>
       <c r="AT65" s="13">
-        <v>10939</v>
+        <v>2451</v>
       </c>
       <c r="AU65" s="13">
-        <v>2451</v>
+        <v>13980</v>
       </c>
       <c r="AV65" s="13">
-        <v>13980</v>
+        <v>11774</v>
       </c>
       <c r="AW65" s="13">
-        <v>11774</v>
+        <v>10660</v>
       </c>
       <c r="AX65" s="13">
-        <v>10660</v>
+        <v>9227</v>
       </c>
       <c r="AY65" s="13">
-        <v>9227</v>
+        <v>5752</v>
       </c>
       <c r="AZ65" s="13">
-        <v>5752</v>
+        <v>17765</v>
       </c>
       <c r="BA65" s="13">
-        <v>17765</v>
+        <v>48705</v>
       </c>
       <c r="BB65" s="13">
-        <v>48705</v>
+        <v>40981</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>62</v>
       </c>
@@ -8820,157 +8855,157 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>6240</v>
+        <v>6980</v>
       </c>
       <c r="F66" s="11">
-        <v>6980</v>
+        <v>8222</v>
       </c>
       <c r="G66" s="11">
-        <v>8222</v>
+        <v>10319</v>
       </c>
       <c r="H66" s="11">
-        <v>10319</v>
+        <v>10241</v>
       </c>
       <c r="I66" s="11">
-        <v>10241</v>
+        <v>14063</v>
       </c>
       <c r="J66" s="11">
-        <v>14063</v>
+        <v>9800</v>
       </c>
       <c r="K66" s="11">
-        <v>9800</v>
+        <v>14744</v>
       </c>
       <c r="L66" s="11">
-        <v>14744</v>
+        <v>11797</v>
       </c>
       <c r="M66" s="11">
-        <v>11797</v>
+        <v>30308</v>
       </c>
       <c r="N66" s="11">
-        <v>30308</v>
+        <v>10649</v>
       </c>
       <c r="O66" s="11">
-        <v>10649</v>
+        <v>9225</v>
       </c>
       <c r="P66" s="11">
-        <v>9225</v>
+        <v>13387</v>
       </c>
       <c r="Q66" s="11">
-        <v>13387</v>
+        <v>16443</v>
       </c>
       <c r="R66" s="11">
-        <v>16443</v>
+        <v>17421</v>
       </c>
       <c r="S66" s="11">
-        <v>17421</v>
+        <v>11679</v>
       </c>
       <c r="T66" s="11">
-        <v>11679</v>
+        <v>12730</v>
       </c>
       <c r="U66" s="11">
-        <v>12730</v>
+        <v>7471</v>
       </c>
       <c r="V66" s="11">
-        <v>7471</v>
+        <v>6766</v>
       </c>
       <c r="W66" s="11">
-        <v>6766</v>
+        <v>14684</v>
       </c>
       <c r="X66" s="11">
-        <v>14684</v>
+        <v>10907</v>
       </c>
       <c r="Y66" s="11">
-        <v>10907</v>
+        <v>28107</v>
       </c>
       <c r="Z66" s="11">
-        <v>28107</v>
+        <v>9183</v>
       </c>
       <c r="AA66" s="11">
-        <v>9183</v>
+        <v>22609</v>
       </c>
       <c r="AB66" s="11">
-        <v>22609</v>
+        <v>33013</v>
       </c>
       <c r="AC66" s="11">
-        <v>33013</v>
+        <v>28643</v>
       </c>
       <c r="AD66" s="11">
-        <v>28643</v>
+        <v>41406</v>
       </c>
       <c r="AE66" s="11">
-        <v>41406</v>
+        <v>10916</v>
       </c>
       <c r="AF66" s="11">
-        <v>10916</v>
+        <v>20075</v>
       </c>
       <c r="AG66" s="11">
-        <v>20075</v>
+        <v>39049</v>
       </c>
       <c r="AH66" s="11">
-        <v>39049</v>
+        <v>48529</v>
       </c>
       <c r="AI66" s="11">
-        <v>48529</v>
+        <v>14368</v>
       </c>
       <c r="AJ66" s="11">
-        <v>14368</v>
+        <v>22143</v>
       </c>
       <c r="AK66" s="11">
-        <v>22143</v>
+        <v>23716</v>
       </c>
       <c r="AL66" s="11">
-        <v>23716</v>
+        <v>19191</v>
       </c>
       <c r="AM66" s="11">
-        <v>19191</v>
+        <v>27200</v>
       </c>
       <c r="AN66" s="11">
-        <v>27200</v>
+        <v>26365</v>
       </c>
       <c r="AO66" s="11">
-        <v>26365</v>
+        <v>25246</v>
       </c>
       <c r="AP66" s="11">
-        <v>25246</v>
+        <v>37888</v>
       </c>
       <c r="AQ66" s="11">
-        <v>37888</v>
+        <v>23369</v>
       </c>
       <c r="AR66" s="11">
-        <v>23369</v>
+        <v>19985</v>
       </c>
       <c r="AS66" s="11">
-        <v>19985</v>
+        <v>24602</v>
       </c>
       <c r="AT66" s="11">
-        <v>24602</v>
+        <v>15955</v>
       </c>
       <c r="AU66" s="11">
-        <v>15955</v>
+        <v>20829</v>
       </c>
       <c r="AV66" s="11">
-        <v>20829</v>
+        <v>66451</v>
       </c>
       <c r="AW66" s="11">
-        <v>66451</v>
+        <v>15361</v>
       </c>
       <c r="AX66" s="11">
-        <v>15361</v>
+        <v>45289</v>
       </c>
       <c r="AY66" s="11">
-        <v>45289</v>
+        <v>27824</v>
       </c>
       <c r="AZ66" s="11">
-        <v>27824</v>
+        <v>44645</v>
       </c>
       <c r="BA66" s="11">
-        <v>44645</v>
+        <v>43345</v>
       </c>
       <c r="BB66" s="11">
-        <v>43345</v>
+        <v>83074</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>63</v>
       </c>
@@ -8979,157 +9014,157 @@
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>402663</v>
+        <v>412755</v>
       </c>
       <c r="F67" s="13">
-        <v>412755</v>
+        <v>437177</v>
       </c>
       <c r="G67" s="13">
-        <v>437177</v>
+        <v>338974</v>
       </c>
       <c r="H67" s="13">
-        <v>338974</v>
+        <v>398849</v>
       </c>
       <c r="I67" s="13">
-        <v>398849</v>
+        <v>322025</v>
       </c>
       <c r="J67" s="13">
-        <v>322025</v>
+        <v>297130</v>
       </c>
       <c r="K67" s="13">
-        <v>297130</v>
+        <v>327576</v>
       </c>
       <c r="L67" s="13">
-        <v>327576</v>
+        <v>286691</v>
       </c>
       <c r="M67" s="13">
-        <v>286691</v>
+        <v>397598</v>
       </c>
       <c r="N67" s="13">
-        <v>397598</v>
+        <v>423313</v>
       </c>
       <c r="O67" s="13">
-        <v>423313</v>
+        <v>378869</v>
       </c>
       <c r="P67" s="13">
-        <v>378869</v>
+        <v>437355</v>
       </c>
       <c r="Q67" s="13">
-        <v>437355</v>
+        <v>500847</v>
       </c>
       <c r="R67" s="13">
-        <v>500847</v>
+        <v>543462</v>
       </c>
       <c r="S67" s="13">
-        <v>543462</v>
+        <v>421202</v>
       </c>
       <c r="T67" s="13">
-        <v>421202</v>
+        <v>522046</v>
       </c>
       <c r="U67" s="13">
-        <v>522046</v>
+        <v>429199</v>
       </c>
       <c r="V67" s="13">
-        <v>429199</v>
+        <v>472534</v>
       </c>
       <c r="W67" s="13">
-        <v>472534</v>
+        <v>432802</v>
       </c>
       <c r="X67" s="13">
-        <v>432802</v>
+        <v>471881</v>
       </c>
       <c r="Y67" s="13">
-        <v>471881</v>
+        <v>550398</v>
       </c>
       <c r="Z67" s="13">
-        <v>550398</v>
+        <v>498040</v>
       </c>
       <c r="AA67" s="13">
-        <v>498040</v>
+        <v>633240</v>
       </c>
       <c r="AB67" s="13">
-        <v>633240</v>
+        <v>664603</v>
       </c>
       <c r="AC67" s="13">
-        <v>664603</v>
+        <v>629117</v>
       </c>
       <c r="AD67" s="13">
-        <v>629117</v>
+        <v>787639</v>
       </c>
       <c r="AE67" s="13">
-        <v>787639</v>
+        <v>805480</v>
       </c>
       <c r="AF67" s="13">
-        <v>805480</v>
+        <v>789675</v>
       </c>
       <c r="AG67" s="13">
-        <v>789675</v>
+        <v>723495</v>
       </c>
       <c r="AH67" s="13">
-        <v>723495</v>
+        <v>615606</v>
       </c>
       <c r="AI67" s="13">
-        <v>615606</v>
+        <v>703849</v>
       </c>
       <c r="AJ67" s="13">
-        <v>703849</v>
+        <v>899754</v>
       </c>
       <c r="AK67" s="13">
-        <v>899754</v>
+        <v>973523</v>
       </c>
       <c r="AL67" s="13">
-        <v>973523</v>
+        <v>1134605</v>
       </c>
       <c r="AM67" s="13">
-        <v>1134605</v>
+        <v>1376566</v>
       </c>
       <c r="AN67" s="13">
-        <v>1376566</v>
+        <v>1434485</v>
       </c>
       <c r="AO67" s="13">
-        <v>1434485</v>
+        <v>1445763</v>
       </c>
       <c r="AP67" s="13">
-        <v>1445763</v>
+        <v>1272054</v>
       </c>
       <c r="AQ67" s="13">
-        <v>1272054</v>
+        <v>1250935</v>
       </c>
       <c r="AR67" s="13">
-        <v>1250935</v>
+        <v>1175415</v>
       </c>
       <c r="AS67" s="13">
-        <v>1175415</v>
+        <v>1180140</v>
       </c>
       <c r="AT67" s="13">
-        <v>1180140</v>
+        <v>1023683</v>
       </c>
       <c r="AU67" s="13">
-        <v>1023683</v>
+        <v>1005552</v>
       </c>
       <c r="AV67" s="13">
-        <v>1005552</v>
+        <v>1462938</v>
       </c>
       <c r="AW67" s="13">
-        <v>1462938</v>
+        <v>1564356</v>
       </c>
       <c r="AX67" s="13">
-        <v>1564356</v>
+        <v>1720622</v>
       </c>
       <c r="AY67" s="13">
-        <v>1720622</v>
+        <v>1927498</v>
       </c>
       <c r="AZ67" s="13">
-        <v>1927498</v>
+        <v>1926768</v>
       </c>
       <c r="BA67" s="13">
-        <v>1926768</v>
+        <v>2019409</v>
       </c>
       <c r="BB67" s="13">
-        <v>2020241</v>
+        <v>2035508</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>64</v>
       </c>
@@ -9138,157 +9173,157 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>20605</v>
+        <v>19827</v>
       </c>
       <c r="F68" s="11">
-        <v>19827</v>
+        <v>37875</v>
       </c>
       <c r="G68" s="11">
-        <v>37875</v>
+        <v>36408</v>
       </c>
       <c r="H68" s="11">
-        <v>36408</v>
+        <v>97661</v>
       </c>
       <c r="I68" s="11">
-        <v>97661</v>
+        <v>57798</v>
       </c>
       <c r="J68" s="11">
-        <v>57798</v>
+        <v>22508</v>
       </c>
       <c r="K68" s="11">
-        <v>22508</v>
+        <v>54767</v>
       </c>
       <c r="L68" s="11">
-        <v>54767</v>
+        <v>44270</v>
       </c>
       <c r="M68" s="11">
-        <v>44270</v>
+        <v>31315</v>
       </c>
       <c r="N68" s="11">
-        <v>31315</v>
+        <v>36775</v>
       </c>
       <c r="O68" s="11">
-        <v>36775</v>
+        <v>29437</v>
       </c>
       <c r="P68" s="11">
-        <v>29437</v>
+        <v>30008</v>
       </c>
       <c r="Q68" s="11">
-        <v>30008</v>
+        <v>49268</v>
       </c>
       <c r="R68" s="11">
-        <v>49268</v>
+        <v>46992</v>
       </c>
       <c r="S68" s="11">
-        <v>46992</v>
+        <v>31735</v>
       </c>
       <c r="T68" s="11">
-        <v>31735</v>
+        <v>39975</v>
       </c>
       <c r="U68" s="11">
-        <v>39975</v>
+        <v>17007</v>
       </c>
       <c r="V68" s="11">
-        <v>17007</v>
+        <v>8118</v>
       </c>
       <c r="W68" s="11">
-        <v>8118</v>
+        <v>16161</v>
       </c>
       <c r="X68" s="11">
-        <v>16161</v>
+        <v>25263</v>
       </c>
       <c r="Y68" s="11">
-        <v>25263</v>
+        <v>38894</v>
       </c>
       <c r="Z68" s="11">
-        <v>38894</v>
+        <v>14896</v>
       </c>
       <c r="AA68" s="11">
-        <v>14896</v>
+        <v>3463</v>
       </c>
       <c r="AB68" s="11">
-        <v>3463</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="11">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="AD68" s="11">
-        <v>4080</v>
+        <v>8364</v>
       </c>
       <c r="AE68" s="11">
-        <v>8364</v>
+        <v>36616</v>
       </c>
       <c r="AF68" s="11">
-        <v>36616</v>
+        <v>64672</v>
       </c>
       <c r="AG68" s="11">
-        <v>64672</v>
+        <v>47625</v>
       </c>
       <c r="AH68" s="11">
-        <v>47625</v>
+        <v>70891</v>
       </c>
       <c r="AI68" s="11">
-        <v>70891</v>
+        <v>100962</v>
       </c>
       <c r="AJ68" s="11">
-        <v>100962</v>
+        <v>106499</v>
       </c>
       <c r="AK68" s="11">
-        <v>106499</v>
+        <v>63343</v>
       </c>
       <c r="AL68" s="11">
-        <v>63343</v>
+        <v>155271</v>
       </c>
       <c r="AM68" s="11">
-        <v>155271</v>
+        <v>135826</v>
       </c>
       <c r="AN68" s="11">
-        <v>135826</v>
+        <v>102755</v>
       </c>
       <c r="AO68" s="11">
-        <v>102755</v>
+        <v>123826</v>
       </c>
       <c r="AP68" s="11">
-        <v>123826</v>
+        <v>94962</v>
       </c>
       <c r="AQ68" s="11">
-        <v>94962</v>
+        <v>71986</v>
       </c>
       <c r="AR68" s="11">
-        <v>71986</v>
+        <v>52292</v>
       </c>
       <c r="AS68" s="11">
-        <v>52292</v>
+        <v>59155</v>
       </c>
       <c r="AT68" s="11">
-        <v>59155</v>
+        <v>105848</v>
       </c>
       <c r="AU68" s="11">
-        <v>105848</v>
+        <v>172087</v>
       </c>
       <c r="AV68" s="11">
-        <v>172087</v>
+        <v>24541</v>
       </c>
       <c r="AW68" s="11">
-        <v>24541</v>
+        <v>10498</v>
       </c>
       <c r="AX68" s="11">
-        <v>10498</v>
+        <v>28394</v>
       </c>
       <c r="AY68" s="11">
-        <v>28394</v>
+        <v>75331</v>
       </c>
       <c r="AZ68" s="11">
-        <v>75331</v>
+        <v>115669</v>
       </c>
       <c r="BA68" s="11">
-        <v>115669</v>
+        <v>130196</v>
       </c>
       <c r="BB68" s="11">
-        <v>130196</v>
+        <v>51222</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>66</v>
       </c>
@@ -9297,67 +9332,67 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>19651</v>
+        <v>2069</v>
       </c>
       <c r="F69" s="13">
-        <v>2069</v>
+        <v>30746</v>
       </c>
       <c r="G69" s="13">
-        <v>30746</v>
+        <v>14518</v>
       </c>
       <c r="H69" s="13">
-        <v>14518</v>
+        <v>16028</v>
       </c>
       <c r="I69" s="13">
-        <v>16028</v>
+        <v>32325</v>
       </c>
       <c r="J69" s="13">
-        <v>32325</v>
+        <v>18900</v>
       </c>
       <c r="K69" s="13">
-        <v>18900</v>
+        <v>10787</v>
       </c>
       <c r="L69" s="13">
-        <v>10787</v>
+        <v>6930</v>
       </c>
       <c r="M69" s="13">
-        <v>6930</v>
+        <v>31178</v>
       </c>
       <c r="N69" s="13">
-        <v>31178</v>
+        <v>13188</v>
       </c>
       <c r="O69" s="13">
-        <v>13188</v>
+        <v>2986</v>
       </c>
       <c r="P69" s="13">
-        <v>2986</v>
+        <v>30450</v>
       </c>
       <c r="Q69" s="13">
-        <v>30450</v>
+        <v>23996</v>
       </c>
       <c r="R69" s="13">
-        <v>23996</v>
+        <v>37193</v>
       </c>
       <c r="S69" s="13">
-        <v>37193</v>
+        <v>26117</v>
       </c>
       <c r="T69" s="13">
-        <v>26117</v>
+        <v>27085</v>
       </c>
       <c r="U69" s="13">
-        <v>27085</v>
+        <v>36123</v>
       </c>
       <c r="V69" s="13">
-        <v>36123</v>
+        <v>20500</v>
       </c>
       <c r="W69" s="13">
-        <v>20500</v>
+        <v>24611</v>
       </c>
       <c r="X69" s="13">
-        <v>24611</v>
+        <v>4752</v>
       </c>
       <c r="Y69" s="13">
-        <v>4752</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="13">
         <v>0</v>
@@ -9369,28 +9404,28 @@
         <v>0</v>
       </c>
       <c r="AC69" s="13">
-        <v>0</v>
+        <v>11480</v>
       </c>
       <c r="AD69" s="13">
-        <v>11480</v>
+        <v>13020</v>
       </c>
       <c r="AE69" s="13">
-        <v>13020</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="13">
         <v>0</v>
       </c>
       <c r="AG69" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH69" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="13">
-        <v>0</v>
+        <v>11115</v>
       </c>
       <c r="AJ69" s="13">
-        <v>11115</v>
+        <v>0</v>
       </c>
       <c r="AK69" s="13">
         <v>0</v>
@@ -9399,10 +9434,10 @@
         <v>0</v>
       </c>
       <c r="AM69" s="13">
-        <v>0</v>
+        <v>107988</v>
       </c>
       <c r="AN69" s="13">
-        <v>107988</v>
+        <v>0</v>
       </c>
       <c r="AO69" s="13">
         <v>0</v>
@@ -9411,43 +9446,43 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="13">
-        <v>0</v>
+        <v>42310</v>
       </c>
       <c r="AR69" s="13">
-        <v>42310</v>
+        <v>18707</v>
       </c>
       <c r="AS69" s="13">
-        <v>18707</v>
+        <v>146970</v>
       </c>
       <c r="AT69" s="13">
-        <v>146970</v>
+        <v>21243</v>
       </c>
       <c r="AU69" s="13">
-        <v>21243</v>
+        <v>6</v>
       </c>
       <c r="AV69" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW69" s="13">
         <v>0</v>
       </c>
       <c r="AX69" s="13">
-        <v>0</v>
+        <v>24353</v>
       </c>
       <c r="AY69" s="13">
-        <v>24353</v>
+        <v>14550</v>
       </c>
       <c r="AZ69" s="13">
-        <v>14550</v>
+        <v>9450</v>
       </c>
       <c r="BA69" s="13">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>67</v>
       </c>
@@ -9569,8 +9604,8 @@
       <c r="AP70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ70" s="11" t="s">
-        <v>57</v>
+      <c r="AQ70" s="11">
+        <v>0</v>
       </c>
       <c r="AR70" s="11">
         <v>0</v>
@@ -9606,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>68</v>
       </c>
@@ -9728,8 +9763,8 @@
       <c r="AP71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ71" s="13" t="s">
-        <v>57</v>
+      <c r="AQ71" s="13">
+        <v>0</v>
       </c>
       <c r="AR71" s="13">
         <v>0</v>
@@ -9765,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>69</v>
       </c>
@@ -9774,61 +9809,61 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>25396</v>
+        <v>11410</v>
       </c>
       <c r="F72" s="11">
-        <v>11410</v>
+        <v>18919</v>
       </c>
       <c r="G72" s="11">
-        <v>18919</v>
+        <v>30251</v>
       </c>
       <c r="H72" s="11">
-        <v>30251</v>
+        <v>37494</v>
       </c>
       <c r="I72" s="11">
-        <v>37494</v>
+        <v>28903</v>
       </c>
       <c r="J72" s="11">
-        <v>28903</v>
+        <v>6683</v>
       </c>
       <c r="K72" s="11">
-        <v>6683</v>
+        <v>9702</v>
       </c>
       <c r="L72" s="11">
-        <v>9702</v>
+        <v>7563</v>
       </c>
       <c r="M72" s="11">
-        <v>7563</v>
+        <v>4917</v>
       </c>
       <c r="N72" s="11">
-        <v>4917</v>
+        <v>18575</v>
       </c>
       <c r="O72" s="11">
-        <v>18575</v>
+        <v>6197</v>
       </c>
       <c r="P72" s="11">
-        <v>6197</v>
+        <v>5767</v>
       </c>
       <c r="Q72" s="11">
-        <v>5767</v>
+        <v>1535</v>
       </c>
       <c r="R72" s="11">
-        <v>1535</v>
+        <v>13407</v>
       </c>
       <c r="S72" s="11">
-        <v>13407</v>
+        <v>11841</v>
       </c>
       <c r="T72" s="11">
-        <v>11841</v>
+        <v>10831</v>
       </c>
       <c r="U72" s="11">
-        <v>10831</v>
+        <v>6414</v>
       </c>
       <c r="V72" s="11">
-        <v>6414</v>
+        <v>1680</v>
       </c>
       <c r="W72" s="11">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="X72" s="11">
         <v>0</v>
@@ -9837,94 +9872,94 @@
         <v>0</v>
       </c>
       <c r="Z72" s="11">
-        <v>0</v>
+        <v>8218</v>
       </c>
       <c r="AA72" s="11">
-        <v>8218</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="11">
-        <v>0</v>
+        <v>20872</v>
       </c>
       <c r="AC72" s="11">
-        <v>20872</v>
+        <v>11276</v>
       </c>
       <c r="AD72" s="11">
-        <v>11276</v>
+        <v>3847</v>
       </c>
       <c r="AE72" s="11">
-        <v>3847</v>
+        <v>21871</v>
       </c>
       <c r="AF72" s="11">
-        <v>21871</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="11">
-        <v>0</v>
+        <v>18649</v>
       </c>
       <c r="AH72" s="11">
-        <v>18649</v>
+        <v>16575</v>
       </c>
       <c r="AI72" s="11">
-        <v>16575</v>
+        <v>28660</v>
       </c>
       <c r="AJ72" s="11">
-        <v>28660</v>
+        <v>28880</v>
       </c>
       <c r="AK72" s="11">
-        <v>28880</v>
+        <v>42262</v>
       </c>
       <c r="AL72" s="11">
-        <v>42262</v>
+        <v>75148</v>
       </c>
       <c r="AM72" s="11">
-        <v>75148</v>
+        <v>57154</v>
       </c>
       <c r="AN72" s="11">
-        <v>57154</v>
+        <v>10307</v>
       </c>
       <c r="AO72" s="11">
-        <v>10307</v>
+        <v>34900</v>
       </c>
       <c r="AP72" s="11">
-        <v>34900</v>
+        <v>40415</v>
       </c>
       <c r="AQ72" s="11">
-        <v>40415</v>
+        <v>44271</v>
       </c>
       <c r="AR72" s="11">
-        <v>44271</v>
+        <v>7140</v>
       </c>
       <c r="AS72" s="11">
-        <v>7140</v>
+        <v>11648</v>
       </c>
       <c r="AT72" s="11">
-        <v>11648</v>
+        <v>96231</v>
       </c>
       <c r="AU72" s="11">
-        <v>96231</v>
+        <v>-28645</v>
       </c>
       <c r="AV72" s="11">
-        <v>-28645</v>
+        <v>27424</v>
       </c>
       <c r="AW72" s="11">
-        <v>27424</v>
+        <v>91757</v>
       </c>
       <c r="AX72" s="11">
-        <v>91757</v>
+        <v>27602</v>
       </c>
       <c r="AY72" s="11">
-        <v>27602</v>
+        <v>0</v>
       </c>
       <c r="AZ72" s="11">
-        <v>0</v>
+        <v>12964</v>
       </c>
       <c r="BA72" s="11">
-        <v>12964</v>
+        <v>30950</v>
       </c>
       <c r="BB72" s="11">
-        <v>31132</v>
+        <v>17429</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>70</v>
       </c>
@@ -10046,8 +10081,8 @@
       <c r="AP73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ73" s="13" t="s">
-        <v>57</v>
+      <c r="AQ73" s="13">
+        <v>0</v>
       </c>
       <c r="AR73" s="13">
         <v>0</v>
@@ -10083,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>71</v>
       </c>
@@ -10205,8 +10240,8 @@
       <c r="AP74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ74" s="11" t="s">
-        <v>57</v>
+      <c r="AQ74" s="11">
+        <v>0</v>
       </c>
       <c r="AR74" s="11">
         <v>0</v>
@@ -10242,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>73</v>
       </c>
@@ -10364,8 +10399,8 @@
       <c r="AP75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ75" s="13" t="s">
-        <v>57</v>
+      <c r="AQ75" s="13">
+        <v>0</v>
       </c>
       <c r="AR75" s="13">
         <v>0</v>
@@ -10401,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>83</v>
       </c>
@@ -10458,7 +10493,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>84</v>
       </c>
@@ -10586,8 +10621,8 @@
       <c r="AR77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS77" s="11" t="s">
-        <v>57</v>
+      <c r="AS77" s="11">
+        <v>0</v>
       </c>
       <c r="AT77" s="11">
         <v>0</v>
@@ -10617,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>85</v>
       </c>
@@ -10745,8 +10780,8 @@
       <c r="AR78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS78" s="13" t="s">
-        <v>57</v>
+      <c r="AS78" s="13">
+        <v>0</v>
       </c>
       <c r="AT78" s="13">
         <v>0</v>
@@ -10776,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>86</v>
       </c>
@@ -10904,8 +10939,8 @@
       <c r="AR79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS79" s="11" t="s">
-        <v>57</v>
+      <c r="AS79" s="11">
+        <v>0</v>
       </c>
       <c r="AT79" s="11">
         <v>0</v>
@@ -10935,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>87</v>
       </c>
@@ -10992,7 +11027,7 @@
       <c r="BA80" s="15"/>
       <c r="BB80" s="15"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="16" t="s">
         <v>75</v>
       </c>
@@ -11078,8 +11113,8 @@
       <c r="AD81" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AE81" s="17" t="s">
-        <v>57</v>
+      <c r="AE81" s="17">
+        <v>0</v>
       </c>
       <c r="AF81" s="17">
         <v>0</v>
@@ -11120,8 +11155,8 @@
       <c r="AR81" s="17">
         <v>0</v>
       </c>
-      <c r="AS81" s="17">
-        <v>0</v>
+      <c r="AS81" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AT81" s="17" t="s">
         <v>57</v>
@@ -11151,7 +11186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>88</v>
       </c>
@@ -11208,7 +11243,7 @@
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>55</v>
       </c>
@@ -11333,11 +11368,11 @@
       <c r="AQ83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS83" s="11">
-        <v>0</v>
+      <c r="AR83" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT83" s="11" t="s">
         <v>57</v>
@@ -11367,7 +11402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>63</v>
       </c>
@@ -11456,47 +11491,47 @@
       <c r="AE84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF84" s="13" t="s">
-        <v>57</v>
+      <c r="AF84" s="13">
+        <v>-90</v>
       </c>
       <c r="AG84" s="13">
-        <v>-90</v>
+        <v>-205</v>
       </c>
       <c r="AH84" s="13">
-        <v>-205</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="13">
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="AJ84" s="13">
-        <v>-113</v>
+        <v>-11</v>
       </c>
       <c r="AK84" s="13">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AL84" s="13">
-        <v>0</v>
+        <v>-407</v>
       </c>
       <c r="AM84" s="13">
-        <v>-407</v>
+        <v>-5</v>
       </c>
       <c r="AN84" s="13">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AO84" s="13">
-        <v>0</v>
+        <v>-144</v>
       </c>
       <c r="AP84" s="13">
-        <v>-144</v>
-      </c>
-      <c r="AQ84" s="13">
         <v>-12</v>
       </c>
-      <c r="AR84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS84" s="13">
-        <v>0</v>
+      <c r="AQ84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR84" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT84" s="13" t="s">
         <v>57</v>
@@ -11526,7 +11561,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>79</v>
       </c>
@@ -11615,48 +11650,48 @@
       <c r="AE85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF85" s="11" t="s">
-        <v>57</v>
+      <c r="AF85" s="11">
+        <v>-889</v>
       </c>
       <c r="AG85" s="11">
-        <v>-889</v>
+        <v>-780</v>
       </c>
       <c r="AH85" s="11">
-        <v>-780</v>
+        <v>0</v>
       </c>
       <c r="AI85" s="11">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="AJ85" s="11">
-        <v>-146</v>
+        <v>-289</v>
       </c>
       <c r="AK85" s="11">
-        <v>-289</v>
+        <v>0</v>
       </c>
       <c r="AL85" s="11">
-        <v>0</v>
+        <v>-967</v>
       </c>
       <c r="AM85" s="11">
-        <v>-967</v>
+        <v>-2670</v>
       </c>
       <c r="AN85" s="11">
-        <v>-2670</v>
+        <v>-134</v>
       </c>
       <c r="AO85" s="11">
-        <v>-134</v>
+        <v>-2469</v>
       </c>
       <c r="AP85" s="11">
-        <v>-2469</v>
+        <v>-944</v>
       </c>
       <c r="AQ85" s="11">
-        <v>-944</v>
+        <v>-331</v>
       </c>
       <c r="AR85" s="11">
-        <v>-331</v>
-      </c>
-      <c r="AS85" s="11">
         <v>-139</v>
       </c>
+      <c r="AS85" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT85" s="11" t="s">
         <v>57</v>
       </c>
@@ -11685,7 +11720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="18" t="s">
         <v>80</v>
       </c>
@@ -11771,51 +11806,51 @@
       <c r="AD86" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AE86" s="19" t="s">
-        <v>57</v>
+      <c r="AE86" s="19">
+        <v>0</v>
       </c>
       <c r="AF86" s="19">
-        <v>0</v>
+        <v>-979</v>
       </c>
       <c r="AG86" s="19">
-        <v>-979</v>
+        <v>-985</v>
       </c>
       <c r="AH86" s="19">
-        <v>-985</v>
+        <v>0</v>
       </c>
       <c r="AI86" s="19">
-        <v>0</v>
+        <v>-259</v>
       </c>
       <c r="AJ86" s="19">
-        <v>-259</v>
+        <v>-300</v>
       </c>
       <c r="AK86" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AL86" s="19">
-        <v>0</v>
+        <v>-1374</v>
       </c>
       <c r="AM86" s="19">
-        <v>-1374</v>
+        <v>-2675</v>
       </c>
       <c r="AN86" s="19">
-        <v>-2675</v>
+        <v>-134</v>
       </c>
       <c r="AO86" s="19">
-        <v>-134</v>
+        <v>-2613</v>
       </c>
       <c r="AP86" s="19">
-        <v>-2613</v>
+        <v>-956</v>
       </c>
       <c r="AQ86" s="19">
-        <v>-956</v>
+        <v>-331</v>
       </c>
       <c r="AR86" s="19">
-        <v>-331</v>
-      </c>
-      <c r="AS86" s="19">
         <v>-139</v>
       </c>
+      <c r="AS86" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="AT86" s="19" t="s">
         <v>57</v>
       </c>
@@ -11844,7 +11879,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
@@ -11901,7 +11936,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>90</v>
       </c>
@@ -11987,51 +12022,51 @@
       <c r="AD88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE88" s="11" t="s">
-        <v>57</v>
+      <c r="AE88" s="11">
+        <v>0</v>
       </c>
       <c r="AF88" s="11">
-        <v>0</v>
+        <v>-67667</v>
       </c>
       <c r="AG88" s="11">
-        <v>-67667</v>
+        <v>-2136</v>
       </c>
       <c r="AH88" s="11">
-        <v>-2136</v>
+        <v>-1595</v>
       </c>
       <c r="AI88" s="11">
-        <v>-1595</v>
+        <v>-586</v>
       </c>
       <c r="AJ88" s="11">
-        <v>-586</v>
+        <v>-774</v>
       </c>
       <c r="AK88" s="11">
-        <v>-774</v>
+        <v>-485</v>
       </c>
       <c r="AL88" s="11">
-        <v>-485</v>
+        <v>-517</v>
       </c>
       <c r="AM88" s="11">
-        <v>-517</v>
+        <v>-1526</v>
       </c>
       <c r="AN88" s="11">
-        <v>-1526</v>
+        <v>-167</v>
       </c>
       <c r="AO88" s="11">
-        <v>-167</v>
+        <v>-9702</v>
       </c>
       <c r="AP88" s="11">
-        <v>-9702</v>
+        <v>-585</v>
       </c>
       <c r="AQ88" s="11">
-        <v>-585</v>
+        <v>-555</v>
       </c>
       <c r="AR88" s="11">
-        <v>-555</v>
-      </c>
-      <c r="AS88" s="11">
         <v>-4</v>
       </c>
+      <c r="AS88" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT88" s="11" t="s">
         <v>57</v>
       </c>
@@ -12060,164 +12095,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19">
-        <v>506938</v>
+        <v>470080</v>
       </c>
       <c r="F89" s="19">
-        <v>470080</v>
+        <v>555823</v>
       </c>
       <c r="G89" s="19">
-        <v>555823</v>
+        <v>443949</v>
       </c>
       <c r="H89" s="19">
-        <v>443949</v>
+        <v>568965</v>
       </c>
       <c r="I89" s="19">
-        <v>568965</v>
+        <v>471994</v>
       </c>
       <c r="J89" s="19">
-        <v>471994</v>
+        <v>361611</v>
       </c>
       <c r="K89" s="19">
-        <v>361611</v>
+        <v>425040</v>
       </c>
       <c r="L89" s="19">
-        <v>425040</v>
+        <v>360425</v>
       </c>
       <c r="M89" s="19">
-        <v>360425</v>
+        <v>501435</v>
       </c>
       <c r="N89" s="19">
-        <v>501435</v>
+        <v>509495</v>
       </c>
       <c r="O89" s="19">
-        <v>509495</v>
+        <v>431752</v>
       </c>
       <c r="P89" s="19">
-        <v>431752</v>
+        <v>520844</v>
       </c>
       <c r="Q89" s="19">
-        <v>520844</v>
+        <v>618511</v>
       </c>
       <c r="R89" s="19">
-        <v>618511</v>
+        <v>697972</v>
       </c>
       <c r="S89" s="19">
-        <v>697972</v>
+        <v>543795</v>
       </c>
       <c r="T89" s="19">
-        <v>543795</v>
+        <v>661128</v>
       </c>
       <c r="U89" s="19">
-        <v>661128</v>
+        <v>511113</v>
       </c>
       <c r="V89" s="19">
-        <v>511113</v>
+        <v>530097</v>
       </c>
       <c r="W89" s="19">
-        <v>530097</v>
+        <v>497654</v>
       </c>
       <c r="X89" s="19">
-        <v>497654</v>
+        <v>520047</v>
       </c>
       <c r="Y89" s="19">
-        <v>520047</v>
+        <v>622169</v>
       </c>
       <c r="Z89" s="19">
-        <v>622169</v>
+        <v>548684</v>
       </c>
       <c r="AA89" s="19">
-        <v>548684</v>
+        <v>663694</v>
       </c>
       <c r="AB89" s="19">
-        <v>663694</v>
+        <v>758620</v>
       </c>
       <c r="AC89" s="19">
-        <v>758620</v>
+        <v>718649</v>
       </c>
       <c r="AD89" s="19">
-        <v>718649</v>
+        <v>909926</v>
       </c>
       <c r="AE89" s="19">
-        <v>909926</v>
+        <v>879524</v>
       </c>
       <c r="AF89" s="19">
-        <v>879524</v>
+        <v>829383</v>
       </c>
       <c r="AG89" s="19">
-        <v>829383</v>
+        <v>833084</v>
       </c>
       <c r="AH89" s="19">
-        <v>833084</v>
+        <v>777130</v>
       </c>
       <c r="AI89" s="19">
-        <v>777130</v>
+        <v>870816</v>
       </c>
       <c r="AJ89" s="19">
-        <v>870816</v>
+        <v>1059790</v>
       </c>
       <c r="AK89" s="19">
-        <v>1059790</v>
+        <v>1114038</v>
       </c>
       <c r="AL89" s="19">
-        <v>1114038</v>
+        <v>1385901</v>
       </c>
       <c r="AM89" s="19">
-        <v>1385901</v>
+        <v>1736019</v>
       </c>
       <c r="AN89" s="19">
-        <v>1736019</v>
+        <v>1618218</v>
       </c>
       <c r="AO89" s="19">
-        <v>1618218</v>
+        <v>1695483</v>
       </c>
       <c r="AP89" s="19">
-        <v>1695483</v>
+        <v>1705305</v>
       </c>
       <c r="AQ89" s="19">
-        <v>1705305</v>
+        <v>1441199</v>
       </c>
       <c r="AR89" s="19">
-        <v>1441199</v>
+        <v>1281204</v>
       </c>
       <c r="AS89" s="19">
-        <v>1281204</v>
+        <v>1503595</v>
       </c>
       <c r="AT89" s="19">
-        <v>1503595</v>
+        <v>1329183</v>
       </c>
       <c r="AU89" s="19">
-        <v>1329183</v>
+        <v>1220148</v>
       </c>
       <c r="AV89" s="19">
-        <v>1220148</v>
+        <v>1606558</v>
       </c>
       <c r="AW89" s="19">
-        <v>1606558</v>
+        <v>1734787</v>
       </c>
       <c r="AX89" s="19">
-        <v>1734787</v>
+        <v>1891361</v>
       </c>
       <c r="AY89" s="19">
-        <v>1891361</v>
+        <v>2079648</v>
       </c>
       <c r="AZ89" s="19">
-        <v>2079648</v>
+        <v>2163693</v>
       </c>
       <c r="BA89" s="19">
-        <v>2163693</v>
+        <v>2314014</v>
       </c>
       <c r="BB89" s="19">
-        <v>2315149</v>
+        <v>2251853</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -12272,7 +12307,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12327,7 +12362,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -12382,7 +12417,7 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
     </row>
-    <row r="93" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>91</v>
       </c>
@@ -12539,7 +12574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -12594,7 +12629,7 @@
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>92</v>
       </c>
@@ -12651,7 +12686,7 @@
       <c r="BA95" s="9"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>55</v>
       </c>
@@ -12782,35 +12817,35 @@
       <c r="AS96" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT96" s="11" t="s">
-        <v>57</v>
+      <c r="AT96" s="11">
+        <v>0</v>
       </c>
       <c r="AU96" s="11">
-        <v>0</v>
+        <v>78000000</v>
       </c>
       <c r="AV96" s="11">
-        <v>78000000</v>
+        <v>76500000</v>
       </c>
       <c r="AW96" s="11">
-        <v>76500000</v>
+        <v>73666667</v>
       </c>
       <c r="AX96" s="11">
-        <v>73666667</v>
+        <v>214114035</v>
       </c>
       <c r="AY96" s="11">
-        <v>214114035</v>
+        <v>85000000</v>
       </c>
       <c r="AZ96" s="11">
-        <v>85000000</v>
+        <v>69300000</v>
       </c>
       <c r="BA96" s="11">
-        <v>69300000</v>
+        <v>75125000</v>
       </c>
       <c r="BB96" s="11">
-        <v>75125000</v>
+        <v>61500000</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>58</v>
       </c>
@@ -12899,21 +12934,21 @@
       <c r="AE97" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF97" s="13" t="s">
-        <v>57</v>
+      <c r="AF97" s="13">
+        <v>1614154</v>
       </c>
       <c r="AG97" s="13">
-        <v>1614154</v>
+        <v>3788991</v>
       </c>
       <c r="AH97" s="13">
-        <v>3788991</v>
+        <v>5348361</v>
       </c>
       <c r="AI97" s="13">
-        <v>5348361</v>
-      </c>
-      <c r="AJ97" s="13">
         <v>5900258</v>
       </c>
+      <c r="AJ97" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AK97" s="13" t="s">
         <v>57</v>
       </c>
@@ -12969,7 +13004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>60</v>
       </c>
@@ -12978,157 +13013,157 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>941131</v>
+        <v>1503333333</v>
       </c>
       <c r="F98" s="11">
-        <v>1503333333</v>
-      </c>
-      <c r="G98" s="11">
         <v>360000</v>
       </c>
+      <c r="G98" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="H98" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I98" s="11" t="s">
-        <v>57</v>
+      <c r="I98" s="11">
+        <v>141750000</v>
       </c>
       <c r="J98" s="11">
-        <v>141750000</v>
+        <v>0</v>
       </c>
       <c r="K98" s="11">
-        <v>0</v>
+        <v>1812500</v>
       </c>
       <c r="L98" s="11">
-        <v>1812500</v>
+        <v>0</v>
       </c>
       <c r="M98" s="11">
-        <v>0</v>
+        <v>17438849</v>
       </c>
       <c r="N98" s="11">
-        <v>17438849</v>
+        <v>0</v>
       </c>
       <c r="O98" s="11">
-        <v>0</v>
+        <v>4151220</v>
       </c>
       <c r="P98" s="11">
-        <v>4151220</v>
+        <v>0</v>
       </c>
       <c r="Q98" s="11">
-        <v>0</v>
+        <v>7226351</v>
       </c>
       <c r="R98" s="11">
-        <v>7226351</v>
+        <v>570966667</v>
       </c>
       <c r="S98" s="11">
-        <v>570966667</v>
+        <v>733355556</v>
       </c>
       <c r="T98" s="11">
-        <v>733355556</v>
+        <v>701966102</v>
       </c>
       <c r="U98" s="11">
-        <v>701966102</v>
+        <v>77333333</v>
       </c>
       <c r="V98" s="11">
-        <v>77333333</v>
+        <v>0</v>
       </c>
       <c r="W98" s="11">
         <v>0</v>
       </c>
       <c r="X98" s="11">
-        <v>0</v>
+        <v>103400000</v>
       </c>
       <c r="Y98" s="11">
-        <v>103400000</v>
+        <v>25098361</v>
       </c>
       <c r="Z98" s="11">
-        <v>25098361</v>
+        <v>226805195</v>
       </c>
       <c r="AA98" s="11">
-        <v>226805195</v>
+        <v>5615702</v>
       </c>
       <c r="AB98" s="11">
-        <v>5615702</v>
+        <v>28678060</v>
       </c>
       <c r="AC98" s="11">
-        <v>28678060</v>
+        <v>774923077</v>
       </c>
       <c r="AD98" s="11">
-        <v>774923077</v>
-      </c>
-      <c r="AE98" s="11">
         <v>1081270833</v>
       </c>
-      <c r="AF98" s="11" t="s">
-        <v>57</v>
+      <c r="AE98" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF98" s="11">
+        <v>1019266667</v>
       </c>
       <c r="AG98" s="11">
-        <v>1019266667</v>
+        <v>526000000</v>
       </c>
       <c r="AH98" s="11">
-        <v>526000000</v>
+        <v>820206897</v>
       </c>
       <c r="AI98" s="11">
-        <v>820206897</v>
-      </c>
-      <c r="AJ98" s="11">
         <v>3400000</v>
       </c>
-      <c r="AK98" s="11" t="s">
-        <v>57</v>
+      <c r="AJ98" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK98" s="11">
+        <v>46369748</v>
       </c>
       <c r="AL98" s="11">
-        <v>46369748</v>
+        <v>48750000</v>
       </c>
       <c r="AM98" s="11">
-        <v>48750000</v>
+        <v>260453125</v>
       </c>
       <c r="AN98" s="11">
-        <v>260453125</v>
+        <v>68011864</v>
       </c>
       <c r="AO98" s="11">
-        <v>68011864</v>
+        <v>902486842</v>
       </c>
       <c r="AP98" s="11">
-        <v>902486842</v>
-      </c>
-      <c r="AQ98" s="11">
         <v>1358230769</v>
       </c>
+      <c r="AQ98" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AR98" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS98" s="11" t="s">
-        <v>57</v>
+      <c r="AS98" s="11">
+        <v>589420168</v>
       </c>
       <c r="AT98" s="11">
-        <v>589420168</v>
+        <v>2613000000</v>
       </c>
       <c r="AU98" s="11">
-        <v>2613000000</v>
+        <v>2641827171</v>
       </c>
       <c r="AV98" s="11">
-        <v>2641827171</v>
+        <v>2533000000</v>
       </c>
       <c r="AW98" s="11">
-        <v>2533000000</v>
+        <v>281844595</v>
       </c>
       <c r="AX98" s="11">
-        <v>281844595</v>
+        <v>81892857</v>
       </c>
       <c r="AY98" s="11">
-        <v>81892857</v>
+        <v>1551555556</v>
       </c>
       <c r="AZ98" s="11">
-        <v>1551555556</v>
+        <v>83113953</v>
       </c>
       <c r="BA98" s="11">
-        <v>83113953</v>
+        <v>1102918919</v>
       </c>
       <c r="BB98" s="11">
-        <v>1077078947</v>
+        <v>904461538</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>61</v>
       </c>
@@ -13137,157 +13172,157 @@
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
-        <v>20837281</v>
+        <v>21564544</v>
       </c>
       <c r="F99" s="13">
-        <v>21564544</v>
+        <v>22715988</v>
       </c>
       <c r="G99" s="13">
-        <v>22715988</v>
+        <v>22279339</v>
       </c>
       <c r="H99" s="13">
-        <v>22279339</v>
+        <v>22753927</v>
       </c>
       <c r="I99" s="13">
-        <v>22753927</v>
+        <v>23271041</v>
       </c>
       <c r="J99" s="13">
-        <v>23271041</v>
+        <v>23204225</v>
       </c>
       <c r="K99" s="13">
-        <v>23204225</v>
+        <v>20040431</v>
       </c>
       <c r="L99" s="13">
-        <v>20040431</v>
+        <v>20477419</v>
       </c>
       <c r="M99" s="13">
-        <v>20477419</v>
+        <v>26392857</v>
       </c>
       <c r="N99" s="13">
-        <v>26392857</v>
+        <v>25716912</v>
       </c>
       <c r="O99" s="13">
-        <v>25716912</v>
+        <v>25687117</v>
       </c>
       <c r="P99" s="13">
-        <v>25687117</v>
+        <v>25339869</v>
       </c>
       <c r="Q99" s="13">
-        <v>25339869</v>
+        <v>23520325</v>
       </c>
       <c r="R99" s="13">
-        <v>23520325</v>
+        <v>24829384</v>
       </c>
       <c r="S99" s="13">
-        <v>24829384</v>
+        <v>22037534</v>
       </c>
       <c r="T99" s="13">
-        <v>22037534</v>
+        <v>22507987</v>
       </c>
       <c r="U99" s="13">
-        <v>22507987</v>
+        <v>23694669</v>
       </c>
       <c r="V99" s="13">
-        <v>23694669</v>
+        <v>24998780</v>
       </c>
       <c r="W99" s="13">
-        <v>24998780</v>
+        <v>22586538</v>
       </c>
       <c r="X99" s="13">
-        <v>22586538</v>
+        <v>28504237</v>
       </c>
       <c r="Y99" s="13">
-        <v>28504237</v>
+        <v>30271028</v>
       </c>
       <c r="Z99" s="13">
-        <v>30271028</v>
+        <v>38391304</v>
       </c>
       <c r="AA99" s="13">
-        <v>38391304</v>
+        <v>44455882</v>
       </c>
       <c r="AB99" s="13">
-        <v>44455882</v>
+        <v>51329114</v>
       </c>
       <c r="AC99" s="13">
-        <v>51329114</v>
+        <v>57179104</v>
       </c>
       <c r="AD99" s="13">
-        <v>57179104</v>
+        <v>59507937</v>
       </c>
       <c r="AE99" s="13">
-        <v>59507937</v>
+        <v>61065789</v>
       </c>
       <c r="AF99" s="13">
-        <v>61065789</v>
+        <v>59947368</v>
       </c>
       <c r="AG99" s="13">
-        <v>59947368</v>
+        <v>58509091</v>
       </c>
       <c r="AH99" s="13">
-        <v>58509091</v>
+        <v>59794118</v>
       </c>
       <c r="AI99" s="13">
-        <v>59794118</v>
+        <v>62000000</v>
       </c>
       <c r="AJ99" s="13">
-        <v>62000000</v>
+        <v>60813559</v>
       </c>
       <c r="AK99" s="13">
-        <v>60813559</v>
+        <v>59240385</v>
       </c>
       <c r="AL99" s="13">
-        <v>59240385</v>
+        <v>60132075</v>
       </c>
       <c r="AM99" s="13">
-        <v>60132075</v>
+        <v>63176471</v>
       </c>
       <c r="AN99" s="13">
-        <v>63176471</v>
+        <v>61369863</v>
       </c>
       <c r="AO99" s="13">
-        <v>61369863</v>
+        <v>60343949</v>
       </c>
       <c r="AP99" s="13">
-        <v>60343949</v>
+        <v>60495238</v>
       </c>
       <c r="AQ99" s="13">
-        <v>60495238</v>
+        <v>66768116</v>
       </c>
       <c r="AR99" s="13">
-        <v>66768116</v>
+        <v>70981818</v>
       </c>
       <c r="AS99" s="13">
-        <v>70981818</v>
+        <v>86817460</v>
       </c>
       <c r="AT99" s="13">
-        <v>86817460</v>
+        <v>98040000</v>
       </c>
       <c r="AU99" s="13">
-        <v>98040000</v>
+        <v>97762238</v>
       </c>
       <c r="AV99" s="13">
-        <v>97762238</v>
+        <v>163527778</v>
       </c>
       <c r="AW99" s="13">
-        <v>163527778</v>
+        <v>159104478</v>
       </c>
       <c r="AX99" s="13">
-        <v>159104478</v>
+        <v>159086207</v>
       </c>
       <c r="AY99" s="13">
-        <v>159086207</v>
+        <v>155459459</v>
       </c>
       <c r="AZ99" s="13">
-        <v>155459459</v>
+        <v>150550847</v>
       </c>
       <c r="BA99" s="13">
-        <v>150550847</v>
+        <v>152680251</v>
       </c>
       <c r="BB99" s="13">
-        <v>152680251</v>
+        <v>156416031</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>62</v>
       </c>
@@ -13296,157 +13331,157 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>1156841</v>
+        <v>1140150</v>
       </c>
       <c r="F100" s="11">
-        <v>1140150</v>
+        <v>1216452</v>
       </c>
       <c r="G100" s="11">
-        <v>1216452</v>
+        <v>1274895</v>
       </c>
       <c r="H100" s="11">
-        <v>1274895</v>
+        <v>1137762</v>
       </c>
       <c r="I100" s="11">
-        <v>1137762</v>
+        <v>1507288</v>
       </c>
       <c r="J100" s="11">
-        <v>1507288</v>
+        <v>1507460</v>
       </c>
       <c r="K100" s="11">
-        <v>1507460</v>
+        <v>1638768</v>
       </c>
       <c r="L100" s="11">
-        <v>1638768</v>
+        <v>1451403</v>
       </c>
       <c r="M100" s="11">
-        <v>1451403</v>
+        <v>2250204</v>
       </c>
       <c r="N100" s="11">
-        <v>2250204</v>
+        <v>1346441</v>
       </c>
       <c r="O100" s="11">
-        <v>1346441</v>
+        <v>1322770</v>
       </c>
       <c r="P100" s="11">
-        <v>1322770</v>
+        <v>1609208</v>
       </c>
       <c r="Q100" s="11">
-        <v>1609208</v>
+        <v>1897415</v>
       </c>
       <c r="R100" s="11">
-        <v>1897415</v>
+        <v>1742971</v>
       </c>
       <c r="S100" s="11">
-        <v>1742971</v>
+        <v>2291797</v>
       </c>
       <c r="T100" s="11">
-        <v>2291797</v>
+        <v>1819611</v>
       </c>
       <c r="U100" s="11">
-        <v>1819611</v>
+        <v>1468934</v>
       </c>
       <c r="V100" s="11">
-        <v>1468934</v>
+        <v>1654683</v>
       </c>
       <c r="W100" s="11">
-        <v>1654683</v>
+        <v>2421105</v>
       </c>
       <c r="X100" s="11">
-        <v>2421105</v>
+        <v>1891606</v>
       </c>
       <c r="Y100" s="11">
-        <v>1891606</v>
+        <v>6571662</v>
       </c>
       <c r="Z100" s="11">
-        <v>6571662</v>
+        <v>2131616</v>
       </c>
       <c r="AA100" s="11">
-        <v>2131616</v>
+        <v>3296734</v>
       </c>
       <c r="AB100" s="11">
-        <v>3296734</v>
+        <v>3738308</v>
       </c>
       <c r="AC100" s="11">
-        <v>3738308</v>
+        <v>3677366</v>
       </c>
       <c r="AD100" s="11">
-        <v>3677366</v>
+        <v>4422301</v>
       </c>
       <c r="AE100" s="11">
-        <v>4422301</v>
+        <v>2381846</v>
       </c>
       <c r="AF100" s="11">
-        <v>2381846</v>
+        <v>3324226</v>
       </c>
       <c r="AG100" s="11">
-        <v>3324226</v>
+        <v>5325106</v>
       </c>
       <c r="AH100" s="11">
-        <v>5325106</v>
+        <v>5269736</v>
       </c>
       <c r="AI100" s="11">
-        <v>5269736</v>
+        <v>3190053</v>
       </c>
       <c r="AJ100" s="11">
-        <v>3190053</v>
+        <v>4061445</v>
       </c>
       <c r="AK100" s="11">
-        <v>4061445</v>
+        <v>4179767</v>
       </c>
       <c r="AL100" s="11">
-        <v>4179767</v>
+        <v>3798694</v>
       </c>
       <c r="AM100" s="11">
-        <v>3798694</v>
+        <v>4376508</v>
       </c>
       <c r="AN100" s="11">
-        <v>4376508</v>
+        <v>4657304</v>
       </c>
       <c r="AO100" s="11">
-        <v>4657304</v>
+        <v>4678651</v>
       </c>
       <c r="AP100" s="11">
-        <v>4678651</v>
+        <v>4679264</v>
       </c>
       <c r="AQ100" s="11">
-        <v>4679264</v>
+        <v>5040768</v>
       </c>
       <c r="AR100" s="11">
-        <v>5040768</v>
+        <v>3392012</v>
       </c>
       <c r="AS100" s="11">
-        <v>3392012</v>
+        <v>4332864</v>
       </c>
       <c r="AT100" s="11">
-        <v>4332864</v>
+        <v>3496636</v>
       </c>
       <c r="AU100" s="11">
-        <v>3496636</v>
+        <v>3706930</v>
       </c>
       <c r="AV100" s="11">
-        <v>3706930</v>
+        <v>5735457</v>
       </c>
       <c r="AW100" s="11">
-        <v>5735457</v>
+        <v>4157240</v>
       </c>
       <c r="AX100" s="11">
-        <v>4157240</v>
+        <v>6040144</v>
       </c>
       <c r="AY100" s="11">
-        <v>6040144</v>
+        <v>4931173</v>
       </c>
       <c r="AZ100" s="11">
-        <v>4931173</v>
+        <v>5775964</v>
       </c>
       <c r="BA100" s="11">
-        <v>5775964</v>
+        <v>5666754</v>
       </c>
       <c r="BB100" s="11">
-        <v>5666754</v>
+        <v>7033017</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
@@ -13455,157 +13490,157 @@
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>77884526</v>
+        <v>86314304</v>
       </c>
       <c r="F101" s="13">
-        <v>86314304</v>
+        <v>89585451</v>
       </c>
       <c r="G101" s="13">
-        <v>89585451</v>
+        <v>78941313</v>
       </c>
       <c r="H101" s="13">
-        <v>78941313</v>
+        <v>73874606</v>
       </c>
       <c r="I101" s="13">
-        <v>73874606</v>
+        <v>73237435</v>
       </c>
       <c r="J101" s="13">
-        <v>73237435</v>
+        <v>65447137</v>
       </c>
       <c r="K101" s="13">
-        <v>65447137</v>
+        <v>61240606</v>
       </c>
       <c r="L101" s="13">
-        <v>61240606</v>
+        <v>50867814</v>
       </c>
       <c r="M101" s="13">
-        <v>50867814</v>
+        <v>75032648</v>
       </c>
       <c r="N101" s="13">
-        <v>75032648</v>
+        <v>73351759</v>
       </c>
       <c r="O101" s="13">
-        <v>73351759</v>
+        <v>65593663</v>
       </c>
       <c r="P101" s="13">
-        <v>65593663</v>
+        <v>70156400</v>
       </c>
       <c r="Q101" s="13">
-        <v>70156400</v>
+        <v>84331874</v>
       </c>
       <c r="R101" s="13">
-        <v>84331874</v>
+        <v>83047372</v>
       </c>
       <c r="S101" s="13">
-        <v>83047372</v>
+        <v>83142914</v>
       </c>
       <c r="T101" s="13">
-        <v>83142914</v>
+        <v>82536917</v>
       </c>
       <c r="U101" s="13">
-        <v>82536917</v>
+        <v>87538038</v>
       </c>
       <c r="V101" s="13">
-        <v>87538038</v>
+        <v>92508614</v>
       </c>
       <c r="W101" s="13">
-        <v>92508614</v>
+        <v>81476280</v>
       </c>
       <c r="X101" s="13">
-        <v>81476280</v>
+        <v>91520753</v>
       </c>
       <c r="Y101" s="13">
-        <v>91520753</v>
+        <v>116338618</v>
       </c>
       <c r="Z101" s="13">
-        <v>116338618</v>
+        <v>88808845</v>
       </c>
       <c r="AA101" s="13">
-        <v>88808845</v>
+        <v>130055453</v>
       </c>
       <c r="AB101" s="13">
-        <v>130055453</v>
+        <v>138027622</v>
       </c>
       <c r="AC101" s="13">
-        <v>138027622</v>
+        <v>136527127</v>
       </c>
       <c r="AD101" s="13">
-        <v>136527127</v>
+        <v>159215484</v>
       </c>
       <c r="AE101" s="13">
-        <v>159215484</v>
+        <v>148557728</v>
       </c>
       <c r="AF101" s="13">
-        <v>148557728</v>
+        <v>155172922</v>
       </c>
       <c r="AG101" s="13">
-        <v>155172922</v>
+        <v>153967866</v>
       </c>
       <c r="AH101" s="13">
-        <v>153967866</v>
+        <v>130039290</v>
       </c>
       <c r="AI101" s="13">
-        <v>130039290</v>
+        <v>120336639</v>
       </c>
       <c r="AJ101" s="13">
-        <v>120336639</v>
+        <v>147621657</v>
       </c>
       <c r="AK101" s="13">
-        <v>147621657</v>
+        <v>164086128</v>
       </c>
       <c r="AL101" s="13">
-        <v>164086128</v>
+        <v>180239079</v>
       </c>
       <c r="AM101" s="13">
-        <v>180239079</v>
+        <v>198696016</v>
       </c>
       <c r="AN101" s="13">
-        <v>198696016</v>
+        <v>225052557</v>
       </c>
       <c r="AO101" s="13">
-        <v>225052557</v>
+        <v>215884724</v>
       </c>
       <c r="AP101" s="13">
-        <v>215884724</v>
+        <v>196973366</v>
       </c>
       <c r="AQ101" s="13">
-        <v>196973366</v>
+        <v>201633623</v>
       </c>
       <c r="AR101" s="13">
-        <v>201633623</v>
+        <v>197636859</v>
       </c>
       <c r="AS101" s="13">
-        <v>197636859</v>
+        <v>202690414</v>
       </c>
       <c r="AT101" s="13">
-        <v>202690414</v>
+        <v>201578479</v>
       </c>
       <c r="AU101" s="13">
-        <v>201578479</v>
+        <v>233497038</v>
       </c>
       <c r="AV101" s="13">
-        <v>233497038</v>
+        <v>308832172</v>
       </c>
       <c r="AW101" s="13">
-        <v>308832172</v>
+        <v>356543388</v>
       </c>
       <c r="AX101" s="13">
-        <v>356543388</v>
+        <v>361163483</v>
       </c>
       <c r="AY101" s="13">
-        <v>361163483</v>
+        <v>365471748</v>
       </c>
       <c r="AZ101" s="13">
-        <v>365471748</v>
+        <v>391778588</v>
       </c>
       <c r="BA101" s="13">
-        <v>391778588</v>
+        <v>394184853</v>
       </c>
       <c r="BB101" s="13">
-        <v>394193366</v>
+        <v>410467433</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>64</v>
       </c>
@@ -13614,157 +13649,157 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>10135268</v>
+        <v>18669492</v>
       </c>
       <c r="F102" s="11">
-        <v>18669492</v>
+        <v>25556680</v>
       </c>
       <c r="G102" s="11">
-        <v>25556680</v>
+        <v>28667717</v>
       </c>
       <c r="H102" s="11">
-        <v>28667717</v>
+        <v>35891584</v>
       </c>
       <c r="I102" s="11">
-        <v>35891584</v>
+        <v>23629599</v>
       </c>
       <c r="J102" s="11">
-        <v>23629599</v>
+        <v>14596628</v>
       </c>
       <c r="K102" s="11">
-        <v>14596628</v>
+        <v>17419529</v>
       </c>
       <c r="L102" s="11">
-        <v>17419529</v>
+        <v>15446615</v>
       </c>
       <c r="M102" s="11">
-        <v>15446615</v>
+        <v>19223450</v>
       </c>
       <c r="N102" s="11">
-        <v>19223450</v>
+        <v>19665775</v>
       </c>
       <c r="O102" s="11">
-        <v>19665775</v>
+        <v>13123941</v>
       </c>
       <c r="P102" s="11">
-        <v>13123941</v>
+        <v>24456398</v>
       </c>
       <c r="Q102" s="11">
-        <v>24456398</v>
+        <v>29501796</v>
       </c>
       <c r="R102" s="11">
-        <v>29501796</v>
+        <v>31038309</v>
       </c>
       <c r="S102" s="11">
-        <v>31038309</v>
+        <v>32649177</v>
       </c>
       <c r="T102" s="11">
-        <v>32649177</v>
+        <v>40460526</v>
       </c>
       <c r="U102" s="11">
-        <v>40460526</v>
+        <v>14814460</v>
       </c>
       <c r="V102" s="11">
-        <v>14814460</v>
+        <v>5688858</v>
       </c>
       <c r="W102" s="11">
-        <v>5688858</v>
+        <v>8688710</v>
       </c>
       <c r="X102" s="11">
-        <v>8688710</v>
+        <v>15292373</v>
       </c>
       <c r="Y102" s="11">
-        <v>15292373</v>
+        <v>21080759</v>
       </c>
       <c r="Z102" s="11">
-        <v>21080759</v>
+        <v>9616527</v>
       </c>
       <c r="AA102" s="11">
-        <v>9616527</v>
+        <v>4355975</v>
       </c>
       <c r="AB102" s="11">
-        <v>4355975</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="11">
-        <v>0</v>
+        <v>19615385</v>
       </c>
       <c r="AD102" s="11">
-        <v>19615385</v>
+        <v>33322709</v>
       </c>
       <c r="AE102" s="11">
-        <v>33322709</v>
+        <v>38706131</v>
       </c>
       <c r="AF102" s="11">
-        <v>38706131</v>
+        <v>41750807</v>
       </c>
       <c r="AG102" s="11">
-        <v>41750807</v>
+        <v>39262160</v>
       </c>
       <c r="AH102" s="11">
-        <v>39262160</v>
+        <v>53502642</v>
       </c>
       <c r="AI102" s="11">
-        <v>53502642</v>
+        <v>64021560</v>
       </c>
       <c r="AJ102" s="11">
-        <v>64021560</v>
+        <v>60579636</v>
       </c>
       <c r="AK102" s="11">
-        <v>60579636</v>
+        <v>58273229</v>
       </c>
       <c r="AL102" s="11">
-        <v>58273229</v>
+        <v>65267339</v>
       </c>
       <c r="AM102" s="11">
-        <v>65267339</v>
+        <v>75838079</v>
       </c>
       <c r="AN102" s="11">
-        <v>75838079</v>
+        <v>68004633</v>
       </c>
       <c r="AO102" s="11">
-        <v>68004633</v>
+        <v>73053687</v>
       </c>
       <c r="AP102" s="11">
-        <v>73053687</v>
+        <v>67540541</v>
       </c>
       <c r="AQ102" s="11">
-        <v>67540541</v>
+        <v>65145701</v>
       </c>
       <c r="AR102" s="11">
-        <v>65145701</v>
+        <v>72426593</v>
       </c>
       <c r="AS102" s="11">
-        <v>72426593</v>
+        <v>36449274</v>
       </c>
       <c r="AT102" s="11">
-        <v>36449274</v>
+        <v>80151897</v>
       </c>
       <c r="AU102" s="11">
-        <v>80151897</v>
+        <v>69220471</v>
       </c>
       <c r="AV102" s="11">
-        <v>69220471</v>
+        <v>22473443</v>
       </c>
       <c r="AW102" s="11">
-        <v>22473443</v>
+        <v>43560166</v>
       </c>
       <c r="AX102" s="11">
-        <v>43560166</v>
+        <v>24562284</v>
       </c>
       <c r="AY102" s="11">
-        <v>24562284</v>
+        <v>100441333</v>
       </c>
       <c r="AZ102" s="11">
-        <v>100441333</v>
+        <v>122661630</v>
       </c>
       <c r="BA102" s="11">
-        <v>122661630</v>
+        <v>106109209</v>
       </c>
       <c r="BB102" s="11">
-        <v>106109209</v>
+        <v>51222000</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>66</v>
       </c>
@@ -13773,67 +13808,67 @@
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13">
-        <v>183654206</v>
+        <v>188090909</v>
       </c>
       <c r="F103" s="13">
-        <v>188090909</v>
+        <v>19772347</v>
       </c>
       <c r="G103" s="13">
-        <v>19772347</v>
+        <v>207400000</v>
       </c>
       <c r="H103" s="13">
-        <v>207400000</v>
+        <v>200350000</v>
       </c>
       <c r="I103" s="13">
-        <v>200350000</v>
+        <v>198312883</v>
       </c>
       <c r="J103" s="13">
-        <v>198312883</v>
+        <v>205434783</v>
       </c>
       <c r="K103" s="13">
-        <v>205434783</v>
+        <v>171222222</v>
       </c>
       <c r="L103" s="13">
-        <v>171222222</v>
+        <v>165000000</v>
       </c>
       <c r="M103" s="13">
-        <v>165000000</v>
+        <v>191276074</v>
       </c>
       <c r="N103" s="13">
-        <v>191276074</v>
+        <v>193941176</v>
       </c>
       <c r="O103" s="13">
-        <v>193941176</v>
+        <v>186625000</v>
       </c>
       <c r="P103" s="13">
-        <v>186625000</v>
+        <v>179117647</v>
       </c>
       <c r="Q103" s="13">
-        <v>179117647</v>
+        <v>203355932</v>
       </c>
       <c r="R103" s="13">
-        <v>203355932</v>
+        <v>208949438</v>
       </c>
       <c r="S103" s="13">
-        <v>208949438</v>
+        <v>233187500</v>
       </c>
       <c r="T103" s="13">
-        <v>233187500</v>
+        <v>206755725</v>
       </c>
       <c r="U103" s="13">
-        <v>206755725</v>
+        <v>218927273</v>
       </c>
       <c r="V103" s="13">
-        <v>218927273</v>
+        <v>205000000</v>
       </c>
       <c r="W103" s="13">
-        <v>205000000</v>
+        <v>206815126</v>
       </c>
       <c r="X103" s="13">
-        <v>206815126</v>
+        <v>216000000</v>
       </c>
       <c r="Y103" s="13">
-        <v>216000000</v>
+        <v>0</v>
       </c>
       <c r="Z103" s="13">
         <v>0</v>
@@ -13845,85 +13880,85 @@
         <v>0</v>
       </c>
       <c r="AC103" s="13">
-        <v>0</v>
+        <v>280000000</v>
       </c>
       <c r="AD103" s="13">
-        <v>280000000</v>
-      </c>
-      <c r="AE103" s="13">
         <v>310000000</v>
       </c>
+      <c r="AE103" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AF103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG103" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH103" s="13">
+      <c r="AG103" s="13">
         <v>12000000</v>
       </c>
-      <c r="AI103" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ103" s="13">
+      <c r="AH103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI103" s="13">
         <v>444600000</v>
       </c>
+      <c r="AJ103" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AK103" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AL103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM103" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN103" s="13">
+      <c r="AM103" s="13">
         <v>545393939</v>
       </c>
-      <c r="AO103" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP103" s="13">
+      <c r="AN103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO103" s="13">
         <v>2384589</v>
       </c>
-      <c r="AQ103" s="13" t="s">
-        <v>57</v>
+      <c r="AP103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ103" s="13">
+        <v>595915493</v>
       </c>
       <c r="AR103" s="13">
-        <v>595915493</v>
+        <v>623566667</v>
       </c>
       <c r="AS103" s="13">
-        <v>623566667</v>
+        <v>639000000</v>
       </c>
       <c r="AT103" s="13">
-        <v>639000000</v>
+        <v>758678571</v>
       </c>
       <c r="AU103" s="13">
-        <v>758678571</v>
-      </c>
-      <c r="AV103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW103" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AV103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW103" s="13">
+        <v>0</v>
       </c>
       <c r="AX103" s="13">
-        <v>0</v>
+        <v>865508997</v>
       </c>
       <c r="AY103" s="13">
-        <v>865508997</v>
+        <v>970000000</v>
       </c>
       <c r="AZ103" s="13">
-        <v>970000000</v>
+        <v>1208435208</v>
       </c>
       <c r="BA103" s="13">
-        <v>1208435208</v>
+        <v>0</v>
       </c>
       <c r="BB103" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>69</v>
       </c>
@@ -13932,61 +13967,61 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>54149254</v>
+        <v>46762295</v>
       </c>
       <c r="F104" s="11">
-        <v>46762295</v>
+        <v>3727147</v>
       </c>
       <c r="G104" s="11">
-        <v>3727147</v>
+        <v>45904401</v>
       </c>
       <c r="H104" s="11">
-        <v>45904401</v>
+        <v>38494867</v>
       </c>
       <c r="I104" s="11">
-        <v>38494867</v>
+        <v>36913155</v>
       </c>
       <c r="J104" s="11">
-        <v>36913155</v>
+        <v>41000000</v>
       </c>
       <c r="K104" s="11">
-        <v>41000000</v>
+        <v>36750000</v>
       </c>
       <c r="L104" s="11">
-        <v>36750000</v>
+        <v>37073529</v>
       </c>
       <c r="M104" s="11">
-        <v>37073529</v>
+        <v>24959391</v>
       </c>
       <c r="N104" s="11">
-        <v>24959391</v>
+        <v>33528881</v>
       </c>
       <c r="O104" s="11">
-        <v>33528881</v>
+        <v>34237569</v>
       </c>
       <c r="P104" s="11">
-        <v>34237569</v>
+        <v>35380368</v>
       </c>
       <c r="Q104" s="11">
-        <v>35380368</v>
+        <v>34886364</v>
       </c>
       <c r="R104" s="11">
-        <v>34886364</v>
+        <v>34914062</v>
       </c>
       <c r="S104" s="11">
-        <v>34914062</v>
+        <v>35032544</v>
       </c>
       <c r="T104" s="11">
-        <v>35032544</v>
+        <v>34826367</v>
       </c>
       <c r="U104" s="11">
-        <v>34826367</v>
+        <v>39838509</v>
       </c>
       <c r="V104" s="11">
-        <v>39838509</v>
+        <v>40000000</v>
       </c>
       <c r="W104" s="11">
-        <v>40000000</v>
+        <v>0</v>
       </c>
       <c r="X104" s="11">
         <v>0</v>
@@ -13995,91 +14030,91 @@
         <v>0</v>
       </c>
       <c r="Z104" s="11">
-        <v>0</v>
+        <v>69058824</v>
       </c>
       <c r="AA104" s="11">
-        <v>69058824</v>
+        <v>0</v>
       </c>
       <c r="AB104" s="11">
-        <v>0</v>
+        <v>74542857</v>
       </c>
       <c r="AC104" s="11">
-        <v>74542857</v>
+        <v>72282051</v>
       </c>
       <c r="AD104" s="11">
-        <v>72282051</v>
+        <v>75431373</v>
       </c>
       <c r="AE104" s="11">
-        <v>75431373</v>
-      </c>
-      <c r="AF104" s="11">
         <v>74900685</v>
       </c>
-      <c r="AG104" s="11" t="s">
-        <v>57</v>
+      <c r="AF104" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG104" s="11">
+        <v>120316129</v>
       </c>
       <c r="AH104" s="11">
-        <v>120316129</v>
+        <v>120108696</v>
       </c>
       <c r="AI104" s="11">
-        <v>120108696</v>
+        <v>119916318</v>
       </c>
       <c r="AJ104" s="11">
-        <v>119916318</v>
+        <v>120333333</v>
       </c>
       <c r="AK104" s="11">
-        <v>120333333</v>
+        <v>119722380</v>
       </c>
       <c r="AL104" s="11">
-        <v>119722380</v>
+        <v>119853270</v>
       </c>
       <c r="AM104" s="11">
-        <v>119853270</v>
+        <v>121863539</v>
       </c>
       <c r="AN104" s="11">
-        <v>121863539</v>
+        <v>133857143</v>
       </c>
       <c r="AO104" s="11">
-        <v>133857143</v>
+        <v>140160643</v>
       </c>
       <c r="AP104" s="11">
-        <v>140160643</v>
+        <v>140329861</v>
       </c>
       <c r="AQ104" s="11">
-        <v>140329861</v>
+        <v>140098101</v>
       </c>
       <c r="AR104" s="11">
-        <v>140098101</v>
+        <v>140000000</v>
       </c>
       <c r="AS104" s="11">
-        <v>140000000</v>
+        <v>138666667</v>
       </c>
       <c r="AT104" s="11">
-        <v>138666667</v>
+        <v>75211151</v>
       </c>
       <c r="AU104" s="11">
-        <v>75211151</v>
+        <v>110312744</v>
       </c>
       <c r="AV104" s="11">
-        <v>110312744</v>
+        <v>175794872</v>
       </c>
       <c r="AW104" s="11">
-        <v>175794872</v>
+        <v>176455769</v>
       </c>
       <c r="AX104" s="11">
-        <v>176455769</v>
+        <v>175808917</v>
       </c>
       <c r="AY104" s="11">
-        <v>175808917</v>
+        <v>0</v>
       </c>
       <c r="AZ104" s="11">
-        <v>0</v>
+        <v>244603774</v>
       </c>
       <c r="BA104" s="11">
-        <v>244603774</v>
+        <v>245634921</v>
       </c>
       <c r="BB104" s="11">
-        <v>247079365</v>
+        <v>232386667</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/zeraat/simorgh/product/monthly.xlsx
+++ b/database/industries/zeraat/simorgh/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D5121-7050-4D15-A356-925659515E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F33B7-0A60-42A2-AE15-A742F9716D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/10</t>
@@ -154,7 +148,7 @@
     <t>ماه 1 منتهی به 1400/10</t>
   </si>
   <si>
-    <t>ماه 2 منتهی به 1400/11</t>
+    <t>ماه 2 منتهی به 1400/12</t>
   </si>
   <si>
     <t>ماه 3 منتهی به 1400/12</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>هزارقطعه / ریال</t>
@@ -790,12 +793,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -850,7 +853,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -907,7 +910,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -964,7 +967,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1019,7 +1022,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1079,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1133,7 +1136,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1188,7 +1191,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1400,7 +1403,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1460,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1570,8 +1573,8 @@
       <c r="AM11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>57</v>
+      <c r="AN11" s="11">
+        <v>0</v>
       </c>
       <c r="AO11" s="11">
         <v>0</v>
@@ -1586,37 +1589,37 @@
         <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT11" s="11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AU11" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV11" s="11">
+        <v>114</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AX11" s="11">
         <v>10</v>
       </c>
-      <c r="AW11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>114</v>
-      </c>
       <c r="AY11" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ11" s="11">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="BA11" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="11">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1699,23 +1702,23 @@
       <c r="AC12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>57</v>
+      <c r="AD12" s="13">
+        <v>1625</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>109</v>
       </c>
       <c r="AF12" s="13">
-        <v>1625</v>
+        <v>244</v>
       </c>
       <c r="AG12" s="13">
-        <v>109</v>
+        <v>1163</v>
       </c>
       <c r="AH12" s="13">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="13">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="13">
         <v>0</v>
@@ -1732,11 +1735,11 @@
       <c r="AN12" s="13">
         <v>0</v>
       </c>
-      <c r="AO12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>0</v>
+      <c r="AO12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ12" s="13" t="s">
         <v>57</v>
@@ -1775,166 +1778,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>57</v>
+      <c r="E13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
       </c>
       <c r="M13" s="11">
+        <v>273</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>3366</v>
+      </c>
+      <c r="P13" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>1</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>5</v>
+      </c>
+      <c r="W13" s="11">
+        <v>61</v>
+      </c>
+      <c r="X13" s="11">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>284</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1292</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>119</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>221</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>650</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>91</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>12</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>138</v>
+      </c>
+      <c r="AV13" s="11">
         <v>139</v>
       </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11">
-        <v>273</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>3366</v>
-      </c>
-      <c r="R13" s="11">
-        <v>24</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>1</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
-        <v>0</v>
-      </c>
-      <c r="W13" s="11">
-        <v>0</v>
-      </c>
-      <c r="X13" s="11">
-        <v>5</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>61</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>40</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>284</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>1292</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>66</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>4</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>5</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>119</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>8</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>221</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>650</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>91</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>12</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>0</v>
-      </c>
       <c r="AW13" s="11">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="AX13" s="11">
-        <v>139</v>
+        <v>465</v>
       </c>
       <c r="AY13" s="11">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="AZ13" s="11">
-        <v>465</v>
+        <v>21</v>
       </c>
       <c r="BA13" s="11">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1943,157 +1944,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>3061</v>
+        <v>3436</v>
       </c>
       <c r="F14" s="13">
-        <v>3782</v>
+        <v>2981</v>
       </c>
       <c r="G14" s="13">
-        <v>3436</v>
+        <v>3824</v>
       </c>
       <c r="H14" s="13">
-        <v>2981</v>
+        <v>3803</v>
       </c>
       <c r="I14" s="13">
-        <v>3824</v>
+        <v>3296</v>
       </c>
       <c r="J14" s="13">
-        <v>3803</v>
+        <v>3018</v>
       </c>
       <c r="K14" s="13">
-        <v>3296</v>
+        <v>3508</v>
       </c>
       <c r="L14" s="13">
-        <v>3018</v>
+        <v>3336</v>
       </c>
       <c r="M14" s="13">
-        <v>3508</v>
+        <v>2805</v>
       </c>
       <c r="N14" s="13">
-        <v>3336</v>
+        <v>2963</v>
       </c>
       <c r="O14" s="13">
-        <v>2805</v>
+        <v>3059</v>
       </c>
       <c r="P14" s="13">
-        <v>2963</v>
+        <v>2921</v>
       </c>
       <c r="Q14" s="13">
-        <v>3059</v>
+        <v>3445</v>
       </c>
       <c r="R14" s="13">
-        <v>2921</v>
+        <v>2930</v>
       </c>
       <c r="S14" s="13">
-        <v>3445</v>
+        <v>1496</v>
       </c>
       <c r="T14" s="13">
-        <v>2930</v>
+        <v>1645</v>
       </c>
       <c r="U14" s="13">
-        <v>1496</v>
+        <v>1349</v>
       </c>
       <c r="V14" s="13">
-        <v>1645</v>
+        <v>991</v>
       </c>
       <c r="W14" s="13">
-        <v>1349</v>
+        <v>1042</v>
       </c>
       <c r="X14" s="13">
-        <v>991</v>
+        <v>1227</v>
       </c>
       <c r="Y14" s="13">
-        <v>1042</v>
+        <v>1334</v>
       </c>
       <c r="Z14" s="13">
-        <v>1227</v>
+        <v>1904</v>
       </c>
       <c r="AA14" s="13">
-        <v>1334</v>
+        <v>1080</v>
       </c>
       <c r="AB14" s="13">
-        <v>1904</v>
+        <v>1283</v>
       </c>
       <c r="AC14" s="13">
-        <v>1080</v>
+        <v>1707</v>
       </c>
       <c r="AD14" s="13">
-        <v>1283</v>
+        <v>1923</v>
       </c>
       <c r="AE14" s="13">
-        <v>1707</v>
+        <v>2389</v>
       </c>
       <c r="AF14" s="13">
-        <v>1923</v>
+        <v>1998</v>
       </c>
       <c r="AG14" s="13">
-        <v>2389</v>
+        <v>1918</v>
       </c>
       <c r="AH14" s="13">
-        <v>1998</v>
+        <v>1644</v>
       </c>
       <c r="AI14" s="13">
-        <v>1918</v>
+        <v>1539</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1644</v>
+        <v>1747</v>
       </c>
       <c r="AK14" s="13">
-        <v>1539</v>
+        <v>1149</v>
       </c>
       <c r="AL14" s="13">
-        <v>1747</v>
+        <v>1315</v>
       </c>
       <c r="AM14" s="13">
-        <v>1149</v>
+        <v>1546</v>
       </c>
       <c r="AN14" s="13">
-        <v>1315</v>
+        <v>1638</v>
       </c>
       <c r="AO14" s="13">
-        <v>1546</v>
+        <v>1854</v>
       </c>
       <c r="AP14" s="13">
-        <v>1638</v>
+        <v>2423</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1854</v>
+        <v>2423</v>
       </c>
       <c r="AR14" s="13">
-        <v>2336</v>
+        <v>1462</v>
       </c>
       <c r="AS14" s="13">
-        <v>2423</v>
+        <v>1303</v>
       </c>
       <c r="AT14" s="13">
-        <v>1462</v>
+        <v>1380</v>
       </c>
       <c r="AU14" s="13">
-        <v>1303</v>
+        <v>1591</v>
       </c>
       <c r="AV14" s="13">
-        <v>1380</v>
+        <v>1466</v>
       </c>
       <c r="AW14" s="13">
-        <v>1591</v>
+        <v>879</v>
       </c>
       <c r="AX14" s="13">
-        <v>1466</v>
+        <v>754</v>
       </c>
       <c r="AY14" s="13">
-        <v>879</v>
+        <v>1772</v>
       </c>
       <c r="AZ14" s="13">
-        <v>754</v>
+        <v>1706</v>
       </c>
       <c r="BA14" s="13">
-        <v>1772</v>
+        <v>2300</v>
       </c>
       <c r="BB14" s="13">
-        <v>1706</v>
+        <v>2342</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2102,157 +2103,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>730587</v>
+        <v>9123</v>
       </c>
       <c r="F15" s="11">
-        <v>18948</v>
+        <v>8549</v>
       </c>
       <c r="G15" s="11">
-        <v>9123</v>
+        <v>9275</v>
       </c>
       <c r="H15" s="11">
-        <v>8549</v>
+        <v>5947</v>
       </c>
       <c r="I15" s="11">
-        <v>9275</v>
+        <v>8803</v>
       </c>
       <c r="J15" s="11">
-        <v>5947</v>
+        <v>8151</v>
       </c>
       <c r="K15" s="11">
-        <v>8803</v>
+        <v>10954</v>
       </c>
       <c r="L15" s="11">
-        <v>8151</v>
+        <v>7599</v>
       </c>
       <c r="M15" s="11">
-        <v>10954</v>
+        <v>6974</v>
       </c>
       <c r="N15" s="11">
-        <v>7599</v>
+        <v>8489</v>
       </c>
       <c r="O15" s="11">
-        <v>6974</v>
+        <v>8861</v>
       </c>
       <c r="P15" s="11">
-        <v>8489</v>
+        <v>13966</v>
       </c>
       <c r="Q15" s="11">
-        <v>8861</v>
+        <v>5096</v>
       </c>
       <c r="R15" s="11">
-        <v>13966</v>
+        <v>7227</v>
       </c>
       <c r="S15" s="11">
-        <v>5096</v>
+        <v>5320</v>
       </c>
       <c r="T15" s="11">
-        <v>7227</v>
+        <v>4324</v>
       </c>
       <c r="U15" s="11">
-        <v>5320</v>
+        <v>6293</v>
       </c>
       <c r="V15" s="11">
-        <v>4324</v>
+        <v>5982</v>
       </c>
       <c r="W15" s="11">
-        <v>6293</v>
+        <v>4537</v>
       </c>
       <c r="X15" s="11">
-        <v>5982</v>
+        <v>4534</v>
       </c>
       <c r="Y15" s="11">
-        <v>4537</v>
+        <v>7079</v>
       </c>
       <c r="Z15" s="11">
-        <v>4534</v>
+        <v>9033</v>
       </c>
       <c r="AA15" s="11">
-        <v>7079</v>
+        <v>8019</v>
       </c>
       <c r="AB15" s="11">
-        <v>9033</v>
+        <v>13400</v>
       </c>
       <c r="AC15" s="11">
-        <v>8019</v>
+        <v>4784</v>
       </c>
       <c r="AD15" s="11">
-        <v>13400</v>
+        <v>5825</v>
       </c>
       <c r="AE15" s="11">
-        <v>4784</v>
+        <v>4998</v>
       </c>
       <c r="AF15" s="11">
-        <v>5825</v>
+        <v>8309</v>
       </c>
       <c r="AG15" s="11">
-        <v>4998</v>
+        <v>4622</v>
       </c>
       <c r="AH15" s="11">
-        <v>8309</v>
+        <v>5655</v>
       </c>
       <c r="AI15" s="11">
-        <v>4622</v>
+        <v>5902</v>
       </c>
       <c r="AJ15" s="11">
-        <v>5655</v>
+        <v>5281</v>
       </c>
       <c r="AK15" s="11">
-        <v>5902</v>
+        <v>6437</v>
       </c>
       <c r="AL15" s="11">
-        <v>5281</v>
+        <v>5880</v>
       </c>
       <c r="AM15" s="11">
-        <v>6437</v>
+        <v>5620</v>
       </c>
       <c r="AN15" s="11">
-        <v>5880</v>
+        <v>8209</v>
       </c>
       <c r="AO15" s="11">
-        <v>5620</v>
+        <v>4779</v>
       </c>
       <c r="AP15" s="11">
-        <v>8209</v>
+        <v>5435</v>
       </c>
       <c r="AQ15" s="11">
-        <v>4779</v>
+        <v>5435</v>
       </c>
       <c r="AR15" s="11">
-        <v>6636</v>
+        <v>4354</v>
       </c>
       <c r="AS15" s="11">
-        <v>5435</v>
+        <v>6108</v>
       </c>
       <c r="AT15" s="11">
-        <v>4809</v>
+        <v>11809</v>
       </c>
       <c r="AU15" s="11">
-        <v>6108</v>
+        <v>3948</v>
       </c>
       <c r="AV15" s="11">
-        <v>11809</v>
+        <v>7747</v>
       </c>
       <c r="AW15" s="11">
-        <v>3948</v>
+        <v>5848</v>
       </c>
       <c r="AX15" s="11">
-        <v>7747</v>
+        <v>5357</v>
       </c>
       <c r="AY15" s="11">
-        <v>5848</v>
+        <v>5789</v>
       </c>
       <c r="AZ15" s="11">
-        <v>5357</v>
+        <v>12023</v>
       </c>
       <c r="BA15" s="11">
-        <v>5789</v>
+        <v>4310</v>
       </c>
       <c r="BB15" s="11">
-        <v>12023</v>
+        <v>4702</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2261,157 +2262,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>4884</v>
+        <v>5077</v>
       </c>
       <c r="F16" s="13">
-        <v>5131</v>
+        <v>4732</v>
       </c>
       <c r="G16" s="13">
-        <v>5077</v>
+        <v>4268</v>
       </c>
       <c r="H16" s="13">
-        <v>4732</v>
+        <v>4709</v>
       </c>
       <c r="I16" s="13">
-        <v>4268</v>
+        <v>5126</v>
       </c>
       <c r="J16" s="13">
-        <v>4709</v>
+        <v>5055</v>
       </c>
       <c r="K16" s="13">
-        <v>5126</v>
+        <v>6685</v>
       </c>
       <c r="L16" s="13">
-        <v>5055</v>
+        <v>5800</v>
       </c>
       <c r="M16" s="13">
-        <v>6685</v>
+        <v>6268</v>
       </c>
       <c r="N16" s="13">
-        <v>5800</v>
+        <v>6286</v>
       </c>
       <c r="O16" s="13">
-        <v>6268</v>
+        <v>6162</v>
       </c>
       <c r="P16" s="13">
-        <v>6286</v>
+        <v>6107</v>
       </c>
       <c r="Q16" s="13">
-        <v>6162</v>
+        <v>5831</v>
       </c>
       <c r="R16" s="13">
-        <v>6107</v>
+        <v>5752</v>
       </c>
       <c r="S16" s="13">
-        <v>5831</v>
+        <v>4986</v>
       </c>
       <c r="T16" s="13">
-        <v>5752</v>
+        <v>5463</v>
       </c>
       <c r="U16" s="13">
-        <v>4986</v>
+        <v>5326</v>
       </c>
       <c r="V16" s="13">
-        <v>5463</v>
+        <v>5064</v>
       </c>
       <c r="W16" s="13">
-        <v>5326</v>
+        <v>4922</v>
       </c>
       <c r="X16" s="13">
-        <v>5064</v>
+        <v>4580</v>
       </c>
       <c r="Y16" s="13">
-        <v>4922</v>
+        <v>4790</v>
       </c>
       <c r="Z16" s="13">
-        <v>4580</v>
+        <v>4801</v>
       </c>
       <c r="AA16" s="13">
-        <v>4790</v>
+        <v>4477</v>
       </c>
       <c r="AB16" s="13">
-        <v>4801</v>
+        <v>4951</v>
       </c>
       <c r="AC16" s="13">
-        <v>4477</v>
+        <v>4940</v>
       </c>
       <c r="AD16" s="13">
-        <v>4951</v>
+        <v>4975</v>
       </c>
       <c r="AE16" s="13">
-        <v>4940</v>
+        <v>4669</v>
       </c>
       <c r="AF16" s="13">
-        <v>4975</v>
+        <v>5074</v>
       </c>
       <c r="AG16" s="13">
-        <v>4669</v>
+        <v>5603</v>
       </c>
       <c r="AH16" s="13">
-        <v>5074</v>
+        <v>5818</v>
       </c>
       <c r="AI16" s="13">
-        <v>5603</v>
+        <v>6082</v>
       </c>
       <c r="AJ16" s="13">
-        <v>5818</v>
+        <v>6338</v>
       </c>
       <c r="AK16" s="13">
-        <v>6082</v>
+        <v>6747</v>
       </c>
       <c r="AL16" s="13">
-        <v>6338</v>
+        <v>6681</v>
       </c>
       <c r="AM16" s="13">
-        <v>6747</v>
+        <v>6701</v>
       </c>
       <c r="AN16" s="13">
-        <v>6681</v>
+        <v>6215</v>
       </c>
       <c r="AO16" s="13">
-        <v>6701</v>
+        <v>6354</v>
       </c>
       <c r="AP16" s="13">
-        <v>6215</v>
+        <v>5667</v>
       </c>
       <c r="AQ16" s="13">
-        <v>6354</v>
+        <v>5667</v>
       </c>
       <c r="AR16" s="13">
-        <v>6138</v>
+        <v>5212</v>
       </c>
       <c r="AS16" s="13">
-        <v>5667</v>
+        <v>4545</v>
       </c>
       <c r="AT16" s="13">
-        <v>5212</v>
+        <v>4315</v>
       </c>
       <c r="AU16" s="13">
-        <v>4661</v>
+        <v>4609</v>
       </c>
       <c r="AV16" s="13">
-        <v>4315</v>
+        <v>4830</v>
       </c>
       <c r="AW16" s="13">
-        <v>4609</v>
+        <v>5217</v>
       </c>
       <c r="AX16" s="13">
-        <v>4828</v>
+        <v>5162</v>
       </c>
       <c r="AY16" s="13">
-        <v>5217</v>
+        <v>5039</v>
       </c>
       <c r="AZ16" s="13">
-        <v>5162</v>
+        <v>4905</v>
       </c>
       <c r="BA16" s="13">
-        <v>5039</v>
+        <v>4866</v>
       </c>
       <c r="BB16" s="13">
-        <v>4905</v>
+        <v>5366</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2420,157 +2421,157 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>1062</v>
+        <v>1904</v>
       </c>
       <c r="F17" s="11">
-        <v>1482</v>
+        <v>2153</v>
       </c>
       <c r="G17" s="11">
-        <v>1904</v>
+        <v>2379</v>
       </c>
       <c r="H17" s="11">
-        <v>2153</v>
+        <v>2099</v>
       </c>
       <c r="I17" s="11">
-        <v>2379</v>
+        <v>2710</v>
       </c>
       <c r="J17" s="11">
-        <v>2099</v>
+        <v>2603</v>
       </c>
       <c r="K17" s="11">
-        <v>2710</v>
+        <v>1882</v>
       </c>
       <c r="L17" s="11">
-        <v>2603</v>
+        <v>1818</v>
       </c>
       <c r="M17" s="11">
-        <v>1882</v>
+        <v>1983</v>
       </c>
       <c r="N17" s="11">
-        <v>1818</v>
+        <v>1532</v>
       </c>
       <c r="O17" s="11">
-        <v>1983</v>
+        <v>1525</v>
       </c>
       <c r="P17" s="11">
-        <v>1532</v>
+        <v>1354</v>
       </c>
       <c r="Q17" s="11">
-        <v>1525</v>
+        <v>1100</v>
       </c>
       <c r="R17" s="11">
-        <v>1354</v>
+        <v>930</v>
       </c>
       <c r="S17" s="11">
         <v>1100</v>
       </c>
       <c r="T17" s="11">
-        <v>930</v>
+        <v>1427</v>
       </c>
       <c r="U17" s="11">
-        <v>1100</v>
+        <v>1942</v>
       </c>
       <c r="V17" s="11">
-        <v>1427</v>
+        <v>1570</v>
       </c>
       <c r="W17" s="11">
-        <v>1942</v>
+        <v>1845</v>
       </c>
       <c r="X17" s="11">
-        <v>1570</v>
+        <v>1549</v>
       </c>
       <c r="Y17" s="11">
-        <v>1845</v>
+        <v>795</v>
       </c>
       <c r="Z17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>208</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>251</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>946</v>
+      </c>
+      <c r="AD17" s="11">
         <v>1549</v>
       </c>
-      <c r="AA17" s="11">
-        <v>795</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>208</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>251</v>
-      </c>
       <c r="AE17" s="11">
-        <v>946</v>
+        <v>1213</v>
       </c>
       <c r="AF17" s="11">
-        <v>1549</v>
+        <v>1325</v>
       </c>
       <c r="AG17" s="11">
-        <v>1213</v>
+        <v>1577</v>
       </c>
       <c r="AH17" s="11">
-        <v>1325</v>
+        <v>1758</v>
       </c>
       <c r="AI17" s="11">
-        <v>1577</v>
+        <v>1683</v>
       </c>
       <c r="AJ17" s="11">
-        <v>1758</v>
+        <v>1784</v>
       </c>
       <c r="AK17" s="11">
-        <v>1683</v>
+        <v>1791</v>
       </c>
       <c r="AL17" s="11">
-        <v>1784</v>
+        <v>1511</v>
       </c>
       <c r="AM17" s="11">
-        <v>1791</v>
+        <v>1695</v>
       </c>
       <c r="AN17" s="11">
-        <v>1511</v>
+        <v>1406</v>
       </c>
       <c r="AO17" s="11">
-        <v>1695</v>
+        <v>1105</v>
       </c>
       <c r="AP17" s="11">
-        <v>1406</v>
+        <v>1434</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1105</v>
+        <v>1434</v>
       </c>
       <c r="AR17" s="11">
-        <v>722</v>
+        <v>2084</v>
       </c>
       <c r="AS17" s="11">
-        <v>1544</v>
+        <v>2012</v>
       </c>
       <c r="AT17" s="11">
-        <v>1567</v>
+        <v>1333</v>
       </c>
       <c r="AU17" s="11">
-        <v>2229</v>
+        <v>241</v>
       </c>
       <c r="AV17" s="11">
-        <v>1333</v>
+        <v>1208</v>
       </c>
       <c r="AW17" s="11">
-        <v>241</v>
+        <v>750</v>
       </c>
       <c r="AX17" s="11">
-        <v>1207</v>
+        <v>943</v>
       </c>
       <c r="AY17" s="11">
-        <v>750</v>
+        <v>1227</v>
       </c>
       <c r="AZ17" s="11">
-        <v>943</v>
+        <v>1008</v>
       </c>
       <c r="BA17" s="11">
-        <v>1227</v>
+        <v>507</v>
       </c>
       <c r="BB17" s="11">
-        <v>1008</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -2579,82 +2580,82 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F18" s="13">
-        <v>1555</v>
+        <v>80</v>
       </c>
       <c r="G18" s="13">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="H18" s="13">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I18" s="13">
+        <v>63</v>
+      </c>
+      <c r="J18" s="13">
+        <v>42</v>
+      </c>
+      <c r="K18" s="13">
         <v>163</v>
       </c>
-      <c r="J18" s="13">
-        <v>92</v>
-      </c>
-      <c r="K18" s="13">
-        <v>63</v>
-      </c>
       <c r="L18" s="13">
+        <v>68</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>150</v>
+      </c>
+      <c r="O18" s="13">
+        <v>118</v>
+      </c>
+      <c r="P18" s="13">
+        <v>178</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>112</v>
+      </c>
+      <c r="R18" s="13">
+        <v>131</v>
+      </c>
+      <c r="S18" s="13">
+        <v>165</v>
+      </c>
+      <c r="T18" s="13">
+        <v>100</v>
+      </c>
+      <c r="U18" s="13">
+        <v>119</v>
+      </c>
+      <c r="V18" s="13">
+        <v>22</v>
+      </c>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>41</v>
+      </c>
+      <c r="AB18" s="13">
         <v>42</v>
       </c>
-      <c r="M18" s="13">
-        <v>163</v>
-      </c>
-      <c r="N18" s="13">
-        <v>68</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0</v>
-      </c>
-      <c r="P18" s="13">
-        <v>150</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>118</v>
-      </c>
-      <c r="R18" s="13">
-        <v>178</v>
-      </c>
-      <c r="S18" s="13">
-        <v>112</v>
-      </c>
-      <c r="T18" s="13">
-        <v>131</v>
-      </c>
-      <c r="U18" s="13">
-        <v>165</v>
-      </c>
-      <c r="V18" s="13">
-        <v>100</v>
-      </c>
-      <c r="W18" s="13">
-        <v>119</v>
-      </c>
-      <c r="X18" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>0</v>
-      </c>
       <c r="AC18" s="13">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="13">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="13">
         <v>0</v>
@@ -2663,64 +2664,64 @@
         <v>0</v>
       </c>
       <c r="AG18" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH18" s="13">
         <v>0</v>
       </c>
       <c r="AI18" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="13">
         <v>0</v>
       </c>
       <c r="AK18" s="13">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AL18" s="13">
         <v>0</v>
       </c>
       <c r="AM18" s="13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="13">
         <v>0</v>
       </c>
       <c r="AO18" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AP18" s="13">
         <v>0</v>
       </c>
       <c r="AQ18" s="13">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="13">
+        <v>28</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
         <v>30</v>
       </c>
-      <c r="AS18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>258</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>0</v>
-      </c>
       <c r="AW18" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AX18" s="13">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AY18" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="13">
         <v>0</v>
@@ -2729,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>67</v>
       </c>
@@ -2845,11 +2846,11 @@
       <c r="AN19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP19" s="11" t="s">
-        <v>57</v>
+      <c r="AO19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>0</v>
       </c>
       <c r="AQ19" s="11">
         <v>0</v>
@@ -2881,14 +2882,14 @@
       <c r="AZ19" s="11">
         <v>0</v>
       </c>
-      <c r="BA19" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="11">
-        <v>0</v>
+      <c r="BA19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB19" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>68</v>
       </c>
@@ -3004,11 +3005,11 @@
       <c r="AN20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP20" s="13" t="s">
-        <v>57</v>
+      <c r="AO20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>0</v>
       </c>
       <c r="AQ20" s="13">
         <v>0</v>
@@ -3040,14 +3041,14 @@
       <c r="AZ20" s="13">
         <v>0</v>
       </c>
-      <c r="BA20" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="13">
-        <v>0</v>
+      <c r="BA20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB20" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>69</v>
       </c>
@@ -3056,157 +3057,157 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>244</v>
+        <v>1028</v>
       </c>
       <c r="F21" s="11">
-        <v>5076</v>
+        <v>905</v>
       </c>
       <c r="G21" s="11">
-        <v>1028</v>
+        <v>929</v>
       </c>
       <c r="H21" s="11">
-        <v>905</v>
+        <v>680</v>
       </c>
       <c r="I21" s="11">
-        <v>929</v>
+        <v>361</v>
       </c>
       <c r="J21" s="11">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="K21" s="11">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="L21" s="11">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="M21" s="11">
-        <v>291</v>
+        <v>604</v>
       </c>
       <c r="N21" s="11">
-        <v>698</v>
+        <v>488</v>
       </c>
       <c r="O21" s="11">
-        <v>604</v>
+        <v>480</v>
       </c>
       <c r="P21" s="11">
+        <v>510</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>466</v>
+      </c>
+      <c r="R21" s="11">
+        <v>430</v>
+      </c>
+      <c r="S21" s="11">
+        <v>322</v>
+      </c>
+      <c r="T21" s="11">
+        <v>348</v>
+      </c>
+      <c r="U21" s="11">
+        <v>285</v>
+      </c>
+      <c r="V21" s="11">
+        <v>357</v>
+      </c>
+      <c r="W21" s="11">
+        <v>399</v>
+      </c>
+      <c r="X21" s="11">
+        <v>352</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>404</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>332</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>355</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>484</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>480</v>
+      </c>
+      <c r="AD21" s="11">
         <v>488</v>
       </c>
-      <c r="Q21" s="11">
-        <v>480</v>
-      </c>
-      <c r="R21" s="11">
-        <v>510</v>
-      </c>
-      <c r="S21" s="11">
-        <v>466</v>
-      </c>
-      <c r="T21" s="11">
-        <v>430</v>
-      </c>
-      <c r="U21" s="11">
-        <v>322</v>
-      </c>
-      <c r="V21" s="11">
+      <c r="AE21" s="11">
+        <v>406</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>382</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>360</v>
+      </c>
+      <c r="AH21" s="11">
         <v>348</v>
       </c>
-      <c r="W21" s="11">
-        <v>285</v>
-      </c>
-      <c r="X21" s="11">
-        <v>357</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>399</v>
-      </c>
-      <c r="Z21" s="11">
+      <c r="AI21" s="11">
+        <v>468</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>511</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>477</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>378</v>
+      </c>
+      <c r="AM21" s="11">
+        <v>497</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>534</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>569</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>422</v>
+      </c>
+      <c r="AQ21" s="11">
+        <v>422</v>
+      </c>
+      <c r="AR21" s="11">
+        <v>517</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>299</v>
+      </c>
+      <c r="AT21" s="11">
+        <v>559</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>520</v>
+      </c>
+      <c r="AV21" s="11">
+        <v>524</v>
+      </c>
+      <c r="AW21" s="11">
+        <v>414</v>
+      </c>
+      <c r="AX21" s="11">
+        <v>312</v>
+      </c>
+      <c r="AY21" s="11">
+        <v>599</v>
+      </c>
+      <c r="AZ21" s="11">
+        <v>473</v>
+      </c>
+      <c r="BA21" s="11">
         <v>352</v>
       </c>
-      <c r="AA21" s="11">
-        <v>404</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>332</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>355</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>484</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>480</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>488</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>406</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>382</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>360</v>
-      </c>
-      <c r="AJ21" s="11">
-        <v>348</v>
-      </c>
-      <c r="AK21" s="11">
-        <v>468</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>511</v>
-      </c>
-      <c r="AM21" s="11">
-        <v>477</v>
-      </c>
-      <c r="AN21" s="11">
-        <v>378</v>
-      </c>
-      <c r="AO21" s="11">
-        <v>497</v>
-      </c>
-      <c r="AP21" s="11">
-        <v>534</v>
-      </c>
-      <c r="AQ21" s="11">
-        <v>569</v>
-      </c>
-      <c r="AR21" s="11">
-        <v>506</v>
-      </c>
-      <c r="AS21" s="11">
-        <v>422</v>
-      </c>
-      <c r="AT21" s="11">
-        <v>1034</v>
-      </c>
-      <c r="AU21" s="11">
-        <v>83</v>
-      </c>
-      <c r="AV21" s="11">
-        <v>559</v>
-      </c>
-      <c r="AW21" s="11">
-        <v>520</v>
-      </c>
-      <c r="AX21" s="11">
-        <v>524</v>
-      </c>
-      <c r="AY21" s="11">
-        <v>414</v>
-      </c>
-      <c r="AZ21" s="11">
-        <v>312</v>
-      </c>
-      <c r="BA21" s="11">
-        <v>597</v>
-      </c>
       <c r="BB21" s="11">
-        <v>473</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -3322,11 +3323,11 @@
       <c r="AN22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP22" s="13" t="s">
-        <v>57</v>
+      <c r="AO22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="13">
+        <v>0</v>
       </c>
       <c r="AQ22" s="13">
         <v>0</v>
@@ -3358,14 +3359,14 @@
       <c r="AZ22" s="13">
         <v>0</v>
       </c>
-      <c r="BA22" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="13">
-        <v>0</v>
+      <c r="BA22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB22" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>71</v>
       </c>
@@ -3481,11 +3482,11 @@
       <c r="AN23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP23" s="11" t="s">
-        <v>57</v>
+      <c r="AO23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="11">
+        <v>0</v>
       </c>
       <c r="AQ23" s="11">
         <v>0</v>
@@ -3517,14 +3518,14 @@
       <c r="AZ23" s="11">
         <v>0</v>
       </c>
-      <c r="BA23" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="11">
-        <v>0</v>
+      <c r="BA23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB23" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -3640,11 +3641,11 @@
       <c r="AN24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP24" s="13" t="s">
-        <v>57</v>
+      <c r="AO24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="13">
+        <v>0</v>
       </c>
       <c r="AQ24" s="13">
         <v>0</v>
@@ -3676,14 +3677,14 @@
       <c r="AZ24" s="13">
         <v>0</v>
       </c>
-      <c r="BA24" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="13">
-        <v>0</v>
+      <c r="BA24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB24" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>74</v>
       </c>
@@ -3740,7 +3741,7 @@
       <c r="BA25" s="15"/>
       <c r="BB25" s="15"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>75</v>
       </c>
@@ -3818,11 +3819,11 @@
       <c r="AB26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AC26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD26" s="17" t="s">
-        <v>57</v>
+      <c r="AC26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="17">
+        <v>0</v>
       </c>
       <c r="AE26" s="17">
         <v>0</v>
@@ -3863,8 +3864,8 @@
       <c r="AQ26" s="17">
         <v>0</v>
       </c>
-      <c r="AR26" s="17">
-        <v>0</v>
+      <c r="AR26" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AS26" s="17" t="s">
         <v>57</v>
@@ -3897,164 +3898,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19">
-        <v>739852</v>
+        <v>20638</v>
       </c>
       <c r="F27" s="19">
-        <v>35974</v>
+        <v>19400</v>
       </c>
       <c r="G27" s="19">
-        <v>20638</v>
+        <v>20838</v>
       </c>
       <c r="H27" s="19">
-        <v>19400</v>
+        <v>17330</v>
       </c>
       <c r="I27" s="19">
-        <v>20838</v>
+        <v>20375</v>
       </c>
       <c r="J27" s="19">
-        <v>17330</v>
+        <v>19516</v>
       </c>
       <c r="K27" s="19">
-        <v>20375</v>
+        <v>23622</v>
       </c>
       <c r="L27" s="19">
-        <v>19516</v>
+        <v>19319</v>
       </c>
       <c r="M27" s="19">
-        <v>23622</v>
+        <v>18907</v>
       </c>
       <c r="N27" s="19">
-        <v>19319</v>
+        <v>19908</v>
       </c>
       <c r="O27" s="19">
-        <v>18907</v>
+        <v>23571</v>
       </c>
       <c r="P27" s="19">
-        <v>19908</v>
+        <v>25060</v>
       </c>
       <c r="Q27" s="19">
-        <v>23571</v>
+        <v>16050</v>
       </c>
       <c r="R27" s="19">
-        <v>25060</v>
+        <v>17401</v>
       </c>
       <c r="S27" s="19">
-        <v>16050</v>
+        <v>13389</v>
       </c>
       <c r="T27" s="19">
-        <v>17401</v>
+        <v>13307</v>
       </c>
       <c r="U27" s="19">
-        <v>13389</v>
+        <v>15314</v>
       </c>
       <c r="V27" s="19">
-        <v>13307</v>
+        <v>13991</v>
       </c>
       <c r="W27" s="19">
-        <v>15314</v>
+        <v>12806</v>
       </c>
       <c r="X27" s="19">
-        <v>13991</v>
+        <v>12282</v>
       </c>
       <c r="Y27" s="19">
-        <v>12806</v>
+        <v>14686</v>
       </c>
       <c r="Z27" s="19">
-        <v>12282</v>
+        <v>17362</v>
       </c>
       <c r="AA27" s="19">
-        <v>14686</v>
+        <v>14246</v>
       </c>
       <c r="AB27" s="19">
-        <v>17362</v>
+        <v>20416</v>
       </c>
       <c r="AC27" s="19">
-        <v>14246</v>
+        <v>12857</v>
       </c>
       <c r="AD27" s="19">
-        <v>20416</v>
+        <v>16386</v>
       </c>
       <c r="AE27" s="19">
-        <v>12857</v>
+        <v>13784</v>
       </c>
       <c r="AF27" s="19">
-        <v>16386</v>
+        <v>17336</v>
       </c>
       <c r="AG27" s="19">
-        <v>13784</v>
+        <v>15273</v>
       </c>
       <c r="AH27" s="19">
-        <v>17336</v>
+        <v>15223</v>
       </c>
       <c r="AI27" s="19">
-        <v>15273</v>
+        <v>15793</v>
       </c>
       <c r="AJ27" s="19">
-        <v>15223</v>
+        <v>15669</v>
       </c>
       <c r="AK27" s="19">
-        <v>15793</v>
+        <v>17020</v>
       </c>
       <c r="AL27" s="19">
-        <v>15669</v>
+        <v>16415</v>
       </c>
       <c r="AM27" s="19">
-        <v>17020</v>
+        <v>16150</v>
       </c>
       <c r="AN27" s="19">
-        <v>16415</v>
+        <v>18014</v>
       </c>
       <c r="AO27" s="19">
-        <v>16150</v>
+        <v>14732</v>
       </c>
       <c r="AP27" s="19">
-        <v>18014</v>
+        <v>15381</v>
       </c>
       <c r="AQ27" s="19">
-        <v>14732</v>
+        <v>15381</v>
       </c>
       <c r="AR27" s="19">
-        <v>16368</v>
+        <v>13657</v>
       </c>
       <c r="AS27" s="19">
-        <v>15491</v>
+        <v>14271</v>
       </c>
       <c r="AT27" s="19">
-        <v>14371</v>
+        <v>19406</v>
       </c>
       <c r="AU27" s="19">
-        <v>14388</v>
+        <v>11053</v>
       </c>
       <c r="AV27" s="19">
-        <v>19406</v>
+        <v>16058</v>
       </c>
       <c r="AW27" s="19">
-        <v>11053</v>
+        <v>13200</v>
       </c>
       <c r="AX27" s="19">
-        <v>16055</v>
+        <v>13008</v>
       </c>
       <c r="AY27" s="19">
-        <v>13200</v>
+        <v>14469</v>
       </c>
       <c r="AZ27" s="19">
-        <v>13008</v>
+        <v>20179</v>
       </c>
       <c r="BA27" s="19">
-        <v>14467</v>
+        <v>12335</v>
       </c>
       <c r="BB27" s="19">
-        <v>20138</v>
+        <v>13236</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4109,7 +4110,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4164,7 +4165,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4219,7 +4220,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>77</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4431,7 +4432,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>77</v>
       </c>
@@ -4488,7 +4489,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>55</v>
       </c>
@@ -4601,8 +4602,8 @@
       <c r="AM34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN34" s="11" t="s">
-        <v>57</v>
+      <c r="AN34" s="11">
+        <v>0</v>
       </c>
       <c r="AO34" s="11">
         <v>0</v>
@@ -4617,37 +4618,37 @@
         <v>0</v>
       </c>
       <c r="AS34" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT34" s="11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AU34" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV34" s="11">
+        <v>114</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>9</v>
+      </c>
+      <c r="AX34" s="11">
         <v>10</v>
       </c>
-      <c r="AW34" s="11">
-        <v>6</v>
-      </c>
-      <c r="AX34" s="11">
-        <v>114</v>
-      </c>
       <c r="AY34" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ34" s="11">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="BA34" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="11">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>58</v>
       </c>
@@ -4730,23 +4731,23 @@
       <c r="AC35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE35" s="13" t="s">
-        <v>57</v>
+      <c r="AD35" s="13">
+        <v>1625</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>109</v>
       </c>
       <c r="AF35" s="13">
-        <v>1625</v>
+        <v>244</v>
       </c>
       <c r="AG35" s="13">
-        <v>109</v>
+        <v>1163</v>
       </c>
       <c r="AH35" s="13">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="13">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="13">
         <v>0</v>
@@ -4763,11 +4764,11 @@
       <c r="AN35" s="13">
         <v>0</v>
       </c>
-      <c r="AO35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="13">
-        <v>0</v>
+      <c r="AO35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ35" s="13" t="s">
         <v>57</v>
@@ -4806,166 +4807,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="11">
+        <v>4</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>16</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>139</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>205</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>3256</v>
+      </c>
+      <c r="P36" s="11">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>45</v>
+      </c>
+      <c r="R36" s="11">
         <v>59</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11">
+      <c r="S36" s="11">
         <v>3</v>
       </c>
-      <c r="F36" s="11">
-        <v>25</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I36" s="11">
-        <v>4</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>5</v>
+      </c>
+      <c r="W36" s="11">
+        <v>61</v>
+      </c>
+      <c r="X36" s="11">
+        <v>77</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>242</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>1258</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>39</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>48</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>15</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>29</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>119</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK36" s="11">
+        <v>128</v>
+      </c>
+      <c r="AL36" s="11">
+        <v>590</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>76</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>39</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>119</v>
+      </c>
+      <c r="AQ36" s="11">
+        <v>119</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS36" s="11">
         <v>16</v>
       </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>139</v>
-      </c>
-      <c r="N36" s="11">
-        <v>0</v>
-      </c>
-      <c r="O36" s="11">
-        <v>205</v>
-      </c>
-      <c r="P36" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="11">
-        <v>3256</v>
-      </c>
-      <c r="R36" s="11">
-        <v>60</v>
-      </c>
-      <c r="S36" s="11">
-        <v>45</v>
-      </c>
-      <c r="T36" s="11">
-        <v>59</v>
-      </c>
-      <c r="U36" s="11">
-        <v>3</v>
-      </c>
-      <c r="V36" s="11">
-        <v>0</v>
-      </c>
-      <c r="W36" s="11">
-        <v>0</v>
-      </c>
-      <c r="X36" s="11">
+      <c r="AT36" s="11">
         <v>5</v>
       </c>
-      <c r="Y36" s="11">
-        <v>61</v>
-      </c>
-      <c r="Z36" s="11">
-        <v>77</v>
-      </c>
-      <c r="AA36" s="11">
-        <v>242</v>
-      </c>
-      <c r="AB36" s="11">
-        <v>1258</v>
-      </c>
-      <c r="AC36" s="11">
-        <v>39</v>
-      </c>
-      <c r="AD36" s="11">
-        <v>48</v>
-      </c>
-      <c r="AE36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="11">
+      <c r="AU36" s="11">
+        <v>148</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>140</v>
+      </c>
+      <c r="AW36" s="11">
+        <v>18</v>
+      </c>
+      <c r="AX36" s="11">
+        <v>430</v>
+      </c>
+      <c r="AY36" s="11">
+        <v>38</v>
+      </c>
+      <c r="AZ36" s="11">
+        <v>26</v>
+      </c>
+      <c r="BA36" s="11">
         <v>15</v>
       </c>
-      <c r="AG36" s="11">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="11">
-        <v>29</v>
-      </c>
-      <c r="AI36" s="11">
-        <v>5</v>
-      </c>
-      <c r="AJ36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="11">
-        <v>119</v>
-      </c>
-      <c r="AL36" s="11">
-        <v>8</v>
-      </c>
-      <c r="AM36" s="11">
-        <v>128</v>
-      </c>
-      <c r="AN36" s="11">
-        <v>590</v>
-      </c>
-      <c r="AO36" s="11">
-        <v>76</v>
-      </c>
-      <c r="AP36" s="11">
-        <v>39</v>
-      </c>
-      <c r="AQ36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="11">
-        <v>119</v>
-      </c>
-      <c r="AT36" s="11">
-        <v>7</v>
-      </c>
-      <c r="AU36" s="11">
-        <v>-18</v>
-      </c>
-      <c r="AV36" s="11">
-        <v>5</v>
-      </c>
-      <c r="AW36" s="11">
-        <v>148</v>
-      </c>
-      <c r="AX36" s="11">
-        <v>140</v>
-      </c>
-      <c r="AY36" s="11">
-        <v>18</v>
-      </c>
-      <c r="AZ36" s="11">
-        <v>430</v>
-      </c>
-      <c r="BA36" s="11">
-        <v>37</v>
-      </c>
       <c r="BB36" s="11">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>61</v>
       </c>
@@ -4974,157 +4973,157 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="F37" s="13">
-        <v>1007</v>
+        <v>382</v>
       </c>
       <c r="G37" s="13">
-        <v>605</v>
+        <v>701</v>
       </c>
       <c r="H37" s="13">
-        <v>382</v>
+        <v>284</v>
       </c>
       <c r="I37" s="13">
-        <v>701</v>
+        <v>371</v>
       </c>
       <c r="J37" s="13">
-        <v>284</v>
+        <v>155</v>
       </c>
       <c r="K37" s="13">
-        <v>371</v>
+        <v>140</v>
       </c>
       <c r="L37" s="13">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="M37" s="13">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="N37" s="13">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="O37" s="13">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="P37" s="13">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="13">
-        <v>123</v>
+        <v>373</v>
       </c>
       <c r="R37" s="13">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="S37" s="13">
-        <v>373</v>
+        <v>619</v>
       </c>
       <c r="T37" s="13">
-        <v>313</v>
+        <v>820</v>
       </c>
       <c r="U37" s="13">
-        <v>619</v>
+        <v>416</v>
       </c>
       <c r="V37" s="13">
-        <v>820</v>
+        <v>236</v>
       </c>
       <c r="W37" s="13">
-        <v>416</v>
+        <v>107</v>
       </c>
       <c r="X37" s="13">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="Y37" s="13">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="Z37" s="13">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="AA37" s="13">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB37" s="13">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AC37" s="13">
+        <v>76</v>
+      </c>
+      <c r="AD37" s="13">
+        <v>95</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>110</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>34</v>
+      </c>
+      <c r="AG37" s="13">
+        <v>94</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>59</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>104</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>53</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>34</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>73</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>157</v>
+      </c>
+      <c r="AN37" s="13">
+        <v>105</v>
+      </c>
+      <c r="AO37" s="13">
+        <v>138</v>
+      </c>
+      <c r="AP37" s="13">
+        <v>126</v>
+      </c>
+      <c r="AQ37" s="13">
+        <v>126</v>
+      </c>
+      <c r="AR37" s="13">
+        <v>25</v>
+      </c>
+      <c r="AS37" s="13">
+        <v>143</v>
+      </c>
+      <c r="AT37" s="13">
+        <v>72</v>
+      </c>
+      <c r="AU37" s="13">
         <v>67</v>
       </c>
-      <c r="AD37" s="13">
-        <v>63</v>
-      </c>
-      <c r="AE37" s="13">
-        <v>76</v>
-      </c>
-      <c r="AF37" s="13">
-        <v>95</v>
-      </c>
-      <c r="AG37" s="13">
-        <v>110</v>
-      </c>
-      <c r="AH37" s="13">
-        <v>34</v>
-      </c>
-      <c r="AI37" s="13">
-        <v>94</v>
-      </c>
-      <c r="AJ37" s="13">
-        <v>59</v>
-      </c>
-      <c r="AK37" s="13">
-        <v>104</v>
-      </c>
-      <c r="AL37" s="13">
-        <v>53</v>
-      </c>
-      <c r="AM37" s="13">
-        <v>34</v>
-      </c>
-      <c r="AN37" s="13">
-        <v>73</v>
-      </c>
-      <c r="AO37" s="13">
-        <v>157</v>
-      </c>
-      <c r="AP37" s="13">
-        <v>105</v>
-      </c>
-      <c r="AQ37" s="13">
+      <c r="AV37" s="13">
+        <v>58</v>
+      </c>
+      <c r="AW37" s="13">
+        <v>37</v>
+      </c>
+      <c r="AX37" s="13">
+        <v>118</v>
+      </c>
+      <c r="AY37" s="13">
+        <v>319</v>
+      </c>
+      <c r="AZ37" s="13">
+        <v>262</v>
+      </c>
+      <c r="BA37" s="13">
         <v>138</v>
       </c>
-      <c r="AR37" s="13">
-        <v>110</v>
-      </c>
-      <c r="AS37" s="13">
-        <v>126</v>
-      </c>
-      <c r="AT37" s="13">
-        <v>25</v>
-      </c>
-      <c r="AU37" s="13">
-        <v>143</v>
-      </c>
-      <c r="AV37" s="13">
-        <v>72</v>
-      </c>
-      <c r="AW37" s="13">
-        <v>67</v>
-      </c>
-      <c r="AX37" s="13">
-        <v>58</v>
-      </c>
-      <c r="AY37" s="13">
-        <v>37</v>
-      </c>
-      <c r="AZ37" s="13">
-        <v>118</v>
-      </c>
-      <c r="BA37" s="13">
-        <v>319</v>
-      </c>
       <c r="BB37" s="13">
-        <v>262</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>62</v>
       </c>
@@ -5133,157 +5132,157 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>6122</v>
+        <v>8094</v>
       </c>
       <c r="F38" s="11">
-        <v>6759</v>
+        <v>9001</v>
       </c>
       <c r="G38" s="11">
-        <v>8094</v>
+        <v>9330</v>
       </c>
       <c r="H38" s="11">
-        <v>9001</v>
+        <v>6501</v>
       </c>
       <c r="I38" s="11">
-        <v>9330</v>
+        <v>8997</v>
       </c>
       <c r="J38" s="11">
-        <v>6501</v>
+        <v>8128</v>
       </c>
       <c r="K38" s="11">
-        <v>8997</v>
+        <v>13469</v>
       </c>
       <c r="L38" s="11">
-        <v>8128</v>
+        <v>7909</v>
       </c>
       <c r="M38" s="11">
-        <v>13469</v>
+        <v>6974</v>
       </c>
       <c r="N38" s="11">
-        <v>7909</v>
+        <v>8319</v>
       </c>
       <c r="O38" s="11">
-        <v>6974</v>
+        <v>8666</v>
       </c>
       <c r="P38" s="11">
-        <v>8319</v>
+        <v>9995</v>
       </c>
       <c r="Q38" s="11">
-        <v>8666</v>
+        <v>5096</v>
       </c>
       <c r="R38" s="11">
-        <v>9995</v>
+        <v>6996</v>
       </c>
       <c r="S38" s="11">
-        <v>5096</v>
+        <v>5086</v>
       </c>
       <c r="T38" s="11">
-        <v>6996</v>
+        <v>4089</v>
       </c>
       <c r="U38" s="11">
-        <v>5086</v>
+        <v>6065</v>
       </c>
       <c r="V38" s="11">
-        <v>4089</v>
+        <v>5766</v>
       </c>
       <c r="W38" s="11">
-        <v>6065</v>
+        <v>4277</v>
       </c>
       <c r="X38" s="11">
-        <v>5766</v>
+        <v>4308</v>
       </c>
       <c r="Y38" s="11">
-        <v>4277</v>
+        <v>6858</v>
       </c>
       <c r="Z38" s="11">
-        <v>4308</v>
+        <v>8831</v>
       </c>
       <c r="AA38" s="11">
-        <v>6858</v>
+        <v>7789</v>
       </c>
       <c r="AB38" s="11">
-        <v>8831</v>
+        <v>9363</v>
       </c>
       <c r="AC38" s="11">
-        <v>7789</v>
+        <v>4583</v>
       </c>
       <c r="AD38" s="11">
-        <v>9363</v>
+        <v>6039</v>
       </c>
       <c r="AE38" s="11">
-        <v>4583</v>
+        <v>7333</v>
       </c>
       <c r="AF38" s="11">
-        <v>6039</v>
+        <v>9209</v>
       </c>
       <c r="AG38" s="11">
-        <v>7333</v>
+        <v>4504</v>
       </c>
       <c r="AH38" s="11">
-        <v>9209</v>
+        <v>5452</v>
       </c>
       <c r="AI38" s="11">
-        <v>4504</v>
+        <v>5674</v>
       </c>
       <c r="AJ38" s="11">
-        <v>5452</v>
+        <v>5052</v>
       </c>
       <c r="AK38" s="11">
-        <v>5674</v>
+        <v>6215</v>
       </c>
       <c r="AL38" s="11">
-        <v>5052</v>
+        <v>5661</v>
       </c>
       <c r="AM38" s="11">
-        <v>6215</v>
+        <v>5396</v>
       </c>
       <c r="AN38" s="11">
-        <v>5661</v>
+        <v>8097</v>
       </c>
       <c r="AO38" s="11">
-        <v>5396</v>
+        <v>4636</v>
       </c>
       <c r="AP38" s="11">
-        <v>8097</v>
+        <v>5678</v>
       </c>
       <c r="AQ38" s="11">
-        <v>4636</v>
+        <v>5678</v>
       </c>
       <c r="AR38" s="11">
-        <v>6402</v>
+        <v>4126</v>
       </c>
       <c r="AS38" s="11">
-        <v>5678</v>
+        <v>5874</v>
       </c>
       <c r="AT38" s="11">
-        <v>4125</v>
+        <v>11586</v>
       </c>
       <c r="AU38" s="11">
-        <v>5874</v>
+        <v>3695</v>
       </c>
       <c r="AV38" s="11">
-        <v>11586</v>
+        <v>7498</v>
       </c>
       <c r="AW38" s="11">
-        <v>3695</v>
+        <v>5631</v>
       </c>
       <c r="AX38" s="11">
-        <v>7498</v>
+        <v>7783</v>
       </c>
       <c r="AY38" s="11">
-        <v>5631</v>
+        <v>7649</v>
       </c>
       <c r="AZ38" s="11">
-        <v>7783</v>
+        <v>11569</v>
       </c>
       <c r="BA38" s="11">
-        <v>7649</v>
+        <v>4202</v>
       </c>
       <c r="BB38" s="11">
-        <v>11812</v>
+        <v>4471</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>63</v>
       </c>
@@ -5292,157 +5291,157 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>4782</v>
+        <v>4294</v>
       </c>
       <c r="F39" s="13">
-        <v>4880</v>
+        <v>5399</v>
       </c>
       <c r="G39" s="13">
-        <v>4294</v>
+        <v>4397</v>
       </c>
       <c r="H39" s="13">
-        <v>5399</v>
+        <v>4540</v>
       </c>
       <c r="I39" s="13">
-        <v>4397</v>
+        <v>5349</v>
       </c>
       <c r="J39" s="13">
-        <v>4540</v>
+        <v>5636</v>
       </c>
       <c r="K39" s="13">
-        <v>5349</v>
+        <v>5299</v>
       </c>
       <c r="L39" s="13">
-        <v>5636</v>
+        <v>5771</v>
       </c>
       <c r="M39" s="13">
-        <v>5299</v>
+        <v>5776</v>
       </c>
       <c r="N39" s="13">
-        <v>5771</v>
+        <v>6234</v>
       </c>
       <c r="O39" s="13">
-        <v>5776</v>
+        <v>5939</v>
       </c>
       <c r="P39" s="13">
-        <v>6234</v>
+        <v>6544</v>
       </c>
       <c r="Q39" s="13">
-        <v>5939</v>
+        <v>5066</v>
       </c>
       <c r="R39" s="13">
-        <v>6544</v>
+        <v>6325</v>
       </c>
       <c r="S39" s="13">
-        <v>5066</v>
+        <v>4903</v>
       </c>
       <c r="T39" s="13">
-        <v>6325</v>
+        <v>5108</v>
       </c>
       <c r="U39" s="13">
-        <v>4903</v>
+        <v>5312</v>
       </c>
       <c r="V39" s="13">
-        <v>5108</v>
+        <v>5156</v>
       </c>
       <c r="W39" s="13">
-        <v>5312</v>
+        <v>4731</v>
       </c>
       <c r="X39" s="13">
-        <v>5156</v>
+        <v>5608</v>
       </c>
       <c r="Y39" s="13">
-        <v>4731</v>
+        <v>4869</v>
       </c>
       <c r="Z39" s="13">
-        <v>5608</v>
+        <v>4815</v>
       </c>
       <c r="AA39" s="13">
-        <v>4869</v>
+        <v>4608</v>
       </c>
       <c r="AB39" s="13">
-        <v>4815</v>
+        <v>4947</v>
       </c>
       <c r="AC39" s="13">
-        <v>4608</v>
+        <v>5422</v>
       </c>
       <c r="AD39" s="13">
-        <v>4947</v>
+        <v>5089</v>
       </c>
       <c r="AE39" s="13">
-        <v>5422</v>
+        <v>4699</v>
       </c>
       <c r="AF39" s="13">
-        <v>5089</v>
+        <v>4734</v>
       </c>
       <c r="AG39" s="13">
-        <v>4699</v>
+        <v>5849</v>
       </c>
       <c r="AH39" s="13">
-        <v>4734</v>
+        <v>6095</v>
       </c>
       <c r="AI39" s="13">
-        <v>5849</v>
+        <v>5933</v>
       </c>
       <c r="AJ39" s="13">
-        <v>6095</v>
+        <v>6295</v>
       </c>
       <c r="AK39" s="13">
-        <v>5933</v>
+        <v>6928</v>
       </c>
       <c r="AL39" s="13">
-        <v>6295</v>
+        <v>6374</v>
       </c>
       <c r="AM39" s="13">
-        <v>6928</v>
+        <v>6697</v>
       </c>
       <c r="AN39" s="13">
-        <v>6374</v>
+        <v>6458</v>
       </c>
       <c r="AO39" s="13">
-        <v>6697</v>
+        <v>6204</v>
       </c>
       <c r="AP39" s="13">
-        <v>6458</v>
+        <v>5822</v>
       </c>
       <c r="AQ39" s="13">
-        <v>6204</v>
+        <v>5822</v>
       </c>
       <c r="AR39" s="13">
-        <v>5943</v>
+        <v>5109</v>
       </c>
       <c r="AS39" s="13">
-        <v>5822</v>
+        <v>4303</v>
       </c>
       <c r="AT39" s="13">
-        <v>5109</v>
+        <v>4737</v>
       </c>
       <c r="AU39" s="13">
-        <v>4303</v>
+        <v>4389</v>
       </c>
       <c r="AV39" s="13">
-        <v>4737</v>
+        <v>4768</v>
       </c>
       <c r="AW39" s="13">
-        <v>4389</v>
+        <v>5274</v>
       </c>
       <c r="AX39" s="13">
-        <v>4768</v>
+        <v>4918</v>
       </c>
       <c r="AY39" s="13">
-        <v>5274</v>
+        <v>5125</v>
       </c>
       <c r="AZ39" s="13">
-        <v>4918</v>
+        <v>4959</v>
       </c>
       <c r="BA39" s="13">
-        <v>5123</v>
+        <v>4551</v>
       </c>
       <c r="BB39" s="13">
-        <v>4959</v>
+        <v>5270</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
@@ -5451,157 +5450,157 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>1062</v>
+        <v>1270</v>
       </c>
       <c r="F40" s="11">
-        <v>1482</v>
+        <v>2721</v>
       </c>
       <c r="G40" s="11">
-        <v>1270</v>
+        <v>2446</v>
       </c>
       <c r="H40" s="11">
-        <v>2721</v>
+        <v>1542</v>
       </c>
       <c r="I40" s="11">
-        <v>2446</v>
+        <v>3144</v>
       </c>
       <c r="J40" s="11">
-        <v>1542</v>
+        <v>2866</v>
       </c>
       <c r="K40" s="11">
-        <v>3144</v>
+        <v>1629</v>
       </c>
       <c r="L40" s="11">
-        <v>2866</v>
+        <v>1870</v>
       </c>
       <c r="M40" s="11">
-        <v>1629</v>
+        <v>2243</v>
       </c>
       <c r="N40" s="11">
-        <v>1870</v>
+        <v>1227</v>
       </c>
       <c r="O40" s="11">
-        <v>2243</v>
+        <v>1670</v>
       </c>
       <c r="P40" s="11">
+        <v>1514</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>972</v>
+      </c>
+      <c r="R40" s="11">
+        <v>988</v>
+      </c>
+      <c r="S40" s="11">
+        <v>1148</v>
+      </c>
+      <c r="T40" s="11">
+        <v>1427</v>
+      </c>
+      <c r="U40" s="11">
+        <v>1860</v>
+      </c>
+      <c r="V40" s="11">
+        <v>1652</v>
+      </c>
+      <c r="W40" s="11">
+        <v>1845</v>
+      </c>
+      <c r="X40" s="11">
+        <v>1549</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>795</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>208</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>251</v>
+      </c>
+      <c r="AC40" s="11">
+        <v>946</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>1549</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>1213</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>1325</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>1577</v>
+      </c>
+      <c r="AH40" s="11">
+        <v>1758</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>1087</v>
+      </c>
+      <c r="AJ40" s="11">
+        <v>2379</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>1791</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>1511</v>
+      </c>
+      <c r="AM40" s="11">
+        <v>1695</v>
+      </c>
+      <c r="AN40" s="11">
+        <v>1406</v>
+      </c>
+      <c r="AO40" s="11">
+        <v>1105</v>
+      </c>
+      <c r="AP40" s="11">
+        <v>1434</v>
+      </c>
+      <c r="AQ40" s="11">
+        <v>1434</v>
+      </c>
+      <c r="AR40" s="11">
+        <v>2084</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>1683</v>
+      </c>
+      <c r="AT40" s="11">
+        <v>1092</v>
+      </c>
+      <c r="AU40" s="11">
+        <v>241</v>
+      </c>
+      <c r="AV40" s="11">
+        <v>1156</v>
+      </c>
+      <c r="AW40" s="11">
+        <v>750</v>
+      </c>
+      <c r="AX40" s="11">
+        <v>943</v>
+      </c>
+      <c r="AY40" s="11">
         <v>1227</v>
       </c>
-      <c r="Q40" s="11">
-        <v>1670</v>
-      </c>
-      <c r="R40" s="11">
-        <v>1514</v>
-      </c>
-      <c r="S40" s="11">
-        <v>972</v>
-      </c>
-      <c r="T40" s="11">
-        <v>988</v>
-      </c>
-      <c r="U40" s="11">
-        <v>1148</v>
-      </c>
-      <c r="V40" s="11">
-        <v>1427</v>
-      </c>
-      <c r="W40" s="11">
-        <v>1860</v>
-      </c>
-      <c r="X40" s="11">
-        <v>1652</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>1845</v>
-      </c>
-      <c r="Z40" s="11">
-        <v>1549</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>795</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>208</v>
-      </c>
-      <c r="AD40" s="11">
-        <v>251</v>
-      </c>
-      <c r="AE40" s="11">
-        <v>946</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>1549</v>
-      </c>
-      <c r="AG40" s="11">
-        <v>1213</v>
-      </c>
-      <c r="AH40" s="11">
-        <v>1325</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>1577</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>1758</v>
-      </c>
-      <c r="AK40" s="11">
-        <v>1087</v>
-      </c>
-      <c r="AL40" s="11">
-        <v>2379</v>
-      </c>
-      <c r="AM40" s="11">
-        <v>1791</v>
-      </c>
-      <c r="AN40" s="11">
-        <v>1511</v>
-      </c>
-      <c r="AO40" s="11">
-        <v>1695</v>
-      </c>
-      <c r="AP40" s="11">
-        <v>1406</v>
-      </c>
-      <c r="AQ40" s="11">
-        <v>1105</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>722</v>
-      </c>
-      <c r="AS40" s="11">
-        <v>1544</v>
-      </c>
-      <c r="AT40" s="11">
-        <v>648</v>
-      </c>
-      <c r="AU40" s="11">
-        <v>3148</v>
-      </c>
-      <c r="AV40" s="11">
-        <v>1092</v>
-      </c>
-      <c r="AW40" s="11">
-        <v>241</v>
-      </c>
-      <c r="AX40" s="11">
-        <v>1156</v>
-      </c>
-      <c r="AY40" s="11">
-        <v>750</v>
-      </c>
       <c r="AZ40" s="11">
-        <v>943</v>
+        <v>1000</v>
       </c>
       <c r="BA40" s="11">
-        <v>1227</v>
+        <v>500</v>
       </c>
       <c r="BB40" s="11">
-        <v>1000</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>66</v>
       </c>
@@ -5610,148 +5609,148 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F41" s="13">
-        <v>1555</v>
+        <v>80</v>
       </c>
       <c r="G41" s="13">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="H41" s="13">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I41" s="13">
+        <v>63</v>
+      </c>
+      <c r="J41" s="13">
+        <v>42</v>
+      </c>
+      <c r="K41" s="13">
         <v>163</v>
       </c>
-      <c r="J41" s="13">
-        <v>92</v>
-      </c>
-      <c r="K41" s="13">
-        <v>63</v>
-      </c>
       <c r="L41" s="13">
+        <v>68</v>
+      </c>
+      <c r="M41" s="13">
+        <v>16</v>
+      </c>
+      <c r="N41" s="13">
+        <v>170</v>
+      </c>
+      <c r="O41" s="13">
+        <v>118</v>
+      </c>
+      <c r="P41" s="13">
+        <v>178</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>112</v>
+      </c>
+      <c r="R41" s="13">
+        <v>131</v>
+      </c>
+      <c r="S41" s="13">
+        <v>165</v>
+      </c>
+      <c r="T41" s="13">
+        <v>100</v>
+      </c>
+      <c r="U41" s="13">
+        <v>119</v>
+      </c>
+      <c r="V41" s="13">
+        <v>22</v>
+      </c>
+      <c r="W41" s="13">
+        <v>0</v>
+      </c>
+      <c r="X41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="13">
+        <v>41</v>
+      </c>
+      <c r="AB41" s="13">
         <v>42</v>
       </c>
-      <c r="M41" s="13">
-        <v>163</v>
-      </c>
-      <c r="N41" s="13">
-        <v>68</v>
-      </c>
-      <c r="O41" s="13">
-        <v>16</v>
-      </c>
-      <c r="P41" s="13">
-        <v>170</v>
-      </c>
-      <c r="Q41" s="13">
-        <v>118</v>
-      </c>
-      <c r="R41" s="13">
-        <v>178</v>
-      </c>
-      <c r="S41" s="13">
-        <v>112</v>
-      </c>
-      <c r="T41" s="13">
-        <v>131</v>
-      </c>
-      <c r="U41" s="13">
-        <v>165</v>
-      </c>
-      <c r="V41" s="13">
-        <v>100</v>
-      </c>
-      <c r="W41" s="13">
-        <v>119</v>
-      </c>
-      <c r="X41" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y41" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="13">
-        <v>0</v>
-      </c>
       <c r="AC41" s="13">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="13">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" s="13">
         <v>0</v>
       </c>
       <c r="AG41" s="13">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AH41" s="13">
         <v>0</v>
       </c>
       <c r="AI41" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="13">
         <v>0</v>
       </c>
       <c r="AK41" s="13">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AL41" s="13">
         <v>0</v>
       </c>
       <c r="AM41" s="13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="13">
         <v>0</v>
       </c>
       <c r="AO41" s="13">
-        <v>-1</v>
+        <v>71</v>
       </c>
       <c r="AP41" s="13">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AQ41" s="13">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="AR41" s="13">
+        <v>28</v>
+      </c>
+      <c r="AS41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="13">
         <v>30</v>
       </c>
-      <c r="AS41" s="13">
-        <v>230</v>
-      </c>
-      <c r="AT41" s="13">
-        <v>28</v>
-      </c>
-      <c r="AU41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="13">
-        <v>0</v>
-      </c>
       <c r="AW41" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AX41" s="13">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AY41" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="13">
         <v>0</v>
@@ -5760,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
@@ -5876,11 +5875,11 @@
       <c r="AN42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP42" s="11" t="s">
-        <v>57</v>
+      <c r="AO42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="11">
+        <v>0</v>
       </c>
       <c r="AQ42" s="11">
         <v>0</v>
@@ -5912,14 +5911,14 @@
       <c r="AZ42" s="11">
         <v>0</v>
       </c>
-      <c r="BA42" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB42" s="11">
-        <v>0</v>
+      <c r="BA42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB42" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>68</v>
       </c>
@@ -6035,11 +6034,11 @@
       <c r="AN43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP43" s="13" t="s">
-        <v>57</v>
+      <c r="AO43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="13">
+        <v>0</v>
       </c>
       <c r="AQ43" s="13">
         <v>0</v>
@@ -6071,14 +6070,14 @@
       <c r="AZ43" s="13">
         <v>0</v>
       </c>
-      <c r="BA43" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB43" s="13">
-        <v>0</v>
+      <c r="BA43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB43" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>69</v>
       </c>
@@ -6087,157 +6086,157 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>244</v>
+        <v>659</v>
       </c>
       <c r="F44" s="11">
-        <v>5076</v>
+        <v>974</v>
       </c>
       <c r="G44" s="11">
-        <v>659</v>
+        <v>783</v>
       </c>
       <c r="H44" s="11">
-        <v>974</v>
+        <v>163</v>
       </c>
       <c r="I44" s="11">
-        <v>783</v>
+        <v>264</v>
       </c>
       <c r="J44" s="11">
+        <v>204</v>
+      </c>
+      <c r="K44" s="11">
+        <v>197</v>
+      </c>
+      <c r="L44" s="11">
+        <v>554</v>
+      </c>
+      <c r="M44" s="11">
+        <v>181</v>
+      </c>
+      <c r="N44" s="11">
         <v>163</v>
       </c>
-      <c r="K44" s="11">
-        <v>264</v>
-      </c>
-      <c r="L44" s="11">
-        <v>204</v>
-      </c>
-      <c r="M44" s="11">
-        <v>197</v>
-      </c>
-      <c r="N44" s="11">
-        <v>554</v>
-      </c>
       <c r="O44" s="11">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="P44" s="11">
-        <v>163</v>
+        <v>384</v>
       </c>
       <c r="Q44" s="11">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="R44" s="11">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="S44" s="11">
-        <v>338</v>
+        <v>161</v>
       </c>
       <c r="T44" s="11">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="U44" s="11">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="V44" s="11">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="W44" s="11">
         <v>0</v>
       </c>
       <c r="X44" s="11">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="Y44" s="11">
         <v>0</v>
       </c>
       <c r="Z44" s="11">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="AA44" s="11">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AB44" s="11">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c r="AC44" s="11">
+        <v>292</v>
+      </c>
+      <c r="AD44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="11">
+        <v>155</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>138</v>
+      </c>
+      <c r="AG44" s="11">
+        <v>239</v>
+      </c>
+      <c r="AH44" s="11">
+        <v>240</v>
+      </c>
+      <c r="AI44" s="11">
+        <v>353</v>
+      </c>
+      <c r="AJ44" s="11">
+        <v>627</v>
+      </c>
+      <c r="AK44" s="11">
+        <v>469</v>
+      </c>
+      <c r="AL44" s="11">
+        <v>77</v>
+      </c>
+      <c r="AM44" s="11">
+        <v>249</v>
+      </c>
+      <c r="AN44" s="11">
+        <v>288</v>
+      </c>
+      <c r="AO44" s="11">
+        <v>316</v>
+      </c>
+      <c r="AP44" s="11">
+        <v>84</v>
+      </c>
+      <c r="AQ44" s="11">
+        <v>84</v>
+      </c>
+      <c r="AR44" s="11">
+        <v>232</v>
+      </c>
+      <c r="AS44" s="11">
+        <v>299</v>
+      </c>
+      <c r="AT44" s="11">
         <v>156</v>
       </c>
-      <c r="AD44" s="11">
-        <v>51</v>
-      </c>
-      <c r="AE44" s="11">
-        <v>292</v>
-      </c>
-      <c r="AF44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="11">
-        <v>155</v>
-      </c>
-      <c r="AH44" s="11">
-        <v>138</v>
-      </c>
-      <c r="AI44" s="11">
-        <v>239</v>
-      </c>
-      <c r="AJ44" s="11">
-        <v>240</v>
-      </c>
-      <c r="AK44" s="11">
-        <v>353</v>
-      </c>
-      <c r="AL44" s="11">
-        <v>627</v>
-      </c>
-      <c r="AM44" s="11">
-        <v>469</v>
-      </c>
-      <c r="AN44" s="11">
-        <v>77</v>
-      </c>
-      <c r="AO44" s="11">
-        <v>249</v>
-      </c>
-      <c r="AP44" s="11">
-        <v>288</v>
-      </c>
-      <c r="AQ44" s="11">
-        <v>316</v>
-      </c>
-      <c r="AR44" s="11">
-        <v>51</v>
-      </c>
-      <c r="AS44" s="11">
-        <v>84</v>
-      </c>
-      <c r="AT44" s="11">
-        <v>1668</v>
-      </c>
       <c r="AU44" s="11">
-        <v>-1166</v>
+        <v>520</v>
       </c>
       <c r="AV44" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AW44" s="11">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="11">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="AY44" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AZ44" s="11">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="BA44" s="11">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="BB44" s="11">
-        <v>75</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>70</v>
       </c>
@@ -6353,11 +6352,11 @@
       <c r="AN45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO45" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP45" s="13" t="s">
-        <v>57</v>
+      <c r="AO45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="13">
+        <v>0</v>
       </c>
       <c r="AQ45" s="13">
         <v>0</v>
@@ -6389,14 +6388,14 @@
       <c r="AZ45" s="13">
         <v>0</v>
       </c>
-      <c r="BA45" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB45" s="13">
-        <v>0</v>
+      <c r="BA45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB45" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>71</v>
       </c>
@@ -6512,11 +6511,11 @@
       <c r="AN46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP46" s="11" t="s">
-        <v>57</v>
+      <c r="AO46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="11">
+        <v>0</v>
       </c>
       <c r="AQ46" s="11">
         <v>0</v>
@@ -6548,14 +6547,14 @@
       <c r="AZ46" s="11">
         <v>0</v>
       </c>
-      <c r="BA46" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB46" s="11">
-        <v>0</v>
+      <c r="BA46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB46" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>73</v>
       </c>
@@ -6671,11 +6670,11 @@
       <c r="AN47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP47" s="13" t="s">
-        <v>57</v>
+      <c r="AO47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="13">
+        <v>0</v>
       </c>
       <c r="AQ47" s="13">
         <v>0</v>
@@ -6707,14 +6706,14 @@
       <c r="AZ47" s="13">
         <v>0</v>
       </c>
-      <c r="BA47" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB47" s="13">
-        <v>0</v>
+      <c r="BA47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB47" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>74</v>
       </c>
@@ -6771,7 +6770,7 @@
       <c r="BA48" s="15"/>
       <c r="BB48" s="15"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>75</v>
       </c>
@@ -6849,11 +6848,11 @@
       <c r="AB49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AC49" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD49" s="17" t="s">
-        <v>57</v>
+      <c r="AC49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="17">
+        <v>0</v>
       </c>
       <c r="AE49" s="17">
         <v>0</v>
@@ -6894,8 +6893,8 @@
       <c r="AQ49" s="17">
         <v>0</v>
       </c>
-      <c r="AR49" s="17">
-        <v>0</v>
+      <c r="AR49" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AS49" s="17" t="s">
         <v>57</v>
@@ -6928,7 +6927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
@@ -6985,7 +6984,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>55</v>
       </c>
@@ -7104,14 +7103,14 @@
       <c r="AO51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR51" s="11">
-        <v>0</v>
+      <c r="AP51" s="11">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS51" s="11" t="s">
         <v>57</v>
@@ -7144,7 +7143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>63</v>
       </c>
@@ -7227,50 +7226,50 @@
       <c r="AC52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE52" s="13" t="s">
-        <v>57</v>
+      <c r="AD52" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>-2</v>
       </c>
       <c r="AF52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="13">
         <v>-1</v>
       </c>
-      <c r="AG52" s="13">
-        <v>-2</v>
-      </c>
       <c r="AH52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="13">
         <v>-1</v>
       </c>
+      <c r="AI52" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ52" s="13">
+        <v>-41</v>
+      </c>
+      <c r="AK52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM52" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AN52" s="13">
         <v>-1</v>
       </c>
-      <c r="AK52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52" s="13">
-        <v>-41</v>
-      </c>
-      <c r="AM52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO52" s="13">
-        <v>-4</v>
+      <c r="AO52" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP52" s="13">
         <v>-1</v>
       </c>
-      <c r="AQ52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>0</v>
+      <c r="AQ52" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AR52" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS52" s="13" t="s">
         <v>57</v>
@@ -7303,7 +7302,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>79</v>
       </c>
@@ -7386,50 +7385,50 @@
       <c r="AC53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE53" s="11" t="s">
-        <v>57</v>
+      <c r="AD53" s="11">
+        <v>-16</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>-3370</v>
       </c>
       <c r="AF53" s="11">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="11">
-        <v>-3370</v>
+        <v>-2</v>
       </c>
       <c r="AH53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="11">
         <v>-2</v>
       </c>
+      <c r="AI53" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ53" s="11">
+        <v>-80</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>-100</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>-10</v>
+      </c>
+      <c r="AM53" s="11">
+        <v>-29</v>
+      </c>
+      <c r="AN53" s="11">
+        <v>-28</v>
+      </c>
+      <c r="AO53" s="11">
         <v>-2</v>
       </c>
-      <c r="AK53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL53" s="11">
-        <v>-80</v>
-      </c>
-      <c r="AM53" s="11">
-        <v>-100</v>
-      </c>
-      <c r="AN53" s="11">
-        <v>-10</v>
-      </c>
-      <c r="AO53" s="11">
-        <v>-175</v>
-      </c>
       <c r="AP53" s="11">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AR53" s="11">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="AR53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS53" s="11" t="s">
         <v>57</v>
@@ -7462,7 +7461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>80</v>
       </c>
@@ -7540,53 +7539,53 @@
       <c r="AB54" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AC54" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD54" s="19" t="s">
-        <v>57</v>
+      <c r="AC54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="19">
+        <v>-17</v>
       </c>
       <c r="AE54" s="19">
-        <v>0</v>
+        <v>-3372</v>
       </c>
       <c r="AF54" s="19">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="19">
-        <v>-3372</v>
+        <v>-3</v>
       </c>
       <c r="AH54" s="19">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AI54" s="19">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="19">
-        <v>-3</v>
+        <v>-121</v>
       </c>
       <c r="AK54" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AL54" s="19">
-        <v>-121</v>
+        <v>-10</v>
       </c>
       <c r="AM54" s="19">
-        <v>-100</v>
+        <v>-33</v>
       </c>
       <c r="AN54" s="19">
-        <v>-10</v>
+        <v>-29</v>
       </c>
       <c r="AO54" s="19">
-        <v>-179</v>
+        <v>-2</v>
       </c>
       <c r="AP54" s="19">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AR54" s="19">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="AR54" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="AS54" s="19" t="s">
         <v>57</v>
@@ -7619,164 +7618,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17">
-        <v>12805</v>
+        <v>14992</v>
       </c>
       <c r="F55" s="17">
-        <v>20784</v>
+        <v>18557</v>
       </c>
       <c r="G55" s="17">
-        <v>14992</v>
+        <v>17824</v>
       </c>
       <c r="H55" s="17">
-        <v>18557</v>
+        <v>13122</v>
       </c>
       <c r="I55" s="17">
-        <v>17824</v>
+        <v>18204</v>
       </c>
       <c r="J55" s="17">
-        <v>13122</v>
+        <v>17031</v>
       </c>
       <c r="K55" s="17">
-        <v>18204</v>
+        <v>21036</v>
       </c>
       <c r="L55" s="17">
-        <v>17031</v>
+        <v>16444</v>
       </c>
       <c r="M55" s="17">
-        <v>21036</v>
+        <v>15558</v>
       </c>
       <c r="N55" s="17">
-        <v>16444</v>
+        <v>16266</v>
       </c>
       <c r="O55" s="17">
-        <v>15558</v>
+        <v>19816</v>
       </c>
       <c r="P55" s="17">
-        <v>16266</v>
+        <v>18886</v>
       </c>
       <c r="Q55" s="17">
-        <v>19816</v>
+        <v>12002</v>
       </c>
       <c r="R55" s="17">
-        <v>18886</v>
+        <v>15123</v>
       </c>
       <c r="S55" s="17">
-        <v>12002</v>
+        <v>12085</v>
       </c>
       <c r="T55" s="17">
-        <v>15123</v>
+        <v>11586</v>
       </c>
       <c r="U55" s="17">
-        <v>12085</v>
+        <v>13772</v>
       </c>
       <c r="V55" s="17">
-        <v>11586</v>
+        <v>12837</v>
       </c>
       <c r="W55" s="17">
-        <v>13772</v>
+        <v>11021</v>
       </c>
       <c r="X55" s="17">
-        <v>12837</v>
+        <v>11684</v>
       </c>
       <c r="Y55" s="17">
-        <v>11021</v>
+        <v>12832</v>
       </c>
       <c r="Z55" s="17">
-        <v>11684</v>
+        <v>15263</v>
       </c>
       <c r="AA55" s="17">
-        <v>12832</v>
+        <v>12908</v>
       </c>
       <c r="AB55" s="17">
-        <v>15263</v>
+        <v>14765</v>
       </c>
       <c r="AC55" s="17">
-        <v>12908</v>
+        <v>11319</v>
       </c>
       <c r="AD55" s="17">
-        <v>14765</v>
+        <v>14395</v>
       </c>
       <c r="AE55" s="17">
-        <v>11319</v>
+        <v>10249</v>
       </c>
       <c r="AF55" s="17">
-        <v>14395</v>
+        <v>15713</v>
       </c>
       <c r="AG55" s="17">
-        <v>10249</v>
+        <v>13453</v>
       </c>
       <c r="AH55" s="17">
-        <v>15713</v>
+        <v>13601</v>
       </c>
       <c r="AI55" s="17">
-        <v>13453</v>
+        <v>13270</v>
       </c>
       <c r="AJ55" s="17">
-        <v>13601</v>
+        <v>14293</v>
       </c>
       <c r="AK55" s="17">
-        <v>13270</v>
+        <v>15663</v>
       </c>
       <c r="AL55" s="17">
-        <v>14293</v>
+        <v>14276</v>
       </c>
       <c r="AM55" s="17">
-        <v>15663</v>
+        <v>14237</v>
       </c>
       <c r="AN55" s="17">
-        <v>14276</v>
+        <v>16364</v>
       </c>
       <c r="AO55" s="17">
-        <v>14090</v>
+        <v>12468</v>
       </c>
       <c r="AP55" s="17">
-        <v>16364</v>
+        <v>13493</v>
       </c>
       <c r="AQ55" s="17">
-        <v>12468</v>
+        <v>13493</v>
       </c>
       <c r="AR55" s="17">
-        <v>13257</v>
+        <v>11611</v>
       </c>
       <c r="AS55" s="17">
-        <v>13603</v>
+        <v>12322</v>
       </c>
       <c r="AT55" s="17">
-        <v>11639</v>
+        <v>17658</v>
       </c>
       <c r="AU55" s="17">
-        <v>12288</v>
+        <v>9066</v>
       </c>
       <c r="AV55" s="17">
-        <v>17658</v>
+        <v>13921</v>
       </c>
       <c r="AW55" s="17">
-        <v>9066</v>
+        <v>11734</v>
       </c>
       <c r="AX55" s="17">
-        <v>13921</v>
+        <v>14260</v>
       </c>
       <c r="AY55" s="17">
-        <v>11734</v>
+        <v>14492</v>
       </c>
       <c r="AZ55" s="17">
-        <v>14260</v>
+        <v>17934</v>
       </c>
       <c r="BA55" s="17">
-        <v>14489</v>
+        <v>9758</v>
       </c>
       <c r="BB55" s="17">
-        <v>18136</v>
+        <v>10722</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7831,7 +7830,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7886,7 +7885,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -7941,7 +7940,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>81</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8153,7 +8152,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>81</v>
       </c>
@@ -8210,7 +8209,7 @@
       <c r="BA61" s="9"/>
       <c r="BB61" s="9"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>55</v>
       </c>
@@ -8323,14 +8322,14 @@
       <c r="AM62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN62" s="11" t="s">
-        <v>57</v>
+      <c r="AN62" s="11">
+        <v>202204</v>
       </c>
       <c r="AO62" s="11">
         <v>0</v>
       </c>
       <c r="AP62" s="11">
-        <v>202204</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="11">
         <v>0</v>
@@ -8339,37 +8338,37 @@
         <v>0</v>
       </c>
       <c r="AS62" s="11">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="AT62" s="11">
-        <v>2369</v>
+        <v>765</v>
       </c>
       <c r="AU62" s="11">
-        <v>312</v>
+        <v>442</v>
       </c>
       <c r="AV62" s="11">
+        <v>24409</v>
+      </c>
+      <c r="AW62" s="11">
         <v>765</v>
       </c>
-      <c r="AW62" s="11">
-        <v>442</v>
-      </c>
       <c r="AX62" s="11">
-        <v>24409</v>
+        <v>693</v>
       </c>
       <c r="AY62" s="11">
-        <v>765</v>
+        <v>601</v>
       </c>
       <c r="AZ62" s="11">
-        <v>693</v>
+        <v>3594</v>
       </c>
       <c r="BA62" s="11">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="11">
-        <v>123</v>
+        <v>20085</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>58</v>
       </c>
@@ -8452,23 +8451,23 @@
       <c r="AC63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE63" s="13" t="s">
-        <v>57</v>
+      <c r="AD63" s="13">
+        <v>2623</v>
+      </c>
+      <c r="AE63" s="13">
+        <v>413</v>
       </c>
       <c r="AF63" s="13">
-        <v>2623</v>
+        <v>1305</v>
       </c>
       <c r="AG63" s="13">
-        <v>413</v>
+        <v>6862</v>
       </c>
       <c r="AH63" s="13">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="13">
-        <v>6862</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="13">
         <v>0</v>
@@ -8485,11 +8484,11 @@
       <c r="AN63" s="13">
         <v>0</v>
       </c>
-      <c r="AO63" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP63" s="13">
-        <v>0</v>
+      <c r="AO63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ63" s="13" t="s">
         <v>57</v>
@@ -8528,7 +8527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>60</v>
       </c>
@@ -8536,158 +8535,158 @@
         <v>82</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11">
-        <v>4510</v>
-      </c>
-      <c r="F64" s="11">
-        <v>9</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>57</v>
+      <c r="E64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="11">
+        <v>567</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
       </c>
       <c r="I64" s="11">
-        <v>567</v>
+        <v>29</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
       </c>
       <c r="K64" s="11">
-        <v>29</v>
+        <v>2424</v>
       </c>
       <c r="L64" s="11">
         <v>0</v>
       </c>
       <c r="M64" s="11">
-        <v>2424</v>
+        <v>851</v>
       </c>
       <c r="N64" s="11">
         <v>0</v>
       </c>
       <c r="O64" s="11">
-        <v>851</v>
+        <v>23529</v>
       </c>
       <c r="P64" s="11">
-        <v>0</v>
+        <v>34258</v>
       </c>
       <c r="Q64" s="11">
-        <v>23529</v>
+        <v>33001</v>
       </c>
       <c r="R64" s="11">
-        <v>34258</v>
+        <v>41416</v>
       </c>
       <c r="S64" s="11">
-        <v>33001</v>
+        <v>232</v>
       </c>
       <c r="T64" s="11">
-        <v>41416</v>
+        <v>0</v>
       </c>
       <c r="U64" s="11">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="V64" s="11">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="W64" s="11">
-        <v>0</v>
+        <v>1531</v>
       </c>
       <c r="X64" s="11">
-        <v>517</v>
+        <v>17464</v>
       </c>
       <c r="Y64" s="11">
-        <v>1531</v>
+        <v>1359</v>
       </c>
       <c r="Z64" s="11">
-        <v>17464</v>
+        <v>36077</v>
       </c>
       <c r="AA64" s="11">
-        <v>1359</v>
+        <v>30222</v>
       </c>
       <c r="AB64" s="11">
-        <v>36077</v>
+        <v>51901</v>
       </c>
       <c r="AC64" s="11">
-        <v>30222</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="11">
-        <v>51901</v>
+        <v>15289</v>
       </c>
       <c r="AE64" s="11">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="AF64" s="11">
-        <v>15289</v>
+        <v>23786</v>
       </c>
       <c r="AG64" s="11">
-        <v>526</v>
+        <v>17</v>
       </c>
       <c r="AH64" s="11">
-        <v>23786</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="11">
-        <v>17</v>
+        <v>5518</v>
       </c>
       <c r="AJ64" s="11">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AK64" s="11">
-        <v>5518</v>
+        <v>33338</v>
       </c>
       <c r="AL64" s="11">
-        <v>390</v>
+        <v>40127</v>
       </c>
       <c r="AM64" s="11">
-        <v>33338</v>
+        <v>68589</v>
       </c>
       <c r="AN64" s="11">
-        <v>40127</v>
+        <v>52971</v>
       </c>
       <c r="AO64" s="11">
-        <v>68589</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="11">
-        <v>52971</v>
+        <v>70141</v>
       </c>
       <c r="AQ64" s="11">
-        <v>0</v>
+        <v>70141</v>
       </c>
       <c r="AR64" s="11">
-        <v>0</v>
+        <v>15755</v>
       </c>
       <c r="AS64" s="11">
-        <v>70141</v>
+        <v>36363</v>
       </c>
       <c r="AT64" s="11">
-        <v>61403</v>
+        <v>12665</v>
       </c>
       <c r="AU64" s="11">
-        <v>36027</v>
+        <v>41713</v>
       </c>
       <c r="AV64" s="11">
-        <v>12665</v>
+        <v>11465</v>
       </c>
       <c r="AW64" s="11">
-        <v>41713</v>
+        <v>27928</v>
       </c>
       <c r="AX64" s="11">
-        <v>11465</v>
+        <v>35739</v>
       </c>
       <c r="AY64" s="11">
-        <v>27928</v>
+        <v>40929</v>
       </c>
       <c r="AZ64" s="11">
-        <v>35739</v>
+        <v>23516</v>
       </c>
       <c r="BA64" s="11">
-        <v>40808</v>
+        <v>45507</v>
       </c>
       <c r="BB64" s="11">
-        <v>23516</v>
+        <v>33460</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>61</v>
       </c>
@@ -8696,157 +8695,157 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>12529</v>
+        <v>13479</v>
       </c>
       <c r="F65" s="13">
-        <v>22875</v>
+        <v>8692</v>
       </c>
       <c r="G65" s="13">
-        <v>13479</v>
+        <v>16313</v>
       </c>
       <c r="H65" s="13">
-        <v>8692</v>
+        <v>6590</v>
       </c>
       <c r="I65" s="13">
-        <v>16313</v>
+        <v>7435</v>
       </c>
       <c r="J65" s="13">
-        <v>6590</v>
+        <v>3174</v>
       </c>
       <c r="K65" s="13">
-        <v>7435</v>
+        <v>3695</v>
       </c>
       <c r="L65" s="13">
-        <v>3174</v>
+        <v>6995</v>
       </c>
       <c r="M65" s="13">
-        <v>3695</v>
+        <v>4187</v>
       </c>
       <c r="N65" s="13">
-        <v>6995</v>
+        <v>3877</v>
       </c>
       <c r="O65" s="13">
-        <v>4187</v>
+        <v>2893</v>
       </c>
       <c r="P65" s="13">
-        <v>3877</v>
+        <v>5239</v>
       </c>
       <c r="Q65" s="13">
-        <v>2893</v>
+        <v>8220</v>
       </c>
       <c r="R65" s="13">
-        <v>5239</v>
+        <v>7045</v>
       </c>
       <c r="S65" s="13">
-        <v>8220</v>
+        <v>14667</v>
       </c>
       <c r="T65" s="13">
-        <v>7045</v>
+        <v>20499</v>
       </c>
       <c r="U65" s="13">
-        <v>14667</v>
+        <v>9396</v>
       </c>
       <c r="V65" s="13">
-        <v>20499</v>
+        <v>6727</v>
       </c>
       <c r="W65" s="13">
-        <v>9396</v>
+        <v>3239</v>
       </c>
       <c r="X65" s="13">
-        <v>6727</v>
+        <v>883</v>
       </c>
       <c r="Y65" s="13">
-        <v>3239</v>
+        <v>3023</v>
       </c>
       <c r="Z65" s="13">
-        <v>883</v>
+        <v>4055</v>
       </c>
       <c r="AA65" s="13">
-        <v>3023</v>
+        <v>3831</v>
       </c>
       <c r="AB65" s="13">
-        <v>4055</v>
+        <v>3749</v>
       </c>
       <c r="AC65" s="13">
-        <v>3831</v>
+        <v>4641</v>
       </c>
       <c r="AD65" s="13">
-        <v>3749</v>
+        <v>5695</v>
       </c>
       <c r="AE65" s="13">
-        <v>4641</v>
+        <v>6436</v>
       </c>
       <c r="AF65" s="13">
-        <v>5695</v>
+        <v>2033</v>
       </c>
       <c r="AG65" s="13">
-        <v>6436</v>
+        <v>5828</v>
       </c>
       <c r="AH65" s="13">
-        <v>2033</v>
+        <v>3588</v>
       </c>
       <c r="AI65" s="13">
-        <v>5828</v>
+        <v>6161</v>
       </c>
       <c r="AJ65" s="13">
-        <v>3588</v>
+        <v>3187</v>
       </c>
       <c r="AK65" s="13">
-        <v>6161</v>
+        <v>2148</v>
       </c>
       <c r="AL65" s="13">
-        <v>3187</v>
+        <v>4480</v>
       </c>
       <c r="AM65" s="13">
-        <v>2148</v>
+        <v>9474</v>
       </c>
       <c r="AN65" s="13">
-        <v>4480</v>
+        <v>6352</v>
       </c>
       <c r="AO65" s="13">
-        <v>9474</v>
+        <v>9214</v>
       </c>
       <c r="AP65" s="13">
-        <v>6352</v>
+        <v>10939</v>
       </c>
       <c r="AQ65" s="13">
-        <v>9214</v>
+        <v>10939</v>
       </c>
       <c r="AR65" s="13">
-        <v>7808</v>
+        <v>2451</v>
       </c>
       <c r="AS65" s="13">
-        <v>10939</v>
+        <v>13980</v>
       </c>
       <c r="AT65" s="13">
-        <v>2451</v>
+        <v>11774</v>
       </c>
       <c r="AU65" s="13">
-        <v>13980</v>
+        <v>10660</v>
       </c>
       <c r="AV65" s="13">
-        <v>11774</v>
+        <v>9227</v>
       </c>
       <c r="AW65" s="13">
-        <v>10660</v>
+        <v>5752</v>
       </c>
       <c r="AX65" s="13">
-        <v>9227</v>
+        <v>17765</v>
       </c>
       <c r="AY65" s="13">
-        <v>5752</v>
+        <v>48705</v>
       </c>
       <c r="AZ65" s="13">
-        <v>17765</v>
+        <v>40981</v>
       </c>
       <c r="BA65" s="13">
-        <v>48705</v>
+        <v>21273</v>
       </c>
       <c r="BB65" s="13">
-        <v>40981</v>
+        <v>34742</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>62</v>
       </c>
@@ -8855,157 +8854,157 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>6980</v>
+        <v>10319</v>
       </c>
       <c r="F66" s="11">
-        <v>8222</v>
+        <v>10241</v>
       </c>
       <c r="G66" s="11">
-        <v>10319</v>
+        <v>14063</v>
       </c>
       <c r="H66" s="11">
-        <v>10241</v>
+        <v>9800</v>
       </c>
       <c r="I66" s="11">
-        <v>14063</v>
+        <v>14744</v>
       </c>
       <c r="J66" s="11">
-        <v>9800</v>
+        <v>11797</v>
       </c>
       <c r="K66" s="11">
-        <v>14744</v>
+        <v>30308</v>
       </c>
       <c r="L66" s="11">
-        <v>11797</v>
+        <v>10649</v>
       </c>
       <c r="M66" s="11">
-        <v>30308</v>
+        <v>9225</v>
       </c>
       <c r="N66" s="11">
-        <v>10649</v>
+        <v>13387</v>
       </c>
       <c r="O66" s="11">
-        <v>9225</v>
+        <v>16443</v>
       </c>
       <c r="P66" s="11">
-        <v>13387</v>
+        <v>17421</v>
       </c>
       <c r="Q66" s="11">
-        <v>16443</v>
+        <v>11679</v>
       </c>
       <c r="R66" s="11">
-        <v>17421</v>
+        <v>12730</v>
       </c>
       <c r="S66" s="11">
-        <v>11679</v>
+        <v>7471</v>
       </c>
       <c r="T66" s="11">
-        <v>12730</v>
+        <v>6766</v>
       </c>
       <c r="U66" s="11">
-        <v>7471</v>
+        <v>14684</v>
       </c>
       <c r="V66" s="11">
-        <v>6766</v>
+        <v>10907</v>
       </c>
       <c r="W66" s="11">
-        <v>14684</v>
+        <v>28107</v>
       </c>
       <c r="X66" s="11">
-        <v>10907</v>
+        <v>9183</v>
       </c>
       <c r="Y66" s="11">
-        <v>28107</v>
+        <v>22609</v>
       </c>
       <c r="Z66" s="11">
-        <v>9183</v>
+        <v>33013</v>
       </c>
       <c r="AA66" s="11">
-        <v>22609</v>
+        <v>28643</v>
       </c>
       <c r="AB66" s="11">
-        <v>33013</v>
+        <v>41406</v>
       </c>
       <c r="AC66" s="11">
-        <v>28643</v>
+        <v>10916</v>
       </c>
       <c r="AD66" s="11">
-        <v>41406</v>
+        <v>20075</v>
       </c>
       <c r="AE66" s="11">
-        <v>10916</v>
+        <v>39049</v>
       </c>
       <c r="AF66" s="11">
-        <v>20075</v>
+        <v>48529</v>
       </c>
       <c r="AG66" s="11">
-        <v>39049</v>
+        <v>14368</v>
       </c>
       <c r="AH66" s="11">
-        <v>48529</v>
+        <v>22143</v>
       </c>
       <c r="AI66" s="11">
-        <v>14368</v>
+        <v>23716</v>
       </c>
       <c r="AJ66" s="11">
-        <v>22143</v>
+        <v>19191</v>
       </c>
       <c r="AK66" s="11">
-        <v>23716</v>
+        <v>27200</v>
       </c>
       <c r="AL66" s="11">
-        <v>19191</v>
+        <v>26365</v>
       </c>
       <c r="AM66" s="11">
-        <v>27200</v>
+        <v>25246</v>
       </c>
       <c r="AN66" s="11">
-        <v>26365</v>
+        <v>37888</v>
       </c>
       <c r="AO66" s="11">
-        <v>25246</v>
+        <v>23369</v>
       </c>
       <c r="AP66" s="11">
-        <v>37888</v>
+        <v>24602</v>
       </c>
       <c r="AQ66" s="11">
-        <v>23369</v>
+        <v>24602</v>
       </c>
       <c r="AR66" s="11">
-        <v>19985</v>
+        <v>14049</v>
       </c>
       <c r="AS66" s="11">
-        <v>24602</v>
+        <v>22041</v>
       </c>
       <c r="AT66" s="11">
-        <v>15955</v>
+        <v>66451</v>
       </c>
       <c r="AU66" s="11">
-        <v>20829</v>
+        <v>15361</v>
       </c>
       <c r="AV66" s="11">
-        <v>66451</v>
+        <v>45289</v>
       </c>
       <c r="AW66" s="11">
-        <v>15361</v>
+        <v>27761</v>
       </c>
       <c r="AX66" s="11">
-        <v>45289</v>
+        <v>44998</v>
       </c>
       <c r="AY66" s="11">
-        <v>27824</v>
+        <v>43345</v>
       </c>
       <c r="AZ66" s="11">
-        <v>44645</v>
+        <v>79602</v>
       </c>
       <c r="BA66" s="11">
-        <v>43345</v>
+        <v>22400</v>
       </c>
       <c r="BB66" s="11">
-        <v>83074</v>
+        <v>22553</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>63</v>
       </c>
@@ -9014,157 +9013,157 @@
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>412755</v>
+        <v>338974</v>
       </c>
       <c r="F67" s="13">
-        <v>437177</v>
+        <v>398849</v>
       </c>
       <c r="G67" s="13">
-        <v>338974</v>
+        <v>322025</v>
       </c>
       <c r="H67" s="13">
-        <v>398849</v>
+        <v>297130</v>
       </c>
       <c r="I67" s="13">
-        <v>322025</v>
+        <v>327576</v>
       </c>
       <c r="J67" s="13">
-        <v>297130</v>
+        <v>286691</v>
       </c>
       <c r="K67" s="13">
-        <v>327576</v>
+        <v>397598</v>
       </c>
       <c r="L67" s="13">
-        <v>286691</v>
+        <v>423313</v>
       </c>
       <c r="M67" s="13">
-        <v>397598</v>
+        <v>378869</v>
       </c>
       <c r="N67" s="13">
-        <v>423313</v>
+        <v>437355</v>
       </c>
       <c r="O67" s="13">
-        <v>378869</v>
+        <v>500847</v>
       </c>
       <c r="P67" s="13">
-        <v>437355</v>
+        <v>543462</v>
       </c>
       <c r="Q67" s="13">
-        <v>500847</v>
+        <v>421202</v>
       </c>
       <c r="R67" s="13">
-        <v>543462</v>
+        <v>522046</v>
       </c>
       <c r="S67" s="13">
-        <v>421202</v>
+        <v>429199</v>
       </c>
       <c r="T67" s="13">
-        <v>522046</v>
+        <v>472534</v>
       </c>
       <c r="U67" s="13">
-        <v>429199</v>
+        <v>432802</v>
       </c>
       <c r="V67" s="13">
-        <v>472534</v>
+        <v>471881</v>
       </c>
       <c r="W67" s="13">
-        <v>432802</v>
+        <v>550398</v>
       </c>
       <c r="X67" s="13">
-        <v>471881</v>
+        <v>498040</v>
       </c>
       <c r="Y67" s="13">
-        <v>550398</v>
+        <v>633240</v>
       </c>
       <c r="Z67" s="13">
-        <v>498040</v>
+        <v>664603</v>
       </c>
       <c r="AA67" s="13">
-        <v>633240</v>
+        <v>629117</v>
       </c>
       <c r="AB67" s="13">
-        <v>664603</v>
+        <v>787639</v>
       </c>
       <c r="AC67" s="13">
-        <v>629117</v>
+        <v>805480</v>
       </c>
       <c r="AD67" s="13">
-        <v>787639</v>
+        <v>789675</v>
       </c>
       <c r="AE67" s="13">
-        <v>805480</v>
+        <v>723495</v>
       </c>
       <c r="AF67" s="13">
-        <v>789675</v>
+        <v>615606</v>
       </c>
       <c r="AG67" s="13">
-        <v>723495</v>
+        <v>703849</v>
       </c>
       <c r="AH67" s="13">
-        <v>615606</v>
+        <v>899754</v>
       </c>
       <c r="AI67" s="13">
-        <v>703849</v>
+        <v>973523</v>
       </c>
       <c r="AJ67" s="13">
-        <v>899754</v>
+        <v>1134605</v>
       </c>
       <c r="AK67" s="13">
-        <v>973523</v>
+        <v>1376566</v>
       </c>
       <c r="AL67" s="13">
-        <v>1134605</v>
+        <v>1434485</v>
       </c>
       <c r="AM67" s="13">
-        <v>1376566</v>
+        <v>1445782</v>
       </c>
       <c r="AN67" s="13">
-        <v>1434485</v>
+        <v>1272054</v>
       </c>
       <c r="AO67" s="13">
-        <v>1445763</v>
+        <v>1250935</v>
       </c>
       <c r="AP67" s="13">
-        <v>1272054</v>
+        <v>1180027</v>
       </c>
       <c r="AQ67" s="13">
-        <v>1250935</v>
+        <v>1180027</v>
       </c>
       <c r="AR67" s="13">
-        <v>1175415</v>
+        <v>1031621</v>
       </c>
       <c r="AS67" s="13">
-        <v>1180140</v>
+        <v>1004586</v>
       </c>
       <c r="AT67" s="13">
-        <v>1023683</v>
+        <v>1462938</v>
       </c>
       <c r="AU67" s="13">
-        <v>1005552</v>
+        <v>1564939</v>
       </c>
       <c r="AV67" s="13">
-        <v>1462938</v>
+        <v>1722211</v>
       </c>
       <c r="AW67" s="13">
-        <v>1564356</v>
+        <v>1927498</v>
       </c>
       <c r="AX67" s="13">
-        <v>1720622</v>
+        <v>1926767</v>
       </c>
       <c r="AY67" s="13">
-        <v>1927498</v>
+        <v>2020241</v>
       </c>
       <c r="AZ67" s="13">
-        <v>1926768</v>
+        <v>2035508</v>
       </c>
       <c r="BA67" s="13">
-        <v>2019409</v>
+        <v>1928217</v>
       </c>
       <c r="BB67" s="13">
-        <v>2035508</v>
+        <v>2148434</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>64</v>
       </c>
@@ -9173,157 +9172,157 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>19827</v>
+        <v>36408</v>
       </c>
       <c r="F68" s="11">
-        <v>37875</v>
+        <v>97661</v>
       </c>
       <c r="G68" s="11">
-        <v>36408</v>
+        <v>57798</v>
       </c>
       <c r="H68" s="11">
-        <v>97661</v>
+        <v>22508</v>
       </c>
       <c r="I68" s="11">
-        <v>57798</v>
+        <v>54767</v>
       </c>
       <c r="J68" s="11">
-        <v>22508</v>
+        <v>44270</v>
       </c>
       <c r="K68" s="11">
-        <v>54767</v>
+        <v>31315</v>
       </c>
       <c r="L68" s="11">
-        <v>44270</v>
+        <v>36775</v>
       </c>
       <c r="M68" s="11">
-        <v>31315</v>
+        <v>29437</v>
       </c>
       <c r="N68" s="11">
-        <v>36775</v>
+        <v>30008</v>
       </c>
       <c r="O68" s="11">
-        <v>29437</v>
+        <v>49268</v>
       </c>
       <c r="P68" s="11">
-        <v>30008</v>
+        <v>46992</v>
       </c>
       <c r="Q68" s="11">
-        <v>49268</v>
+        <v>31735</v>
       </c>
       <c r="R68" s="11">
-        <v>46992</v>
+        <v>39975</v>
       </c>
       <c r="S68" s="11">
-        <v>31735</v>
+        <v>17007</v>
       </c>
       <c r="T68" s="11">
-        <v>39975</v>
+        <v>8118</v>
       </c>
       <c r="U68" s="11">
-        <v>17007</v>
+        <v>16161</v>
       </c>
       <c r="V68" s="11">
-        <v>8118</v>
+        <v>25263</v>
       </c>
       <c r="W68" s="11">
-        <v>16161</v>
+        <v>38894</v>
       </c>
       <c r="X68" s="11">
-        <v>25263</v>
+        <v>14896</v>
       </c>
       <c r="Y68" s="11">
-        <v>38894</v>
+        <v>3463</v>
       </c>
       <c r="Z68" s="11">
-        <v>14896</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="11">
-        <v>3463</v>
+        <v>4080</v>
       </c>
       <c r="AB68" s="11">
-        <v>0</v>
+        <v>8364</v>
       </c>
       <c r="AC68" s="11">
-        <v>4080</v>
+        <v>36616</v>
       </c>
       <c r="AD68" s="11">
-        <v>8364</v>
+        <v>64672</v>
       </c>
       <c r="AE68" s="11">
-        <v>36616</v>
+        <v>47625</v>
       </c>
       <c r="AF68" s="11">
-        <v>64672</v>
+        <v>70891</v>
       </c>
       <c r="AG68" s="11">
-        <v>47625</v>
+        <v>100962</v>
       </c>
       <c r="AH68" s="11">
-        <v>70891</v>
+        <v>106499</v>
       </c>
       <c r="AI68" s="11">
-        <v>100962</v>
+        <v>63343</v>
       </c>
       <c r="AJ68" s="11">
-        <v>106499</v>
+        <v>155271</v>
       </c>
       <c r="AK68" s="11">
-        <v>63343</v>
+        <v>135826</v>
       </c>
       <c r="AL68" s="11">
-        <v>155271</v>
+        <v>102755</v>
       </c>
       <c r="AM68" s="11">
-        <v>135826</v>
+        <v>123826</v>
       </c>
       <c r="AN68" s="11">
-        <v>102755</v>
+        <v>94962</v>
       </c>
       <c r="AO68" s="11">
-        <v>123826</v>
+        <v>71986</v>
       </c>
       <c r="AP68" s="11">
-        <v>94962</v>
+        <v>51561</v>
       </c>
       <c r="AQ68" s="11">
-        <v>71986</v>
+        <v>51561</v>
       </c>
       <c r="AR68" s="11">
-        <v>52292</v>
+        <v>140965</v>
       </c>
       <c r="AS68" s="11">
-        <v>59155</v>
+        <v>132712</v>
       </c>
       <c r="AT68" s="11">
-        <v>105848</v>
+        <v>24541</v>
       </c>
       <c r="AU68" s="11">
-        <v>172087</v>
+        <v>10498</v>
       </c>
       <c r="AV68" s="11">
-        <v>24541</v>
+        <v>28394</v>
       </c>
       <c r="AW68" s="11">
-        <v>10498</v>
+        <v>75331</v>
       </c>
       <c r="AX68" s="11">
-        <v>28394</v>
+        <v>115670</v>
       </c>
       <c r="AY68" s="11">
-        <v>75331</v>
+        <v>130196</v>
       </c>
       <c r="AZ68" s="11">
-        <v>115669</v>
+        <v>51222</v>
       </c>
       <c r="BA68" s="11">
-        <v>130196</v>
+        <v>15599</v>
       </c>
       <c r="BB68" s="11">
-        <v>51222</v>
+        <v>11187</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>66</v>
       </c>
@@ -9332,64 +9331,64 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>2069</v>
+        <v>14518</v>
       </c>
       <c r="F69" s="13">
-        <v>30746</v>
+        <v>16028</v>
       </c>
       <c r="G69" s="13">
-        <v>14518</v>
+        <v>32325</v>
       </c>
       <c r="H69" s="13">
-        <v>16028</v>
+        <v>18900</v>
       </c>
       <c r="I69" s="13">
-        <v>32325</v>
+        <v>10787</v>
       </c>
       <c r="J69" s="13">
-        <v>18900</v>
+        <v>6930</v>
       </c>
       <c r="K69" s="13">
-        <v>10787</v>
+        <v>31178</v>
       </c>
       <c r="L69" s="13">
-        <v>6930</v>
+        <v>13188</v>
       </c>
       <c r="M69" s="13">
-        <v>31178</v>
+        <v>2986</v>
       </c>
       <c r="N69" s="13">
-        <v>13188</v>
+        <v>30450</v>
       </c>
       <c r="O69" s="13">
-        <v>2986</v>
+        <v>23996</v>
       </c>
       <c r="P69" s="13">
-        <v>30450</v>
+        <v>37193</v>
       </c>
       <c r="Q69" s="13">
-        <v>23996</v>
+        <v>26117</v>
       </c>
       <c r="R69" s="13">
-        <v>37193</v>
+        <v>27085</v>
       </c>
       <c r="S69" s="13">
-        <v>26117</v>
+        <v>36123</v>
       </c>
       <c r="T69" s="13">
-        <v>27085</v>
+        <v>20500</v>
       </c>
       <c r="U69" s="13">
-        <v>36123</v>
+        <v>24611</v>
       </c>
       <c r="V69" s="13">
-        <v>20500</v>
+        <v>4752</v>
       </c>
       <c r="W69" s="13">
-        <v>24611</v>
+        <v>0</v>
       </c>
       <c r="X69" s="13">
-        <v>4752</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="13">
         <v>0</v>
@@ -9398,82 +9397,82 @@
         <v>0</v>
       </c>
       <c r="AA69" s="13">
-        <v>0</v>
+        <v>11480</v>
       </c>
       <c r="AB69" s="13">
-        <v>0</v>
+        <v>13020</v>
       </c>
       <c r="AC69" s="13">
-        <v>11480</v>
+        <v>0</v>
       </c>
       <c r="AD69" s="13">
-        <v>13020</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF69" s="13">
         <v>0</v>
       </c>
       <c r="AG69" s="13">
-        <v>12</v>
+        <v>11115</v>
       </c>
       <c r="AH69" s="13">
         <v>0</v>
       </c>
       <c r="AI69" s="13">
-        <v>11115</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="13">
         <v>0</v>
       </c>
       <c r="AK69" s="13">
-        <v>0</v>
+        <v>107988</v>
       </c>
       <c r="AL69" s="13">
         <v>0</v>
       </c>
       <c r="AM69" s="13">
-        <v>107988</v>
+        <v>0</v>
       </c>
       <c r="AN69" s="13">
         <v>0</v>
       </c>
       <c r="AO69" s="13">
-        <v>0</v>
+        <v>42310</v>
       </c>
       <c r="AP69" s="13">
-        <v>0</v>
+        <v>146970</v>
       </c>
       <c r="AQ69" s="13">
-        <v>42310</v>
+        <v>146970</v>
       </c>
       <c r="AR69" s="13">
-        <v>18707</v>
+        <v>21243</v>
       </c>
       <c r="AS69" s="13">
-        <v>146970</v>
+        <v>6</v>
       </c>
       <c r="AT69" s="13">
-        <v>21243</v>
+        <v>0</v>
       </c>
       <c r="AU69" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV69" s="13">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="AW69" s="13">
-        <v>0</v>
+        <v>14550</v>
       </c>
       <c r="AX69" s="13">
-        <v>24353</v>
+        <v>6000</v>
       </c>
       <c r="AY69" s="13">
-        <v>14550</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="13">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="13">
         <v>0</v>
@@ -9482,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>67</v>
       </c>
@@ -9598,11 +9597,11 @@
       <c r="AN70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP70" s="11" t="s">
-        <v>57</v>
+      <c r="AO70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="11">
+        <v>0</v>
       </c>
       <c r="AQ70" s="11">
         <v>0</v>
@@ -9634,14 +9633,14 @@
       <c r="AZ70" s="11">
         <v>0</v>
       </c>
-      <c r="BA70" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB70" s="11">
-        <v>0</v>
+      <c r="BA70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB70" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>68</v>
       </c>
@@ -9757,11 +9756,11 @@
       <c r="AN71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP71" s="13" t="s">
-        <v>57</v>
+      <c r="AO71" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="13">
+        <v>0</v>
       </c>
       <c r="AQ71" s="13">
         <v>0</v>
@@ -9793,14 +9792,14 @@
       <c r="AZ71" s="13">
         <v>0</v>
       </c>
-      <c r="BA71" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB71" s="13">
-        <v>0</v>
+      <c r="BA71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB71" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>69</v>
       </c>
@@ -9809,157 +9808,157 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>11410</v>
+        <v>30251</v>
       </c>
       <c r="F72" s="11">
-        <v>18919</v>
+        <v>37494</v>
       </c>
       <c r="G72" s="11">
-        <v>30251</v>
+        <v>28903</v>
       </c>
       <c r="H72" s="11">
-        <v>37494</v>
+        <v>6683</v>
       </c>
       <c r="I72" s="11">
-        <v>28903</v>
+        <v>9702</v>
       </c>
       <c r="J72" s="11">
-        <v>6683</v>
+        <v>7563</v>
       </c>
       <c r="K72" s="11">
-        <v>9702</v>
+        <v>4917</v>
       </c>
       <c r="L72" s="11">
-        <v>7563</v>
+        <v>18575</v>
       </c>
       <c r="M72" s="11">
-        <v>4917</v>
+        <v>6197</v>
       </c>
       <c r="N72" s="11">
-        <v>18575</v>
+        <v>5767</v>
       </c>
       <c r="O72" s="11">
-        <v>6197</v>
+        <v>1535</v>
       </c>
       <c r="P72" s="11">
-        <v>5767</v>
+        <v>13407</v>
       </c>
       <c r="Q72" s="11">
-        <v>1535</v>
+        <v>11841</v>
       </c>
       <c r="R72" s="11">
-        <v>13407</v>
+        <v>10831</v>
       </c>
       <c r="S72" s="11">
-        <v>11841</v>
+        <v>6414</v>
       </c>
       <c r="T72" s="11">
-        <v>10831</v>
+        <v>1680</v>
       </c>
       <c r="U72" s="11">
-        <v>6414</v>
+        <v>0</v>
       </c>
       <c r="V72" s="11">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="W72" s="11">
         <v>0</v>
       </c>
       <c r="X72" s="11">
-        <v>0</v>
+        <v>8218</v>
       </c>
       <c r="Y72" s="11">
         <v>0</v>
       </c>
       <c r="Z72" s="11">
-        <v>8218</v>
+        <v>20872</v>
       </c>
       <c r="AA72" s="11">
-        <v>0</v>
+        <v>11276</v>
       </c>
       <c r="AB72" s="11">
-        <v>20872</v>
+        <v>3847</v>
       </c>
       <c r="AC72" s="11">
-        <v>11276</v>
+        <v>21871</v>
       </c>
       <c r="AD72" s="11">
-        <v>3847</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="11">
-        <v>21871</v>
+        <v>18649</v>
       </c>
       <c r="AF72" s="11">
-        <v>0</v>
+        <v>16575</v>
       </c>
       <c r="AG72" s="11">
-        <v>18649</v>
+        <v>28660</v>
       </c>
       <c r="AH72" s="11">
-        <v>16575</v>
+        <v>28880</v>
       </c>
       <c r="AI72" s="11">
-        <v>28660</v>
+        <v>42262</v>
       </c>
       <c r="AJ72" s="11">
-        <v>28880</v>
+        <v>75148</v>
       </c>
       <c r="AK72" s="11">
-        <v>42262</v>
+        <v>57154</v>
       </c>
       <c r="AL72" s="11">
-        <v>75148</v>
+        <v>10307</v>
       </c>
       <c r="AM72" s="11">
-        <v>57154</v>
+        <v>34900</v>
       </c>
       <c r="AN72" s="11">
-        <v>10307</v>
+        <v>40415</v>
       </c>
       <c r="AO72" s="11">
-        <v>34900</v>
+        <v>44271</v>
       </c>
       <c r="AP72" s="11">
-        <v>40415</v>
+        <v>11648</v>
       </c>
       <c r="AQ72" s="11">
-        <v>44271</v>
+        <v>11648</v>
       </c>
       <c r="AR72" s="11">
-        <v>7140</v>
+        <v>32452</v>
       </c>
       <c r="AS72" s="11">
-        <v>11648</v>
+        <v>13341</v>
       </c>
       <c r="AT72" s="11">
-        <v>96231</v>
+        <v>27424</v>
       </c>
       <c r="AU72" s="11">
-        <v>-28645</v>
+        <v>91757</v>
       </c>
       <c r="AV72" s="11">
-        <v>27424</v>
+        <v>27602</v>
       </c>
       <c r="AW72" s="11">
-        <v>91757</v>
+        <v>0</v>
       </c>
       <c r="AX72" s="11">
-        <v>27602</v>
+        <v>12964</v>
       </c>
       <c r="AY72" s="11">
-        <v>0</v>
+        <v>31132</v>
       </c>
       <c r="AZ72" s="11">
-        <v>12964</v>
+        <v>17429</v>
       </c>
       <c r="BA72" s="11">
-        <v>30950</v>
+        <v>65844</v>
       </c>
       <c r="BB72" s="11">
-        <v>17429</v>
+        <v>74644</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>70</v>
       </c>
@@ -10075,11 +10074,11 @@
       <c r="AN73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP73" s="13" t="s">
-        <v>57</v>
+      <c r="AO73" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="13">
+        <v>0</v>
       </c>
       <c r="AQ73" s="13">
         <v>0</v>
@@ -10111,14 +10110,14 @@
       <c r="AZ73" s="13">
         <v>0</v>
       </c>
-      <c r="BA73" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB73" s="13">
-        <v>0</v>
+      <c r="BA73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB73" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>71</v>
       </c>
@@ -10234,11 +10233,11 @@
       <c r="AN74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP74" s="11" t="s">
-        <v>57</v>
+      <c r="AO74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP74" s="11">
+        <v>0</v>
       </c>
       <c r="AQ74" s="11">
         <v>0</v>
@@ -10270,14 +10269,14 @@
       <c r="AZ74" s="11">
         <v>0</v>
       </c>
-      <c r="BA74" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB74" s="11">
-        <v>0</v>
+      <c r="BA74" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB74" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>73</v>
       </c>
@@ -10393,11 +10392,11 @@
       <c r="AN75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO75" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP75" s="13" t="s">
-        <v>57</v>
+      <c r="AO75" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP75" s="13">
+        <v>0</v>
       </c>
       <c r="AQ75" s="13">
         <v>0</v>
@@ -10429,14 +10428,14 @@
       <c r="AZ75" s="13">
         <v>0</v>
       </c>
-      <c r="BA75" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB75" s="13">
-        <v>0</v>
+      <c r="BA75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB75" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>83</v>
       </c>
@@ -10493,7 +10492,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>84</v>
       </c>
@@ -10618,8 +10617,8 @@
       <c r="AQ77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR77" s="11" t="s">
-        <v>57</v>
+      <c r="AR77" s="11">
+        <v>0</v>
       </c>
       <c r="AS77" s="11">
         <v>0</v>
@@ -10643,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="AZ77" s="11">
-        <v>0</v>
+        <v>20211983</v>
       </c>
       <c r="BA77" s="11">
         <v>0</v>
@@ -10652,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>85</v>
       </c>
@@ -10777,8 +10776,8 @@
       <c r="AQ78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>57</v>
+      <c r="AR78" s="13">
+        <v>0</v>
       </c>
       <c r="AS78" s="13">
         <v>0</v>
@@ -10802,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="AZ78" s="13">
-        <v>0</v>
+        <v>-20164306</v>
       </c>
       <c r="BA78" s="13">
         <v>0</v>
@@ -10811,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>86</v>
       </c>
@@ -10936,8 +10935,8 @@
       <c r="AQ79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR79" s="11" t="s">
-        <v>57</v>
+      <c r="AR79" s="11">
+        <v>0</v>
       </c>
       <c r="AS79" s="11">
         <v>0</v>
@@ -10970,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
         <v>87</v>
       </c>
@@ -11027,7 +11026,7 @@
       <c r="BA80" s="15"/>
       <c r="BB80" s="15"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
         <v>75</v>
       </c>
@@ -11107,11 +11106,11 @@
       <c r="AB81" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AC81" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD81" s="17" t="s">
-        <v>57</v>
+      <c r="AC81" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="17">
+        <v>0</v>
       </c>
       <c r="AE81" s="17">
         <v>0</v>
@@ -11152,8 +11151,8 @@
       <c r="AQ81" s="17">
         <v>0</v>
       </c>
-      <c r="AR81" s="17">
-        <v>0</v>
+      <c r="AR81" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AS81" s="17" t="s">
         <v>57</v>
@@ -11186,7 +11185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>88</v>
       </c>
@@ -11243,7 +11242,7 @@
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>55</v>
       </c>
@@ -11362,14 +11361,14 @@
       <c r="AO83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR83" s="11">
-        <v>0</v>
+      <c r="AP83" s="11">
+        <v>2048</v>
+      </c>
+      <c r="AQ83" s="11">
+        <v>2048</v>
+      </c>
+      <c r="AR83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS83" s="11" t="s">
         <v>57</v>
@@ -11402,7 +11401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>63</v>
       </c>
@@ -11485,50 +11484,50 @@
       <c r="AC84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE84" s="13" t="s">
-        <v>57</v>
+      <c r="AD84" s="13">
+        <v>-90</v>
+      </c>
+      <c r="AE84" s="13">
+        <v>-205</v>
       </c>
       <c r="AF84" s="13">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="AG84" s="13">
-        <v>-205</v>
+        <v>-113</v>
       </c>
       <c r="AH84" s="13">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AI84" s="13">
-        <v>-113</v>
+        <v>0</v>
       </c>
       <c r="AJ84" s="13">
-        <v>-11</v>
+        <v>-407</v>
       </c>
       <c r="AK84" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AL84" s="13">
-        <v>-407</v>
+        <v>0</v>
       </c>
       <c r="AM84" s="13">
-        <v>-5</v>
+        <v>-144</v>
       </c>
       <c r="AN84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO84" s="13">
-        <v>-144</v>
+        <v>-12</v>
+      </c>
+      <c r="AO84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP84" s="13">
-        <v>-12</v>
-      </c>
-      <c r="AQ84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR84" s="13">
-        <v>0</v>
+        <v>-432</v>
+      </c>
+      <c r="AQ84" s="13">
+        <v>-432</v>
+      </c>
+      <c r="AR84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS84" s="13" t="s">
         <v>57</v>
@@ -11561,7 +11560,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>79</v>
       </c>
@@ -11644,50 +11643,50 @@
       <c r="AC85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE85" s="11" t="s">
-        <v>57</v>
+      <c r="AD85" s="11">
+        <v>-889</v>
+      </c>
+      <c r="AE85" s="11">
+        <v>-780</v>
       </c>
       <c r="AF85" s="11">
-        <v>-889</v>
+        <v>0</v>
       </c>
       <c r="AG85" s="11">
-        <v>-780</v>
+        <v>-146</v>
       </c>
       <c r="AH85" s="11">
-        <v>0</v>
+        <v>-289</v>
       </c>
       <c r="AI85" s="11">
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="AJ85" s="11">
-        <v>-289</v>
+        <v>-967</v>
       </c>
       <c r="AK85" s="11">
-        <v>0</v>
+        <v>-2670</v>
       </c>
       <c r="AL85" s="11">
-        <v>-967</v>
+        <v>-134</v>
       </c>
       <c r="AM85" s="11">
-        <v>-2670</v>
+        <v>-417</v>
       </c>
       <c r="AN85" s="11">
-        <v>-134</v>
+        <v>-944</v>
       </c>
       <c r="AO85" s="11">
-        <v>-2469</v>
+        <v>-331</v>
       </c>
       <c r="AP85" s="11">
-        <v>-944</v>
+        <v>-46</v>
       </c>
       <c r="AQ85" s="11">
-        <v>-331</v>
-      </c>
-      <c r="AR85" s="11">
-        <v>-139</v>
+        <v>-46</v>
+      </c>
+      <c r="AR85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS85" s="11" t="s">
         <v>57</v>
@@ -11720,7 +11719,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>80</v>
       </c>
@@ -11800,53 +11799,53 @@
       <c r="AB86" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AC86" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD86" s="19" t="s">
-        <v>57</v>
+      <c r="AC86" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="19">
+        <v>-979</v>
       </c>
       <c r="AE86" s="19">
-        <v>0</v>
+        <v>-985</v>
       </c>
       <c r="AF86" s="19">
-        <v>-979</v>
+        <v>0</v>
       </c>
       <c r="AG86" s="19">
-        <v>-985</v>
+        <v>-259</v>
       </c>
       <c r="AH86" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AI86" s="19">
-        <v>-259</v>
+        <v>0</v>
       </c>
       <c r="AJ86" s="19">
-        <v>-300</v>
+        <v>-1374</v>
       </c>
       <c r="AK86" s="19">
-        <v>0</v>
+        <v>-2675</v>
       </c>
       <c r="AL86" s="19">
-        <v>-1374</v>
+        <v>-134</v>
       </c>
       <c r="AM86" s="19">
-        <v>-2675</v>
+        <v>-561</v>
       </c>
       <c r="AN86" s="19">
-        <v>-134</v>
+        <v>-956</v>
       </c>
       <c r="AO86" s="19">
-        <v>-2613</v>
+        <v>-331</v>
       </c>
       <c r="AP86" s="19">
-        <v>-956</v>
+        <v>1570</v>
       </c>
       <c r="AQ86" s="19">
-        <v>-331</v>
-      </c>
-      <c r="AR86" s="19">
-        <v>-139</v>
+        <v>1570</v>
+      </c>
+      <c r="AR86" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="AS86" s="19" t="s">
         <v>57</v>
@@ -11879,7 +11878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
@@ -11936,7 +11935,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>90</v>
       </c>
@@ -12016,53 +12015,53 @@
       <c r="AB88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC88" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD88" s="11" t="s">
-        <v>57</v>
+      <c r="AC88" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="11">
+        <v>-67667</v>
       </c>
       <c r="AE88" s="11">
-        <v>0</v>
+        <v>-2136</v>
       </c>
       <c r="AF88" s="11">
-        <v>-67667</v>
+        <v>-1595</v>
       </c>
       <c r="AG88" s="11">
-        <v>-2136</v>
+        <v>-586</v>
       </c>
       <c r="AH88" s="11">
-        <v>-1595</v>
+        <v>-774</v>
       </c>
       <c r="AI88" s="11">
-        <v>-586</v>
+        <v>-485</v>
       </c>
       <c r="AJ88" s="11">
-        <v>-774</v>
+        <v>-517</v>
       </c>
       <c r="AK88" s="11">
-        <v>-485</v>
+        <v>-1526</v>
       </c>
       <c r="AL88" s="11">
-        <v>-517</v>
+        <v>-167</v>
       </c>
       <c r="AM88" s="11">
-        <v>-1526</v>
+        <v>-495</v>
       </c>
       <c r="AN88" s="11">
-        <v>-167</v>
+        <v>-585</v>
       </c>
       <c r="AO88" s="11">
-        <v>-9702</v>
+        <v>-555</v>
       </c>
       <c r="AP88" s="11">
-        <v>-585</v>
+        <v>-541</v>
       </c>
       <c r="AQ88" s="11">
-        <v>-555</v>
-      </c>
-      <c r="AR88" s="11">
-        <v>-4</v>
+        <v>-541</v>
+      </c>
+      <c r="AR88" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS88" s="11" t="s">
         <v>57</v>
@@ -12095,164 +12094,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19">
-        <v>470080</v>
+        <v>443949</v>
       </c>
       <c r="F89" s="19">
-        <v>555823</v>
+        <v>568965</v>
       </c>
       <c r="G89" s="19">
-        <v>443949</v>
+        <v>471994</v>
       </c>
       <c r="H89" s="19">
-        <v>568965</v>
+        <v>361611</v>
       </c>
       <c r="I89" s="19">
-        <v>471994</v>
+        <v>425040</v>
       </c>
       <c r="J89" s="19">
-        <v>361611</v>
+        <v>360425</v>
       </c>
       <c r="K89" s="19">
-        <v>425040</v>
+        <v>501435</v>
       </c>
       <c r="L89" s="19">
-        <v>360425</v>
+        <v>509495</v>
       </c>
       <c r="M89" s="19">
-        <v>501435</v>
+        <v>431752</v>
       </c>
       <c r="N89" s="19">
-        <v>509495</v>
+        <v>520844</v>
       </c>
       <c r="O89" s="19">
-        <v>431752</v>
+        <v>618511</v>
       </c>
       <c r="P89" s="19">
-        <v>520844</v>
+        <v>697972</v>
       </c>
       <c r="Q89" s="19">
-        <v>618511</v>
+        <v>543795</v>
       </c>
       <c r="R89" s="19">
-        <v>697972</v>
+        <v>661128</v>
       </c>
       <c r="S89" s="19">
-        <v>543795</v>
+        <v>511113</v>
       </c>
       <c r="T89" s="19">
-        <v>661128</v>
+        <v>530097</v>
       </c>
       <c r="U89" s="19">
-        <v>511113</v>
+        <v>497654</v>
       </c>
       <c r="V89" s="19">
-        <v>530097</v>
+        <v>520047</v>
       </c>
       <c r="W89" s="19">
-        <v>497654</v>
+        <v>622169</v>
       </c>
       <c r="X89" s="19">
-        <v>520047</v>
+        <v>548684</v>
       </c>
       <c r="Y89" s="19">
-        <v>622169</v>
+        <v>663694</v>
       </c>
       <c r="Z89" s="19">
-        <v>548684</v>
+        <v>758620</v>
       </c>
       <c r="AA89" s="19">
-        <v>663694</v>
+        <v>718649</v>
       </c>
       <c r="AB89" s="19">
-        <v>758620</v>
+        <v>909926</v>
       </c>
       <c r="AC89" s="19">
-        <v>718649</v>
+        <v>879524</v>
       </c>
       <c r="AD89" s="19">
-        <v>909926</v>
+        <v>829383</v>
       </c>
       <c r="AE89" s="19">
-        <v>879524</v>
+        <v>833084</v>
       </c>
       <c r="AF89" s="19">
-        <v>829383</v>
+        <v>777130</v>
       </c>
       <c r="AG89" s="19">
-        <v>833084</v>
+        <v>870816</v>
       </c>
       <c r="AH89" s="19">
-        <v>777130</v>
+        <v>1059790</v>
       </c>
       <c r="AI89" s="19">
-        <v>870816</v>
+        <v>1114038</v>
       </c>
       <c r="AJ89" s="19">
-        <v>1059790</v>
+        <v>1385901</v>
       </c>
       <c r="AK89" s="19">
-        <v>1114038</v>
+        <v>1736019</v>
       </c>
       <c r="AL89" s="19">
-        <v>1385901</v>
+        <v>1618218</v>
       </c>
       <c r="AM89" s="19">
-        <v>1736019</v>
+        <v>1706761</v>
       </c>
       <c r="AN89" s="19">
-        <v>1618218</v>
+        <v>1705305</v>
       </c>
       <c r="AO89" s="19">
-        <v>1695483</v>
+        <v>1441199</v>
       </c>
       <c r="AP89" s="19">
-        <v>1705305</v>
+        <v>1496917</v>
       </c>
       <c r="AQ89" s="19">
-        <v>1441199</v>
+        <v>1496917</v>
       </c>
       <c r="AR89" s="19">
-        <v>1281204</v>
+        <v>1258536</v>
       </c>
       <c r="AS89" s="19">
-        <v>1503595</v>
+        <v>1223341</v>
       </c>
       <c r="AT89" s="19">
-        <v>1329183</v>
+        <v>1606558</v>
       </c>
       <c r="AU89" s="19">
-        <v>1220148</v>
+        <v>1735370</v>
       </c>
       <c r="AV89" s="19">
-        <v>1606558</v>
+        <v>1894697</v>
       </c>
       <c r="AW89" s="19">
-        <v>1734787</v>
+        <v>2079585</v>
       </c>
       <c r="AX89" s="19">
-        <v>1891361</v>
+        <v>2160596</v>
       </c>
       <c r="AY89" s="19">
-        <v>2079648</v>
+        <v>2315149</v>
       </c>
       <c r="AZ89" s="19">
-        <v>2163693</v>
+        <v>2299529</v>
       </c>
       <c r="BA89" s="19">
-        <v>2314014</v>
+        <v>2098840</v>
       </c>
       <c r="BB89" s="19">
-        <v>2251853</v>
+        <v>2345105</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -12307,7 +12306,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12362,7 +12361,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -12417,7 +12416,7 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
     </row>
-    <row r="93" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>91</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -12629,7 +12628,7 @@
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>92</v>
       </c>
@@ -12686,7 +12685,7 @@
       <c r="BA95" s="9"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>55</v>
       </c>
@@ -12814,38 +12813,38 @@
       <c r="AR96" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS96" s="11" t="s">
-        <v>57</v>
+      <c r="AS96" s="11">
+        <v>78000000</v>
       </c>
       <c r="AT96" s="11">
-        <v>0</v>
+        <v>76500000</v>
       </c>
       <c r="AU96" s="11">
-        <v>78000000</v>
+        <v>73666667</v>
       </c>
       <c r="AV96" s="11">
-        <v>76500000</v>
+        <v>214114035</v>
       </c>
       <c r="AW96" s="11">
-        <v>73666667</v>
+        <v>85000000</v>
       </c>
       <c r="AX96" s="11">
-        <v>214114035</v>
+        <v>69300000</v>
       </c>
       <c r="AY96" s="11">
-        <v>85000000</v>
+        <v>75125000</v>
       </c>
       <c r="AZ96" s="11">
-        <v>69300000</v>
-      </c>
-      <c r="BA96" s="11">
-        <v>75125000</v>
+        <v>83581395</v>
+      </c>
+      <c r="BA96" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB96" s="11">
-        <v>61500000</v>
+        <v>365181818</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>58</v>
       </c>
@@ -12928,24 +12927,24 @@
       <c r="AC97" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD97" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE97" s="13" t="s">
-        <v>57</v>
+      <c r="AD97" s="13">
+        <v>1614154</v>
+      </c>
+      <c r="AE97" s="13">
+        <v>3788991</v>
       </c>
       <c r="AF97" s="13">
-        <v>1614154</v>
+        <v>5348361</v>
       </c>
       <c r="AG97" s="13">
-        <v>3788991</v>
-      </c>
-      <c r="AH97" s="13">
-        <v>5348361</v>
-      </c>
-      <c r="AI97" s="13">
         <v>5900258</v>
       </c>
+      <c r="AH97" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI97" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ97" s="13" t="s">
         <v>57</v>
       </c>
@@ -13004,166 +13003,166 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11">
-        <v>1503333333</v>
-      </c>
-      <c r="F98" s="11">
-        <v>360000</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>57</v>
+      <c r="E98" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" s="11">
+        <v>141750000</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
       </c>
       <c r="I98" s="11">
-        <v>141750000</v>
+        <v>1812500</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
       </c>
       <c r="K98" s="11">
-        <v>1812500</v>
+        <v>17438849</v>
       </c>
       <c r="L98" s="11">
         <v>0</v>
       </c>
       <c r="M98" s="11">
-        <v>17438849</v>
+        <v>4151220</v>
       </c>
       <c r="N98" s="11">
         <v>0</v>
       </c>
       <c r="O98" s="11">
-        <v>4151220</v>
+        <v>7226351</v>
       </c>
       <c r="P98" s="11">
-        <v>0</v>
+        <v>570966667</v>
       </c>
       <c r="Q98" s="11">
-        <v>7226351</v>
+        <v>733355556</v>
       </c>
       <c r="R98" s="11">
-        <v>570966667</v>
+        <v>701966102</v>
       </c>
       <c r="S98" s="11">
-        <v>733355556</v>
+        <v>77333333</v>
       </c>
       <c r="T98" s="11">
-        <v>701966102</v>
+        <v>0</v>
       </c>
       <c r="U98" s="11">
-        <v>77333333</v>
+        <v>0</v>
       </c>
       <c r="V98" s="11">
-        <v>0</v>
+        <v>103400000</v>
       </c>
       <c r="W98" s="11">
-        <v>0</v>
+        <v>25098361</v>
       </c>
       <c r="X98" s="11">
-        <v>103400000</v>
+        <v>226805195</v>
       </c>
       <c r="Y98" s="11">
-        <v>25098361</v>
+        <v>5615702</v>
       </c>
       <c r="Z98" s="11">
-        <v>226805195</v>
+        <v>28678060</v>
       </c>
       <c r="AA98" s="11">
-        <v>5615702</v>
+        <v>774923077</v>
       </c>
       <c r="AB98" s="11">
-        <v>28678060</v>
-      </c>
-      <c r="AC98" s="11">
-        <v>774923077</v>
+        <v>1081270833</v>
+      </c>
+      <c r="AC98" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD98" s="11">
-        <v>1081270833</v>
-      </c>
-      <c r="AE98" s="11" t="s">
-        <v>57</v>
+        <v>1019266667</v>
+      </c>
+      <c r="AE98" s="11">
+        <v>526000000</v>
       </c>
       <c r="AF98" s="11">
-        <v>1019266667</v>
+        <v>820206897</v>
       </c>
       <c r="AG98" s="11">
-        <v>526000000</v>
-      </c>
-      <c r="AH98" s="11">
-        <v>820206897</v>
+        <v>3400000</v>
+      </c>
+      <c r="AH98" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI98" s="11">
-        <v>3400000</v>
-      </c>
-      <c r="AJ98" s="11" t="s">
-        <v>57</v>
+        <v>46369748</v>
+      </c>
+      <c r="AJ98" s="11">
+        <v>48750000</v>
       </c>
       <c r="AK98" s="11">
-        <v>46369748</v>
+        <v>260453125</v>
       </c>
       <c r="AL98" s="11">
-        <v>48750000</v>
+        <v>68011864</v>
       </c>
       <c r="AM98" s="11">
-        <v>260453125</v>
+        <v>902486842</v>
       </c>
       <c r="AN98" s="11">
-        <v>68011864</v>
-      </c>
-      <c r="AO98" s="11">
-        <v>902486842</v>
+        <v>1358230769</v>
+      </c>
+      <c r="AO98" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP98" s="11">
-        <v>1358230769</v>
-      </c>
-      <c r="AQ98" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR98" s="11" t="s">
-        <v>57</v>
+        <v>589420168</v>
+      </c>
+      <c r="AQ98" s="11">
+        <v>589420168</v>
+      </c>
+      <c r="AR98" s="11">
+        <v>2250714286</v>
       </c>
       <c r="AS98" s="11">
-        <v>589420168</v>
+        <v>2272687500</v>
       </c>
       <c r="AT98" s="11">
-        <v>2613000000</v>
+        <v>2533000000</v>
       </c>
       <c r="AU98" s="11">
-        <v>2641827171</v>
+        <v>281844595</v>
       </c>
       <c r="AV98" s="11">
-        <v>2533000000</v>
+        <v>81892857</v>
       </c>
       <c r="AW98" s="11">
-        <v>281844595</v>
+        <v>1551555556</v>
       </c>
       <c r="AX98" s="11">
-        <v>81892857</v>
+        <v>83113953</v>
       </c>
       <c r="AY98" s="11">
-        <v>1551555556</v>
+        <v>1077078947</v>
       </c>
       <c r="AZ98" s="11">
-        <v>83113953</v>
+        <v>904461538</v>
       </c>
       <c r="BA98" s="11">
-        <v>1102918919</v>
+        <v>3033800000</v>
       </c>
       <c r="BB98" s="11">
-        <v>904461538</v>
+        <v>3346000000</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>61</v>
       </c>
@@ -13172,157 +13171,157 @@
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
-        <v>21564544</v>
+        <v>22279339</v>
       </c>
       <c r="F99" s="13">
-        <v>22715988</v>
+        <v>22753927</v>
       </c>
       <c r="G99" s="13">
-        <v>22279339</v>
+        <v>23271041</v>
       </c>
       <c r="H99" s="13">
-        <v>22753927</v>
+        <v>23204225</v>
       </c>
       <c r="I99" s="13">
-        <v>23271041</v>
+        <v>20040431</v>
       </c>
       <c r="J99" s="13">
-        <v>23204225</v>
+        <v>20477419</v>
       </c>
       <c r="K99" s="13">
-        <v>20040431</v>
+        <v>26392857</v>
       </c>
       <c r="L99" s="13">
-        <v>20477419</v>
+        <v>25716912</v>
       </c>
       <c r="M99" s="13">
-        <v>26392857</v>
+        <v>25687117</v>
       </c>
       <c r="N99" s="13">
-        <v>25716912</v>
+        <v>25339869</v>
       </c>
       <c r="O99" s="13">
-        <v>25687117</v>
+        <v>23520325</v>
       </c>
       <c r="P99" s="13">
-        <v>25339869</v>
+        <v>24829384</v>
       </c>
       <c r="Q99" s="13">
-        <v>23520325</v>
+        <v>22037534</v>
       </c>
       <c r="R99" s="13">
-        <v>24829384</v>
+        <v>22507987</v>
       </c>
       <c r="S99" s="13">
-        <v>22037534</v>
+        <v>23694669</v>
       </c>
       <c r="T99" s="13">
-        <v>22507987</v>
+        <v>24998780</v>
       </c>
       <c r="U99" s="13">
-        <v>23694669</v>
+        <v>22586538</v>
       </c>
       <c r="V99" s="13">
-        <v>24998780</v>
+        <v>28504237</v>
       </c>
       <c r="W99" s="13">
-        <v>22586538</v>
+        <v>30271028</v>
       </c>
       <c r="X99" s="13">
-        <v>28504237</v>
+        <v>38391304</v>
       </c>
       <c r="Y99" s="13">
-        <v>30271028</v>
+        <v>44455882</v>
       </c>
       <c r="Z99" s="13">
-        <v>38391304</v>
+        <v>51329114</v>
       </c>
       <c r="AA99" s="13">
-        <v>44455882</v>
+        <v>57179104</v>
       </c>
       <c r="AB99" s="13">
-        <v>51329114</v>
+        <v>59507937</v>
       </c>
       <c r="AC99" s="13">
-        <v>57179104</v>
+        <v>61065789</v>
       </c>
       <c r="AD99" s="13">
-        <v>59507937</v>
+        <v>59947368</v>
       </c>
       <c r="AE99" s="13">
-        <v>61065789</v>
+        <v>58509091</v>
       </c>
       <c r="AF99" s="13">
-        <v>59947368</v>
+        <v>59794118</v>
       </c>
       <c r="AG99" s="13">
-        <v>58509091</v>
+        <v>62000000</v>
       </c>
       <c r="AH99" s="13">
-        <v>59794118</v>
+        <v>60813559</v>
       </c>
       <c r="AI99" s="13">
-        <v>62000000</v>
+        <v>59240385</v>
       </c>
       <c r="AJ99" s="13">
-        <v>60813559</v>
+        <v>60132075</v>
       </c>
       <c r="AK99" s="13">
-        <v>59240385</v>
+        <v>63176471</v>
       </c>
       <c r="AL99" s="13">
-        <v>60132075</v>
+        <v>61369863</v>
       </c>
       <c r="AM99" s="13">
-        <v>63176471</v>
+        <v>60343949</v>
       </c>
       <c r="AN99" s="13">
-        <v>61369863</v>
+        <v>60495238</v>
       </c>
       <c r="AO99" s="13">
-        <v>60343949</v>
+        <v>66768116</v>
       </c>
       <c r="AP99" s="13">
-        <v>60495238</v>
+        <v>86817460</v>
       </c>
       <c r="AQ99" s="13">
-        <v>66768116</v>
+        <v>86817460</v>
       </c>
       <c r="AR99" s="13">
-        <v>70981818</v>
+        <v>98040000</v>
       </c>
       <c r="AS99" s="13">
-        <v>86817460</v>
+        <v>97762238</v>
       </c>
       <c r="AT99" s="13">
-        <v>98040000</v>
+        <v>163527778</v>
       </c>
       <c r="AU99" s="13">
-        <v>97762238</v>
+        <v>159104478</v>
       </c>
       <c r="AV99" s="13">
-        <v>163527778</v>
+        <v>159086207</v>
       </c>
       <c r="AW99" s="13">
-        <v>159104478</v>
+        <v>155459459</v>
       </c>
       <c r="AX99" s="13">
-        <v>159086207</v>
+        <v>150550847</v>
       </c>
       <c r="AY99" s="13">
-        <v>155459459</v>
+        <v>152680251</v>
       </c>
       <c r="AZ99" s="13">
-        <v>150550847</v>
+        <v>156416031</v>
       </c>
       <c r="BA99" s="13">
-        <v>152680251</v>
+        <v>154152174</v>
       </c>
       <c r="BB99" s="13">
-        <v>156416031</v>
+        <v>167835749</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>62</v>
       </c>
@@ -13331,157 +13330,157 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>1140150</v>
+        <v>1274895</v>
       </c>
       <c r="F100" s="11">
-        <v>1216452</v>
+        <v>1137762</v>
       </c>
       <c r="G100" s="11">
-        <v>1274895</v>
+        <v>1507288</v>
       </c>
       <c r="H100" s="11">
-        <v>1137762</v>
+        <v>1507460</v>
       </c>
       <c r="I100" s="11">
-        <v>1507288</v>
+        <v>1638768</v>
       </c>
       <c r="J100" s="11">
-        <v>1507460</v>
+        <v>1451403</v>
       </c>
       <c r="K100" s="11">
-        <v>1638768</v>
+        <v>2250204</v>
       </c>
       <c r="L100" s="11">
-        <v>1451403</v>
+        <v>1346441</v>
       </c>
       <c r="M100" s="11">
-        <v>2250204</v>
+        <v>1322770</v>
       </c>
       <c r="N100" s="11">
-        <v>1346441</v>
+        <v>1609208</v>
       </c>
       <c r="O100" s="11">
-        <v>1322770</v>
+        <v>1897415</v>
       </c>
       <c r="P100" s="11">
-        <v>1609208</v>
+        <v>1742971</v>
       </c>
       <c r="Q100" s="11">
-        <v>1897415</v>
+        <v>2291797</v>
       </c>
       <c r="R100" s="11">
-        <v>1742971</v>
+        <v>1819611</v>
       </c>
       <c r="S100" s="11">
-        <v>2291797</v>
+        <v>1468934</v>
       </c>
       <c r="T100" s="11">
-        <v>1819611</v>
+        <v>1654683</v>
       </c>
       <c r="U100" s="11">
-        <v>1468934</v>
+        <v>2421105</v>
       </c>
       <c r="V100" s="11">
-        <v>1654683</v>
+        <v>1891606</v>
       </c>
       <c r="W100" s="11">
-        <v>2421105</v>
+        <v>6571662</v>
       </c>
       <c r="X100" s="11">
-        <v>1891606</v>
+        <v>2131616</v>
       </c>
       <c r="Y100" s="11">
-        <v>6571662</v>
+        <v>3296734</v>
       </c>
       <c r="Z100" s="11">
-        <v>2131616</v>
+        <v>3738308</v>
       </c>
       <c r="AA100" s="11">
-        <v>3296734</v>
+        <v>3677366</v>
       </c>
       <c r="AB100" s="11">
-        <v>3738308</v>
+        <v>4422301</v>
       </c>
       <c r="AC100" s="11">
-        <v>3677366</v>
+        <v>2381846</v>
       </c>
       <c r="AD100" s="11">
-        <v>4422301</v>
+        <v>3324226</v>
       </c>
       <c r="AE100" s="11">
-        <v>2381846</v>
+        <v>5325106</v>
       </c>
       <c r="AF100" s="11">
-        <v>3324226</v>
+        <v>5269736</v>
       </c>
       <c r="AG100" s="11">
-        <v>5325106</v>
+        <v>3190053</v>
       </c>
       <c r="AH100" s="11">
-        <v>5269736</v>
+        <v>4061445</v>
       </c>
       <c r="AI100" s="11">
-        <v>3190053</v>
+        <v>4179767</v>
       </c>
       <c r="AJ100" s="11">
-        <v>4061445</v>
+        <v>3798694</v>
       </c>
       <c r="AK100" s="11">
-        <v>4179767</v>
+        <v>4376508</v>
       </c>
       <c r="AL100" s="11">
-        <v>3798694</v>
+        <v>4657304</v>
       </c>
       <c r="AM100" s="11">
-        <v>4376508</v>
+        <v>4678651</v>
       </c>
       <c r="AN100" s="11">
-        <v>4657304</v>
+        <v>4679264</v>
       </c>
       <c r="AO100" s="11">
-        <v>4678651</v>
+        <v>5040768</v>
       </c>
       <c r="AP100" s="11">
-        <v>4679264</v>
+        <v>4332864</v>
       </c>
       <c r="AQ100" s="11">
-        <v>5040768</v>
+        <v>4332864</v>
       </c>
       <c r="AR100" s="11">
-        <v>3392012</v>
+        <v>3404993</v>
       </c>
       <c r="AS100" s="11">
-        <v>4332864</v>
+        <v>3752298</v>
       </c>
       <c r="AT100" s="11">
-        <v>3496636</v>
+        <v>5735457</v>
       </c>
       <c r="AU100" s="11">
-        <v>3706930</v>
+        <v>4157240</v>
       </c>
       <c r="AV100" s="11">
-        <v>5735457</v>
+        <v>6040144</v>
       </c>
       <c r="AW100" s="11">
-        <v>4157240</v>
+        <v>4930030</v>
       </c>
       <c r="AX100" s="11">
-        <v>6040144</v>
+        <v>5781575</v>
       </c>
       <c r="AY100" s="11">
-        <v>4931173</v>
+        <v>5666754</v>
       </c>
       <c r="AZ100" s="11">
-        <v>5775964</v>
+        <v>6880629</v>
       </c>
       <c r="BA100" s="11">
-        <v>5666754</v>
+        <v>5330795</v>
       </c>
       <c r="BB100" s="11">
-        <v>7033017</v>
+        <v>5044285</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
@@ -13490,382 +13489,382 @@
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>86314304</v>
+        <v>78941313</v>
       </c>
       <c r="F101" s="13">
-        <v>89585451</v>
+        <v>73874606</v>
       </c>
       <c r="G101" s="13">
-        <v>78941313</v>
+        <v>73237435</v>
       </c>
       <c r="H101" s="13">
-        <v>73874606</v>
+        <v>65447137</v>
       </c>
       <c r="I101" s="13">
-        <v>73237435</v>
+        <v>61240606</v>
       </c>
       <c r="J101" s="13">
-        <v>65447137</v>
+        <v>50867814</v>
       </c>
       <c r="K101" s="13">
-        <v>61240606</v>
+        <v>75032648</v>
       </c>
       <c r="L101" s="13">
-        <v>50867814</v>
+        <v>73351759</v>
       </c>
       <c r="M101" s="13">
-        <v>75032648</v>
+        <v>65593663</v>
       </c>
       <c r="N101" s="13">
-        <v>73351759</v>
+        <v>70156400</v>
       </c>
       <c r="O101" s="13">
-        <v>65593663</v>
+        <v>84331874</v>
       </c>
       <c r="P101" s="13">
-        <v>70156400</v>
+        <v>83047372</v>
       </c>
       <c r="Q101" s="13">
-        <v>84331874</v>
+        <v>83142914</v>
       </c>
       <c r="R101" s="13">
-        <v>83047372</v>
+        <v>82536917</v>
       </c>
       <c r="S101" s="13">
-        <v>83142914</v>
+        <v>87538038</v>
       </c>
       <c r="T101" s="13">
-        <v>82536917</v>
+        <v>92508614</v>
       </c>
       <c r="U101" s="13">
-        <v>87538038</v>
+        <v>81476280</v>
       </c>
       <c r="V101" s="13">
-        <v>92508614</v>
+        <v>91520753</v>
       </c>
       <c r="W101" s="13">
-        <v>81476280</v>
+        <v>116338618</v>
       </c>
       <c r="X101" s="13">
-        <v>91520753</v>
+        <v>88808845</v>
       </c>
       <c r="Y101" s="13">
-        <v>116338618</v>
+        <v>130055453</v>
       </c>
       <c r="Z101" s="13">
-        <v>88808845</v>
+        <v>138027622</v>
       </c>
       <c r="AA101" s="13">
-        <v>130055453</v>
+        <v>136527127</v>
       </c>
       <c r="AB101" s="13">
-        <v>138027622</v>
+        <v>159215484</v>
       </c>
       <c r="AC101" s="13">
-        <v>136527127</v>
+        <v>148557728</v>
       </c>
       <c r="AD101" s="13">
-        <v>159215484</v>
+        <v>155172922</v>
       </c>
       <c r="AE101" s="13">
-        <v>148557728</v>
+        <v>153967866</v>
       </c>
       <c r="AF101" s="13">
-        <v>155172922</v>
+        <v>130039290</v>
       </c>
       <c r="AG101" s="13">
-        <v>153967866</v>
+        <v>120336639</v>
       </c>
       <c r="AH101" s="13">
-        <v>130039290</v>
+        <v>147621657</v>
       </c>
       <c r="AI101" s="13">
-        <v>120336639</v>
+        <v>164086128</v>
       </c>
       <c r="AJ101" s="13">
-        <v>147621657</v>
+        <v>180239079</v>
       </c>
       <c r="AK101" s="13">
-        <v>164086128</v>
+        <v>198696016</v>
       </c>
       <c r="AL101" s="13">
-        <v>180239079</v>
+        <v>225052557</v>
       </c>
       <c r="AM101" s="13">
-        <v>198696016</v>
+        <v>215885023</v>
       </c>
       <c r="AN101" s="13">
-        <v>225052557</v>
+        <v>196973366</v>
       </c>
       <c r="AO101" s="13">
-        <v>215884724</v>
+        <v>201633623</v>
       </c>
       <c r="AP101" s="13">
-        <v>196973366</v>
+        <v>202684129</v>
       </c>
       <c r="AQ101" s="13">
-        <v>201633623</v>
+        <v>202684129</v>
       </c>
       <c r="AR101" s="13">
-        <v>197636859</v>
+        <v>201922294</v>
       </c>
       <c r="AS101" s="13">
-        <v>202690414</v>
+        <v>233461771</v>
       </c>
       <c r="AT101" s="13">
-        <v>201578479</v>
+        <v>308832172</v>
       </c>
       <c r="AU101" s="13">
-        <v>233497038</v>
+        <v>356559353</v>
       </c>
       <c r="AV101" s="13">
-        <v>308832172</v>
+        <v>361201971</v>
       </c>
       <c r="AW101" s="13">
-        <v>356543388</v>
+        <v>365471748</v>
       </c>
       <c r="AX101" s="13">
-        <v>361163483</v>
+        <v>391778569</v>
       </c>
       <c r="AY101" s="13">
-        <v>365471748</v>
+        <v>394193366</v>
       </c>
       <c r="AZ101" s="13">
-        <v>391778588</v>
+        <v>410467433</v>
       </c>
       <c r="BA101" s="13">
-        <v>394184853</v>
+        <v>423690837</v>
       </c>
       <c r="BB101" s="13">
-        <v>410467433</v>
+        <v>407672486</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>18669492</v>
+        <v>28667717</v>
       </c>
       <c r="F102" s="11">
-        <v>25556680</v>
+        <v>35891584</v>
       </c>
       <c r="G102" s="11">
-        <v>28667717</v>
+        <v>23629599</v>
       </c>
       <c r="H102" s="11">
-        <v>35891584</v>
+        <v>14596628</v>
       </c>
       <c r="I102" s="11">
-        <v>23629599</v>
+        <v>17419529</v>
       </c>
       <c r="J102" s="11">
-        <v>14596628</v>
+        <v>15446615</v>
       </c>
       <c r="K102" s="11">
-        <v>17419529</v>
+        <v>19223450</v>
       </c>
       <c r="L102" s="11">
-        <v>15446615</v>
+        <v>19665775</v>
       </c>
       <c r="M102" s="11">
-        <v>19223450</v>
+        <v>13123941</v>
       </c>
       <c r="N102" s="11">
-        <v>19665775</v>
+        <v>24456398</v>
       </c>
       <c r="O102" s="11">
-        <v>13123941</v>
+        <v>29501796</v>
       </c>
       <c r="P102" s="11">
-        <v>24456398</v>
+        <v>31038309</v>
       </c>
       <c r="Q102" s="11">
-        <v>29501796</v>
+        <v>32649177</v>
       </c>
       <c r="R102" s="11">
-        <v>31038309</v>
+        <v>40460526</v>
       </c>
       <c r="S102" s="11">
-        <v>32649177</v>
+        <v>14814460</v>
       </c>
       <c r="T102" s="11">
-        <v>40460526</v>
+        <v>5688858</v>
       </c>
       <c r="U102" s="11">
-        <v>14814460</v>
+        <v>8688710</v>
       </c>
       <c r="V102" s="11">
-        <v>5688858</v>
+        <v>15292373</v>
       </c>
       <c r="W102" s="11">
-        <v>8688710</v>
+        <v>21080759</v>
       </c>
       <c r="X102" s="11">
-        <v>15292373</v>
+        <v>9616527</v>
       </c>
       <c r="Y102" s="11">
-        <v>21080759</v>
+        <v>4355975</v>
       </c>
       <c r="Z102" s="11">
-        <v>9616527</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="11">
-        <v>4355975</v>
+        <v>19615385</v>
       </c>
       <c r="AB102" s="11">
-        <v>0</v>
+        <v>33322709</v>
       </c>
       <c r="AC102" s="11">
-        <v>19615385</v>
+        <v>38706131</v>
       </c>
       <c r="AD102" s="11">
-        <v>33322709</v>
+        <v>41750807</v>
       </c>
       <c r="AE102" s="11">
-        <v>38706131</v>
+        <v>39262160</v>
       </c>
       <c r="AF102" s="11">
-        <v>41750807</v>
+        <v>53502642</v>
       </c>
       <c r="AG102" s="11">
-        <v>39262160</v>
+        <v>64021560</v>
       </c>
       <c r="AH102" s="11">
-        <v>53502642</v>
+        <v>60579636</v>
       </c>
       <c r="AI102" s="11">
-        <v>64021560</v>
+        <v>58273229</v>
       </c>
       <c r="AJ102" s="11">
-        <v>60579636</v>
+        <v>65267339</v>
       </c>
       <c r="AK102" s="11">
-        <v>58273229</v>
+        <v>75838079</v>
       </c>
       <c r="AL102" s="11">
-        <v>65267339</v>
+        <v>68004633</v>
       </c>
       <c r="AM102" s="11">
-        <v>75838079</v>
+        <v>73053687</v>
       </c>
       <c r="AN102" s="11">
-        <v>68004633</v>
+        <v>67540541</v>
       </c>
       <c r="AO102" s="11">
-        <v>73053687</v>
+        <v>65145701</v>
       </c>
       <c r="AP102" s="11">
-        <v>67540541</v>
+        <v>35956067</v>
       </c>
       <c r="AQ102" s="11">
-        <v>65145701</v>
+        <v>35956067</v>
       </c>
       <c r="AR102" s="11">
-        <v>72426593</v>
+        <v>67641555</v>
       </c>
       <c r="AS102" s="11">
-        <v>36449274</v>
+        <v>78854427</v>
       </c>
       <c r="AT102" s="11">
-        <v>80151897</v>
+        <v>22473443</v>
       </c>
       <c r="AU102" s="11">
-        <v>69220471</v>
+        <v>43560166</v>
       </c>
       <c r="AV102" s="11">
-        <v>22473443</v>
+        <v>24562284</v>
       </c>
       <c r="AW102" s="11">
-        <v>43560166</v>
+        <v>100441333</v>
       </c>
       <c r="AX102" s="11">
-        <v>24562284</v>
+        <v>122661718</v>
       </c>
       <c r="AY102" s="11">
-        <v>100441333</v>
+        <v>106109209</v>
       </c>
       <c r="AZ102" s="11">
-        <v>122661630</v>
+        <v>51222000</v>
       </c>
       <c r="BA102" s="11">
-        <v>106109209</v>
+        <v>31198000</v>
       </c>
       <c r="BB102" s="11">
-        <v>51222000</v>
+        <v>52521127</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13">
-        <v>188090909</v>
+        <v>207400000</v>
       </c>
       <c r="F103" s="13">
-        <v>19772347</v>
+        <v>200350000</v>
       </c>
       <c r="G103" s="13">
-        <v>207400000</v>
+        <v>198312883</v>
       </c>
       <c r="H103" s="13">
-        <v>200350000</v>
+        <v>205434783</v>
       </c>
       <c r="I103" s="13">
-        <v>198312883</v>
+        <v>171222222</v>
       </c>
       <c r="J103" s="13">
-        <v>205434783</v>
+        <v>165000000</v>
       </c>
       <c r="K103" s="13">
-        <v>171222222</v>
+        <v>191276074</v>
       </c>
       <c r="L103" s="13">
-        <v>165000000</v>
+        <v>193941176</v>
       </c>
       <c r="M103" s="13">
-        <v>191276074</v>
+        <v>186625000</v>
       </c>
       <c r="N103" s="13">
-        <v>193941176</v>
+        <v>179117647</v>
       </c>
       <c r="O103" s="13">
-        <v>186625000</v>
+        <v>203355932</v>
       </c>
       <c r="P103" s="13">
-        <v>179117647</v>
+        <v>208949438</v>
       </c>
       <c r="Q103" s="13">
-        <v>203355932</v>
+        <v>233187500</v>
       </c>
       <c r="R103" s="13">
-        <v>208949438</v>
+        <v>206755725</v>
       </c>
       <c r="S103" s="13">
-        <v>233187500</v>
+        <v>218927273</v>
       </c>
       <c r="T103" s="13">
-        <v>206755725</v>
+        <v>205000000</v>
       </c>
       <c r="U103" s="13">
-        <v>218927273</v>
+        <v>206815126</v>
       </c>
       <c r="V103" s="13">
-        <v>205000000</v>
+        <v>216000000</v>
       </c>
       <c r="W103" s="13">
-        <v>206815126</v>
+        <v>0</v>
       </c>
       <c r="X103" s="13">
-        <v>216000000</v>
+        <v>0</v>
       </c>
       <c r="Y103" s="13">
         <v>0</v>
@@ -13874,247 +13873,247 @@
         <v>0</v>
       </c>
       <c r="AA103" s="13">
-        <v>0</v>
+        <v>280000000</v>
       </c>
       <c r="AB103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC103" s="13">
-        <v>280000000</v>
-      </c>
-      <c r="AD103" s="13">
         <v>310000000</v>
       </c>
-      <c r="AE103" s="13" t="s">
-        <v>57</v>
+      <c r="AC103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE103" s="13">
+        <v>12000000</v>
       </c>
       <c r="AF103" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AG103" s="13">
-        <v>12000000</v>
+        <v>444600000</v>
       </c>
       <c r="AH103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI103" s="13">
-        <v>444600000</v>
+      <c r="AI103" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK103" s="13" t="s">
-        <v>57</v>
+      <c r="AK103" s="13">
+        <v>545393939</v>
       </c>
       <c r="AL103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM103" s="13">
-        <v>545393939</v>
+      <c r="AM103" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN103" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AO103" s="13">
-        <v>2384589</v>
-      </c>
-      <c r="AP103" s="13" t="s">
-        <v>57</v>
+        <v>595915493</v>
+      </c>
+      <c r="AP103" s="13">
+        <v>639000000</v>
       </c>
       <c r="AQ103" s="13">
-        <v>595915493</v>
+        <v>639000000</v>
       </c>
       <c r="AR103" s="13">
-        <v>623566667</v>
-      </c>
-      <c r="AS103" s="13">
-        <v>639000000</v>
-      </c>
-      <c r="AT103" s="13">
         <v>758678571</v>
       </c>
-      <c r="AU103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV103" s="13" t="s">
-        <v>57</v>
+      <c r="AS103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV103" s="13">
+        <v>870000000</v>
       </c>
       <c r="AW103" s="13">
-        <v>0</v>
+        <v>970000000</v>
       </c>
       <c r="AX103" s="13">
-        <v>865508997</v>
-      </c>
-      <c r="AY103" s="13">
-        <v>970000000</v>
-      </c>
-      <c r="AZ103" s="13">
-        <v>1208435208</v>
-      </c>
-      <c r="BA103" s="13">
-        <v>0</v>
+        <v>1200000000</v>
+      </c>
+      <c r="AY103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ103" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA103" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB103" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>46762295</v>
+        <v>45904401</v>
       </c>
       <c r="F104" s="11">
-        <v>3727147</v>
+        <v>38494867</v>
       </c>
       <c r="G104" s="11">
-        <v>45904401</v>
+        <v>36913155</v>
       </c>
       <c r="H104" s="11">
-        <v>38494867</v>
+        <v>41000000</v>
       </c>
       <c r="I104" s="11">
-        <v>36913155</v>
+        <v>36750000</v>
       </c>
       <c r="J104" s="11">
-        <v>41000000</v>
+        <v>37073529</v>
       </c>
       <c r="K104" s="11">
-        <v>36750000</v>
+        <v>24959391</v>
       </c>
       <c r="L104" s="11">
-        <v>37073529</v>
+        <v>33528881</v>
       </c>
       <c r="M104" s="11">
-        <v>24959391</v>
+        <v>34237569</v>
       </c>
       <c r="N104" s="11">
-        <v>33528881</v>
+        <v>35380368</v>
       </c>
       <c r="O104" s="11">
-        <v>34237569</v>
+        <v>34886364</v>
       </c>
       <c r="P104" s="11">
-        <v>35380368</v>
+        <v>34914062</v>
       </c>
       <c r="Q104" s="11">
-        <v>34886364</v>
+        <v>35032544</v>
       </c>
       <c r="R104" s="11">
-        <v>34914062</v>
+        <v>34826367</v>
       </c>
       <c r="S104" s="11">
-        <v>35032544</v>
+        <v>39838509</v>
       </c>
       <c r="T104" s="11">
-        <v>34826367</v>
+        <v>40000000</v>
       </c>
       <c r="U104" s="11">
-        <v>39838509</v>
+        <v>0</v>
       </c>
       <c r="V104" s="11">
-        <v>40000000</v>
+        <v>0</v>
       </c>
       <c r="W104" s="11">
         <v>0</v>
       </c>
       <c r="X104" s="11">
-        <v>0</v>
+        <v>69058824</v>
       </c>
       <c r="Y104" s="11">
         <v>0</v>
       </c>
       <c r="Z104" s="11">
-        <v>69058824</v>
+        <v>74542857</v>
       </c>
       <c r="AA104" s="11">
-        <v>0</v>
+        <v>72282051</v>
       </c>
       <c r="AB104" s="11">
-        <v>74542857</v>
+        <v>75431373</v>
       </c>
       <c r="AC104" s="11">
-        <v>72282051</v>
-      </c>
-      <c r="AD104" s="11">
-        <v>75431373</v>
+        <v>74900685</v>
+      </c>
+      <c r="AD104" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE104" s="11">
-        <v>74900685</v>
-      </c>
-      <c r="AF104" s="11" t="s">
-        <v>57</v>
+        <v>120316129</v>
+      </c>
+      <c r="AF104" s="11">
+        <v>120108696</v>
       </c>
       <c r="AG104" s="11">
-        <v>120316129</v>
+        <v>119916318</v>
       </c>
       <c r="AH104" s="11">
-        <v>120108696</v>
+        <v>120333333</v>
       </c>
       <c r="AI104" s="11">
-        <v>119916318</v>
+        <v>119722380</v>
       </c>
       <c r="AJ104" s="11">
-        <v>120333333</v>
+        <v>119853270</v>
       </c>
       <c r="AK104" s="11">
-        <v>119722380</v>
+        <v>121863539</v>
       </c>
       <c r="AL104" s="11">
-        <v>119853270</v>
+        <v>133857143</v>
       </c>
       <c r="AM104" s="11">
-        <v>121863539</v>
+        <v>140160643</v>
       </c>
       <c r="AN104" s="11">
-        <v>133857143</v>
+        <v>140329861</v>
       </c>
       <c r="AO104" s="11">
-        <v>140160643</v>
+        <v>140098101</v>
       </c>
       <c r="AP104" s="11">
-        <v>140329861</v>
+        <v>138666667</v>
       </c>
       <c r="AQ104" s="11">
-        <v>140098101</v>
+        <v>138666667</v>
       </c>
       <c r="AR104" s="11">
-        <v>140000000</v>
+        <v>139879310</v>
       </c>
       <c r="AS104" s="11">
-        <v>138666667</v>
+        <v>44618729</v>
       </c>
       <c r="AT104" s="11">
-        <v>75211151</v>
+        <v>175794872</v>
       </c>
       <c r="AU104" s="11">
-        <v>110312744</v>
+        <v>176455769</v>
       </c>
       <c r="AV104" s="11">
-        <v>175794872</v>
-      </c>
-      <c r="AW104" s="11">
-        <v>176455769</v>
+        <v>175808917</v>
+      </c>
+      <c r="AW104" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX104" s="11">
-        <v>175808917</v>
+        <v>244603774</v>
       </c>
       <c r="AY104" s="11">
-        <v>0</v>
+        <v>247079365</v>
       </c>
       <c r="AZ104" s="11">
-        <v>244603774</v>
+        <v>232386667</v>
       </c>
       <c r="BA104" s="11">
-        <v>245634921</v>
+        <v>187056818</v>
       </c>
       <c r="BB104" s="11">
-        <v>232386667</v>
+        <v>150491935</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/zeraat/simorgh/product/monthly.xlsx
+++ b/database/industries/zeraat/simorgh/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="97">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3496,8 +3496,8 @@
       <c r="AK11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL11" s="13" t="s">
-        <v>57</v>
+      <c r="AL11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AM11" s="13" t="n">
         <v>0</v>
@@ -3512,40 +3512,40 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AS11" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>114</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="AT11" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU11" s="13" t="n">
-        <v>114</v>
-      </c>
-      <c r="AV11" s="13" t="n">
-        <v>9</v>
-      </c>
       <c r="AW11" s="13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,20 +3625,20 @@
       <c r="AA12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" s="16" t="s">
-        <v>57</v>
+      <c r="AB12" s="16" t="n">
+        <v>1625</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>1625</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>244</v>
+        <v>1163</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="16" t="n">
         <v>0</v>
@@ -3658,8 +3658,8 @@
       <c r="AL12" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" s="16" t="n">
-        <v>0</v>
+      <c r="AM12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN12" s="16" t="s">
         <v>57</v>
@@ -3713,146 +3713,146 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>57</v>
+      <c r="E13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="F13" s="13" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>273</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13" t="n">
+        <v>3366</v>
+      </c>
+      <c r="N13" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="O13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>61</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>284</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>1292</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>119</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>221</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>650</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>91</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>138</v>
+      </c>
+      <c r="AT13" s="13" t="n">
         <v>139</v>
       </c>
-      <c r="K13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>273</v>
-      </c>
-      <c r="M13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13" t="n">
-        <v>3366</v>
-      </c>
-      <c r="O13" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="P13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="V13" s="13" t="n">
-        <v>61</v>
-      </c>
-      <c r="W13" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="X13" s="13" t="n">
-        <v>284</v>
-      </c>
-      <c r="Y13" s="13" t="n">
-        <v>1292</v>
-      </c>
-      <c r="Z13" s="13" t="n">
-        <v>66</v>
-      </c>
-      <c r="AA13" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="13" t="n">
-        <v>119</v>
-      </c>
-      <c r="AI13" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ13" s="13" t="n">
-        <v>221</v>
-      </c>
-      <c r="AK13" s="13" t="n">
-        <v>650</v>
-      </c>
-      <c r="AL13" s="13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AM13" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="13" t="n">
-        <v>138</v>
-      </c>
       <c r="AU13" s="13" t="n">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>68</v>
+        <v>465</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>465</v>
+        <v>35</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="13" t="n">
         <v>0</v>
@@ -3873,154 +3873,154 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="n">
-        <v>2981</v>
+        <v>3824</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>3824</v>
+        <v>3803</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>3803</v>
+        <v>3296</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>3296</v>
+        <v>3018</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>3018</v>
+        <v>3508</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>3508</v>
+        <v>3336</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>3336</v>
+        <v>2805</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>2805</v>
+        <v>2963</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>2963</v>
+        <v>3059</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>3059</v>
+        <v>2921</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>2921</v>
+        <v>3445</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>3445</v>
+        <v>2930</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>2930</v>
+        <v>1496</v>
       </c>
       <c r="R14" s="16" t="n">
-        <v>1496</v>
+        <v>1645</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>1645</v>
+        <v>1349</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>1349</v>
+        <v>991</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>991</v>
+        <v>1042</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>1042</v>
+        <v>1227</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>1227</v>
+        <v>1334</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>1334</v>
+        <v>1904</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>1904</v>
+        <v>1080</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>1080</v>
+        <v>1283</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>1283</v>
+        <v>1707</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>1707</v>
+        <v>1923</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>1923</v>
+        <v>2389</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>2389</v>
+        <v>1998</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>1998</v>
+        <v>1918</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>1918</v>
+        <v>1644</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>1644</v>
+        <v>1539</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>1539</v>
+        <v>1747</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>1747</v>
+        <v>1149</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>1149</v>
+        <v>1315</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>1315</v>
+        <v>1546</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>1546</v>
+        <v>1638</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>1638</v>
+        <v>1854</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>1854</v>
+        <v>2423</v>
       </c>
       <c r="AO14" s="16" t="n">
         <v>2423</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>2423</v>
+        <v>1462</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>1462</v>
+        <v>1303</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>1303</v>
+        <v>1380</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>1380</v>
+        <v>1591</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>1591</v>
+        <v>1466</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>1466</v>
+        <v>879</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>879</v>
+        <v>754</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>754</v>
+        <v>1772</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>1772</v>
+        <v>1706</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>1706</v>
+        <v>2300</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>2300</v>
+        <v>2342</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>2342</v>
+        <v>2281</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>2281</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,154 +4032,154 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="n">
-        <v>8549</v>
+        <v>9275</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>9275</v>
+        <v>5947</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>5947</v>
+        <v>8803</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>8803</v>
+        <v>8151</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>8151</v>
+        <v>10954</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>10954</v>
+        <v>7599</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>7599</v>
+        <v>6974</v>
       </c>
       <c r="L15" s="13" t="n">
-        <v>6974</v>
+        <v>8489</v>
       </c>
       <c r="M15" s="13" t="n">
-        <v>8489</v>
+        <v>8861</v>
       </c>
       <c r="N15" s="13" t="n">
-        <v>8861</v>
+        <v>13966</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>13966</v>
+        <v>5096</v>
       </c>
       <c r="P15" s="13" t="n">
-        <v>5096</v>
+        <v>7227</v>
       </c>
       <c r="Q15" s="13" t="n">
-        <v>7227</v>
+        <v>5320</v>
       </c>
       <c r="R15" s="13" t="n">
-        <v>5320</v>
+        <v>4324</v>
       </c>
       <c r="S15" s="13" t="n">
-        <v>4324</v>
+        <v>6293</v>
       </c>
       <c r="T15" s="13" t="n">
-        <v>6293</v>
+        <v>5982</v>
       </c>
       <c r="U15" s="13" t="n">
-        <v>5982</v>
+        <v>4537</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>4537</v>
+        <v>4534</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>4534</v>
+        <v>7079</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>7079</v>
+        <v>9033</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>9033</v>
+        <v>8019</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>8019</v>
+        <v>13400</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>13400</v>
+        <v>4784</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>4784</v>
+        <v>5825</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>5825</v>
+        <v>4998</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>4998</v>
+        <v>8309</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>8309</v>
+        <v>4622</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>4622</v>
+        <v>5655</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>5655</v>
+        <v>5902</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>5902</v>
+        <v>5281</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>5281</v>
+        <v>6437</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>6437</v>
+        <v>5880</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>5880</v>
+        <v>5620</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>5620</v>
+        <v>8209</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>8209</v>
+        <v>4779</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>4779</v>
+        <v>5435</v>
       </c>
       <c r="AO15" s="13" t="n">
         <v>5435</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>5435</v>
+        <v>4354</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>4354</v>
+        <v>6108</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>6108</v>
+        <v>11809</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>11809</v>
+        <v>3948</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>3948</v>
+        <v>7747</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>7747</v>
+        <v>5848</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>5848</v>
+        <v>5357</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>5357</v>
+        <v>5789</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>5789</v>
+        <v>12023</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>12023</v>
+        <v>4310</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>4310</v>
+        <v>4702</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>4702</v>
+        <v>6417</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>6417</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,154 +4191,154 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>4732</v>
+        <v>4268</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>4268</v>
+        <v>4709</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>4709</v>
+        <v>5126</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>5126</v>
+        <v>5055</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>5055</v>
+        <v>6685</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>6685</v>
+        <v>5800</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>5800</v>
+        <v>6268</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>6268</v>
+        <v>6286</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>6286</v>
+        <v>6162</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>6162</v>
+        <v>6107</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>6107</v>
+        <v>5831</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>5831</v>
+        <v>5752</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>5752</v>
+        <v>4986</v>
       </c>
       <c r="R16" s="16" t="n">
-        <v>4986</v>
+        <v>5463</v>
       </c>
       <c r="S16" s="16" t="n">
-        <v>5463</v>
+        <v>5326</v>
       </c>
       <c r="T16" s="16" t="n">
-        <v>5326</v>
+        <v>5064</v>
       </c>
       <c r="U16" s="16" t="n">
-        <v>5064</v>
+        <v>4922</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>4922</v>
+        <v>4580</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>4580</v>
+        <v>4790</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>4790</v>
+        <v>4801</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>4801</v>
+        <v>4477</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>4477</v>
+        <v>4951</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>4951</v>
+        <v>4940</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>4940</v>
+        <v>4975</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>4975</v>
+        <v>4669</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>4669</v>
+        <v>5074</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>5074</v>
+        <v>5603</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>5603</v>
+        <v>5818</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>5818</v>
+        <v>6082</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>6082</v>
+        <v>6338</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>6338</v>
+        <v>6747</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>6747</v>
+        <v>6681</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>6681</v>
+        <v>6701</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>6701</v>
+        <v>6215</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>6215</v>
+        <v>6354</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>6354</v>
+        <v>5667</v>
       </c>
       <c r="AO16" s="16" t="n">
         <v>5667</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>5667</v>
+        <v>5212</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>5212</v>
+        <v>4545</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>4545</v>
+        <v>4315</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>4315</v>
+        <v>4609</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>4609</v>
+        <v>4830</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>4830</v>
+        <v>5217</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>5217</v>
+        <v>5162</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>5162</v>
+        <v>5039</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>5039</v>
+        <v>4905</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>4905</v>
+        <v>4866</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>4866</v>
+        <v>5366</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>5366</v>
+        <v>5623</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>5623</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,154 +4350,154 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="n">
-        <v>2153</v>
+        <v>2379</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>2379</v>
+        <v>2099</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>2099</v>
+        <v>2710</v>
       </c>
       <c r="H17" s="13" t="n">
-        <v>2710</v>
+        <v>2603</v>
       </c>
       <c r="I17" s="13" t="n">
-        <v>2603</v>
+        <v>1882</v>
       </c>
       <c r="J17" s="13" t="n">
-        <v>1882</v>
+        <v>1818</v>
       </c>
       <c r="K17" s="13" t="n">
-        <v>1818</v>
+        <v>1983</v>
       </c>
       <c r="L17" s="13" t="n">
-        <v>1983</v>
+        <v>1532</v>
       </c>
       <c r="M17" s="13" t="n">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="N17" s="13" t="n">
-        <v>1525</v>
+        <v>1354</v>
       </c>
       <c r="O17" s="13" t="n">
-        <v>1354</v>
+        <v>1100</v>
       </c>
       <c r="P17" s="13" t="n">
+        <v>930</v>
+      </c>
+      <c r="Q17" s="13" t="n">
         <v>1100</v>
       </c>
-      <c r="Q17" s="13" t="n">
-        <v>930</v>
-      </c>
       <c r="R17" s="13" t="n">
-        <v>1100</v>
+        <v>1427</v>
       </c>
       <c r="S17" s="13" t="n">
-        <v>1427</v>
+        <v>1942</v>
       </c>
       <c r="T17" s="13" t="n">
-        <v>1942</v>
+        <v>1570</v>
       </c>
       <c r="U17" s="13" t="n">
-        <v>1570</v>
+        <v>1845</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>1845</v>
+        <v>1549</v>
       </c>
       <c r="W17" s="13" t="n">
+        <v>795</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>208</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>946</v>
+      </c>
+      <c r="AB17" s="13" t="n">
         <v>1549</v>
       </c>
-      <c r="X17" s="13" t="n">
-        <v>795</v>
-      </c>
-      <c r="Y17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="13" t="n">
-        <v>208</v>
-      </c>
-      <c r="AA17" s="13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AB17" s="13" t="n">
-        <v>946</v>
-      </c>
       <c r="AC17" s="13" t="n">
-        <v>1549</v>
+        <v>1213</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>1213</v>
+        <v>1325</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>1325</v>
+        <v>1577</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>1577</v>
+        <v>1758</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>1758</v>
+        <v>1683</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>1683</v>
+        <v>1784</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>1791</v>
+        <v>1511</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>1511</v>
+        <v>1695</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>1695</v>
+        <v>1406</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>1406</v>
+        <v>1105</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>1105</v>
+        <v>1434</v>
       </c>
       <c r="AO17" s="13" t="n">
         <v>1434</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>1434</v>
+        <v>2084</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>2084</v>
+        <v>2012</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>2012</v>
+        <v>1333</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>1333</v>
+        <v>241</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>241</v>
+        <v>1208</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>1208</v>
+        <v>750</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>750</v>
+        <v>943</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>943</v>
+        <v>1227</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>1227</v>
+        <v>1008</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>1008</v>
+        <v>507</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>507</v>
+        <v>212</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>180</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,73 +4509,73 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="n">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="F18" s="16" t="n">
+        <v>92</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="H18" s="16" t="n">
+        <v>42</v>
+      </c>
+      <c r="I18" s="16" t="n">
         <v>163</v>
       </c>
-      <c r="G18" s="16" t="n">
-        <v>92</v>
-      </c>
-      <c r="H18" s="16" t="n">
-        <v>63</v>
-      </c>
-      <c r="I18" s="16" t="n">
+      <c r="J18" s="16" t="n">
+        <v>68</v>
+      </c>
+      <c r="K18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <v>150</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <v>118</v>
+      </c>
+      <c r="N18" s="16" t="n">
+        <v>178</v>
+      </c>
+      <c r="O18" s="16" t="n">
+        <v>112</v>
+      </c>
+      <c r="P18" s="16" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="16" t="n">
+        <v>165</v>
+      </c>
+      <c r="R18" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="S18" s="16" t="n">
+        <v>119</v>
+      </c>
+      <c r="T18" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="U18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="J18" s="16" t="n">
-        <v>163</v>
-      </c>
-      <c r="K18" s="16" t="n">
-        <v>68</v>
-      </c>
-      <c r="L18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="16" t="n">
-        <v>150</v>
-      </c>
-      <c r="N18" s="16" t="n">
-        <v>118</v>
-      </c>
-      <c r="O18" s="16" t="n">
-        <v>178</v>
-      </c>
-      <c r="P18" s="16" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q18" s="16" t="n">
-        <v>131</v>
-      </c>
-      <c r="R18" s="16" t="n">
-        <v>165</v>
-      </c>
-      <c r="S18" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="T18" s="16" t="n">
-        <v>119</v>
-      </c>
-      <c r="U18" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="V18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="16" t="n">
-        <v>41</v>
-      </c>
       <c r="AA18" s="16" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="16" t="n">
         <v>0</v>
@@ -4587,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="16" t="n">
         <v>0</v>
@@ -4599,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="16" t="n">
         <v>0</v>
@@ -4611,19 +4611,19 @@
         <v>0</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="16" t="n">
         <v>0</v>
@@ -4632,16 +4632,16 @@
         <v>0</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="16" t="n">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>0</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,8 +4769,8 @@
       <c r="AL19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM19" s="13" t="s">
-        <v>57</v>
+      <c r="AM19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN19" s="13" t="n">
         <v>0</v>
@@ -4805,8 +4805,8 @@
       <c r="AX19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY19" s="13" t="n">
-        <v>0</v>
+      <c r="AY19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ19" s="13" t="s">
         <v>57</v>
@@ -4928,8 +4928,8 @@
       <c r="AL20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM20" s="16" t="s">
-        <v>57</v>
+      <c r="AM20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN20" s="16" t="n">
         <v>0</v>
@@ -4964,8 +4964,8 @@
       <c r="AX20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY20" s="16" t="n">
-        <v>0</v>
+      <c r="AY20" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ20" s="16" t="s">
         <v>57</v>
@@ -4986,154 +4986,154 @@
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="n">
-        <v>905</v>
+        <v>929</v>
       </c>
       <c r="F21" s="13" t="n">
-        <v>929</v>
+        <v>680</v>
       </c>
       <c r="G21" s="13" t="n">
-        <v>680</v>
+        <v>361</v>
       </c>
       <c r="H21" s="13" t="n">
-        <v>361</v>
+        <v>647</v>
       </c>
       <c r="I21" s="13" t="n">
-        <v>647</v>
+        <v>291</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>291</v>
+        <v>698</v>
       </c>
       <c r="K21" s="13" t="n">
-        <v>698</v>
+        <v>604</v>
       </c>
       <c r="L21" s="13" t="n">
-        <v>604</v>
+        <v>488</v>
       </c>
       <c r="M21" s="13" t="n">
+        <v>480</v>
+      </c>
+      <c r="N21" s="13" t="n">
+        <v>510</v>
+      </c>
+      <c r="O21" s="13" t="n">
+        <v>466</v>
+      </c>
+      <c r="P21" s="13" t="n">
+        <v>430</v>
+      </c>
+      <c r="Q21" s="13" t="n">
+        <v>322</v>
+      </c>
+      <c r="R21" s="13" t="n">
+        <v>348</v>
+      </c>
+      <c r="S21" s="13" t="n">
+        <v>285</v>
+      </c>
+      <c r="T21" s="13" t="n">
+        <v>357</v>
+      </c>
+      <c r="U21" s="13" t="n">
+        <v>399</v>
+      </c>
+      <c r="V21" s="13" t="n">
+        <v>352</v>
+      </c>
+      <c r="W21" s="13" t="n">
+        <v>404</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <v>332</v>
+      </c>
+      <c r="Y21" s="13" t="n">
+        <v>355</v>
+      </c>
+      <c r="Z21" s="13" t="n">
+        <v>484</v>
+      </c>
+      <c r="AA21" s="13" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB21" s="13" t="n">
         <v>488</v>
       </c>
-      <c r="N21" s="13" t="n">
-        <v>480</v>
-      </c>
-      <c r="O21" s="13" t="n">
-        <v>510</v>
-      </c>
-      <c r="P21" s="13" t="n">
-        <v>466</v>
-      </c>
-      <c r="Q21" s="13" t="n">
-        <v>430</v>
-      </c>
-      <c r="R21" s="13" t="n">
-        <v>322</v>
-      </c>
-      <c r="S21" s="13" t="n">
+      <c r="AC21" s="13" t="n">
+        <v>406</v>
+      </c>
+      <c r="AD21" s="13" t="n">
+        <v>382</v>
+      </c>
+      <c r="AE21" s="13" t="n">
+        <v>360</v>
+      </c>
+      <c r="AF21" s="13" t="n">
         <v>348</v>
       </c>
-      <c r="T21" s="13" t="n">
-        <v>285</v>
-      </c>
-      <c r="U21" s="13" t="n">
-        <v>357</v>
-      </c>
-      <c r="V21" s="13" t="n">
-        <v>399</v>
-      </c>
-      <c r="W21" s="13" t="n">
-        <v>352</v>
-      </c>
-      <c r="X21" s="13" t="n">
-        <v>404</v>
-      </c>
-      <c r="Y21" s="13" t="n">
-        <v>332</v>
-      </c>
-      <c r="Z21" s="13" t="n">
-        <v>355</v>
-      </c>
-      <c r="AA21" s="13" t="n">
-        <v>484</v>
-      </c>
-      <c r="AB21" s="13" t="n">
-        <v>480</v>
-      </c>
-      <c r="AC21" s="13" t="n">
-        <v>488</v>
-      </c>
-      <c r="AD21" s="13" t="n">
-        <v>406</v>
-      </c>
-      <c r="AE21" s="13" t="n">
-        <v>382</v>
-      </c>
-      <c r="AF21" s="13" t="n">
-        <v>360</v>
-      </c>
       <c r="AG21" s="13" t="n">
-        <v>348</v>
+        <v>468</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>477</v>
+        <v>378</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="AL21" s="13" t="n">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>569</v>
+        <v>422</v>
       </c>
       <c r="AO21" s="13" t="n">
         <v>422</v>
       </c>
       <c r="AP21" s="13" t="n">
-        <v>422</v>
+        <v>517</v>
       </c>
       <c r="AQ21" s="13" t="n">
-        <v>517</v>
+        <v>299</v>
       </c>
       <c r="AR21" s="13" t="n">
-        <v>299</v>
+        <v>559</v>
       </c>
       <c r="AS21" s="13" t="n">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="AT21" s="13" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AU21" s="13" t="n">
-        <v>524</v>
+        <v>414</v>
       </c>
       <c r="AV21" s="13" t="n">
-        <v>414</v>
+        <v>312</v>
       </c>
       <c r="AW21" s="13" t="n">
-        <v>312</v>
+        <v>599</v>
       </c>
       <c r="AX21" s="13" t="n">
-        <v>599</v>
+        <v>473</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="AZ21" s="13" t="n">
-        <v>352</v>
+        <v>554</v>
       </c>
       <c r="BA21" s="13" t="n">
-        <v>554</v>
+        <v>364</v>
       </c>
       <c r="BB21" s="13" t="n">
-        <v>364</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,8 +5246,8 @@
       <c r="AL22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM22" s="16" t="s">
-        <v>57</v>
+      <c r="AM22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN22" s="16" t="n">
         <v>0</v>
@@ -5282,8 +5282,8 @@
       <c r="AX22" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY22" s="16" t="n">
-        <v>0</v>
+      <c r="AY22" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ22" s="16" t="s">
         <v>57</v>
@@ -5405,8 +5405,8 @@
       <c r="AL23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM23" s="13" t="s">
-        <v>57</v>
+      <c r="AM23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN23" s="13" t="n">
         <v>0</v>
@@ -5441,8 +5441,8 @@
       <c r="AX23" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY23" s="13" t="n">
-        <v>0</v>
+      <c r="AY23" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ23" s="13" t="s">
         <v>57</v>
@@ -5564,8 +5564,8 @@
       <c r="AL24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM24" s="16" t="s">
-        <v>57</v>
+      <c r="AM24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN24" s="16" t="n">
         <v>0</v>
@@ -5600,8 +5600,8 @@
       <c r="AX24" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY24" s="16" t="n">
-        <v>0</v>
+      <c r="AY24" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ24" s="16" t="s">
         <v>57</v>
@@ -5742,8 +5742,8 @@
       <c r="Z26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA26" s="20" t="s">
-        <v>57</v>
+      <c r="AA26" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB26" s="20" t="n">
         <v>0</v>
@@ -5787,8 +5787,8 @@
       <c r="AO26" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AP26" s="20" t="n">
-        <v>0</v>
+      <c r="AP26" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AQ26" s="20" t="s">
         <v>57</v>
@@ -5834,154 +5834,154 @@
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="n">
-        <v>19400</v>
+        <v>20838</v>
       </c>
       <c r="F27" s="22" t="n">
-        <v>20838</v>
+        <v>17330</v>
       </c>
       <c r="G27" s="22" t="n">
-        <v>17330</v>
+        <v>20375</v>
       </c>
       <c r="H27" s="22" t="n">
-        <v>20375</v>
+        <v>19516</v>
       </c>
       <c r="I27" s="22" t="n">
-        <v>19516</v>
+        <v>23622</v>
       </c>
       <c r="J27" s="22" t="n">
-        <v>23622</v>
+        <v>19319</v>
       </c>
       <c r="K27" s="22" t="n">
-        <v>19319</v>
+        <v>18907</v>
       </c>
       <c r="L27" s="22" t="n">
-        <v>18907</v>
+        <v>19908</v>
       </c>
       <c r="M27" s="22" t="n">
-        <v>19908</v>
+        <v>23571</v>
       </c>
       <c r="N27" s="22" t="n">
-        <v>23571</v>
+        <v>25060</v>
       </c>
       <c r="O27" s="22" t="n">
-        <v>25060</v>
+        <v>16050</v>
       </c>
       <c r="P27" s="22" t="n">
-        <v>16050</v>
+        <v>17401</v>
       </c>
       <c r="Q27" s="22" t="n">
-        <v>17401</v>
+        <v>13389</v>
       </c>
       <c r="R27" s="22" t="n">
-        <v>13389</v>
+        <v>13307</v>
       </c>
       <c r="S27" s="22" t="n">
-        <v>13307</v>
+        <v>15314</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>15314</v>
+        <v>13991</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>13991</v>
+        <v>12806</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>12806</v>
+        <v>12282</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>12282</v>
+        <v>14686</v>
       </c>
       <c r="X27" s="22" t="n">
-        <v>14686</v>
+        <v>17362</v>
       </c>
       <c r="Y27" s="22" t="n">
-        <v>17362</v>
+        <v>14246</v>
       </c>
       <c r="Z27" s="22" t="n">
-        <v>14246</v>
+        <v>20416</v>
       </c>
       <c r="AA27" s="22" t="n">
-        <v>20416</v>
+        <v>12857</v>
       </c>
       <c r="AB27" s="22" t="n">
-        <v>12857</v>
+        <v>16386</v>
       </c>
       <c r="AC27" s="22" t="n">
-        <v>16386</v>
+        <v>13784</v>
       </c>
       <c r="AD27" s="22" t="n">
-        <v>13784</v>
+        <v>17336</v>
       </c>
       <c r="AE27" s="22" t="n">
-        <v>17336</v>
+        <v>15273</v>
       </c>
       <c r="AF27" s="22" t="n">
-        <v>15273</v>
+        <v>15223</v>
       </c>
       <c r="AG27" s="22" t="n">
-        <v>15223</v>
+        <v>15793</v>
       </c>
       <c r="AH27" s="22" t="n">
-        <v>15793</v>
+        <v>15669</v>
       </c>
       <c r="AI27" s="22" t="n">
-        <v>15669</v>
+        <v>17020</v>
       </c>
       <c r="AJ27" s="22" t="n">
-        <v>17020</v>
+        <v>16415</v>
       </c>
       <c r="AK27" s="22" t="n">
-        <v>16415</v>
+        <v>16150</v>
       </c>
       <c r="AL27" s="22" t="n">
-        <v>16150</v>
+        <v>18014</v>
       </c>
       <c r="AM27" s="22" t="n">
-        <v>18014</v>
+        <v>14732</v>
       </c>
       <c r="AN27" s="22" t="n">
-        <v>14732</v>
+        <v>15381</v>
       </c>
       <c r="AO27" s="22" t="n">
         <v>15381</v>
       </c>
       <c r="AP27" s="22" t="n">
-        <v>15381</v>
+        <v>13657</v>
       </c>
       <c r="AQ27" s="22" t="n">
-        <v>13657</v>
+        <v>14271</v>
       </c>
       <c r="AR27" s="22" t="n">
-        <v>14271</v>
+        <v>19406</v>
       </c>
       <c r="AS27" s="22" t="n">
-        <v>19406</v>
+        <v>11053</v>
       </c>
       <c r="AT27" s="22" t="n">
-        <v>11053</v>
+        <v>16058</v>
       </c>
       <c r="AU27" s="22" t="n">
-        <v>16058</v>
+        <v>13200</v>
       </c>
       <c r="AV27" s="22" t="n">
-        <v>13200</v>
+        <v>13008</v>
       </c>
       <c r="AW27" s="22" t="n">
-        <v>13008</v>
+        <v>14469</v>
       </c>
       <c r="AX27" s="22" t="n">
-        <v>14469</v>
+        <v>20179</v>
       </c>
       <c r="AY27" s="22" t="n">
-        <v>20179</v>
+        <v>12335</v>
       </c>
       <c r="AZ27" s="22" t="n">
-        <v>12335</v>
+        <v>13236</v>
       </c>
       <c r="BA27" s="22" t="n">
-        <v>13236</v>
+        <v>15025</v>
       </c>
       <c r="BB27" s="22" t="n">
-        <v>15025</v>
+        <v>17397</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6525,8 +6525,8 @@
       <c r="AK34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL34" s="13" t="s">
-        <v>57</v>
+      <c r="AL34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AM34" s="13" t="n">
         <v>0</v>
@@ -6541,40 +6541,40 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR34" s="13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AS34" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT34" s="13" t="n">
+        <v>114</v>
+      </c>
+      <c r="AU34" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV34" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="AT34" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU34" s="13" t="n">
-        <v>114</v>
-      </c>
-      <c r="AV34" s="13" t="n">
-        <v>9</v>
-      </c>
       <c r="AW34" s="13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX34" s="13" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="AY34" s="13" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,20 +6654,20 @@
       <c r="AA35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AB35" s="16" t="s">
-        <v>57</v>
+      <c r="AB35" s="16" t="n">
+        <v>1625</v>
       </c>
       <c r="AC35" s="16" t="n">
-        <v>1625</v>
+        <v>109</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="AE35" s="16" t="n">
-        <v>244</v>
+        <v>1163</v>
       </c>
       <c r="AF35" s="16" t="n">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="16" t="n">
         <v>0</v>
@@ -6687,8 +6687,8 @@
       <c r="AL35" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AM35" s="16" t="n">
-        <v>0</v>
+      <c r="AM35" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN35" s="16" t="s">
         <v>57</v>
@@ -6742,155 +6742,155 @@
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="13" t="s">
-        <v>57</v>
+      <c r="E36" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36" s="13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H36" s="13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I36" s="13" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J36" s="13" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="K36" s="13" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="L36" s="13" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="M36" s="13" t="n">
-        <v>0</v>
+        <v>3256</v>
       </c>
       <c r="N36" s="13" t="n">
-        <v>3256</v>
+        <v>60</v>
       </c>
       <c r="O36" s="13" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P36" s="13" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="Q36" s="13" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R36" s="13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S36" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T36" s="13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U36" s="13" t="n">
+        <v>61</v>
+      </c>
+      <c r="V36" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="W36" s="13" t="n">
+        <v>242</v>
+      </c>
+      <c r="X36" s="13" t="n">
+        <v>1258</v>
+      </c>
+      <c r="Y36" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z36" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE36" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="V36" s="13" t="n">
-        <v>61</v>
-      </c>
-      <c r="W36" s="13" t="n">
-        <v>77</v>
-      </c>
-      <c r="X36" s="13" t="n">
-        <v>242</v>
-      </c>
-      <c r="Y36" s="13" t="n">
-        <v>1258</v>
-      </c>
-      <c r="Z36" s="13" t="n">
+      <c r="AF36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="13" t="n">
+        <v>119</v>
+      </c>
+      <c r="AH36" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI36" s="13" t="n">
+        <v>128</v>
+      </c>
+      <c r="AJ36" s="13" t="n">
+        <v>590</v>
+      </c>
+      <c r="AK36" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AL36" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="AA36" s="13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB36" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD36" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF36" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG36" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="13" t="n">
+      <c r="AM36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="13" t="n">
         <v>119</v>
-      </c>
-      <c r="AI36" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ36" s="13" t="n">
-        <v>128</v>
-      </c>
-      <c r="AK36" s="13" t="n">
-        <v>590</v>
-      </c>
-      <c r="AL36" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="AM36" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="AN36" s="13" t="n">
-        <v>0</v>
       </c>
       <c r="AO36" s="13" t="n">
         <v>119</v>
       </c>
       <c r="AP36" s="13" t="n">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="AQ36" s="13" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AR36" s="13" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AS36" s="13" t="n">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="AT36" s="13" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AU36" s="13" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="AV36" s="13" t="n">
-        <v>18</v>
+        <v>430</v>
       </c>
       <c r="AW36" s="13" t="n">
-        <v>430</v>
+        <v>38</v>
       </c>
       <c r="AX36" s="13" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AY36" s="13" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AZ36" s="13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA36" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB36" s="13" t="n">
         <v>10</v>
-      </c>
-      <c r="BB36" s="13" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,154 +6902,154 @@
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16" t="n">
-        <v>382</v>
+        <v>701</v>
       </c>
       <c r="F37" s="16" t="n">
-        <v>701</v>
+        <v>284</v>
       </c>
       <c r="G37" s="16" t="n">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="H37" s="16" t="n">
-        <v>371</v>
+        <v>155</v>
       </c>
       <c r="I37" s="16" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="J37" s="16" t="n">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="K37" s="16" t="n">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="L37" s="16" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="M37" s="16" t="n">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="N37" s="16" t="n">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="O37" s="16" t="n">
-        <v>211</v>
+        <v>373</v>
       </c>
       <c r="P37" s="16" t="n">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="Q37" s="16" t="n">
-        <v>313</v>
+        <v>619</v>
       </c>
       <c r="R37" s="16" t="n">
-        <v>619</v>
+        <v>820</v>
       </c>
       <c r="S37" s="16" t="n">
-        <v>820</v>
+        <v>416</v>
       </c>
       <c r="T37" s="16" t="n">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="U37" s="16" t="n">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="V37" s="16" t="n">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="W37" s="16" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="X37" s="16" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Y37" s="16" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Z37" s="16" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AA37" s="16" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AB37" s="16" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AC37" s="16" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AD37" s="16" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AE37" s="16" t="n">
+        <v>94</v>
+      </c>
+      <c r="AF37" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="AG37" s="16" t="n">
+        <v>104</v>
+      </c>
+      <c r="AH37" s="16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AI37" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="AF37" s="16" t="n">
-        <v>94</v>
-      </c>
-      <c r="AG37" s="16" t="n">
-        <v>59</v>
-      </c>
-      <c r="AH37" s="16" t="n">
-        <v>104</v>
-      </c>
-      <c r="AI37" s="16" t="n">
-        <v>53</v>
-      </c>
       <c r="AJ37" s="16" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="AK37" s="16" t="n">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AL37" s="16" t="n">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="AM37" s="16" t="n">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="AN37" s="16" t="n">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="AO37" s="16" t="n">
         <v>126</v>
       </c>
       <c r="AP37" s="16" t="n">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="AQ37" s="16" t="n">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="AR37" s="16" t="n">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="AS37" s="16" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AT37" s="16" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AU37" s="16" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AV37" s="16" t="n">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="AW37" s="16" t="n">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="AX37" s="16" t="n">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="AY37" s="16" t="n">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="AZ37" s="16" t="n">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>201</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7061,154 +7061,154 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="n">
-        <v>9001</v>
+        <v>9330</v>
       </c>
       <c r="F38" s="13" t="n">
-        <v>9330</v>
+        <v>6501</v>
       </c>
       <c r="G38" s="13" t="n">
-        <v>6501</v>
+        <v>8997</v>
       </c>
       <c r="H38" s="13" t="n">
-        <v>8997</v>
+        <v>8128</v>
       </c>
       <c r="I38" s="13" t="n">
-        <v>8128</v>
+        <v>13469</v>
       </c>
       <c r="J38" s="13" t="n">
-        <v>13469</v>
+        <v>7909</v>
       </c>
       <c r="K38" s="13" t="n">
-        <v>7909</v>
+        <v>6974</v>
       </c>
       <c r="L38" s="13" t="n">
-        <v>6974</v>
+        <v>8319</v>
       </c>
       <c r="M38" s="13" t="n">
-        <v>8319</v>
+        <v>8666</v>
       </c>
       <c r="N38" s="13" t="n">
-        <v>8666</v>
+        <v>9995</v>
       </c>
       <c r="O38" s="13" t="n">
-        <v>9995</v>
+        <v>5096</v>
       </c>
       <c r="P38" s="13" t="n">
-        <v>5096</v>
+        <v>6996</v>
       </c>
       <c r="Q38" s="13" t="n">
-        <v>6996</v>
+        <v>5086</v>
       </c>
       <c r="R38" s="13" t="n">
-        <v>5086</v>
+        <v>4089</v>
       </c>
       <c r="S38" s="13" t="n">
-        <v>4089</v>
+        <v>6065</v>
       </c>
       <c r="T38" s="13" t="n">
-        <v>6065</v>
+        <v>5766</v>
       </c>
       <c r="U38" s="13" t="n">
-        <v>5766</v>
+        <v>4277</v>
       </c>
       <c r="V38" s="13" t="n">
-        <v>4277</v>
+        <v>4308</v>
       </c>
       <c r="W38" s="13" t="n">
-        <v>4308</v>
+        <v>6858</v>
       </c>
       <c r="X38" s="13" t="n">
-        <v>6858</v>
+        <v>8831</v>
       </c>
       <c r="Y38" s="13" t="n">
-        <v>8831</v>
+        <v>7789</v>
       </c>
       <c r="Z38" s="13" t="n">
-        <v>7789</v>
+        <v>9363</v>
       </c>
       <c r="AA38" s="13" t="n">
-        <v>9363</v>
+        <v>4583</v>
       </c>
       <c r="AB38" s="13" t="n">
-        <v>4583</v>
+        <v>6039</v>
       </c>
       <c r="AC38" s="13" t="n">
-        <v>6039</v>
+        <v>7333</v>
       </c>
       <c r="AD38" s="13" t="n">
-        <v>7333</v>
+        <v>9209</v>
       </c>
       <c r="AE38" s="13" t="n">
-        <v>9209</v>
+        <v>4504</v>
       </c>
       <c r="AF38" s="13" t="n">
-        <v>4504</v>
+        <v>5452</v>
       </c>
       <c r="AG38" s="13" t="n">
-        <v>5452</v>
+        <v>5674</v>
       </c>
       <c r="AH38" s="13" t="n">
-        <v>5674</v>
+        <v>5052</v>
       </c>
       <c r="AI38" s="13" t="n">
-        <v>5052</v>
+        <v>6215</v>
       </c>
       <c r="AJ38" s="13" t="n">
-        <v>6215</v>
+        <v>5661</v>
       </c>
       <c r="AK38" s="13" t="n">
-        <v>5661</v>
+        <v>5396</v>
       </c>
       <c r="AL38" s="13" t="n">
-        <v>5396</v>
+        <v>8097</v>
       </c>
       <c r="AM38" s="13" t="n">
-        <v>8097</v>
+        <v>4636</v>
       </c>
       <c r="AN38" s="13" t="n">
-        <v>4636</v>
+        <v>5678</v>
       </c>
       <c r="AO38" s="13" t="n">
         <v>5678</v>
       </c>
       <c r="AP38" s="13" t="n">
-        <v>5678</v>
+        <v>4126</v>
       </c>
       <c r="AQ38" s="13" t="n">
-        <v>4126</v>
+        <v>5874</v>
       </c>
       <c r="AR38" s="13" t="n">
-        <v>5874</v>
+        <v>11586</v>
       </c>
       <c r="AS38" s="13" t="n">
-        <v>11586</v>
+        <v>3695</v>
       </c>
       <c r="AT38" s="13" t="n">
-        <v>3695</v>
+        <v>7498</v>
       </c>
       <c r="AU38" s="13" t="n">
-        <v>7498</v>
+        <v>5631</v>
       </c>
       <c r="AV38" s="13" t="n">
-        <v>5631</v>
+        <v>7783</v>
       </c>
       <c r="AW38" s="13" t="n">
-        <v>7783</v>
+        <v>7649</v>
       </c>
       <c r="AX38" s="13" t="n">
-        <v>7649</v>
+        <v>11569</v>
       </c>
       <c r="AY38" s="13" t="n">
-        <v>11569</v>
+        <v>4202</v>
       </c>
       <c r="AZ38" s="13" t="n">
-        <v>4202</v>
+        <v>4471</v>
       </c>
       <c r="BA38" s="13" t="n">
-        <v>4471</v>
+        <v>6159</v>
       </c>
       <c r="BB38" s="13" t="n">
-        <v>6159</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7220,154 +7220,154 @@
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16" t="n">
-        <v>5399</v>
+        <v>4397</v>
       </c>
       <c r="F39" s="16" t="n">
-        <v>4397</v>
+        <v>4540</v>
       </c>
       <c r="G39" s="16" t="n">
-        <v>4540</v>
+        <v>5349</v>
       </c>
       <c r="H39" s="16" t="n">
-        <v>5349</v>
+        <v>5636</v>
       </c>
       <c r="I39" s="16" t="n">
-        <v>5636</v>
+        <v>5299</v>
       </c>
       <c r="J39" s="16" t="n">
-        <v>5299</v>
+        <v>5771</v>
       </c>
       <c r="K39" s="16" t="n">
-        <v>5771</v>
+        <v>5776</v>
       </c>
       <c r="L39" s="16" t="n">
-        <v>5776</v>
+        <v>6234</v>
       </c>
       <c r="M39" s="16" t="n">
-        <v>6234</v>
+        <v>5939</v>
       </c>
       <c r="N39" s="16" t="n">
-        <v>5939</v>
+        <v>6544</v>
       </c>
       <c r="O39" s="16" t="n">
-        <v>6544</v>
+        <v>5066</v>
       </c>
       <c r="P39" s="16" t="n">
-        <v>5066</v>
+        <v>6325</v>
       </c>
       <c r="Q39" s="16" t="n">
-        <v>6325</v>
+        <v>4903</v>
       </c>
       <c r="R39" s="16" t="n">
-        <v>4903</v>
+        <v>5108</v>
       </c>
       <c r="S39" s="16" t="n">
-        <v>5108</v>
+        <v>5312</v>
       </c>
       <c r="T39" s="16" t="n">
-        <v>5312</v>
+        <v>5156</v>
       </c>
       <c r="U39" s="16" t="n">
-        <v>5156</v>
+        <v>4731</v>
       </c>
       <c r="V39" s="16" t="n">
-        <v>4731</v>
+        <v>5608</v>
       </c>
       <c r="W39" s="16" t="n">
-        <v>5608</v>
+        <v>4869</v>
       </c>
       <c r="X39" s="16" t="n">
-        <v>4869</v>
+        <v>4815</v>
       </c>
       <c r="Y39" s="16" t="n">
-        <v>4815</v>
+        <v>4608</v>
       </c>
       <c r="Z39" s="16" t="n">
-        <v>4608</v>
+        <v>4947</v>
       </c>
       <c r="AA39" s="16" t="n">
-        <v>4947</v>
+        <v>5422</v>
       </c>
       <c r="AB39" s="16" t="n">
-        <v>5422</v>
+        <v>5089</v>
       </c>
       <c r="AC39" s="16" t="n">
-        <v>5089</v>
+        <v>4699</v>
       </c>
       <c r="AD39" s="16" t="n">
-        <v>4699</v>
+        <v>4734</v>
       </c>
       <c r="AE39" s="16" t="n">
-        <v>4734</v>
+        <v>5849</v>
       </c>
       <c r="AF39" s="16" t="n">
-        <v>5849</v>
+        <v>6095</v>
       </c>
       <c r="AG39" s="16" t="n">
-        <v>6095</v>
+        <v>5933</v>
       </c>
       <c r="AH39" s="16" t="n">
-        <v>5933</v>
+        <v>6295</v>
       </c>
       <c r="AI39" s="16" t="n">
-        <v>6295</v>
+        <v>6928</v>
       </c>
       <c r="AJ39" s="16" t="n">
-        <v>6928</v>
+        <v>6374</v>
       </c>
       <c r="AK39" s="16" t="n">
-        <v>6374</v>
+        <v>6697</v>
       </c>
       <c r="AL39" s="16" t="n">
-        <v>6697</v>
+        <v>6458</v>
       </c>
       <c r="AM39" s="16" t="n">
-        <v>6458</v>
+        <v>6204</v>
       </c>
       <c r="AN39" s="16" t="n">
-        <v>6204</v>
+        <v>5822</v>
       </c>
       <c r="AO39" s="16" t="n">
         <v>5822</v>
       </c>
       <c r="AP39" s="16" t="n">
-        <v>5822</v>
+        <v>5109</v>
       </c>
       <c r="AQ39" s="16" t="n">
-        <v>5109</v>
+        <v>4303</v>
       </c>
       <c r="AR39" s="16" t="n">
-        <v>4303</v>
+        <v>4737</v>
       </c>
       <c r="AS39" s="16" t="n">
-        <v>4737</v>
+        <v>4389</v>
       </c>
       <c r="AT39" s="16" t="n">
-        <v>4389</v>
+        <v>4768</v>
       </c>
       <c r="AU39" s="16" t="n">
-        <v>4768</v>
+        <v>5274</v>
       </c>
       <c r="AV39" s="16" t="n">
-        <v>5274</v>
+        <v>4918</v>
       </c>
       <c r="AW39" s="16" t="n">
-        <v>4918</v>
+        <v>5125</v>
       </c>
       <c r="AX39" s="16" t="n">
-        <v>5125</v>
+        <v>4959</v>
       </c>
       <c r="AY39" s="16" t="n">
-        <v>4959</v>
+        <v>4551</v>
       </c>
       <c r="AZ39" s="16" t="n">
-        <v>4551</v>
+        <v>5270</v>
       </c>
       <c r="BA39" s="16" t="n">
-        <v>5270</v>
+        <v>5933</v>
       </c>
       <c r="BB39" s="16" t="n">
-        <v>5933</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,154 +7379,154 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="n">
-        <v>2721</v>
+        <v>2446</v>
       </c>
       <c r="F40" s="13" t="n">
-        <v>2446</v>
+        <v>1542</v>
       </c>
       <c r="G40" s="13" t="n">
-        <v>1542</v>
+        <v>3144</v>
       </c>
       <c r="H40" s="13" t="n">
-        <v>3144</v>
+        <v>2866</v>
       </c>
       <c r="I40" s="13" t="n">
-        <v>2866</v>
+        <v>1629</v>
       </c>
       <c r="J40" s="13" t="n">
-        <v>1629</v>
+        <v>1870</v>
       </c>
       <c r="K40" s="13" t="n">
-        <v>1870</v>
+        <v>2243</v>
       </c>
       <c r="L40" s="13" t="n">
-        <v>2243</v>
+        <v>1227</v>
       </c>
       <c r="M40" s="13" t="n">
-        <v>1227</v>
+        <v>1670</v>
       </c>
       <c r="N40" s="13" t="n">
-        <v>1670</v>
+        <v>1514</v>
       </c>
       <c r="O40" s="13" t="n">
-        <v>1514</v>
+        <v>972</v>
       </c>
       <c r="P40" s="13" t="n">
-        <v>972</v>
+        <v>988</v>
       </c>
       <c r="Q40" s="13" t="n">
-        <v>988</v>
+        <v>1148</v>
       </c>
       <c r="R40" s="13" t="n">
-        <v>1148</v>
+        <v>1427</v>
       </c>
       <c r="S40" s="13" t="n">
-        <v>1427</v>
+        <v>1860</v>
       </c>
       <c r="T40" s="13" t="n">
-        <v>1860</v>
+        <v>1652</v>
       </c>
       <c r="U40" s="13" t="n">
-        <v>1652</v>
+        <v>1845</v>
       </c>
       <c r="V40" s="13" t="n">
-        <v>1845</v>
+        <v>1549</v>
       </c>
       <c r="W40" s="13" t="n">
+        <v>795</v>
+      </c>
+      <c r="X40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="13" t="n">
+        <v>208</v>
+      </c>
+      <c r="Z40" s="13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AA40" s="13" t="n">
+        <v>946</v>
+      </c>
+      <c r="AB40" s="13" t="n">
         <v>1549</v>
       </c>
-      <c r="X40" s="13" t="n">
-        <v>795</v>
-      </c>
-      <c r="Y40" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="13" t="n">
-        <v>208</v>
-      </c>
-      <c r="AA40" s="13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AB40" s="13" t="n">
-        <v>946</v>
-      </c>
       <c r="AC40" s="13" t="n">
-        <v>1549</v>
+        <v>1213</v>
       </c>
       <c r="AD40" s="13" t="n">
-        <v>1213</v>
+        <v>1325</v>
       </c>
       <c r="AE40" s="13" t="n">
-        <v>1325</v>
+        <v>1577</v>
       </c>
       <c r="AF40" s="13" t="n">
-        <v>1577</v>
+        <v>1758</v>
       </c>
       <c r="AG40" s="13" t="n">
-        <v>1758</v>
+        <v>1087</v>
       </c>
       <c r="AH40" s="13" t="n">
-        <v>1087</v>
+        <v>2379</v>
       </c>
       <c r="AI40" s="13" t="n">
-        <v>2379</v>
+        <v>1791</v>
       </c>
       <c r="AJ40" s="13" t="n">
-        <v>1791</v>
+        <v>1511</v>
       </c>
       <c r="AK40" s="13" t="n">
-        <v>1511</v>
+        <v>1695</v>
       </c>
       <c r="AL40" s="13" t="n">
-        <v>1695</v>
+        <v>1406</v>
       </c>
       <c r="AM40" s="13" t="n">
-        <v>1406</v>
+        <v>1105</v>
       </c>
       <c r="AN40" s="13" t="n">
-        <v>1105</v>
+        <v>1434</v>
       </c>
       <c r="AO40" s="13" t="n">
         <v>1434</v>
       </c>
       <c r="AP40" s="13" t="n">
-        <v>1434</v>
+        <v>2084</v>
       </c>
       <c r="AQ40" s="13" t="n">
-        <v>2084</v>
+        <v>1683</v>
       </c>
       <c r="AR40" s="13" t="n">
-        <v>1683</v>
+        <v>1092</v>
       </c>
       <c r="AS40" s="13" t="n">
-        <v>1092</v>
+        <v>241</v>
       </c>
       <c r="AT40" s="13" t="n">
-        <v>241</v>
+        <v>1156</v>
       </c>
       <c r="AU40" s="13" t="n">
-        <v>1156</v>
+        <v>750</v>
       </c>
       <c r="AV40" s="13" t="n">
-        <v>750</v>
+        <v>943</v>
       </c>
       <c r="AW40" s="13" t="n">
-        <v>943</v>
+        <v>1227</v>
       </c>
       <c r="AX40" s="13" t="n">
-        <v>1227</v>
+        <v>1000</v>
       </c>
       <c r="AY40" s="13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>500</v>
+        <v>213</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>180</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7538,88 +7538,88 @@
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="n">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="F41" s="16" t="n">
+        <v>92</v>
+      </c>
+      <c r="G41" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="H41" s="16" t="n">
+        <v>42</v>
+      </c>
+      <c r="I41" s="16" t="n">
         <v>163</v>
       </c>
-      <c r="G41" s="16" t="n">
-        <v>92</v>
-      </c>
-      <c r="H41" s="16" t="n">
-        <v>63</v>
-      </c>
-      <c r="I41" s="16" t="n">
+      <c r="J41" s="16" t="n">
+        <v>68</v>
+      </c>
+      <c r="K41" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="L41" s="16" t="n">
+        <v>170</v>
+      </c>
+      <c r="M41" s="16" t="n">
+        <v>118</v>
+      </c>
+      <c r="N41" s="16" t="n">
+        <v>178</v>
+      </c>
+      <c r="O41" s="16" t="n">
+        <v>112</v>
+      </c>
+      <c r="P41" s="16" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q41" s="16" t="n">
+        <v>165</v>
+      </c>
+      <c r="R41" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="S41" s="16" t="n">
+        <v>119</v>
+      </c>
+      <c r="T41" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="U41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="16" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z41" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="J41" s="16" t="n">
-        <v>163</v>
-      </c>
-      <c r="K41" s="16" t="n">
-        <v>68</v>
-      </c>
-      <c r="L41" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="M41" s="16" t="n">
-        <v>170</v>
-      </c>
-      <c r="N41" s="16" t="n">
-        <v>118</v>
-      </c>
-      <c r="O41" s="16" t="n">
-        <v>178</v>
-      </c>
-      <c r="P41" s="16" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q41" s="16" t="n">
-        <v>131</v>
-      </c>
-      <c r="R41" s="16" t="n">
-        <v>165</v>
-      </c>
-      <c r="S41" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="T41" s="16" t="n">
-        <v>119</v>
-      </c>
-      <c r="U41" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="V41" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="16" t="n">
-        <v>41</v>
-      </c>
       <c r="AA41" s="16" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC41" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF41" s="16" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="16" t="n">
         <v>0</v>
@@ -7628,10 +7628,10 @@
         <v>0</v>
       </c>
       <c r="AI41" s="16" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AJ41" s="16" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="16" t="n">
         <v>0</v>
@@ -7640,19 +7640,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="16" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AN41" s="16" t="n">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="AO41" s="16" t="n">
         <v>230</v>
       </c>
       <c r="AP41" s="16" t="n">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="AQ41" s="16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="16" t="n">
         <v>0</v>
@@ -7661,31 +7661,31 @@
         <v>0</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AU41" s="16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AV41" s="16" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AW41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="BB41" s="16" t="n">
         <v>5</v>
-      </c>
-      <c r="AX41" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY41" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA41" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB41" s="16" t="n">
-        <v>89</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7798,8 +7798,8 @@
       <c r="AL42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM42" s="13" t="s">
-        <v>57</v>
+      <c r="AM42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN42" s="13" t="n">
         <v>0</v>
@@ -7834,8 +7834,8 @@
       <c r="AX42" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY42" s="13" t="n">
-        <v>0</v>
+      <c r="AY42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ42" s="13" t="s">
         <v>57</v>
@@ -7957,8 +7957,8 @@
       <c r="AL43" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM43" s="16" t="s">
-        <v>57</v>
+      <c r="AM43" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN43" s="16" t="n">
         <v>0</v>
@@ -7993,8 +7993,8 @@
       <c r="AX43" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY43" s="16" t="n">
-        <v>0</v>
+      <c r="AY43" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ43" s="16" t="s">
         <v>57</v>
@@ -8015,49 +8015,49 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="n">
-        <v>974</v>
+        <v>783</v>
       </c>
       <c r="F44" s="13" t="n">
-        <v>783</v>
+        <v>163</v>
       </c>
       <c r="G44" s="13" t="n">
+        <v>264</v>
+      </c>
+      <c r="H44" s="13" t="n">
+        <v>204</v>
+      </c>
+      <c r="I44" s="13" t="n">
+        <v>197</v>
+      </c>
+      <c r="J44" s="13" t="n">
+        <v>554</v>
+      </c>
+      <c r="K44" s="13" t="n">
+        <v>181</v>
+      </c>
+      <c r="L44" s="13" t="n">
         <v>163</v>
       </c>
-      <c r="H44" s="13" t="n">
-        <v>264</v>
-      </c>
-      <c r="I44" s="13" t="n">
-        <v>204</v>
-      </c>
-      <c r="J44" s="13" t="n">
-        <v>197</v>
-      </c>
-      <c r="K44" s="13" t="n">
-        <v>554</v>
-      </c>
-      <c r="L44" s="13" t="n">
-        <v>181</v>
-      </c>
       <c r="M44" s="13" t="n">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="N44" s="13" t="n">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="O44" s="13" t="n">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="P44" s="13" t="n">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="13" t="n">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="R44" s="13" t="n">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="S44" s="13" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="T44" s="13" t="n">
         <v>0</v>
@@ -8066,103 +8066,103 @@
         <v>0</v>
       </c>
       <c r="V44" s="13" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="W44" s="13" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="X44" s="13" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Y44" s="13" t="n">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c r="Z44" s="13" t="n">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="AA44" s="13" t="n">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="AB44" s="13" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="13" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AD44" s="13" t="n">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="AE44" s="13" t="n">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="AF44" s="13" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG44" s="13" t="n">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="AH44" s="13" t="n">
-        <v>353</v>
+        <v>627</v>
       </c>
       <c r="AI44" s="13" t="n">
-        <v>627</v>
+        <v>469</v>
       </c>
       <c r="AJ44" s="13" t="n">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AK44" s="13" t="n">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AL44" s="13" t="n">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="AM44" s="13" t="n">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="AN44" s="13" t="n">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="AO44" s="13" t="n">
         <v>84</v>
       </c>
       <c r="AP44" s="13" t="n">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="AQ44" s="13" t="n">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="AR44" s="13" t="n">
-        <v>299</v>
+        <v>156</v>
       </c>
       <c r="AS44" s="13" t="n">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="AT44" s="13" t="n">
-        <v>520</v>
+        <v>157</v>
       </c>
       <c r="AU44" s="13" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="13" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AW44" s="13" t="n">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="AX44" s="13" t="n">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="AY44" s="13" t="n">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="AZ44" s="13" t="n">
-        <v>352</v>
+        <v>496</v>
       </c>
       <c r="BA44" s="13" t="n">
-        <v>496</v>
+        <v>52</v>
       </c>
       <c r="BB44" s="13" t="n">
-        <v>52</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8275,8 +8275,8 @@
       <c r="AL45" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM45" s="16" t="s">
-        <v>57</v>
+      <c r="AM45" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN45" s="16" t="n">
         <v>0</v>
@@ -8311,8 +8311,8 @@
       <c r="AX45" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY45" s="16" t="n">
-        <v>0</v>
+      <c r="AY45" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ45" s="16" t="s">
         <v>57</v>
@@ -8434,8 +8434,8 @@
       <c r="AL46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM46" s="13" t="s">
-        <v>57</v>
+      <c r="AM46" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN46" s="13" t="n">
         <v>0</v>
@@ -8470,8 +8470,8 @@
       <c r="AX46" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY46" s="13" t="n">
-        <v>0</v>
+      <c r="AY46" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ46" s="13" t="s">
         <v>57</v>
@@ -8593,8 +8593,8 @@
       <c r="AL47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM47" s="16" t="s">
-        <v>57</v>
+      <c r="AM47" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN47" s="16" t="n">
         <v>0</v>
@@ -8629,8 +8629,8 @@
       <c r="AX47" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY47" s="16" t="n">
-        <v>0</v>
+      <c r="AY47" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ47" s="16" t="s">
         <v>57</v>
@@ -8771,8 +8771,8 @@
       <c r="Z49" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA49" s="20" t="s">
-        <v>57</v>
+      <c r="AA49" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB49" s="20" t="n">
         <v>0</v>
@@ -8816,8 +8816,8 @@
       <c r="AO49" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AP49" s="20" t="n">
-        <v>0</v>
+      <c r="AP49" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AQ49" s="20" t="s">
         <v>57</v>
@@ -9026,14 +9026,14 @@
       <c r="AM51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN51" s="13" t="s">
-        <v>57</v>
+      <c r="AN51" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="AO51" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AP51" s="13" t="n">
-        <v>1</v>
+      <c r="AP51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ51" s="13" t="s">
         <v>57</v>
@@ -9149,50 +9149,50 @@
       <c r="AA52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AB52" s="16" t="s">
-        <v>57</v>
+      <c r="AB52" s="16" t="n">
+        <v>-1</v>
       </c>
       <c r="AC52" s="16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD52" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="16" t="n">
         <v>-1</v>
-      </c>
-      <c r="AD52" s="16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AE52" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="AF52" s="16" t="n">
         <v>-1</v>
       </c>
-      <c r="AG52" s="16" t="n">
+      <c r="AG52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH52" s="16" t="n">
+        <v>-41</v>
+      </c>
+      <c r="AI52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK52" s="16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AL52" s="16" t="n">
         <v>-1</v>
       </c>
-      <c r="AH52" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI52" s="16" t="n">
-        <v>-41</v>
-      </c>
-      <c r="AJ52" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK52" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52" s="16" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AM52" s="16" t="n">
+      <c r="AM52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN52" s="16" t="n">
         <v>-1</v>
-      </c>
-      <c r="AN52" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="AO52" s="16" t="n">
         <v>-1</v>
       </c>
-      <c r="AP52" s="16" t="n">
-        <v>-1</v>
+      <c r="AP52" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ52" s="16" t="s">
         <v>57</v>
@@ -9308,50 +9308,50 @@
       <c r="AA53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB53" s="13" t="s">
-        <v>57</v>
+      <c r="AB53" s="13" t="n">
+        <v>-16</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>-16</v>
+        <v>-3370</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>-3370</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF53" s="13" t="n">
         <v>-2</v>
       </c>
-      <c r="AG53" s="13" t="n">
+      <c r="AG53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH53" s="13" t="n">
+        <v>-80</v>
+      </c>
+      <c r="AI53" s="13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AJ53" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AK53" s="13" t="n">
+        <v>-29</v>
+      </c>
+      <c r="AL53" s="13" t="n">
+        <v>-28</v>
+      </c>
+      <c r="AM53" s="13" t="n">
         <v>-2</v>
       </c>
-      <c r="AH53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI53" s="13" t="n">
-        <v>-80</v>
-      </c>
-      <c r="AJ53" s="13" t="n">
-        <v>-100</v>
-      </c>
-      <c r="AK53" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AL53" s="13" t="n">
-        <v>-29</v>
-      </c>
-      <c r="AM53" s="13" t="n">
-        <v>-28</v>
-      </c>
       <c r="AN53" s="13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP53" s="13" t="n">
-        <v>0</v>
+      <c r="AP53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ53" s="13" t="s">
         <v>57</v>
@@ -9462,53 +9462,53 @@
       <c r="Z54" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA54" s="22" t="s">
-        <v>57</v>
+      <c r="AA54" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AB54" s="22" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AC54" s="22" t="n">
-        <v>-17</v>
+        <v>-3372</v>
       </c>
       <c r="AD54" s="22" t="n">
-        <v>-3372</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="22" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AF54" s="22" t="n">
         <v>-3</v>
       </c>
       <c r="AG54" s="22" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="22" t="n">
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="AI54" s="22" t="n">
-        <v>-121</v>
+        <v>-100</v>
       </c>
       <c r="AJ54" s="22" t="n">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="AK54" s="22" t="n">
-        <v>-10</v>
+        <v>-33</v>
       </c>
       <c r="AL54" s="22" t="n">
-        <v>-33</v>
+        <v>-29</v>
       </c>
       <c r="AM54" s="22" t="n">
-        <v>-29</v>
+        <v>-2</v>
       </c>
       <c r="AN54" s="22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="AP54" s="22" t="n">
-        <v>0</v>
+      <c r="AP54" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="AQ54" s="22" t="s">
         <v>57</v>
@@ -9554,154 +9554,154 @@
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="n">
-        <v>18557</v>
+        <v>17824</v>
       </c>
       <c r="F55" s="20" t="n">
-        <v>17824</v>
+        <v>13122</v>
       </c>
       <c r="G55" s="20" t="n">
-        <v>13122</v>
+        <v>18204</v>
       </c>
       <c r="H55" s="20" t="n">
-        <v>18204</v>
+        <v>17031</v>
       </c>
       <c r="I55" s="20" t="n">
-        <v>17031</v>
+        <v>21036</v>
       </c>
       <c r="J55" s="20" t="n">
-        <v>21036</v>
+        <v>16444</v>
       </c>
       <c r="K55" s="20" t="n">
-        <v>16444</v>
+        <v>15558</v>
       </c>
       <c r="L55" s="20" t="n">
-        <v>15558</v>
+        <v>16266</v>
       </c>
       <c r="M55" s="20" t="n">
-        <v>16266</v>
+        <v>19816</v>
       </c>
       <c r="N55" s="20" t="n">
-        <v>19816</v>
+        <v>18886</v>
       </c>
       <c r="O55" s="20" t="n">
-        <v>18886</v>
+        <v>12002</v>
       </c>
       <c r="P55" s="20" t="n">
-        <v>12002</v>
+        <v>15123</v>
       </c>
       <c r="Q55" s="20" t="n">
-        <v>15123</v>
+        <v>12085</v>
       </c>
       <c r="R55" s="20" t="n">
-        <v>12085</v>
+        <v>11586</v>
       </c>
       <c r="S55" s="20" t="n">
-        <v>11586</v>
+        <v>13772</v>
       </c>
       <c r="T55" s="20" t="n">
-        <v>13772</v>
+        <v>12837</v>
       </c>
       <c r="U55" s="20" t="n">
-        <v>12837</v>
+        <v>11021</v>
       </c>
       <c r="V55" s="20" t="n">
-        <v>11021</v>
+        <v>11684</v>
       </c>
       <c r="W55" s="20" t="n">
-        <v>11684</v>
+        <v>12832</v>
       </c>
       <c r="X55" s="20" t="n">
-        <v>12832</v>
+        <v>15263</v>
       </c>
       <c r="Y55" s="20" t="n">
-        <v>15263</v>
+        <v>12908</v>
       </c>
       <c r="Z55" s="20" t="n">
-        <v>12908</v>
+        <v>14765</v>
       </c>
       <c r="AA55" s="20" t="n">
-        <v>14765</v>
+        <v>11319</v>
       </c>
       <c r="AB55" s="20" t="n">
-        <v>11319</v>
+        <v>14395</v>
       </c>
       <c r="AC55" s="20" t="n">
-        <v>14395</v>
+        <v>10249</v>
       </c>
       <c r="AD55" s="20" t="n">
-        <v>10249</v>
+        <v>15713</v>
       </c>
       <c r="AE55" s="20" t="n">
-        <v>15713</v>
+        <v>13453</v>
       </c>
       <c r="AF55" s="20" t="n">
-        <v>13453</v>
+        <v>13601</v>
       </c>
       <c r="AG55" s="20" t="n">
-        <v>13601</v>
+        <v>13270</v>
       </c>
       <c r="AH55" s="20" t="n">
-        <v>13270</v>
+        <v>14293</v>
       </c>
       <c r="AI55" s="20" t="n">
-        <v>14293</v>
+        <v>15663</v>
       </c>
       <c r="AJ55" s="20" t="n">
-        <v>15663</v>
+        <v>14276</v>
       </c>
       <c r="AK55" s="20" t="n">
-        <v>14276</v>
+        <v>14237</v>
       </c>
       <c r="AL55" s="20" t="n">
-        <v>14237</v>
+        <v>16364</v>
       </c>
       <c r="AM55" s="20" t="n">
-        <v>16364</v>
+        <v>12468</v>
       </c>
       <c r="AN55" s="20" t="n">
-        <v>12468</v>
+        <v>13493</v>
       </c>
       <c r="AO55" s="20" t="n">
         <v>13493</v>
       </c>
       <c r="AP55" s="20" t="n">
-        <v>13493</v>
+        <v>11611</v>
       </c>
       <c r="AQ55" s="20" t="n">
-        <v>11611</v>
+        <v>12322</v>
       </c>
       <c r="AR55" s="20" t="n">
-        <v>12322</v>
+        <v>17658</v>
       </c>
       <c r="AS55" s="20" t="n">
-        <v>17658</v>
+        <v>9066</v>
       </c>
       <c r="AT55" s="20" t="n">
-        <v>9066</v>
+        <v>13921</v>
       </c>
       <c r="AU55" s="20" t="n">
-        <v>13921</v>
+        <v>11734</v>
       </c>
       <c r="AV55" s="20" t="n">
-        <v>11734</v>
+        <v>14260</v>
       </c>
       <c r="AW55" s="20" t="n">
-        <v>14260</v>
+        <v>14492</v>
       </c>
       <c r="AX55" s="20" t="n">
-        <v>14492</v>
+        <v>17934</v>
       </c>
       <c r="AY55" s="20" t="n">
-        <v>17934</v>
+        <v>9758</v>
       </c>
       <c r="AZ55" s="20" t="n">
-        <v>9758</v>
+        <v>10722</v>
       </c>
       <c r="BA55" s="20" t="n">
-        <v>10722</v>
+        <v>12688</v>
       </c>
       <c r="BB55" s="20" t="n">
-        <v>12688</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10245,11 +10245,11 @@
       <c r="AK62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL62" s="13" t="s">
-        <v>57</v>
+      <c r="AL62" s="13" t="n">
+        <v>202204</v>
       </c>
       <c r="AM62" s="13" t="n">
-        <v>202204</v>
+        <v>0</v>
       </c>
       <c r="AN62" s="13" t="n">
         <v>0</v>
@@ -10261,40 +10261,40 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="13" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="AR62" s="13" t="n">
-        <v>312</v>
+        <v>765</v>
       </c>
       <c r="AS62" s="13" t="n">
+        <v>442</v>
+      </c>
+      <c r="AT62" s="13" t="n">
+        <v>24409</v>
+      </c>
+      <c r="AU62" s="13" t="n">
         <v>765</v>
       </c>
-      <c r="AT62" s="13" t="n">
-        <v>442</v>
-      </c>
-      <c r="AU62" s="13" t="n">
-        <v>24409</v>
-      </c>
       <c r="AV62" s="13" t="n">
-        <v>765</v>
+        <v>693</v>
       </c>
       <c r="AW62" s="13" t="n">
-        <v>693</v>
+        <v>601</v>
       </c>
       <c r="AX62" s="13" t="n">
-        <v>601</v>
+        <v>3594</v>
       </c>
       <c r="AY62" s="13" t="n">
-        <v>3594</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="13" t="n">
-        <v>0</v>
+        <v>20085</v>
       </c>
       <c r="BA62" s="13" t="n">
-        <v>20085</v>
+        <v>26497</v>
       </c>
       <c r="BB62" s="13" t="n">
-        <v>26165</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10374,20 +10374,20 @@
       <c r="AA63" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AB63" s="16" t="s">
-        <v>57</v>
+      <c r="AB63" s="16" t="n">
+        <v>2623</v>
       </c>
       <c r="AC63" s="16" t="n">
-        <v>2623</v>
+        <v>413</v>
       </c>
       <c r="AD63" s="16" t="n">
-        <v>413</v>
+        <v>1305</v>
       </c>
       <c r="AE63" s="16" t="n">
-        <v>1305</v>
+        <v>6862</v>
       </c>
       <c r="AF63" s="16" t="n">
-        <v>6862</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="16" t="n">
         <v>0</v>
@@ -10407,8 +10407,8 @@
       <c r="AL63" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AM63" s="16" t="n">
-        <v>0</v>
+      <c r="AM63" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN63" s="16" t="s">
         <v>57</v>
@@ -10464,155 +10464,155 @@
         <v>82</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>57</v>
+      <c r="E64" s="13" t="n">
+        <v>567</v>
       </c>
       <c r="F64" s="13" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="G64" s="13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H64" s="13" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I64" s="13" t="n">
-        <v>0</v>
+        <v>2424</v>
       </c>
       <c r="J64" s="13" t="n">
-        <v>2424</v>
+        <v>0</v>
       </c>
       <c r="K64" s="13" t="n">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="L64" s="13" t="n">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="M64" s="13" t="n">
-        <v>0</v>
+        <v>23529</v>
       </c>
       <c r="N64" s="13" t="n">
-        <v>23529</v>
+        <v>34258</v>
       </c>
       <c r="O64" s="13" t="n">
-        <v>34258</v>
+        <v>33001</v>
       </c>
       <c r="P64" s="13" t="n">
-        <v>33001</v>
+        <v>41416</v>
       </c>
       <c r="Q64" s="13" t="n">
-        <v>41416</v>
+        <v>232</v>
       </c>
       <c r="R64" s="13" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="S64" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T64" s="13" t="n">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="U64" s="13" t="n">
-        <v>517</v>
+        <v>1531</v>
       </c>
       <c r="V64" s="13" t="n">
-        <v>1531</v>
+        <v>17464</v>
       </c>
       <c r="W64" s="13" t="n">
-        <v>17464</v>
+        <v>1359</v>
       </c>
       <c r="X64" s="13" t="n">
-        <v>1359</v>
+        <v>36077</v>
       </c>
       <c r="Y64" s="13" t="n">
-        <v>36077</v>
+        <v>30222</v>
       </c>
       <c r="Z64" s="13" t="n">
-        <v>30222</v>
+        <v>51901</v>
       </c>
       <c r="AA64" s="13" t="n">
-        <v>51901</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="13" t="n">
-        <v>0</v>
+        <v>15289</v>
       </c>
       <c r="AC64" s="13" t="n">
-        <v>15289</v>
+        <v>526</v>
       </c>
       <c r="AD64" s="13" t="n">
-        <v>526</v>
+        <v>23786</v>
       </c>
       <c r="AE64" s="13" t="n">
-        <v>23786</v>
+        <v>17</v>
       </c>
       <c r="AF64" s="13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="13" t="n">
-        <v>0</v>
+        <v>5518</v>
       </c>
       <c r="AH64" s="13" t="n">
-        <v>5518</v>
+        <v>390</v>
       </c>
       <c r="AI64" s="13" t="n">
-        <v>390</v>
+        <v>33338</v>
       </c>
       <c r="AJ64" s="13" t="n">
-        <v>33338</v>
+        <v>40127</v>
       </c>
       <c r="AK64" s="13" t="n">
-        <v>40127</v>
+        <v>68589</v>
       </c>
       <c r="AL64" s="13" t="n">
-        <v>68589</v>
+        <v>52971</v>
       </c>
       <c r="AM64" s="13" t="n">
-        <v>52971</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="13" t="n">
-        <v>0</v>
+        <v>70141</v>
       </c>
       <c r="AO64" s="13" t="n">
         <v>70141</v>
       </c>
       <c r="AP64" s="13" t="n">
-        <v>70141</v>
+        <v>15755</v>
       </c>
       <c r="AQ64" s="13" t="n">
-        <v>15755</v>
+        <v>36363</v>
       </c>
       <c r="AR64" s="13" t="n">
-        <v>36363</v>
+        <v>12665</v>
       </c>
       <c r="AS64" s="13" t="n">
-        <v>12665</v>
+        <v>41713</v>
       </c>
       <c r="AT64" s="13" t="n">
-        <v>41713</v>
+        <v>11465</v>
       </c>
       <c r="AU64" s="13" t="n">
-        <v>11465</v>
+        <v>27928</v>
       </c>
       <c r="AV64" s="13" t="n">
-        <v>27928</v>
+        <v>35739</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>35739</v>
+        <v>40929</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>40929</v>
+        <v>23516</v>
       </c>
       <c r="AY64" s="13" t="n">
-        <v>23516</v>
+        <v>45507</v>
       </c>
       <c r="AZ64" s="13" t="n">
-        <v>45507</v>
+        <v>33460</v>
       </c>
       <c r="BA64" s="13" t="n">
-        <v>33460</v>
+        <v>5396</v>
       </c>
       <c r="BB64" s="13" t="n">
-        <v>5396</v>
+        <v>39956</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10624,154 +10624,154 @@
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16" t="n">
-        <v>8692</v>
+        <v>16313</v>
       </c>
       <c r="F65" s="16" t="n">
-        <v>16313</v>
+        <v>6590</v>
       </c>
       <c r="G65" s="16" t="n">
-        <v>6590</v>
+        <v>7435</v>
       </c>
       <c r="H65" s="16" t="n">
-        <v>7435</v>
+        <v>3174</v>
       </c>
       <c r="I65" s="16" t="n">
-        <v>3174</v>
+        <v>3695</v>
       </c>
       <c r="J65" s="16" t="n">
-        <v>3695</v>
+        <v>6995</v>
       </c>
       <c r="K65" s="16" t="n">
-        <v>6995</v>
+        <v>4187</v>
       </c>
       <c r="L65" s="16" t="n">
-        <v>4187</v>
+        <v>3877</v>
       </c>
       <c r="M65" s="16" t="n">
-        <v>3877</v>
+        <v>2893</v>
       </c>
       <c r="N65" s="16" t="n">
-        <v>2893</v>
+        <v>5239</v>
       </c>
       <c r="O65" s="16" t="n">
-        <v>5239</v>
+        <v>8220</v>
       </c>
       <c r="P65" s="16" t="n">
-        <v>8220</v>
+        <v>7045</v>
       </c>
       <c r="Q65" s="16" t="n">
-        <v>7045</v>
+        <v>14667</v>
       </c>
       <c r="R65" s="16" t="n">
-        <v>14667</v>
+        <v>20499</v>
       </c>
       <c r="S65" s="16" t="n">
-        <v>20499</v>
+        <v>9396</v>
       </c>
       <c r="T65" s="16" t="n">
-        <v>9396</v>
+        <v>6727</v>
       </c>
       <c r="U65" s="16" t="n">
-        <v>6727</v>
+        <v>3239</v>
       </c>
       <c r="V65" s="16" t="n">
-        <v>3239</v>
+        <v>883</v>
       </c>
       <c r="W65" s="16" t="n">
-        <v>883</v>
+        <v>3023</v>
       </c>
       <c r="X65" s="16" t="n">
-        <v>3023</v>
+        <v>4055</v>
       </c>
       <c r="Y65" s="16" t="n">
-        <v>4055</v>
+        <v>3831</v>
       </c>
       <c r="Z65" s="16" t="n">
-        <v>3831</v>
+        <v>3749</v>
       </c>
       <c r="AA65" s="16" t="n">
-        <v>3749</v>
+        <v>4641</v>
       </c>
       <c r="AB65" s="16" t="n">
-        <v>4641</v>
+        <v>5695</v>
       </c>
       <c r="AC65" s="16" t="n">
-        <v>5695</v>
+        <v>6436</v>
       </c>
       <c r="AD65" s="16" t="n">
-        <v>6436</v>
+        <v>2033</v>
       </c>
       <c r="AE65" s="16" t="n">
-        <v>2033</v>
+        <v>5828</v>
       </c>
       <c r="AF65" s="16" t="n">
-        <v>5828</v>
+        <v>3588</v>
       </c>
       <c r="AG65" s="16" t="n">
-        <v>3588</v>
+        <v>6161</v>
       </c>
       <c r="AH65" s="16" t="n">
-        <v>6161</v>
+        <v>3187</v>
       </c>
       <c r="AI65" s="16" t="n">
-        <v>3187</v>
+        <v>2148</v>
       </c>
       <c r="AJ65" s="16" t="n">
-        <v>2148</v>
+        <v>4480</v>
       </c>
       <c r="AK65" s="16" t="n">
-        <v>4480</v>
+        <v>9474</v>
       </c>
       <c r="AL65" s="16" t="n">
-        <v>9474</v>
+        <v>6352</v>
       </c>
       <c r="AM65" s="16" t="n">
-        <v>6352</v>
+        <v>9214</v>
       </c>
       <c r="AN65" s="16" t="n">
-        <v>9214</v>
+        <v>10939</v>
       </c>
       <c r="AO65" s="16" t="n">
         <v>10939</v>
       </c>
       <c r="AP65" s="16" t="n">
-        <v>10939</v>
+        <v>2451</v>
       </c>
       <c r="AQ65" s="16" t="n">
-        <v>2451</v>
+        <v>13980</v>
       </c>
       <c r="AR65" s="16" t="n">
-        <v>13980</v>
+        <v>11774</v>
       </c>
       <c r="AS65" s="16" t="n">
-        <v>11774</v>
+        <v>10660</v>
       </c>
       <c r="AT65" s="16" t="n">
-        <v>10660</v>
+        <v>9227</v>
       </c>
       <c r="AU65" s="16" t="n">
-        <v>9227</v>
+        <v>5752</v>
       </c>
       <c r="AV65" s="16" t="n">
-        <v>5752</v>
+        <v>17765</v>
       </c>
       <c r="AW65" s="16" t="n">
-        <v>17765</v>
+        <v>48705</v>
       </c>
       <c r="AX65" s="16" t="n">
-        <v>48705</v>
+        <v>40981</v>
       </c>
       <c r="AY65" s="16" t="n">
-        <v>40981</v>
+        <v>21273</v>
       </c>
       <c r="AZ65" s="16" t="n">
-        <v>21273</v>
+        <v>34742</v>
       </c>
       <c r="BA65" s="16" t="n">
-        <v>34742</v>
+        <v>34595</v>
       </c>
       <c r="BB65" s="16" t="n">
-        <v>34595</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10783,154 +10783,154 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="n">
-        <v>10241</v>
+        <v>14063</v>
       </c>
       <c r="F66" s="13" t="n">
-        <v>14063</v>
+        <v>9800</v>
       </c>
       <c r="G66" s="13" t="n">
-        <v>9800</v>
+        <v>14744</v>
       </c>
       <c r="H66" s="13" t="n">
-        <v>14744</v>
+        <v>11797</v>
       </c>
       <c r="I66" s="13" t="n">
-        <v>11797</v>
+        <v>30308</v>
       </c>
       <c r="J66" s="13" t="n">
-        <v>30308</v>
+        <v>10649</v>
       </c>
       <c r="K66" s="13" t="n">
-        <v>10649</v>
+        <v>9225</v>
       </c>
       <c r="L66" s="13" t="n">
-        <v>9225</v>
+        <v>13387</v>
       </c>
       <c r="M66" s="13" t="n">
-        <v>13387</v>
+        <v>16443</v>
       </c>
       <c r="N66" s="13" t="n">
-        <v>16443</v>
+        <v>17421</v>
       </c>
       <c r="O66" s="13" t="n">
-        <v>17421</v>
+        <v>11679</v>
       </c>
       <c r="P66" s="13" t="n">
-        <v>11679</v>
+        <v>12730</v>
       </c>
       <c r="Q66" s="13" t="n">
-        <v>12730</v>
+        <v>7471</v>
       </c>
       <c r="R66" s="13" t="n">
-        <v>7471</v>
+        <v>6766</v>
       </c>
       <c r="S66" s="13" t="n">
-        <v>6766</v>
+        <v>14684</v>
       </c>
       <c r="T66" s="13" t="n">
-        <v>14684</v>
+        <v>10907</v>
       </c>
       <c r="U66" s="13" t="n">
-        <v>10907</v>
+        <v>28107</v>
       </c>
       <c r="V66" s="13" t="n">
-        <v>28107</v>
+        <v>9183</v>
       </c>
       <c r="W66" s="13" t="n">
-        <v>9183</v>
+        <v>22609</v>
       </c>
       <c r="X66" s="13" t="n">
-        <v>22609</v>
+        <v>33013</v>
       </c>
       <c r="Y66" s="13" t="n">
-        <v>33013</v>
+        <v>28643</v>
       </c>
       <c r="Z66" s="13" t="n">
-        <v>28643</v>
+        <v>41406</v>
       </c>
       <c r="AA66" s="13" t="n">
-        <v>41406</v>
+        <v>10916</v>
       </c>
       <c r="AB66" s="13" t="n">
-        <v>10916</v>
+        <v>20075</v>
       </c>
       <c r="AC66" s="13" t="n">
-        <v>20075</v>
+        <v>39049</v>
       </c>
       <c r="AD66" s="13" t="n">
-        <v>39049</v>
+        <v>48529</v>
       </c>
       <c r="AE66" s="13" t="n">
-        <v>48529</v>
+        <v>14368</v>
       </c>
       <c r="AF66" s="13" t="n">
-        <v>14368</v>
+        <v>22143</v>
       </c>
       <c r="AG66" s="13" t="n">
-        <v>22143</v>
+        <v>23716</v>
       </c>
       <c r="AH66" s="13" t="n">
-        <v>23716</v>
+        <v>19191</v>
       </c>
       <c r="AI66" s="13" t="n">
-        <v>19191</v>
+        <v>27200</v>
       </c>
       <c r="AJ66" s="13" t="n">
-        <v>27200</v>
+        <v>26365</v>
       </c>
       <c r="AK66" s="13" t="n">
-        <v>26365</v>
+        <v>25246</v>
       </c>
       <c r="AL66" s="13" t="n">
-        <v>25246</v>
+        <v>37888</v>
       </c>
       <c r="AM66" s="13" t="n">
-        <v>37888</v>
+        <v>23369</v>
       </c>
       <c r="AN66" s="13" t="n">
-        <v>23369</v>
+        <v>24602</v>
       </c>
       <c r="AO66" s="13" t="n">
         <v>24602</v>
       </c>
       <c r="AP66" s="13" t="n">
-        <v>24602</v>
+        <v>14049</v>
       </c>
       <c r="AQ66" s="13" t="n">
-        <v>14049</v>
+        <v>22041</v>
       </c>
       <c r="AR66" s="13" t="n">
-        <v>22041</v>
+        <v>66451</v>
       </c>
       <c r="AS66" s="13" t="n">
-        <v>66451</v>
+        <v>15361</v>
       </c>
       <c r="AT66" s="13" t="n">
-        <v>15361</v>
+        <v>45289</v>
       </c>
       <c r="AU66" s="13" t="n">
-        <v>45289</v>
+        <v>27761</v>
       </c>
       <c r="AV66" s="13" t="n">
-        <v>27761</v>
+        <v>44998</v>
       </c>
       <c r="AW66" s="13" t="n">
-        <v>44998</v>
+        <v>43345</v>
       </c>
       <c r="AX66" s="13" t="n">
-        <v>43345</v>
+        <v>79602</v>
       </c>
       <c r="AY66" s="13" t="n">
-        <v>79602</v>
+        <v>22400</v>
       </c>
       <c r="AZ66" s="13" t="n">
-        <v>22400</v>
+        <v>22553</v>
       </c>
       <c r="BA66" s="13" t="n">
-        <v>22553</v>
+        <v>43840</v>
       </c>
       <c r="BB66" s="13" t="n">
-        <v>43840</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10942,154 +10942,154 @@
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16" t="n">
-        <v>398849</v>
+        <v>322025</v>
       </c>
       <c r="F67" s="16" t="n">
-        <v>322025</v>
+        <v>297130</v>
       </c>
       <c r="G67" s="16" t="n">
-        <v>297130</v>
+        <v>327576</v>
       </c>
       <c r="H67" s="16" t="n">
-        <v>327576</v>
+        <v>286691</v>
       </c>
       <c r="I67" s="16" t="n">
-        <v>286691</v>
+        <v>397598</v>
       </c>
       <c r="J67" s="16" t="n">
-        <v>397598</v>
+        <v>423313</v>
       </c>
       <c r="K67" s="16" t="n">
-        <v>423313</v>
+        <v>378869</v>
       </c>
       <c r="L67" s="16" t="n">
-        <v>378869</v>
+        <v>437355</v>
       </c>
       <c r="M67" s="16" t="n">
-        <v>437355</v>
+        <v>500847</v>
       </c>
       <c r="N67" s="16" t="n">
-        <v>500847</v>
+        <v>543462</v>
       </c>
       <c r="O67" s="16" t="n">
-        <v>543462</v>
+        <v>421202</v>
       </c>
       <c r="P67" s="16" t="n">
-        <v>421202</v>
+        <v>522046</v>
       </c>
       <c r="Q67" s="16" t="n">
-        <v>522046</v>
+        <v>429199</v>
       </c>
       <c r="R67" s="16" t="n">
-        <v>429199</v>
+        <v>472534</v>
       </c>
       <c r="S67" s="16" t="n">
-        <v>472534</v>
+        <v>432802</v>
       </c>
       <c r="T67" s="16" t="n">
-        <v>432802</v>
+        <v>471881</v>
       </c>
       <c r="U67" s="16" t="n">
-        <v>471881</v>
+        <v>550398</v>
       </c>
       <c r="V67" s="16" t="n">
-        <v>550398</v>
+        <v>498040</v>
       </c>
       <c r="W67" s="16" t="n">
-        <v>498040</v>
+        <v>633240</v>
       </c>
       <c r="X67" s="16" t="n">
-        <v>633240</v>
+        <v>664603</v>
       </c>
       <c r="Y67" s="16" t="n">
-        <v>664603</v>
+        <v>629117</v>
       </c>
       <c r="Z67" s="16" t="n">
-        <v>629117</v>
+        <v>787639</v>
       </c>
       <c r="AA67" s="16" t="n">
-        <v>787639</v>
+        <v>805480</v>
       </c>
       <c r="AB67" s="16" t="n">
-        <v>805480</v>
+        <v>789675</v>
       </c>
       <c r="AC67" s="16" t="n">
-        <v>789675</v>
+        <v>723495</v>
       </c>
       <c r="AD67" s="16" t="n">
-        <v>723495</v>
+        <v>615606</v>
       </c>
       <c r="AE67" s="16" t="n">
-        <v>615606</v>
+        <v>703849</v>
       </c>
       <c r="AF67" s="16" t="n">
-        <v>703849</v>
+        <v>899754</v>
       </c>
       <c r="AG67" s="16" t="n">
-        <v>899754</v>
+        <v>973523</v>
       </c>
       <c r="AH67" s="16" t="n">
-        <v>973523</v>
+        <v>1134605</v>
       </c>
       <c r="AI67" s="16" t="n">
-        <v>1134605</v>
+        <v>1376566</v>
       </c>
       <c r="AJ67" s="16" t="n">
-        <v>1376566</v>
+        <v>1434485</v>
       </c>
       <c r="AK67" s="16" t="n">
-        <v>1434485</v>
+        <v>1445782</v>
       </c>
       <c r="AL67" s="16" t="n">
-        <v>1445782</v>
+        <v>1272054</v>
       </c>
       <c r="AM67" s="16" t="n">
-        <v>1272054</v>
+        <v>1250935</v>
       </c>
       <c r="AN67" s="16" t="n">
-        <v>1250935</v>
+        <v>1180027</v>
       </c>
       <c r="AO67" s="16" t="n">
         <v>1180027</v>
       </c>
       <c r="AP67" s="16" t="n">
-        <v>1180027</v>
+        <v>1031621</v>
       </c>
       <c r="AQ67" s="16" t="n">
-        <v>1031621</v>
+        <v>1004586</v>
       </c>
       <c r="AR67" s="16" t="n">
-        <v>1004586</v>
+        <v>1462938</v>
       </c>
       <c r="AS67" s="16" t="n">
-        <v>1462938</v>
+        <v>1564939</v>
       </c>
       <c r="AT67" s="16" t="n">
-        <v>1564939</v>
+        <v>1722211</v>
       </c>
       <c r="AU67" s="16" t="n">
-        <v>1722211</v>
+        <v>1927498</v>
       </c>
       <c r="AV67" s="16" t="n">
-        <v>1927498</v>
+        <v>1926767</v>
       </c>
       <c r="AW67" s="16" t="n">
-        <v>1926767</v>
+        <v>2020241</v>
       </c>
       <c r="AX67" s="16" t="n">
-        <v>2020241</v>
+        <v>2035508</v>
       </c>
       <c r="AY67" s="16" t="n">
-        <v>2035508</v>
+        <v>1928217</v>
       </c>
       <c r="AZ67" s="16" t="n">
-        <v>1928217</v>
+        <v>2148434</v>
       </c>
       <c r="BA67" s="16" t="n">
-        <v>2148434</v>
+        <v>2410243</v>
       </c>
       <c r="BB67" s="16" t="n">
-        <v>2410243</v>
+        <v>2307595</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11101,154 +11101,154 @@
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="n">
-        <v>97661</v>
+        <v>57798</v>
       </c>
       <c r="F68" s="13" t="n">
-        <v>57798</v>
+        <v>22508</v>
       </c>
       <c r="G68" s="13" t="n">
-        <v>22508</v>
+        <v>54767</v>
       </c>
       <c r="H68" s="13" t="n">
-        <v>54767</v>
+        <v>44270</v>
       </c>
       <c r="I68" s="13" t="n">
-        <v>44270</v>
+        <v>31315</v>
       </c>
       <c r="J68" s="13" t="n">
-        <v>31315</v>
+        <v>36775</v>
       </c>
       <c r="K68" s="13" t="n">
-        <v>36775</v>
+        <v>29437</v>
       </c>
       <c r="L68" s="13" t="n">
-        <v>29437</v>
+        <v>30008</v>
       </c>
       <c r="M68" s="13" t="n">
-        <v>30008</v>
+        <v>49268</v>
       </c>
       <c r="N68" s="13" t="n">
-        <v>49268</v>
+        <v>46992</v>
       </c>
       <c r="O68" s="13" t="n">
-        <v>46992</v>
+        <v>31735</v>
       </c>
       <c r="P68" s="13" t="n">
-        <v>31735</v>
+        <v>39975</v>
       </c>
       <c r="Q68" s="13" t="n">
-        <v>39975</v>
+        <v>17007</v>
       </c>
       <c r="R68" s="13" t="n">
-        <v>17007</v>
+        <v>8118</v>
       </c>
       <c r="S68" s="13" t="n">
-        <v>8118</v>
+        <v>16161</v>
       </c>
       <c r="T68" s="13" t="n">
-        <v>16161</v>
+        <v>25263</v>
       </c>
       <c r="U68" s="13" t="n">
-        <v>25263</v>
+        <v>38894</v>
       </c>
       <c r="V68" s="13" t="n">
-        <v>38894</v>
+        <v>14896</v>
       </c>
       <c r="W68" s="13" t="n">
-        <v>14896</v>
+        <v>3463</v>
       </c>
       <c r="X68" s="13" t="n">
-        <v>3463</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="13" t="n">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="Z68" s="13" t="n">
-        <v>4080</v>
+        <v>8364</v>
       </c>
       <c r="AA68" s="13" t="n">
-        <v>8364</v>
+        <v>36616</v>
       </c>
       <c r="AB68" s="13" t="n">
-        <v>36616</v>
+        <v>64672</v>
       </c>
       <c r="AC68" s="13" t="n">
-        <v>64672</v>
+        <v>47625</v>
       </c>
       <c r="AD68" s="13" t="n">
-        <v>47625</v>
+        <v>70891</v>
       </c>
       <c r="AE68" s="13" t="n">
-        <v>70891</v>
+        <v>100962</v>
       </c>
       <c r="AF68" s="13" t="n">
-        <v>100962</v>
+        <v>106499</v>
       </c>
       <c r="AG68" s="13" t="n">
-        <v>106499</v>
+        <v>63343</v>
       </c>
       <c r="AH68" s="13" t="n">
-        <v>63343</v>
+        <v>155271</v>
       </c>
       <c r="AI68" s="13" t="n">
-        <v>155271</v>
+        <v>135826</v>
       </c>
       <c r="AJ68" s="13" t="n">
-        <v>135826</v>
+        <v>102755</v>
       </c>
       <c r="AK68" s="13" t="n">
-        <v>102755</v>
+        <v>123826</v>
       </c>
       <c r="AL68" s="13" t="n">
-        <v>123826</v>
+        <v>94962</v>
       </c>
       <c r="AM68" s="13" t="n">
-        <v>94962</v>
+        <v>71986</v>
       </c>
       <c r="AN68" s="13" t="n">
-        <v>71986</v>
+        <v>51561</v>
       </c>
       <c r="AO68" s="13" t="n">
         <v>51561</v>
       </c>
       <c r="AP68" s="13" t="n">
-        <v>51561</v>
+        <v>140965</v>
       </c>
       <c r="AQ68" s="13" t="n">
-        <v>140965</v>
+        <v>132712</v>
       </c>
       <c r="AR68" s="13" t="n">
-        <v>132712</v>
+        <v>24541</v>
       </c>
       <c r="AS68" s="13" t="n">
-        <v>24541</v>
+        <v>10498</v>
       </c>
       <c r="AT68" s="13" t="n">
-        <v>10498</v>
+        <v>28394</v>
       </c>
       <c r="AU68" s="13" t="n">
-        <v>28394</v>
+        <v>75331</v>
       </c>
       <c r="AV68" s="13" t="n">
-        <v>75331</v>
+        <v>115670</v>
       </c>
       <c r="AW68" s="13" t="n">
-        <v>115670</v>
+        <v>130196</v>
       </c>
       <c r="AX68" s="13" t="n">
-        <v>130196</v>
+        <v>51222</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>51222</v>
+        <v>15599</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>15599</v>
+        <v>11187</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>11187</v>
+        <v>29157</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>29157</v>
+        <v>125373</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11260,55 +11260,55 @@
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="n">
-        <v>16028</v>
+        <v>32325</v>
       </c>
       <c r="F69" s="16" t="n">
-        <v>32325</v>
+        <v>18900</v>
       </c>
       <c r="G69" s="16" t="n">
-        <v>18900</v>
+        <v>10787</v>
       </c>
       <c r="H69" s="16" t="n">
-        <v>10787</v>
+        <v>6930</v>
       </c>
       <c r="I69" s="16" t="n">
-        <v>6930</v>
+        <v>31178</v>
       </c>
       <c r="J69" s="16" t="n">
-        <v>31178</v>
+        <v>13188</v>
       </c>
       <c r="K69" s="16" t="n">
-        <v>13188</v>
+        <v>2986</v>
       </c>
       <c r="L69" s="16" t="n">
-        <v>2986</v>
+        <v>30450</v>
       </c>
       <c r="M69" s="16" t="n">
-        <v>30450</v>
+        <v>23996</v>
       </c>
       <c r="N69" s="16" t="n">
-        <v>23996</v>
+        <v>37193</v>
       </c>
       <c r="O69" s="16" t="n">
-        <v>37193</v>
+        <v>26117</v>
       </c>
       <c r="P69" s="16" t="n">
-        <v>26117</v>
+        <v>27085</v>
       </c>
       <c r="Q69" s="16" t="n">
-        <v>27085</v>
+        <v>36123</v>
       </c>
       <c r="R69" s="16" t="n">
-        <v>36123</v>
+        <v>20500</v>
       </c>
       <c r="S69" s="16" t="n">
-        <v>20500</v>
+        <v>24611</v>
       </c>
       <c r="T69" s="16" t="n">
-        <v>24611</v>
+        <v>4752</v>
       </c>
       <c r="U69" s="16" t="n">
-        <v>4752</v>
+        <v>0</v>
       </c>
       <c r="V69" s="16" t="n">
         <v>0</v>
@@ -11320,28 +11320,28 @@
         <v>0</v>
       </c>
       <c r="Y69" s="16" t="n">
-        <v>0</v>
+        <v>11480</v>
       </c>
       <c r="Z69" s="16" t="n">
-        <v>11480</v>
+        <v>13020</v>
       </c>
       <c r="AA69" s="16" t="n">
-        <v>13020</v>
+        <v>0</v>
       </c>
       <c r="AB69" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC69" s="16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD69" s="16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="16" t="n">
-        <v>0</v>
+        <v>11115</v>
       </c>
       <c r="AF69" s="16" t="n">
-        <v>11115</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="16" t="n">
         <v>0</v>
@@ -11350,10 +11350,10 @@
         <v>0</v>
       </c>
       <c r="AI69" s="16" t="n">
-        <v>0</v>
+        <v>107988</v>
       </c>
       <c r="AJ69" s="16" t="n">
-        <v>107988</v>
+        <v>0</v>
       </c>
       <c r="AK69" s="16" t="n">
         <v>0</v>
@@ -11362,37 +11362,37 @@
         <v>0</v>
       </c>
       <c r="AM69" s="16" t="n">
-        <v>0</v>
+        <v>42310</v>
       </c>
       <c r="AN69" s="16" t="n">
-        <v>42310</v>
+        <v>146970</v>
       </c>
       <c r="AO69" s="16" t="n">
         <v>146970</v>
       </c>
       <c r="AP69" s="16" t="n">
-        <v>146970</v>
+        <v>21243</v>
       </c>
       <c r="AQ69" s="16" t="n">
-        <v>21243</v>
+        <v>6</v>
       </c>
       <c r="AR69" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AT69" s="16" t="n">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="AU69" s="16" t="n">
-        <v>26100</v>
+        <v>14550</v>
       </c>
       <c r="AV69" s="16" t="n">
-        <v>14550</v>
+        <v>6000</v>
       </c>
       <c r="AW69" s="16" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AX69" s="16" t="n">
         <v>0</v>
@@ -11404,10 +11404,10 @@
         <v>0</v>
       </c>
       <c r="BA69" s="16" t="n">
-        <v>0</v>
+        <v>99380</v>
       </c>
       <c r="BB69" s="16" t="n">
-        <v>99380</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11520,8 +11520,8 @@
       <c r="AL70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM70" s="13" t="s">
-        <v>57</v>
+      <c r="AM70" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN70" s="13" t="n">
         <v>0</v>
@@ -11556,8 +11556,8 @@
       <c r="AX70" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY70" s="13" t="n">
-        <v>0</v>
+      <c r="AY70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ70" s="13" t="s">
         <v>57</v>
@@ -11679,8 +11679,8 @@
       <c r="AL71" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM71" s="16" t="s">
-        <v>57</v>
+      <c r="AM71" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN71" s="16" t="n">
         <v>0</v>
@@ -11715,8 +11715,8 @@
       <c r="AX71" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY71" s="16" t="n">
-        <v>0</v>
+      <c r="AY71" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ71" s="16" t="s">
         <v>57</v>
@@ -11737,49 +11737,49 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="n">
-        <v>37494</v>
+        <v>28903</v>
       </c>
       <c r="F72" s="13" t="n">
-        <v>28903</v>
+        <v>6683</v>
       </c>
       <c r="G72" s="13" t="n">
-        <v>6683</v>
+        <v>9702</v>
       </c>
       <c r="H72" s="13" t="n">
-        <v>9702</v>
+        <v>7563</v>
       </c>
       <c r="I72" s="13" t="n">
-        <v>7563</v>
+        <v>4917</v>
       </c>
       <c r="J72" s="13" t="n">
-        <v>4917</v>
+        <v>18575</v>
       </c>
       <c r="K72" s="13" t="n">
-        <v>18575</v>
+        <v>6197</v>
       </c>
       <c r="L72" s="13" t="n">
-        <v>6197</v>
+        <v>5767</v>
       </c>
       <c r="M72" s="13" t="n">
-        <v>5767</v>
+        <v>1535</v>
       </c>
       <c r="N72" s="13" t="n">
-        <v>1535</v>
+        <v>13407</v>
       </c>
       <c r="O72" s="13" t="n">
-        <v>13407</v>
+        <v>11841</v>
       </c>
       <c r="P72" s="13" t="n">
-        <v>11841</v>
+        <v>10831</v>
       </c>
       <c r="Q72" s="13" t="n">
-        <v>10831</v>
+        <v>6414</v>
       </c>
       <c r="R72" s="13" t="n">
-        <v>6414</v>
+        <v>1680</v>
       </c>
       <c r="S72" s="13" t="n">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="T72" s="13" t="n">
         <v>0</v>
@@ -11788,103 +11788,103 @@
         <v>0</v>
       </c>
       <c r="V72" s="13" t="n">
-        <v>0</v>
+        <v>8218</v>
       </c>
       <c r="W72" s="13" t="n">
-        <v>8218</v>
+        <v>0</v>
       </c>
       <c r="X72" s="13" t="n">
-        <v>0</v>
+        <v>20872</v>
       </c>
       <c r="Y72" s="13" t="n">
-        <v>20872</v>
+        <v>11276</v>
       </c>
       <c r="Z72" s="13" t="n">
-        <v>11276</v>
+        <v>3847</v>
       </c>
       <c r="AA72" s="13" t="n">
-        <v>3847</v>
+        <v>21871</v>
       </c>
       <c r="AB72" s="13" t="n">
-        <v>21871</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="13" t="n">
-        <v>0</v>
+        <v>18649</v>
       </c>
       <c r="AD72" s="13" t="n">
-        <v>18649</v>
+        <v>16575</v>
       </c>
       <c r="AE72" s="13" t="n">
-        <v>16575</v>
+        <v>28660</v>
       </c>
       <c r="AF72" s="13" t="n">
-        <v>28660</v>
+        <v>28880</v>
       </c>
       <c r="AG72" s="13" t="n">
-        <v>28880</v>
+        <v>42262</v>
       </c>
       <c r="AH72" s="13" t="n">
-        <v>42262</v>
+        <v>75148</v>
       </c>
       <c r="AI72" s="13" t="n">
-        <v>75148</v>
+        <v>57154</v>
       </c>
       <c r="AJ72" s="13" t="n">
-        <v>57154</v>
+        <v>10307</v>
       </c>
       <c r="AK72" s="13" t="n">
-        <v>10307</v>
+        <v>34900</v>
       </c>
       <c r="AL72" s="13" t="n">
-        <v>34900</v>
+        <v>40415</v>
       </c>
       <c r="AM72" s="13" t="n">
-        <v>40415</v>
+        <v>44271</v>
       </c>
       <c r="AN72" s="13" t="n">
-        <v>44271</v>
+        <v>11648</v>
       </c>
       <c r="AO72" s="13" t="n">
         <v>11648</v>
       </c>
       <c r="AP72" s="13" t="n">
-        <v>11648</v>
+        <v>32452</v>
       </c>
       <c r="AQ72" s="13" t="n">
-        <v>32452</v>
+        <v>13341</v>
       </c>
       <c r="AR72" s="13" t="n">
-        <v>13341</v>
+        <v>27424</v>
       </c>
       <c r="AS72" s="13" t="n">
-        <v>27424</v>
+        <v>91757</v>
       </c>
       <c r="AT72" s="13" t="n">
-        <v>91757</v>
+        <v>27602</v>
       </c>
       <c r="AU72" s="13" t="n">
-        <v>27602</v>
+        <v>0</v>
       </c>
       <c r="AV72" s="13" t="n">
-        <v>0</v>
+        <v>12964</v>
       </c>
       <c r="AW72" s="13" t="n">
-        <v>12964</v>
+        <v>31132</v>
       </c>
       <c r="AX72" s="13" t="n">
-        <v>31132</v>
+        <v>17429</v>
       </c>
       <c r="AY72" s="13" t="n">
-        <v>17429</v>
+        <v>65844</v>
       </c>
       <c r="AZ72" s="13" t="n">
-        <v>65844</v>
+        <v>74644</v>
       </c>
       <c r="BA72" s="13" t="n">
-        <v>74644</v>
+        <v>7597</v>
       </c>
       <c r="BB72" s="13" t="n">
-        <v>7597</v>
+        <v>30591</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11997,8 +11997,8 @@
       <c r="AL73" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM73" s="16" t="s">
-        <v>57</v>
+      <c r="AM73" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN73" s="16" t="n">
         <v>0</v>
@@ -12033,8 +12033,8 @@
       <c r="AX73" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY73" s="16" t="n">
-        <v>0</v>
+      <c r="AY73" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ73" s="16" t="s">
         <v>57</v>
@@ -12156,8 +12156,8 @@
       <c r="AL74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM74" s="13" t="s">
-        <v>57</v>
+      <c r="AM74" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN74" s="13" t="n">
         <v>0</v>
@@ -12192,8 +12192,8 @@
       <c r="AX74" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY74" s="13" t="n">
-        <v>0</v>
+      <c r="AY74" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ74" s="13" t="s">
         <v>57</v>
@@ -12315,8 +12315,8 @@
       <c r="AL75" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM75" s="16" t="s">
-        <v>57</v>
+      <c r="AM75" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN75" s="16" t="n">
         <v>0</v>
@@ -12351,8 +12351,8 @@
       <c r="AX75" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY75" s="16" t="n">
-        <v>0</v>
+      <c r="AY75" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ75" s="16" t="s">
         <v>57</v>
@@ -12540,8 +12540,8 @@
       <c r="AO77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP77" s="13" t="s">
-        <v>57</v>
+      <c r="AP77" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ77" s="13" t="n">
         <v>0</v>
@@ -12565,16 +12565,16 @@
         <v>0</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>0</v>
+        <v>20211983</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>20211983</v>
+        <v>0</v>
       </c>
       <c r="AZ77" s="13" t="n">
         <v>0</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>0</v>
+        <v>6870003</v>
       </c>
       <c r="BB77" s="13" t="n">
         <v>0</v>
@@ -12699,8 +12699,8 @@
       <c r="AO78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP78" s="16" t="s">
-        <v>57</v>
+      <c r="AP78" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ78" s="16" t="n">
         <v>0</v>
@@ -12724,16 +12724,16 @@
         <v>0</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>0</v>
+        <v>-20164306</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>-20164306</v>
+        <v>0</v>
       </c>
       <c r="AZ78" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>0</v>
+        <v>-6916931</v>
       </c>
       <c r="BB78" s="16" t="n">
         <v>0</v>
@@ -12858,8 +12858,8 @@
       <c r="AO79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP79" s="13" t="s">
-        <v>57</v>
+      <c r="AP79" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ79" s="13" t="n">
         <v>0</v>
@@ -13029,8 +13029,8 @@
       <c r="Z81" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA81" s="20" t="s">
-        <v>57</v>
+      <c r="AA81" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB81" s="23" t="n">
         <v>0</v>
@@ -13074,8 +13074,8 @@
       <c r="AO81" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP81" s="23" t="n">
-        <v>0</v>
+      <c r="AP81" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AQ81" s="20" t="s">
         <v>57</v>
@@ -13284,14 +13284,14 @@
       <c r="AM83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN83" s="13" t="s">
-        <v>57</v>
+      <c r="AN83" s="13" t="n">
+        <v>2048</v>
       </c>
       <c r="AO83" s="13" t="n">
         <v>2048</v>
       </c>
-      <c r="AP83" s="13" t="n">
-        <v>2048</v>
+      <c r="AP83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ83" s="13" t="s">
         <v>57</v>
@@ -13407,50 +13407,50 @@
       <c r="AA84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AB84" s="16" t="s">
-        <v>57</v>
+      <c r="AB84" s="16" t="n">
+        <v>-90</v>
       </c>
       <c r="AC84" s="16" t="n">
-        <v>-90</v>
+        <v>-205</v>
       </c>
       <c r="AD84" s="16" t="n">
-        <v>-205</v>
+        <v>0</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>-113</v>
+        <v>-11</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>0</v>
+        <v>-407</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>-407</v>
+        <v>-5</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>0</v>
+        <v>-144</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>-144</v>
-      </c>
-      <c r="AM84" s="16" t="n">
         <v>-12</v>
       </c>
-      <c r="AN84" s="16" t="s">
-        <v>57</v>
+      <c r="AM84" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN84" s="16" t="n">
+        <v>-432</v>
       </c>
       <c r="AO84" s="16" t="n">
         <v>-432</v>
       </c>
-      <c r="AP84" s="16" t="n">
-        <v>-432</v>
+      <c r="AP84" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ84" s="16" t="s">
         <v>57</v>
@@ -13566,50 +13566,50 @@
       <c r="AA85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB85" s="13" t="s">
-        <v>57</v>
+      <c r="AB85" s="13" t="n">
+        <v>-889</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>-889</v>
+        <v>-780</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>-780</v>
+        <v>0</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>-146</v>
+        <v>-289</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>-289</v>
+        <v>0</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>0</v>
+        <v>-967</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>-967</v>
+        <v>-2670</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>-2670</v>
+        <v>-134</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>-134</v>
+        <v>-417</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>-417</v>
+        <v>-944</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>-944</v>
+        <v>-331</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>-331</v>
+        <v>-46</v>
       </c>
       <c r="AO85" s="13" t="n">
         <v>-46</v>
       </c>
-      <c r="AP85" s="13" t="n">
-        <v>-46</v>
+      <c r="AP85" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ85" s="13" t="s">
         <v>57</v>
@@ -13722,53 +13722,53 @@
       <c r="Z86" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA86" s="22" t="s">
-        <v>57</v>
+      <c r="AA86" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AB86" s="24" t="n">
-        <v>0</v>
+        <v>-979</v>
       </c>
       <c r="AC86" s="24" t="n">
-        <v>-979</v>
+        <v>-985</v>
       </c>
       <c r="AD86" s="24" t="n">
-        <v>-985</v>
+        <v>0</v>
       </c>
       <c r="AE86" s="24" t="n">
-        <v>0</v>
+        <v>-259</v>
       </c>
       <c r="AF86" s="24" t="n">
-        <v>-259</v>
+        <v>-300</v>
       </c>
       <c r="AG86" s="24" t="n">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AH86" s="24" t="n">
-        <v>0</v>
+        <v>-1374</v>
       </c>
       <c r="AI86" s="24" t="n">
-        <v>-1374</v>
+        <v>-2675</v>
       </c>
       <c r="AJ86" s="24" t="n">
-        <v>-2675</v>
+        <v>-134</v>
       </c>
       <c r="AK86" s="24" t="n">
-        <v>-134</v>
+        <v>-561</v>
       </c>
       <c r="AL86" s="24" t="n">
-        <v>-561</v>
+        <v>-956</v>
       </c>
       <c r="AM86" s="24" t="n">
-        <v>-956</v>
+        <v>-331</v>
       </c>
       <c r="AN86" s="24" t="n">
-        <v>-331</v>
+        <v>1570</v>
       </c>
       <c r="AO86" s="24" t="n">
         <v>1570</v>
       </c>
-      <c r="AP86" s="24" t="n">
-        <v>1570</v>
+      <c r="AP86" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="AQ86" s="22" t="s">
         <v>57</v>
@@ -13938,53 +13938,53 @@
       <c r="Z88" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA88" s="13" t="s">
-        <v>57</v>
+      <c r="AA88" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB88" s="13" t="n">
-        <v>0</v>
+        <v>-67667</v>
       </c>
       <c r="AC88" s="13" t="n">
-        <v>-67667</v>
+        <v>-2136</v>
       </c>
       <c r="AD88" s="13" t="n">
-        <v>-2136</v>
+        <v>-1595</v>
       </c>
       <c r="AE88" s="13" t="n">
-        <v>-1595</v>
+        <v>-586</v>
       </c>
       <c r="AF88" s="13" t="n">
-        <v>-586</v>
+        <v>-774</v>
       </c>
       <c r="AG88" s="13" t="n">
-        <v>-774</v>
+        <v>-485</v>
       </c>
       <c r="AH88" s="13" t="n">
-        <v>-485</v>
+        <v>-517</v>
       </c>
       <c r="AI88" s="13" t="n">
-        <v>-517</v>
+        <v>-1526</v>
       </c>
       <c r="AJ88" s="13" t="n">
-        <v>-1526</v>
+        <v>-167</v>
       </c>
       <c r="AK88" s="13" t="n">
-        <v>-167</v>
+        <v>-495</v>
       </c>
       <c r="AL88" s="13" t="n">
-        <v>-495</v>
+        <v>-585</v>
       </c>
       <c r="AM88" s="13" t="n">
-        <v>-585</v>
+        <v>-555</v>
       </c>
       <c r="AN88" s="13" t="n">
-        <v>-555</v>
+        <v>-541</v>
       </c>
       <c r="AO88" s="13" t="n">
         <v>-541</v>
       </c>
-      <c r="AP88" s="13" t="n">
-        <v>-541</v>
+      <c r="AP88" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ88" s="13" t="s">
         <v>57</v>
@@ -14030,154 +14030,154 @@
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24" t="n">
-        <v>568965</v>
+        <v>471994</v>
       </c>
       <c r="F89" s="24" t="n">
-        <v>471994</v>
+        <v>361611</v>
       </c>
       <c r="G89" s="24" t="n">
-        <v>361611</v>
+        <v>425040</v>
       </c>
       <c r="H89" s="24" t="n">
-        <v>425040</v>
+        <v>360425</v>
       </c>
       <c r="I89" s="24" t="n">
-        <v>360425</v>
+        <v>501435</v>
       </c>
       <c r="J89" s="24" t="n">
-        <v>501435</v>
+        <v>509495</v>
       </c>
       <c r="K89" s="24" t="n">
-        <v>509495</v>
+        <v>431752</v>
       </c>
       <c r="L89" s="24" t="n">
-        <v>431752</v>
+        <v>520844</v>
       </c>
       <c r="M89" s="24" t="n">
-        <v>520844</v>
+        <v>618511</v>
       </c>
       <c r="N89" s="24" t="n">
-        <v>618511</v>
+        <v>697972</v>
       </c>
       <c r="O89" s="24" t="n">
-        <v>697972</v>
+        <v>543795</v>
       </c>
       <c r="P89" s="24" t="n">
-        <v>543795</v>
+        <v>661128</v>
       </c>
       <c r="Q89" s="24" t="n">
-        <v>661128</v>
+        <v>511113</v>
       </c>
       <c r="R89" s="24" t="n">
-        <v>511113</v>
+        <v>530097</v>
       </c>
       <c r="S89" s="24" t="n">
-        <v>530097</v>
+        <v>497654</v>
       </c>
       <c r="T89" s="24" t="n">
-        <v>497654</v>
+        <v>520047</v>
       </c>
       <c r="U89" s="24" t="n">
-        <v>520047</v>
+        <v>622169</v>
       </c>
       <c r="V89" s="24" t="n">
-        <v>622169</v>
+        <v>548684</v>
       </c>
       <c r="W89" s="24" t="n">
-        <v>548684</v>
+        <v>663694</v>
       </c>
       <c r="X89" s="24" t="n">
-        <v>663694</v>
+        <v>758620</v>
       </c>
       <c r="Y89" s="24" t="n">
-        <v>758620</v>
+        <v>718649</v>
       </c>
       <c r="Z89" s="24" t="n">
-        <v>718649</v>
+        <v>909926</v>
       </c>
       <c r="AA89" s="24" t="n">
-        <v>909926</v>
+        <v>879524</v>
       </c>
       <c r="AB89" s="24" t="n">
-        <v>879524</v>
+        <v>829383</v>
       </c>
       <c r="AC89" s="24" t="n">
-        <v>829383</v>
+        <v>833084</v>
       </c>
       <c r="AD89" s="24" t="n">
-        <v>833084</v>
+        <v>777130</v>
       </c>
       <c r="AE89" s="24" t="n">
-        <v>777130</v>
+        <v>870816</v>
       </c>
       <c r="AF89" s="24" t="n">
-        <v>870816</v>
+        <v>1059790</v>
       </c>
       <c r="AG89" s="24" t="n">
-        <v>1059790</v>
+        <v>1114038</v>
       </c>
       <c r="AH89" s="24" t="n">
-        <v>1114038</v>
+        <v>1385901</v>
       </c>
       <c r="AI89" s="24" t="n">
-        <v>1385901</v>
+        <v>1736019</v>
       </c>
       <c r="AJ89" s="24" t="n">
-        <v>1736019</v>
+        <v>1618218</v>
       </c>
       <c r="AK89" s="24" t="n">
-        <v>1618218</v>
+        <v>1706761</v>
       </c>
       <c r="AL89" s="24" t="n">
-        <v>1706761</v>
+        <v>1705305</v>
       </c>
       <c r="AM89" s="24" t="n">
-        <v>1705305</v>
+        <v>1441199</v>
       </c>
       <c r="AN89" s="24" t="n">
-        <v>1441199</v>
+        <v>1496917</v>
       </c>
       <c r="AO89" s="24" t="n">
         <v>1496917</v>
       </c>
       <c r="AP89" s="24" t="n">
-        <v>1496917</v>
+        <v>1258536</v>
       </c>
       <c r="AQ89" s="24" t="n">
-        <v>1258536</v>
+        <v>1223341</v>
       </c>
       <c r="AR89" s="24" t="n">
-        <v>1223341</v>
+        <v>1606558</v>
       </c>
       <c r="AS89" s="24" t="n">
-        <v>1606558</v>
+        <v>1735370</v>
       </c>
       <c r="AT89" s="24" t="n">
-        <v>1735370</v>
+        <v>1894697</v>
       </c>
       <c r="AU89" s="24" t="n">
-        <v>1894697</v>
+        <v>2079585</v>
       </c>
       <c r="AV89" s="24" t="n">
-        <v>2079585</v>
+        <v>2160596</v>
       </c>
       <c r="AW89" s="24" t="n">
-        <v>2160596</v>
+        <v>2315149</v>
       </c>
       <c r="AX89" s="24" t="n">
-        <v>2315149</v>
+        <v>2299529</v>
       </c>
       <c r="AY89" s="24" t="n">
-        <v>2299529</v>
+        <v>2098840</v>
       </c>
       <c r="AZ89" s="24" t="n">
-        <v>2098840</v>
+        <v>2345105</v>
       </c>
       <c r="BA89" s="24" t="n">
-        <v>2345105</v>
+        <v>2609777</v>
       </c>
       <c r="BB89" s="24" t="n">
-        <v>2656373</v>
+        <v>2573243</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14736,41 +14736,41 @@
       <c r="AP96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ96" s="13" t="s">
-        <v>57</v>
+      <c r="AQ96" s="13" t="n">
+        <v>78000000</v>
       </c>
       <c r="AR96" s="13" t="n">
-        <v>78000000</v>
+        <v>76500000</v>
       </c>
       <c r="AS96" s="13" t="n">
-        <v>76500000</v>
+        <v>73666667</v>
       </c>
       <c r="AT96" s="13" t="n">
-        <v>73666667</v>
+        <v>214114035</v>
       </c>
       <c r="AU96" s="13" t="n">
-        <v>214114035</v>
+        <v>85000000</v>
       </c>
       <c r="AV96" s="13" t="n">
-        <v>85000000</v>
+        <v>69300000</v>
       </c>
       <c r="AW96" s="13" t="n">
-        <v>69300000</v>
+        <v>75125000</v>
       </c>
       <c r="AX96" s="13" t="n">
-        <v>75125000</v>
-      </c>
-      <c r="AY96" s="13" t="n">
         <v>83581395</v>
       </c>
-      <c r="AZ96" s="13" t="s">
-        <v>57</v>
+      <c r="AY96" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ96" s="13" t="n">
+        <v>365181818</v>
       </c>
       <c r="BA96" s="13" t="n">
-        <v>365181818</v>
+        <v>368013889</v>
       </c>
       <c r="BB96" s="13" t="n">
-        <v>363402778</v>
+        <v>244894737</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14850,20 +14850,20 @@
       <c r="AA97" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AB97" s="16" t="s">
-        <v>57</v>
+      <c r="AB97" s="16" t="n">
+        <v>1614154</v>
       </c>
       <c r="AC97" s="16" t="n">
-        <v>1614154</v>
+        <v>3788991</v>
       </c>
       <c r="AD97" s="16" t="n">
-        <v>3788991</v>
+        <v>5348361</v>
       </c>
       <c r="AE97" s="16" t="n">
-        <v>5348361</v>
-      </c>
-      <c r="AF97" s="16" t="n">
         <v>5900258</v>
+      </c>
+      <c r="AF97" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AG97" s="16" t="s">
         <v>57</v>
@@ -14940,155 +14940,155 @@
         <v>95</v>
       </c>
       <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
-        <v>57</v>
+      <c r="E98" s="13" t="n">
+        <v>141750000</v>
       </c>
       <c r="F98" s="13" t="n">
-        <v>141750000</v>
+        <v>0</v>
       </c>
       <c r="G98" s="13" t="n">
-        <v>0</v>
+        <v>1812500</v>
       </c>
       <c r="H98" s="13" t="n">
-        <v>1812500</v>
+        <v>0</v>
       </c>
       <c r="I98" s="13" t="n">
-        <v>0</v>
+        <v>17438849</v>
       </c>
       <c r="J98" s="13" t="n">
-        <v>17438849</v>
+        <v>0</v>
       </c>
       <c r="K98" s="13" t="n">
-        <v>0</v>
+        <v>4151220</v>
       </c>
       <c r="L98" s="13" t="n">
-        <v>4151220</v>
+        <v>0</v>
       </c>
       <c r="M98" s="13" t="n">
-        <v>0</v>
+        <v>7226351</v>
       </c>
       <c r="N98" s="13" t="n">
-        <v>7226351</v>
+        <v>570966667</v>
       </c>
       <c r="O98" s="13" t="n">
-        <v>570966667</v>
+        <v>733355556</v>
       </c>
       <c r="P98" s="13" t="n">
-        <v>733355556</v>
+        <v>701966102</v>
       </c>
       <c r="Q98" s="13" t="n">
-        <v>701966102</v>
+        <v>77333333</v>
       </c>
       <c r="R98" s="13" t="n">
-        <v>77333333</v>
+        <v>0</v>
       </c>
       <c r="S98" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T98" s="13" t="n">
-        <v>0</v>
+        <v>103400000</v>
       </c>
       <c r="U98" s="13" t="n">
-        <v>103400000</v>
+        <v>25098361</v>
       </c>
       <c r="V98" s="13" t="n">
-        <v>25098361</v>
+        <v>226805195</v>
       </c>
       <c r="W98" s="13" t="n">
-        <v>226805195</v>
+        <v>5615702</v>
       </c>
       <c r="X98" s="13" t="n">
-        <v>5615702</v>
+        <v>28678060</v>
       </c>
       <c r="Y98" s="13" t="n">
-        <v>28678060</v>
+        <v>774923077</v>
       </c>
       <c r="Z98" s="13" t="n">
-        <v>774923077</v>
-      </c>
-      <c r="AA98" s="13" t="n">
         <v>1081270833</v>
       </c>
-      <c r="AB98" s="13" t="s">
-        <v>57</v>
+      <c r="AA98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB98" s="13" t="n">
+        <v>1019266667</v>
       </c>
       <c r="AC98" s="13" t="n">
-        <v>1019266667</v>
+        <v>526000000</v>
       </c>
       <c r="AD98" s="13" t="n">
-        <v>526000000</v>
+        <v>820206897</v>
       </c>
       <c r="AE98" s="13" t="n">
-        <v>820206897</v>
-      </c>
-      <c r="AF98" s="13" t="n">
         <v>3400000</v>
       </c>
-      <c r="AG98" s="13" t="s">
-        <v>57</v>
+      <c r="AF98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG98" s="13" t="n">
+        <v>46369748</v>
       </c>
       <c r="AH98" s="13" t="n">
-        <v>46369748</v>
+        <v>48750000</v>
       </c>
       <c r="AI98" s="13" t="n">
-        <v>48750000</v>
+        <v>260453125</v>
       </c>
       <c r="AJ98" s="13" t="n">
-        <v>260453125</v>
+        <v>68011864</v>
       </c>
       <c r="AK98" s="13" t="n">
-        <v>68011864</v>
+        <v>902486842</v>
       </c>
       <c r="AL98" s="13" t="n">
-        <v>902486842</v>
-      </c>
-      <c r="AM98" s="13" t="n">
         <v>1358230769</v>
       </c>
-      <c r="AN98" s="13" t="s">
-        <v>57</v>
+      <c r="AM98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN98" s="13" t="n">
+        <v>589420168</v>
       </c>
       <c r="AO98" s="13" t="n">
         <v>589420168</v>
       </c>
       <c r="AP98" s="13" t="n">
-        <v>589420168</v>
+        <v>2250714286</v>
       </c>
       <c r="AQ98" s="13" t="n">
-        <v>2250714286</v>
+        <v>2272687500</v>
       </c>
       <c r="AR98" s="13" t="n">
-        <v>2272687500</v>
+        <v>2533000000</v>
       </c>
       <c r="AS98" s="13" t="n">
-        <v>2533000000</v>
+        <v>281844595</v>
       </c>
       <c r="AT98" s="13" t="n">
-        <v>281844595</v>
+        <v>81892857</v>
       </c>
       <c r="AU98" s="13" t="n">
-        <v>81892857</v>
+        <v>1551555556</v>
       </c>
       <c r="AV98" s="13" t="n">
-        <v>1551555556</v>
+        <v>83113953</v>
       </c>
       <c r="AW98" s="13" t="n">
-        <v>83113953</v>
+        <v>1077078947</v>
       </c>
       <c r="AX98" s="13" t="n">
-        <v>1077078947</v>
+        <v>904461538</v>
       </c>
       <c r="AY98" s="13" t="n">
-        <v>904461538</v>
+        <v>3033800000</v>
       </c>
       <c r="AZ98" s="13" t="n">
-        <v>3033800000</v>
+        <v>3346000000</v>
       </c>
       <c r="BA98" s="13" t="n">
-        <v>3346000000</v>
+        <v>2698000000</v>
       </c>
       <c r="BB98" s="13" t="n">
-        <v>2698000000</v>
+        <v>3995600000</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15100,154 +15100,154 @@
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16" t="n">
-        <v>22753927</v>
+        <v>23271041</v>
       </c>
       <c r="F99" s="16" t="n">
-        <v>23271041</v>
+        <v>23204225</v>
       </c>
       <c r="G99" s="16" t="n">
-        <v>23204225</v>
+        <v>20040431</v>
       </c>
       <c r="H99" s="16" t="n">
-        <v>20040431</v>
+        <v>20477419</v>
       </c>
       <c r="I99" s="16" t="n">
-        <v>20477419</v>
+        <v>26392857</v>
       </c>
       <c r="J99" s="16" t="n">
-        <v>26392857</v>
+        <v>25716912</v>
       </c>
       <c r="K99" s="16" t="n">
-        <v>25716912</v>
+        <v>25687117</v>
       </c>
       <c r="L99" s="16" t="n">
-        <v>25687117</v>
+        <v>25339869</v>
       </c>
       <c r="M99" s="16" t="n">
-        <v>25339869</v>
+        <v>23520325</v>
       </c>
       <c r="N99" s="16" t="n">
-        <v>23520325</v>
+        <v>24829384</v>
       </c>
       <c r="O99" s="16" t="n">
-        <v>24829384</v>
+        <v>22037534</v>
       </c>
       <c r="P99" s="16" t="n">
-        <v>22037534</v>
+        <v>22507987</v>
       </c>
       <c r="Q99" s="16" t="n">
-        <v>22507987</v>
+        <v>23694669</v>
       </c>
       <c r="R99" s="16" t="n">
-        <v>23694669</v>
+        <v>24998780</v>
       </c>
       <c r="S99" s="16" t="n">
-        <v>24998780</v>
+        <v>22586538</v>
       </c>
       <c r="T99" s="16" t="n">
-        <v>22586538</v>
+        <v>28504237</v>
       </c>
       <c r="U99" s="16" t="n">
-        <v>28504237</v>
+        <v>30271028</v>
       </c>
       <c r="V99" s="16" t="n">
-        <v>30271028</v>
+        <v>38391304</v>
       </c>
       <c r="W99" s="16" t="n">
-        <v>38391304</v>
+        <v>44455882</v>
       </c>
       <c r="X99" s="16" t="n">
-        <v>44455882</v>
+        <v>51329114</v>
       </c>
       <c r="Y99" s="16" t="n">
-        <v>51329114</v>
+        <v>57179104</v>
       </c>
       <c r="Z99" s="16" t="n">
-        <v>57179104</v>
+        <v>59507937</v>
       </c>
       <c r="AA99" s="16" t="n">
-        <v>59507937</v>
+        <v>61065789</v>
       </c>
       <c r="AB99" s="16" t="n">
-        <v>61065789</v>
+        <v>59947368</v>
       </c>
       <c r="AC99" s="16" t="n">
-        <v>59947368</v>
+        <v>58509091</v>
       </c>
       <c r="AD99" s="16" t="n">
-        <v>58509091</v>
+        <v>59794118</v>
       </c>
       <c r="AE99" s="16" t="n">
-        <v>59794118</v>
+        <v>62000000</v>
       </c>
       <c r="AF99" s="16" t="n">
-        <v>62000000</v>
+        <v>60813559</v>
       </c>
       <c r="AG99" s="16" t="n">
-        <v>60813559</v>
+        <v>59240385</v>
       </c>
       <c r="AH99" s="16" t="n">
-        <v>59240385</v>
+        <v>60132075</v>
       </c>
       <c r="AI99" s="16" t="n">
-        <v>60132075</v>
+        <v>63176471</v>
       </c>
       <c r="AJ99" s="16" t="n">
-        <v>63176471</v>
+        <v>61369863</v>
       </c>
       <c r="AK99" s="16" t="n">
-        <v>61369863</v>
+        <v>60343949</v>
       </c>
       <c r="AL99" s="16" t="n">
-        <v>60343949</v>
+        <v>60495238</v>
       </c>
       <c r="AM99" s="16" t="n">
-        <v>60495238</v>
+        <v>66768116</v>
       </c>
       <c r="AN99" s="16" t="n">
-        <v>66768116</v>
+        <v>86817460</v>
       </c>
       <c r="AO99" s="16" t="n">
         <v>86817460</v>
       </c>
       <c r="AP99" s="16" t="n">
-        <v>86817460</v>
+        <v>98040000</v>
       </c>
       <c r="AQ99" s="16" t="n">
-        <v>98040000</v>
+        <v>97762238</v>
       </c>
       <c r="AR99" s="16" t="n">
-        <v>97762238</v>
+        <v>163527778</v>
       </c>
       <c r="AS99" s="16" t="n">
-        <v>163527778</v>
+        <v>159104478</v>
       </c>
       <c r="AT99" s="16" t="n">
-        <v>159104478</v>
+        <v>159086207</v>
       </c>
       <c r="AU99" s="16" t="n">
-        <v>159086207</v>
+        <v>155459459</v>
       </c>
       <c r="AV99" s="16" t="n">
-        <v>155459459</v>
+        <v>150550847</v>
       </c>
       <c r="AW99" s="16" t="n">
-        <v>150550847</v>
+        <v>152680251</v>
       </c>
       <c r="AX99" s="16" t="n">
-        <v>152680251</v>
+        <v>156416031</v>
       </c>
       <c r="AY99" s="16" t="n">
-        <v>156416031</v>
+        <v>154152174</v>
       </c>
       <c r="AZ99" s="16" t="n">
-        <v>154152174</v>
+        <v>167835749</v>
       </c>
       <c r="BA99" s="16" t="n">
-        <v>167835749</v>
+        <v>172114428</v>
       </c>
       <c r="BB99" s="16" t="n">
-        <v>172114428</v>
+        <v>173690476</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15259,154 +15259,154 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="n">
-        <v>1137762</v>
+        <v>1507288</v>
       </c>
       <c r="F100" s="13" t="n">
-        <v>1507288</v>
+        <v>1507460</v>
       </c>
       <c r="G100" s="13" t="n">
-        <v>1507460</v>
+        <v>1638768</v>
       </c>
       <c r="H100" s="13" t="n">
-        <v>1638768</v>
+        <v>1451403</v>
       </c>
       <c r="I100" s="13" t="n">
-        <v>1451403</v>
+        <v>2250204</v>
       </c>
       <c r="J100" s="13" t="n">
-        <v>2250204</v>
+        <v>1346441</v>
       </c>
       <c r="K100" s="13" t="n">
-        <v>1346441</v>
+        <v>1322770</v>
       </c>
       <c r="L100" s="13" t="n">
-        <v>1322770</v>
+        <v>1609208</v>
       </c>
       <c r="M100" s="13" t="n">
-        <v>1609208</v>
+        <v>1897415</v>
       </c>
       <c r="N100" s="13" t="n">
-        <v>1897415</v>
+        <v>1742971</v>
       </c>
       <c r="O100" s="13" t="n">
-        <v>1742971</v>
+        <v>2291797</v>
       </c>
       <c r="P100" s="13" t="n">
-        <v>2291797</v>
+        <v>1819611</v>
       </c>
       <c r="Q100" s="13" t="n">
-        <v>1819611</v>
+        <v>1468934</v>
       </c>
       <c r="R100" s="13" t="n">
-        <v>1468934</v>
+        <v>1654683</v>
       </c>
       <c r="S100" s="13" t="n">
-        <v>1654683</v>
+        <v>2421105</v>
       </c>
       <c r="T100" s="13" t="n">
-        <v>2421105</v>
+        <v>1891606</v>
       </c>
       <c r="U100" s="13" t="n">
-        <v>1891606</v>
+        <v>6571662</v>
       </c>
       <c r="V100" s="13" t="n">
-        <v>6571662</v>
+        <v>2131616</v>
       </c>
       <c r="W100" s="13" t="n">
-        <v>2131616</v>
+        <v>3296734</v>
       </c>
       <c r="X100" s="13" t="n">
-        <v>3296734</v>
+        <v>3738308</v>
       </c>
       <c r="Y100" s="13" t="n">
-        <v>3738308</v>
+        <v>3677366</v>
       </c>
       <c r="Z100" s="13" t="n">
-        <v>3677366</v>
+        <v>4422301</v>
       </c>
       <c r="AA100" s="13" t="n">
-        <v>4422301</v>
+        <v>2381846</v>
       </c>
       <c r="AB100" s="13" t="n">
-        <v>2381846</v>
+        <v>3324226</v>
       </c>
       <c r="AC100" s="13" t="n">
-        <v>3324226</v>
+        <v>5325106</v>
       </c>
       <c r="AD100" s="13" t="n">
-        <v>5325106</v>
+        <v>5269736</v>
       </c>
       <c r="AE100" s="13" t="n">
-        <v>5269736</v>
+        <v>3190053</v>
       </c>
       <c r="AF100" s="13" t="n">
-        <v>3190053</v>
+        <v>4061445</v>
       </c>
       <c r="AG100" s="13" t="n">
-        <v>4061445</v>
+        <v>4179767</v>
       </c>
       <c r="AH100" s="13" t="n">
-        <v>4179767</v>
+        <v>3798694</v>
       </c>
       <c r="AI100" s="13" t="n">
-        <v>3798694</v>
+        <v>4376508</v>
       </c>
       <c r="AJ100" s="13" t="n">
-        <v>4376508</v>
+        <v>4657304</v>
       </c>
       <c r="AK100" s="13" t="n">
-        <v>4657304</v>
+        <v>4678651</v>
       </c>
       <c r="AL100" s="13" t="n">
-        <v>4678651</v>
+        <v>4679264</v>
       </c>
       <c r="AM100" s="13" t="n">
-        <v>4679264</v>
+        <v>5040768</v>
       </c>
       <c r="AN100" s="13" t="n">
-        <v>5040768</v>
+        <v>4332864</v>
       </c>
       <c r="AO100" s="13" t="n">
         <v>4332864</v>
       </c>
       <c r="AP100" s="13" t="n">
-        <v>4332864</v>
+        <v>3404993</v>
       </c>
       <c r="AQ100" s="13" t="n">
-        <v>3404993</v>
+        <v>3752298</v>
       </c>
       <c r="AR100" s="13" t="n">
-        <v>3752298</v>
+        <v>5735457</v>
       </c>
       <c r="AS100" s="13" t="n">
-        <v>5735457</v>
+        <v>4157240</v>
       </c>
       <c r="AT100" s="13" t="n">
-        <v>4157240</v>
+        <v>6040144</v>
       </c>
       <c r="AU100" s="13" t="n">
-        <v>6040144</v>
+        <v>4930030</v>
       </c>
       <c r="AV100" s="13" t="n">
-        <v>4930030</v>
+        <v>5781575</v>
       </c>
       <c r="AW100" s="13" t="n">
-        <v>5781575</v>
+        <v>5666754</v>
       </c>
       <c r="AX100" s="13" t="n">
-        <v>5666754</v>
+        <v>6880629</v>
       </c>
       <c r="AY100" s="13" t="n">
-        <v>6880629</v>
+        <v>5330795</v>
       </c>
       <c r="AZ100" s="13" t="n">
-        <v>5330795</v>
+        <v>5044285</v>
       </c>
       <c r="BA100" s="13" t="n">
-        <v>5044285</v>
+        <v>7118039</v>
       </c>
       <c r="BB100" s="13" t="n">
-        <v>7118039</v>
+        <v>5790563</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15418,154 +15418,154 @@
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16" t="n">
-        <v>73874606</v>
+        <v>73237435</v>
       </c>
       <c r="F101" s="16" t="n">
-        <v>73237435</v>
+        <v>65447137</v>
       </c>
       <c r="G101" s="16" t="n">
-        <v>65447137</v>
+        <v>61240606</v>
       </c>
       <c r="H101" s="16" t="n">
-        <v>61240606</v>
+        <v>50867814</v>
       </c>
       <c r="I101" s="16" t="n">
-        <v>50867814</v>
+        <v>75032648</v>
       </c>
       <c r="J101" s="16" t="n">
-        <v>75032648</v>
+        <v>73351759</v>
       </c>
       <c r="K101" s="16" t="n">
-        <v>73351759</v>
+        <v>65593663</v>
       </c>
       <c r="L101" s="16" t="n">
-        <v>65593663</v>
+        <v>70156400</v>
       </c>
       <c r="M101" s="16" t="n">
-        <v>70156400</v>
+        <v>84331874</v>
       </c>
       <c r="N101" s="16" t="n">
-        <v>84331874</v>
+        <v>83047372</v>
       </c>
       <c r="O101" s="16" t="n">
-        <v>83047372</v>
+        <v>83142914</v>
       </c>
       <c r="P101" s="16" t="n">
-        <v>83142914</v>
+        <v>82536917</v>
       </c>
       <c r="Q101" s="16" t="n">
-        <v>82536917</v>
+        <v>87538038</v>
       </c>
       <c r="R101" s="16" t="n">
-        <v>87538038</v>
+        <v>92508614</v>
       </c>
       <c r="S101" s="16" t="n">
-        <v>92508614</v>
+        <v>81476280</v>
       </c>
       <c r="T101" s="16" t="n">
-        <v>81476280</v>
+        <v>91520753</v>
       </c>
       <c r="U101" s="16" t="n">
-        <v>91520753</v>
+        <v>116338618</v>
       </c>
       <c r="V101" s="16" t="n">
-        <v>116338618</v>
+        <v>88808845</v>
       </c>
       <c r="W101" s="16" t="n">
-        <v>88808845</v>
+        <v>130055453</v>
       </c>
       <c r="X101" s="16" t="n">
-        <v>130055453</v>
+        <v>138027622</v>
       </c>
       <c r="Y101" s="16" t="n">
-        <v>138027622</v>
+        <v>136527127</v>
       </c>
       <c r="Z101" s="16" t="n">
-        <v>136527127</v>
+        <v>159215484</v>
       </c>
       <c r="AA101" s="16" t="n">
-        <v>159215484</v>
+        <v>148557728</v>
       </c>
       <c r="AB101" s="16" t="n">
-        <v>148557728</v>
+        <v>155172922</v>
       </c>
       <c r="AC101" s="16" t="n">
-        <v>155172922</v>
+        <v>153967866</v>
       </c>
       <c r="AD101" s="16" t="n">
-        <v>153967866</v>
+        <v>130039290</v>
       </c>
       <c r="AE101" s="16" t="n">
-        <v>130039290</v>
+        <v>120336639</v>
       </c>
       <c r="AF101" s="16" t="n">
-        <v>120336639</v>
+        <v>147621657</v>
       </c>
       <c r="AG101" s="16" t="n">
-        <v>147621657</v>
+        <v>164086128</v>
       </c>
       <c r="AH101" s="16" t="n">
-        <v>164086128</v>
+        <v>180239079</v>
       </c>
       <c r="AI101" s="16" t="n">
-        <v>180239079</v>
+        <v>198696016</v>
       </c>
       <c r="AJ101" s="16" t="n">
-        <v>198696016</v>
+        <v>225052557</v>
       </c>
       <c r="AK101" s="16" t="n">
-        <v>225052557</v>
+        <v>215885023</v>
       </c>
       <c r="AL101" s="16" t="n">
-        <v>215885023</v>
+        <v>196973366</v>
       </c>
       <c r="AM101" s="16" t="n">
-        <v>196973366</v>
+        <v>201633623</v>
       </c>
       <c r="AN101" s="16" t="n">
-        <v>201633623</v>
+        <v>202684129</v>
       </c>
       <c r="AO101" s="16" t="n">
         <v>202684129</v>
       </c>
       <c r="AP101" s="16" t="n">
-        <v>202684129</v>
+        <v>201922294</v>
       </c>
       <c r="AQ101" s="16" t="n">
-        <v>201922294</v>
+        <v>233461771</v>
       </c>
       <c r="AR101" s="16" t="n">
-        <v>233461771</v>
+        <v>308832172</v>
       </c>
       <c r="AS101" s="16" t="n">
-        <v>308832172</v>
+        <v>356559353</v>
       </c>
       <c r="AT101" s="16" t="n">
-        <v>356559353</v>
+        <v>361201971</v>
       </c>
       <c r="AU101" s="16" t="n">
-        <v>361201971</v>
+        <v>365471748</v>
       </c>
       <c r="AV101" s="16" t="n">
-        <v>365471748</v>
+        <v>391778569</v>
       </c>
       <c r="AW101" s="16" t="n">
-        <v>391778569</v>
+        <v>394193366</v>
       </c>
       <c r="AX101" s="16" t="n">
-        <v>394193366</v>
+        <v>410467433</v>
       </c>
       <c r="AY101" s="16" t="n">
-        <v>410467433</v>
+        <v>423690837</v>
       </c>
       <c r="AZ101" s="16" t="n">
-        <v>423690837</v>
+        <v>407672486</v>
       </c>
       <c r="BA101" s="16" t="n">
-        <v>407672486</v>
+        <v>406243553</v>
       </c>
       <c r="BB101" s="16" t="n">
-        <v>406243553</v>
+        <v>380289222</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15577,154 +15577,154 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="n">
-        <v>35891584</v>
+        <v>23629599</v>
       </c>
       <c r="F102" s="13" t="n">
-        <v>23629599</v>
+        <v>14596628</v>
       </c>
       <c r="G102" s="13" t="n">
-        <v>14596628</v>
+        <v>17419529</v>
       </c>
       <c r="H102" s="13" t="n">
-        <v>17419529</v>
+        <v>15446615</v>
       </c>
       <c r="I102" s="13" t="n">
-        <v>15446615</v>
+        <v>19223450</v>
       </c>
       <c r="J102" s="13" t="n">
-        <v>19223450</v>
+        <v>19665775</v>
       </c>
       <c r="K102" s="13" t="n">
-        <v>19665775</v>
+        <v>13123941</v>
       </c>
       <c r="L102" s="13" t="n">
-        <v>13123941</v>
+        <v>24456398</v>
       </c>
       <c r="M102" s="13" t="n">
-        <v>24456398</v>
+        <v>29501796</v>
       </c>
       <c r="N102" s="13" t="n">
-        <v>29501796</v>
+        <v>31038309</v>
       </c>
       <c r="O102" s="13" t="n">
-        <v>31038309</v>
+        <v>32649177</v>
       </c>
       <c r="P102" s="13" t="n">
-        <v>32649177</v>
+        <v>40460526</v>
       </c>
       <c r="Q102" s="13" t="n">
-        <v>40460526</v>
+        <v>14814460</v>
       </c>
       <c r="R102" s="13" t="n">
-        <v>14814460</v>
+        <v>5688858</v>
       </c>
       <c r="S102" s="13" t="n">
-        <v>5688858</v>
+        <v>8688710</v>
       </c>
       <c r="T102" s="13" t="n">
-        <v>8688710</v>
+        <v>15292373</v>
       </c>
       <c r="U102" s="13" t="n">
-        <v>15292373</v>
+        <v>21080759</v>
       </c>
       <c r="V102" s="13" t="n">
-        <v>21080759</v>
+        <v>9616527</v>
       </c>
       <c r="W102" s="13" t="n">
-        <v>9616527</v>
+        <v>4355975</v>
       </c>
       <c r="X102" s="13" t="n">
-        <v>4355975</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="13" t="n">
-        <v>0</v>
+        <v>19615385</v>
       </c>
       <c r="Z102" s="13" t="n">
-        <v>19615385</v>
+        <v>33322709</v>
       </c>
       <c r="AA102" s="13" t="n">
-        <v>33322709</v>
+        <v>38706131</v>
       </c>
       <c r="AB102" s="13" t="n">
-        <v>38706131</v>
+        <v>41750807</v>
       </c>
       <c r="AC102" s="13" t="n">
-        <v>41750807</v>
+        <v>39262160</v>
       </c>
       <c r="AD102" s="13" t="n">
-        <v>39262160</v>
+        <v>53502642</v>
       </c>
       <c r="AE102" s="13" t="n">
-        <v>53502642</v>
+        <v>64021560</v>
       </c>
       <c r="AF102" s="13" t="n">
-        <v>64021560</v>
+        <v>60579636</v>
       </c>
       <c r="AG102" s="13" t="n">
-        <v>60579636</v>
+        <v>58273229</v>
       </c>
       <c r="AH102" s="13" t="n">
-        <v>58273229</v>
+        <v>65267339</v>
       </c>
       <c r="AI102" s="13" t="n">
-        <v>65267339</v>
+        <v>75838079</v>
       </c>
       <c r="AJ102" s="13" t="n">
-        <v>75838079</v>
+        <v>68004633</v>
       </c>
       <c r="AK102" s="13" t="n">
-        <v>68004633</v>
+        <v>73053687</v>
       </c>
       <c r="AL102" s="13" t="n">
-        <v>73053687</v>
+        <v>67540541</v>
       </c>
       <c r="AM102" s="13" t="n">
-        <v>67540541</v>
+        <v>65145701</v>
       </c>
       <c r="AN102" s="13" t="n">
-        <v>65145701</v>
+        <v>35956067</v>
       </c>
       <c r="AO102" s="13" t="n">
         <v>35956067</v>
       </c>
       <c r="AP102" s="13" t="n">
-        <v>35956067</v>
+        <v>67641555</v>
       </c>
       <c r="AQ102" s="13" t="n">
-        <v>67641555</v>
+        <v>78854427</v>
       </c>
       <c r="AR102" s="13" t="n">
-        <v>78854427</v>
+        <v>22473443</v>
       </c>
       <c r="AS102" s="13" t="n">
-        <v>22473443</v>
+        <v>43560166</v>
       </c>
       <c r="AT102" s="13" t="n">
-        <v>43560166</v>
+        <v>24562284</v>
       </c>
       <c r="AU102" s="13" t="n">
-        <v>24562284</v>
+        <v>100441333</v>
       </c>
       <c r="AV102" s="13" t="n">
-        <v>100441333</v>
+        <v>122661718</v>
       </c>
       <c r="AW102" s="13" t="n">
-        <v>122661718</v>
+        <v>106109209</v>
       </c>
       <c r="AX102" s="13" t="n">
-        <v>106109209</v>
+        <v>51222000</v>
       </c>
       <c r="AY102" s="13" t="n">
-        <v>51222000</v>
+        <v>31198000</v>
       </c>
       <c r="AZ102" s="13" t="n">
-        <v>31198000</v>
+        <v>52521127</v>
       </c>
       <c r="BA102" s="13" t="n">
-        <v>52521127</v>
+        <v>161983333</v>
       </c>
       <c r="BB102" s="13" t="n">
-        <v>161983333</v>
+        <v>184915929</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15736,55 +15736,55 @@
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16" t="n">
-        <v>200350000</v>
+        <v>198312883</v>
       </c>
       <c r="F103" s="16" t="n">
-        <v>198312883</v>
+        <v>205434783</v>
       </c>
       <c r="G103" s="16" t="n">
-        <v>205434783</v>
+        <v>171222222</v>
       </c>
       <c r="H103" s="16" t="n">
-        <v>171222222</v>
+        <v>165000000</v>
       </c>
       <c r="I103" s="16" t="n">
-        <v>165000000</v>
+        <v>191276074</v>
       </c>
       <c r="J103" s="16" t="n">
-        <v>191276074</v>
+        <v>193941176</v>
       </c>
       <c r="K103" s="16" t="n">
-        <v>193941176</v>
+        <v>186625000</v>
       </c>
       <c r="L103" s="16" t="n">
-        <v>186625000</v>
+        <v>179117647</v>
       </c>
       <c r="M103" s="16" t="n">
-        <v>179117647</v>
+        <v>203355932</v>
       </c>
       <c r="N103" s="16" t="n">
-        <v>203355932</v>
+        <v>208949438</v>
       </c>
       <c r="O103" s="16" t="n">
-        <v>208949438</v>
+        <v>233187500</v>
       </c>
       <c r="P103" s="16" t="n">
-        <v>233187500</v>
+        <v>206755725</v>
       </c>
       <c r="Q103" s="16" t="n">
-        <v>206755725</v>
+        <v>218927273</v>
       </c>
       <c r="R103" s="16" t="n">
-        <v>218927273</v>
+        <v>205000000</v>
       </c>
       <c r="S103" s="16" t="n">
-        <v>205000000</v>
+        <v>206815126</v>
       </c>
       <c r="T103" s="16" t="n">
-        <v>206815126</v>
+        <v>216000000</v>
       </c>
       <c r="U103" s="16" t="n">
-        <v>216000000</v>
+        <v>0</v>
       </c>
       <c r="V103" s="16" t="n">
         <v>0</v>
@@ -15796,80 +15796,80 @@
         <v>0</v>
       </c>
       <c r="Y103" s="16" t="n">
-        <v>0</v>
+        <v>280000000</v>
       </c>
       <c r="Z103" s="16" t="n">
-        <v>280000000</v>
-      </c>
-      <c r="AA103" s="16" t="n">
         <v>310000000</v>
       </c>
+      <c r="AA103" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AB103" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AC103" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD103" s="16" t="n">
+      <c r="AC103" s="16" t="n">
         <v>12000000</v>
       </c>
-      <c r="AE103" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF103" s="16" t="n">
+      <c r="AD103" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE103" s="16" t="n">
         <v>444600000</v>
       </c>
+      <c r="AF103" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AG103" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AH103" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AI103" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ103" s="16" t="n">
+      <c r="AI103" s="16" t="n">
         <v>545393939</v>
       </c>
+      <c r="AJ103" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AK103" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AL103" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM103" s="16" t="s">
-        <v>57</v>
+      <c r="AM103" s="16" t="n">
+        <v>595915493</v>
       </c>
       <c r="AN103" s="16" t="n">
-        <v>595915493</v>
+        <v>639000000</v>
       </c>
       <c r="AO103" s="16" t="n">
         <v>639000000</v>
       </c>
       <c r="AP103" s="16" t="n">
-        <v>639000000</v>
-      </c>
-      <c r="AQ103" s="16" t="n">
         <v>758678571</v>
       </c>
+      <c r="AQ103" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AR103" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AS103" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AT103" s="16" t="s">
-        <v>57</v>
+      <c r="AT103" s="16" t="n">
+        <v>870000000</v>
       </c>
       <c r="AU103" s="16" t="n">
-        <v>870000000</v>
+        <v>970000000</v>
       </c>
       <c r="AV103" s="16" t="n">
-        <v>970000000</v>
-      </c>
-      <c r="AW103" s="16" t="n">
         <v>1200000000</v>
       </c>
+      <c r="AW103" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AX103" s="16" t="s">
         <v>57</v>
       </c>
@@ -15879,11 +15879,11 @@
       <c r="AZ103" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA103" s="16" t="s">
-        <v>57</v>
+      <c r="BA103" s="16" t="n">
+        <v>1116629213</v>
       </c>
       <c r="BB103" s="16" t="n">
-        <v>1116629213</v>
+        <v>1310400000</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15895,49 +15895,49 @@
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13" t="n">
-        <v>38494867</v>
+        <v>36913155</v>
       </c>
       <c r="F104" s="13" t="n">
-        <v>36913155</v>
+        <v>41000000</v>
       </c>
       <c r="G104" s="13" t="n">
-        <v>41000000</v>
+        <v>36750000</v>
       </c>
       <c r="H104" s="13" t="n">
-        <v>36750000</v>
+        <v>37073529</v>
       </c>
       <c r="I104" s="13" t="n">
-        <v>37073529</v>
+        <v>24959391</v>
       </c>
       <c r="J104" s="13" t="n">
-        <v>24959391</v>
+        <v>33528881</v>
       </c>
       <c r="K104" s="13" t="n">
-        <v>33528881</v>
+        <v>34237569</v>
       </c>
       <c r="L104" s="13" t="n">
-        <v>34237569</v>
+        <v>35380368</v>
       </c>
       <c r="M104" s="13" t="n">
-        <v>35380368</v>
+        <v>34886364</v>
       </c>
       <c r="N104" s="13" t="n">
-        <v>34886364</v>
+        <v>34914062</v>
       </c>
       <c r="O104" s="13" t="n">
-        <v>34914062</v>
+        <v>35032544</v>
       </c>
       <c r="P104" s="13" t="n">
-        <v>35032544</v>
+        <v>34826367</v>
       </c>
       <c r="Q104" s="13" t="n">
-        <v>34826367</v>
+        <v>39838509</v>
       </c>
       <c r="R104" s="13" t="n">
-        <v>39838509</v>
+        <v>40000000</v>
       </c>
       <c r="S104" s="13" t="n">
-        <v>40000000</v>
+        <v>0</v>
       </c>
       <c r="T104" s="13" t="n">
         <v>0</v>
@@ -15946,103 +15946,103 @@
         <v>0</v>
       </c>
       <c r="V104" s="13" t="n">
-        <v>0</v>
+        <v>69058824</v>
       </c>
       <c r="W104" s="13" t="n">
-        <v>69058824</v>
+        <v>0</v>
       </c>
       <c r="X104" s="13" t="n">
-        <v>0</v>
+        <v>74542857</v>
       </c>
       <c r="Y104" s="13" t="n">
-        <v>74542857</v>
+        <v>72282051</v>
       </c>
       <c r="Z104" s="13" t="n">
-        <v>72282051</v>
+        <v>75431373</v>
       </c>
       <c r="AA104" s="13" t="n">
-        <v>75431373</v>
-      </c>
-      <c r="AB104" s="13" t="n">
         <v>74900685</v>
       </c>
-      <c r="AC104" s="13" t="s">
-        <v>57</v>
+      <c r="AB104" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC104" s="13" t="n">
+        <v>120316129</v>
       </c>
       <c r="AD104" s="13" t="n">
-        <v>120316129</v>
+        <v>120108696</v>
       </c>
       <c r="AE104" s="13" t="n">
-        <v>120108696</v>
+        <v>119916318</v>
       </c>
       <c r="AF104" s="13" t="n">
-        <v>119916318</v>
+        <v>120333333</v>
       </c>
       <c r="AG104" s="13" t="n">
-        <v>120333333</v>
+        <v>119722380</v>
       </c>
       <c r="AH104" s="13" t="n">
-        <v>119722380</v>
+        <v>119853270</v>
       </c>
       <c r="AI104" s="13" t="n">
-        <v>119853270</v>
+        <v>121863539</v>
       </c>
       <c r="AJ104" s="13" t="n">
-        <v>121863539</v>
+        <v>133857143</v>
       </c>
       <c r="AK104" s="13" t="n">
-        <v>133857143</v>
+        <v>140160643</v>
       </c>
       <c r="AL104" s="13" t="n">
-        <v>140160643</v>
+        <v>140329861</v>
       </c>
       <c r="AM104" s="13" t="n">
-        <v>140329861</v>
+        <v>140098101</v>
       </c>
       <c r="AN104" s="13" t="n">
-        <v>140098101</v>
+        <v>138666667</v>
       </c>
       <c r="AO104" s="13" t="n">
         <v>138666667</v>
       </c>
       <c r="AP104" s="13" t="n">
-        <v>138666667</v>
+        <v>139879310</v>
       </c>
       <c r="AQ104" s="13" t="n">
-        <v>139879310</v>
+        <v>44618729</v>
       </c>
       <c r="AR104" s="13" t="n">
-        <v>44618729</v>
+        <v>175794872</v>
       </c>
       <c r="AS104" s="13" t="n">
-        <v>175794872</v>
+        <v>176455769</v>
       </c>
       <c r="AT104" s="13" t="n">
-        <v>176455769</v>
-      </c>
-      <c r="AU104" s="13" t="n">
         <v>175808917</v>
       </c>
-      <c r="AV104" s="13" t="s">
-        <v>57</v>
+      <c r="AU104" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV104" s="13" t="n">
+        <v>244603774</v>
       </c>
       <c r="AW104" s="13" t="n">
-        <v>244603774</v>
+        <v>247079365</v>
       </c>
       <c r="AX104" s="13" t="n">
-        <v>247079365</v>
+        <v>232386667</v>
       </c>
       <c r="AY104" s="13" t="n">
-        <v>232386667</v>
+        <v>187056818</v>
       </c>
       <c r="AZ104" s="13" t="n">
-        <v>187056818</v>
+        <v>150491935</v>
       </c>
       <c r="BA104" s="13" t="n">
-        <v>150491935</v>
+        <v>146096154</v>
       </c>
       <c r="BB104" s="13" t="n">
-        <v>146096154</v>
+        <v>146368421</v>
       </c>
     </row>
   </sheetData>
